--- a/data/data_clean/vagas_gupy_clean.xlsx
+++ b/data/data_clean/vagas_gupy_clean.xlsx
@@ -700,7 +700,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -890,7 +890,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Cesta de natal', 'Ginástica laboral', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Cesta de natal', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Programa de treinamentos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Participação nos Lucros ou Resultados', 'Programa de treinamentos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R18" t="n">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R21" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio creche']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche']</t>
         </is>
       </c>
       <c r="R24" t="n">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R25" t="n">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>['Auxílio academia', 'Ginástica laboral', 'Restaurante interno', 'Seguro de vida']</t>
+          <t>['Auxílio academia', 'Day off aniversário', 'Ginástica laboral', 'Restaurante interno', 'Seguro de vida']</t>
         </is>
       </c>
       <c r="R27" t="n">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Seguro de vida', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R28" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Day off aniversário', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R30" t="n">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Day off aniversário', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R31" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio desenvolvimento']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio desenvolvimento']</t>
         </is>
       </c>
       <c r="R35" t="n">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio farmácia', 'Ginástica laboral', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio farmácia', 'Day off aniversário', 'Ginástica laboral', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R36" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R38" t="n">
@@ -4544,7 +4544,11 @@
           <t>Não informado</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>['Vale-refeição']</t>
+        </is>
+      </c>
       <c r="R44" t="n">
         <v>6667309</v>
       </c>
@@ -4827,7 +4831,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R47" t="n">
@@ -4922,7 +4926,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R48" t="n">
@@ -5017,7 +5021,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>['Auxílio home office', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Auxílio home office', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R49" t="n">
@@ -5202,7 +5206,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Programa de remuneração variável', 'Sala de Jogos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Day off aniversário', 'Programa de remuneração variável', 'Sala de Jogos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R51" t="n">
@@ -5573,7 +5577,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio farmácia', 'Clube de vantagens', 'Horário flexível', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio farmácia', 'Clube de vantagens', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R55" t="n">
@@ -5668,7 +5672,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio farmácia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio farmácia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R56" t="n">
@@ -5763,7 +5767,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R57" t="n">
@@ -5858,7 +5862,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R58" t="n">
@@ -6044,7 +6048,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Convênio com empresas parceiras', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Convênio com empresas parceiras', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R60" t="n">
@@ -6229,7 +6233,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Horário flexível', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Horário flexível', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R62" t="n">
@@ -6415,7 +6419,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R64" t="n">
@@ -6510,7 +6514,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R65" t="n">
@@ -6604,7 +6608,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R66" t="n">
@@ -6698,7 +6702,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>['Convênio com empresas parceiras', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Convênio com empresas parceiras', 'Day off aniversário', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R67" t="n">
@@ -6793,7 +6797,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio estacionamento', 'Auxílio home office', 'Consignado', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio estacionamento', 'Consignado', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R68" t="n">
@@ -6888,7 +6892,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Programa de treinamentos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Programa de treinamentos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R69" t="n">
@@ -7168,7 +7172,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio creche', 'Auxílio home office']</t>
+          <t>['Assistência médica', 'Auxílio creche', 'Auxílio home office', 'Day off aniversário', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R72" t="n">
@@ -7358,7 +7362,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Previdência privada']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Day off aniversário', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R74" t="n">
@@ -7544,7 +7548,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Auxílio home office', 'Horário flexível', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Auxílio home office', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R76" t="n">
@@ -7915,7 +7919,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Previdência privada', 'Refeitório', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio desenvolvimento', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Refeitório', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R80" t="n">
@@ -8101,7 +8105,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>['Convênio com empresas parceiras', 'Ginástica laboral', 'Vale-refeição']</t>
+          <t>['Assistência psicológia', 'Convênio com empresas parceiras', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R82" t="n">
@@ -8378,7 +8382,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio home office', 'Café da manhã', 'Massoterapia', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Café da manhã', 'Massoterapia', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R85" t="n">
@@ -8654,7 +8658,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio estacionamento', 'Auxílio home office', 'Horário flexível', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio estacionamento', 'Day off aniversário', 'Horário flexível', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R88" t="n">
@@ -8749,7 +8753,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Auxílio academia', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Seguro de vida']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida']</t>
         </is>
       </c>
       <c r="R89" t="n">
@@ -8844,7 +8848,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio farmácia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R90" t="n">
@@ -9211,7 +9215,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R94" t="n">
@@ -9488,7 +9492,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Clube de vantagens', 'Programa de remuneração variável', 'Restaurante interno', 'Seguro de vida', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Clube de vantagens', 'Day off aniversário', 'Programa de remuneração variável', 'Restaurante interno', 'Seguro de vida', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R97" t="n">
@@ -9673,7 +9677,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Horário flexível', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Horário flexível', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R99" t="n">
@@ -10044,7 +10048,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Day off aniversário', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R103" t="n">
@@ -10234,7 +10238,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Desconto em produtos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Day off aniversário', 'Desconto em produtos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R105" t="n">
@@ -10515,7 +10519,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R108" t="n">
@@ -10705,7 +10709,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Cesta de natal', 'Ginástica laboral', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Cesta de natal', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R110" t="n">
@@ -10800,7 +10804,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>['Convênio com empresas parceiras', 'Ginástica laboral', 'Vale-refeição']</t>
+          <t>['Assistência psicológia', 'Convênio com empresas parceiras', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R111" t="n">
@@ -10990,7 +10994,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio home office', 'Cesta de natal']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio home office', 'Cesta de natal', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R113" t="n">
@@ -11085,7 +11089,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Day off aniversário', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R114" t="n">
@@ -11180,7 +11184,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Auxílio creche', 'Auxílio home office', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio home office', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R115" t="n">
@@ -11460,7 +11464,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R118" t="n">
@@ -11650,7 +11654,7 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio fretado', 'Auxílio home office', 'Clube de vantagens', 'Refeitório', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio fretado', 'Clube de vantagens', 'Day off aniversário', 'Refeitório', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R120" t="n">
@@ -11840,7 +11844,7 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-cultura', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-cultura', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R122" t="n">
@@ -12125,7 +12129,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R125" t="n">
@@ -12309,7 +12313,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R127" t="n">
@@ -12404,7 +12408,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio home office', 'Café da manhã', 'Massoterapia', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Café da manhã', 'Massoterapia', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R128" t="n">
@@ -12499,7 +12503,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R129" t="n">
@@ -12784,7 +12788,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio estacionamento', 'Auxílio farmácia', 'Ginástica laboral', 'Previdência privada', 'Programa de treinamentos', 'Refeitório', 'Sala de Jogos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio creche', 'Auxílio estacionamento', 'Auxílio farmácia', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Refeitório', 'Sala de Jogos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R132" t="n">
@@ -13522,7 +13526,7 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>['Clube de vantagens', 'Vale-refeição']</t>
+          <t>['Auxílio academia', 'Clube de vantagens', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R140" t="n">
@@ -13617,7 +13621,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R141" t="n">
@@ -13803,7 +13807,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R143" t="n">
@@ -13993,7 +13997,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R145" t="n">
@@ -14088,7 +14092,7 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio farmácia', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio farmácia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R146" t="n">
@@ -14277,7 +14281,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Café da manhã', 'Participação nos Lucros ou Resultados', 'Refeitório', 'Seguro de vida', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Café da manhã', 'Participação nos Lucros ou Resultados', 'Refeitório', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R148" t="n">
@@ -14744,7 +14748,7 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio desenvolvimento']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio desenvolvimento']</t>
         </is>
       </c>
       <c r="R153" t="n">
@@ -15120,7 +15124,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R157" t="n">
@@ -15215,7 +15219,7 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R158" t="n">
@@ -15310,7 +15314,7 @@
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R159" t="n">
@@ -15405,7 +15409,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Programa de remuneração variável']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Programa de remuneração variável']</t>
         </is>
       </c>
       <c r="R160" t="n">
@@ -15686,7 +15690,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Consignado', 'Horário flexível', 'Restaurante interno']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Consignado', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Restaurante interno']</t>
         </is>
       </c>
       <c r="R163" t="n">
@@ -15781,7 +15785,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Clube de vantagens', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Clube de vantagens', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R164" t="n">
@@ -15971,7 +15975,7 @@
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio fretado', 'Auxílio home office', 'Cesta de natal', 'Convênio com empresas parceiras', 'Previdência privada', 'Restaurante interno', 'Seguro de vida', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio fretado', 'Cesta de natal', 'Convênio com empresas parceiras', 'Previdência privada', 'Restaurante interno', 'Seguro de vida', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R166" t="n">
@@ -16066,7 +16070,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R167" t="n">
@@ -16161,7 +16165,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio home office', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Day off aniversário', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R168" t="n">
@@ -16442,7 +16446,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R171" t="n">
@@ -16537,7 +16541,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R172" t="n">
@@ -16632,7 +16636,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R173" t="n">
@@ -16727,7 +16731,7 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R174" t="n">
@@ -16822,7 +16826,7 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Horário flexível', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R175" t="n">
@@ -16917,7 +16921,7 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Cesta básica', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Cesta básica', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R176" t="n">
@@ -17012,7 +17016,7 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R177" t="n">
@@ -17107,7 +17111,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R178" t="n">
@@ -17650,7 +17654,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Seguro de vida', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R184" t="n">
@@ -17745,7 +17749,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Seguro de vida', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R185" t="n">
@@ -17935,7 +17939,7 @@
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R187" t="n">
@@ -18030,7 +18034,7 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>['Assistência médica']</t>
+          <t>['Assistência médica', 'Day off aniversário', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R188" t="n">
@@ -18125,7 +18129,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R189" t="n">
@@ -18313,11 +18317,7 @@
           <t>Sim</t>
         </is>
       </c>
-      <c r="Q191" t="inlineStr">
-        <is>
-          <t>['Auxílio home office']</t>
-        </is>
-      </c>
+      <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
         <v>5195236</v>
       </c>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Convênio com empresas parceiras', 'Seguro de vida']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R194" t="n">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Day off aniversário', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R195" t="n">
@@ -18786,7 +18786,7 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>['Auxílio desenvolvimento']</t>
+          <t>['Auxílio desenvolvimento', 'Day off aniversário']</t>
         </is>
       </c>
       <c r="R196" t="n">
@@ -19249,7 +19249,7 @@
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Horário flexível', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R201" t="n">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R204" t="n">
@@ -19789,7 +19789,7 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Consignado', 'Cooperativa de crédito', 'Previdência privada', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Consignado', 'Cooperativa de crédito', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R207" t="n">
@@ -20219,7 +20219,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio desenvolvimento', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R212" t="n">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R216" t="n">
@@ -20654,7 +20654,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Clube de vantagens', 'Consignado', 'Convênio com empresas parceiras', 'Ginástica laboral', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio farmácia', 'Clube de vantagens', 'Consignado', 'Convênio com empresas parceiras', 'Day off aniversário', 'Ginástica laboral', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R217" t="n">
@@ -20844,7 +20844,7 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R219" t="n">
@@ -21034,7 +21034,7 @@
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Participação nos Lucros ou Resultados', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R221" t="n">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Café da manhã', 'Convênio com empresas parceiras', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Sala de Jogos']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Café da manhã', 'Convênio com empresas parceiras', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Sala de Jogos']</t>
         </is>
       </c>
       <c r="R224" t="n">
@@ -21500,7 +21500,7 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Day off aniversário', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R226" t="n">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R229" t="n">
@@ -21965,7 +21965,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>['Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R231" t="n">
@@ -22155,7 +22155,7 @@
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R233" t="n">
@@ -22250,7 +22250,7 @@
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R234" t="n">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Horário flexível', 'Restaurante interno', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Day off aniversário', 'Horário flexível', 'Restaurante interno', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R236" t="n">
@@ -22626,7 +22626,7 @@
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Convênio com empresas parceiras', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Convênio com empresas parceiras', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R238" t="n">
@@ -22812,7 +22812,7 @@
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Horário flexível']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Day off aniversário', 'Horário flexível', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R240" t="n">
@@ -22907,7 +22907,7 @@
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Desconto em produtos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Day off aniversário', 'Desconto em produtos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R241" t="n">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Ginástica laboral', 'Horário flexível', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Day off aniversário', 'Ginástica laboral', 'Horário flexível', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R245" t="n">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Auxílio home office', 'Convênio com empresas parceiras', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R246" t="n">
@@ -23469,7 +23469,7 @@
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio desenvolvimento', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R247" t="n">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio home office', 'Horário flexível', 'Programa de treinamentos']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio home office', 'Horário flexível', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R248" t="n">
@@ -24212,7 +24212,7 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R255" t="n">
@@ -24588,7 +24588,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio creche', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Auxílio academia', 'Auxílio creche', 'Day off aniversário', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R259" t="n">
@@ -25136,7 +25136,7 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R265" t="n">
@@ -25231,7 +25231,7 @@
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R266" t="n">
@@ -25326,7 +25326,7 @@
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R267" t="n">
@@ -25511,7 +25511,7 @@
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio fretado', 'Auxílio home office', 'Clube de vantagens', 'Refeitório', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio fretado', 'Clube de vantagens', 'Day off aniversário', 'Refeitório', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R269" t="n">
@@ -25978,7 +25978,7 @@
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R274" t="n">
@@ -26164,7 +26164,7 @@
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R276" t="n">
@@ -26259,7 +26259,7 @@
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio home office', 'Horário flexível', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R277" t="n">
@@ -26354,7 +26354,7 @@
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R278" t="n">
@@ -26449,7 +26449,7 @@
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R279" t="n">
@@ -26820,7 +26820,7 @@
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Auxílio home office', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Auxílio home office', 'Day off aniversário', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R283" t="n">
@@ -27006,7 +27006,7 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>['Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R285" t="n">
@@ -27196,7 +27196,7 @@
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R287" t="n">
@@ -27379,7 +27379,7 @@
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Auxílio farmácia', 'Clube de vantagens', 'Horário flexível', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Auxílio farmácia', 'Clube de vantagens', 'Day off aniversário', 'Horário flexível', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R289" t="n">
@@ -27474,7 +27474,7 @@
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R290" t="n">
@@ -27659,7 +27659,7 @@
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Clube de vantagens', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Clube de vantagens', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R292" t="n">
@@ -28121,7 +28121,7 @@
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio home office', 'Horário flexível', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R297" t="n">
@@ -28216,7 +28216,7 @@
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio home office', 'Horário flexível', 'Vale-alimentação']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Vale-alimentação']</t>
         </is>
       </c>
       <c r="R298" t="n">
@@ -28402,7 +28402,7 @@
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R300" t="n">
@@ -28497,7 +28497,7 @@
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R301" t="n">
@@ -29134,7 +29134,7 @@
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
+          <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
       <c r="R308" t="n">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
+          <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio desenvolvimento', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
       <c r="R314" t="n">

--- a/data/data_clean/vagas_gupy_clean.xlsx
+++ b/data/data_clean/vagas_gupy_clean.xlsx
@@ -864,7 +864,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -15383,7 +15383,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -15664,7 +15664,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -16139,7 +16139,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -16420,7 +16420,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -16705,7 +16705,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -16800,7 +16800,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -20723,7 +20723,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -20818,7 +20818,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -21198,7 +21198,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -21474,7 +21474,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -21569,7 +21569,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -21754,7 +21754,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -21939,7 +21939,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -22509,7 +22509,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -22695,7 +22695,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -22786,7 +22786,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -23067,7 +23067,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -23158,7 +23158,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -23253,7 +23253,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -23443,7 +23443,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -23538,7 +23538,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -23633,7 +23633,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -24657,7 +24657,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -24839,7 +24839,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -25110,7 +25110,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -25766,7 +25766,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -25861,7 +25861,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -26047,7 +26047,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -26233,7 +26233,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -26518,7 +26518,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -27265,7 +27265,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -27353,7 +27353,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -27543,7 +27543,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -27728,7 +27728,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -28095,7 +28095,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -28190,7 +28190,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -28376,7 +28376,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -28471,7 +28471,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -29637,7 +29637,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>Todo o Brasil</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">

--- a/data/data_clean/vagas_gupy_clean.xlsx
+++ b/data/data_clean/vagas_gupy_clean.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S315"/>
+  <dimension ref="A1:T315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,10 +521,15 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>codigo_vaga</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>descricao</t>
         </is>
@@ -598,20 +603,29 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>['Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
         <v>6711345</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Descrição da vagaVenha se juntar com a gente na Unidade Jasson Oliveira &amp; Co!Sobre o ambiente de trabalho, é importante você saber que:Somos guiados por atitudes claras e transparentes em nossa rotina, que nos permitem fazer o máximo para nossos clientes. Trabalhamos de modo colaborativo, o que significa que confiamos nas pessoas que estão do nosso lado.﻿Aqui ninguém é empregado de ninguém. O ambiente é o mais horizontal possível, possibilitando a sua autonomia para tomar as melhores decisões para as atividades pelas quais você é responsável. Não espere pelos outros aquilo que você pode fazer por si mesmo.
 Responsabilidades e atribuiçõesAlguns dos desafios que você vai encarar:Criação do processo completo de BI e Dashboards no Power BI;Reuniões e rotinas do Departamento;Criação de ferramentas no Excel/Power BI;Treinamentos gerais para os Cientistas (Análise de Dados, Utilização dos Dashboards, Sugestões de Apresentação de Resultados).Trackeamento completo;Configuração de contas de anúncio;Integrações via Zapier (e outros).
@@ -692,7 +706,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -703,10 +721,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
         <v>6710537</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Descrição da vagaA Neo está buscando uma pessoa Analista de Dados para controlar a coleta, o processamento e a organização dos dados nas mais diversas áreas da empresa.Você será a pessoa indicada para analisar dados quantitativos e organizar dados não estruturados, transformando-os em informações relevantes que embasarão o processo de tomada de decisão. Para fazer bem este trabalho, estamos buscando um perfil que tenha pensamento analítico e seja capaz de automatizar demandas.Em última análise, seu trabalho será parte integrante de nossos esforços para garantir que a empresa adote a metodologia orientada a dados em todos os seus processos decisórios.
 Responsabilidades e atribuiçõesExtrair bases de dados e padronizar informações, organizando o banco de dados.Construir apresentações e relatórios dos estudos realizados em Power BI.Realizar levantamento de requisitos e mapeamento de processos para organização dos dados;Participar de reuniões gerenciais para apresentação de relatórios.Executar a pesquisa de satisfação de atendimento das demandas, bem como mineração, documentação e definições de dados;Ser responsável por propor e implementar ferramentas para o uso interno da área de dados, visando aumentar a maturidade e agilidade de desenvolvimento do time.Ajudar no gerenciamento de projetos internos do time de Análise de Dados.Oferecer suporte às demandas de extração de dados e visualizações de dados.
@@ -787,7 +810,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -798,10 +825,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
         <v>6709810</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Descrição da vagaCom mais de 12 anos no mercado, a MESHA Tecnologia se destaca em sua essência por carregar valores que prezam principalmente pela diversidade, valorização do lado humano e meritocracia, construindo assim um relação familiar entre os colaboradores, trabalhando com alocação presencial e remota de Squads e alocação de profissionais na área de TI.Habilidades:Proatividade;Facilidade de comunicação.
 Responsabilidades e atribuiçõesDesenvolver e manter ETLs e Dashboards;Gerenciar volume, variedade, velocidade e veracidade dos dados;Criação de Queries em SQL;Suporte ao usuário dos dashboards.
@@ -882,7 +914,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -893,10 +929,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
         <v>6709335</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Descrição da vagaCom mais de 12 anos no mercado, a MESHA Tecnologia se destaca em sua essência por carregar valores que prezam principalmente pela diversidade, valorização do lado humano e meritocracia, construindo assim um relação familiar entre os colaboradores, trabalhando com alocação presencial e remota de Squads e alocação de profissionais na área de TI.Habilidades:Proatividade;Facilidade de comunicação.
 Responsabilidades e atribuiçõesDesenvolver e manter ETLs e Dashboards;Gerenciar volume, variedade, velocidade e veracidade dos dados;Criação de Queries em SQL;Suporte ao usuário dos dashboards.
@@ -977,7 +1018,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -988,10 +1033,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Clube de vantagens', 'Consignado', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
         <v>6609585</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Descrição da vagaQuer fazer parte de uma das mais relevantes empresas do mercado brasileiro? Nós, do grupo OLX, estamos de portas abertas para você!Somos uma empresa 100% digital, com tecnologia desenvolvida localmente e líder no mercado de compra e venda online. Nos tornamos a marca que melhor representa a economia circular no país. Hoje contamos com dois escritórios nas cidades de Rio de Janeiro e São Paulo. Queremos proporcionar às nossas pessoas um trabalho que seja flexível, que se adapte ao dia a dia das nossas pessoas. Tudo isso com bastante equilíbrio entre o remoto e os encontros presenciais, que são tão importantes para criarmos conexão com quem trabalhamos.Disciplina, protagonismo, conexão e o propósito do negócio norteiam nosso modelo de trabalho. Para isso possuímos Políticas que sustentam não só nosso modelo de trabalho flexível, como também auxiliam na prática do Nosso Jeito de Ser, Nosso Jeito de Aprender e no Nosso Jeito de Liderar.
 Responsabilidades e atribuiçõesSe você gosta de aprender e quer fazer parte desse desafio, essa oportunidade é a sua chance. Nessa posição de Analista de Dados Pleno, você irá somar ao time de Product Analytics que tem como objetivo trazer valor aos nossos usuários por meio de insights e recomendações aos times de Produto.No dia a dia você vai:Identificar novas oportunidades de produto através da análise de padrões de comportamento de usuários e da eficiência de sistemas e funcionalidades;Liderar investigação quantitativa de problemas junto ao time de produto, confirmando sua ocorrência e provendo informações para auxiliar na priorização e solução;Apoiar os PMs e os times na definição e no mapeamento de KPIs, automatizando o cálculo e a visualização, gerindo o monitoramento e entendimento dessas métricas e considerando as dimensões apropriadas para a análise de cada indicador;Coletar e analisar dados de mercado, tanto tendências como concorrência, para apoiar os times de produto na decisão de quais problemas devem ser resolvidos e de que maneira. 
@@ -1072,7 +1122,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -1083,10 +1137,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
         <v>6703240</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO Processo Seletivo 2024.1 EloGroup começou!Somos uma consultoria de transformação com um abordagem integrada da Estratégia até o Delivery das soluções, combinando tecnologia, analytics e gestão. Nossa visão de fazer consultoria de forma parceira na transformação e na promoção dos nossos clientes, é capaz de gerar impactos reais e duradouros nos seus negócios.   Nosso maior ativo é um time multidisciplinar de mais de 500 talentos bem preparados em diversas competências e, acima de tudo, com uma vontade enorme de aprender, se desenvolver e que trabalha de forma conjunta e colaborativa para a construção das melhores soluções. Destravar todo esse potencial só é possível com uma cultura única e um ambiente diverso que inspiram e engajam tanto os clientes quanto os talentos em uma espiral positiva de transformação no ecossistema em que fazem parte.  Para nos conhecer melhor, converse com um(a) EloGrouper, participe dos nossos debates com o mercado e compreenda um pouco mais dessa realidade através das pessoas que fazem parte dela. Se inscreva em nossos processos seletivos, conheça as carreiras e oportunidades abertas!  ﻿Etapas do Processo:Cadastro e Testes online - até 23/02/2024Para participar do nosso processo é necessário concluir o cadastro e o teste de lógica até o dia 23/02!Crack the DataAs pessoas candidatas aprovadas na etapa anterior, receberão o convite por e-mail para participar do Crack the Data. Os eventos serão online, via Zoom, e serão momentos de troca com nosso time técnico, com a oportunidade de conhecer um pouco mais sobre a EloGroup, as carreiras e os principais desafios dos nossos projetos.EntrevistaApós o Crack the Data, um desafio técnico será enviado para as pessoas candidatas por e-mail informando o prazo para envio da solução. Apenas as soluções enviadas no prazo serão consideradas para correção e apresentação para o time técnico na entrevista. Além disso, este será o momento para a Fit Interview.Resultado final – A partir de 18/03
 Responsabilidades e atribuiçõesNa EloGroup você terá oportunidade de participar de diversos projetos, com diferentes temáticas, como análise e previsão de séries temporais, NLP, modelos de LLM, otimização junto à grandes instituições de múltiplas indústriasNo seu dia-a-dia como Analista de Ciência de Dados, você será responsável por: Realizar agregação e manipulação de forma eficiente em bases de dados; Realizar análises de dados conclusivas, a partir de contextos de negócio; Participar do desenvolvimento de modelos e algoritmos que tragam resultados de negócio;Estar em constante comunicação com os membros da equipe para transmitir resultados (baseados em dados) de forma eficiente e clara.Além disso, você estará em comunicação com diferentes perfis para:Se desenvolver como profissional de ciência de dados;Compartilhar conhecimento;Aprender sobre diferentes tecnologias e temáticas técnicas e não técnicas.
@@ -1167,7 +1226,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -1178,10 +1241,11 @@
           <t>['Assistência médica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Horário flexível', 'Programa de remuneração variável', 'Sala de Jogos', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
         <v>6706864</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Descrição da vagaCarregamos a nobre missão de democratizar o acesso à saúde em nosso país, através da tecnologia de ponta. É um grande propósito para se acreditar, não é? 💜Então VEM SER UM #HEALTHER TAMBÉM! Faça parte da nossa nave e vamos decolar juntos!O Analista de Banco de Dados é o profissional responsável por atuar com administração de banco de dados, desenvolver melhorias, identificar e solucionar problemas. Ele acompanha o desenvolvimento de projetos e programação de banco de dados corporativos.Se você preenche os requisitos e está disposto a conhecer uma tecnologia e uma empresa que vai agregar ainda mais valor à sua trajetória profissional, então vem com a gente!
 Responsabilidades e atribuiçõesRealizar buscas em banco de dados utilizando SQL para a criação de relatórios internos da empresa e para clientes;Padronizar dados de importação de clientes para o nossos modelos para que a equipe de Data Science posso inserir na nossa base de dados;Efetuar consultas em banco para sanar dúvidas vindas da equipe de suporte da empresa;Otimização de consultas em banco de dados.
@@ -1262,7 +1326,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -1273,10 +1341,15 @@
           <t>['Assistência médica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
         <v>6706228</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê quer fazer parte da equipe Qualidados?Estamos procurando por profissionais com conhecimento e experiência na área, com perfil proativo, organizado, liderança, boa comunicação, espirito de colaboração, inovador, que gosta de desafios, além de ter agilidade e assertividade nas entregas.﻿Vagas também para PCD conforme decreto: 5.296 de 02/12/2004.
 Responsabilidades e atribuições- Desenvolvimento e gestão de soluções sistêmicas de alta complexidade, incluindo coordenação de projetos, mapeamento de processos, desenvolvimento de padrões e documentos relacionados aos sistemas, e suporte técnico e treinamento a usuários nos diversos sistemas;- Desenvolvimento de Painéis BI, incluindo suporte a usuários e treinamento, além de análises para suporte a decisões de negócios incluindo dashboards em Grafana);- Gestão de dados estruturados e suas interfaces com diferentes sistemas e disciplinas;- Modelagem, Estruturação e Análise de dados e indicadores de Manutenção e Inspeção;- Modelagem, Construção e Gestão de banco de dados;- Gerir, suportar e assessorar diferentes equipes com o uso de sistemas informatizados para suporte a área de Manutenção de plantas industriais do segmento exploração e produção de petróleo e gás ou no segmento de refino de petróleo e derivados ou ainda no segmento de plantas químicas e petroquímicas;- Desenvolver sistemas de alta complexidade para a área de manutenção e confiabilidade e de suporte à gestão.
@@ -1357,7 +1430,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -1368,10 +1445,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
         <v>6694652</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos aproximadamente 50k Minsaiters no Mundo e mais de 9k Minsaiters no Brasil e estamos presentes nas maiores empresas em todos os setores. Nossa estrutura permite participar de projetos globais e proporciona um ambiente colaborativo que nos certifica em GreatPlacesToWork e planos diferenciados para Jovens Profissionais também reconhecidos pela Employers for Youth. Você atuará no nosso time de Serviços Financeiros &amp; Seguros em um projeto estratégico, utilizando metodologias ágeis e em um ambiente de inovação.Buscamos profissionais com senso de dono, comprometidos com o sucesso do nosso cliente e com o desenvolvimento da sua carreira dentro da MinsaitVocê será um pilar fundamental nos melhores e maiores projetos de TI do Brasil e em nível global.Venha ser um Minsaiter!
 Responsabilidades e atribuições💼 Responsabilidades:Apoiar nas ações comerciais, através de segmentação de público para campanhas, avaliação de resultados das campanhas, geração de bases com foco em campanhas. Fará extração de dados via SAS, SQL e também em Bases Teradata em um grande Banco nacional. O perfil: analítico, critico, ter interesse em se aprofundar no negocio de Campanhas de Produtos Bancários.
@@ -1452,7 +1534,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -1463,10 +1549,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
         <v>6663872</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos o Grupo Casas Bahia, com mais de 70 anos de história, realizando os sonhos de +90 milhões de brasileiros. Estamos indo muito além do varejo, em uma jornada que coloca o cliente no centro de tudo. Por aqui, a dedicação total nunca foi tão forte!O Analista de Negócios Sênior em CRM terá como principal responsabilidade analisar oportunidades em todas as etapas do funil de marketing e vendas, implementando ações específicas. No dia a dia, realizará o monitoramento dos KPIs de comunicação, analisando o funil de conversão e otimizando canais de CRM. Reportará indicadores relevantes para a equipe interna e outros departamentos, proporcionando direcionamento estratégico para desenvolvimento de briefings de comunicação. Além disso, se dedicará ao desenvolvimento e análise de resultados dos canais, gerando estudos e identificando tendências em grandes conjuntos de dados.
 Responsabilidades e atribuiçõesAnalisar oportunidades em cada etapa do funil de marketing e vendas, identificando ações específicas para cada uma delas. Monitorar os KPI' s de comunicação: Atribuição de resultado, análise do funil de conversão mapeando oportunidades de comunicação e otimização via os canais de CRM. Análise de campanhas para entendimento do CLV, ROI, Lift e afins para auxiliar a tomada de decisões estratégicas; Reportar todos os indicadores relevantes para a área, tanto pro time interno, quanto para outros times e departamentos; Direcionamento estratégico para desenvolvimento de briefing de comunicação para agência in-house e time para performance de resultados; Desenvolvimento e análise de resultados dos canais para definição de ações de melhor adesão; Geração de estudos, levantamento de hipóteses e informações x necessidades de bases e segmentos; Gestão para garantir a qualidade na extração de dados para seleção de público; Analisar grandes conjuntos de dados para identificar tendências, prever comportamentos de clientes e mensurar a efetividade das estratégias de CRM; Gestão de tagueamento e estruturação de campanhas em ações de E-mail/Push/SMS/Whatsapp; Condução de projetos de tecnologia para evolução e estruturação do ambiente de CRM, garantindo que sejam concluídos dentro do prazo, do escopo e do orçamento estabelecidos;
@@ -1547,17 +1638,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
         <v>6705480</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaInovação e transformação digital caminham juntas. Na Grendene esses temas fazem parte do nosso dia.Nosso time de TI é nosso grande suporte para a realização de inúmeros sonhos. Inúmeros mesmos!!! São centenas de projetos ganhando vida todos os dias através de um time de profissionais incríveis que parecem fazer mágica todos os dias, e isso é competência mesmo. E eles estão precisando de ajuda. Quer vir fazer parte?
 Responsabilidades e atribuiçõesAnálise de necessidades e desenvolvimento de soluções Analytics;Integração e gestão de dados corporativos;Implementar melhorias em sistemas.
@@ -1638,7 +1738,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -1649,10 +1753,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
         <v>5748930</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Descrição da vagaAQUI SUA CARREIRA COMEÇA GRANDE.VENHA SER UMA PESSOA ANALISTA DE DADOS PL NA YDUQS.Temos um projeto grandioso e que requer um time com disposição para pensar de forma original, disruptiva, e com objetivo de resolver as grandes questões de hoje na educação: acesso, tecnologia, customização e o sucesso dos nossos alunos.Somos uma companhia cheia de energia, que já nasceu gigante e com resultados extraordinários.Venha fazer parte desse time!VENHA TRANSFORMAR VIDAS. INCLUSIVE A SUA.
 Responsabilidades e atribuiçõesSeu principal desafio como ANALISTA DE DADOS será:Participar do desenvolvimento de soluções em dados tais como extrações, relatórios, analises e visualizações para apoiar a tomada de decisão e resolver problemas de negócio.Atividades:Coletar, agrupar, organizar, analisar e explorar dados gerando insights para o negócio;Desenvolver visualizações, relatórios e dashboards, para expressar de maneira clara e efetiva potenciais oportunidades para o negócio;Desenvolver consultas SQL ou Python para manipular dados e gerar dados analíticos;Interagir com as áreas de negócio, identificando processos, levantando requisitos, necessidades do negócio e propondo soluções;Utilizar ferramentas analíticas como Synapse, Dremio, Databricks, Mongo DB entre outros para manipular e analisar dados e prover soluções (Diferencial);Utilizar ferramentas Power Plataform como Automate e Power App para automatização e melhoria de processo (Diferencial).
@@ -1733,7 +1842,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -1744,10 +1857,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>['Power BI']</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
         <v>6653979</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Descrição da vagaSobre a Alper Seguros Para proteger tudo que mais importa é preciso ter ao seu lado pessoas em que você possa confiar. Por isso criamos a ALPER, uma das maiores corretoras de seguros do país e a única listada na bolsa de valores, B3. Aqui, nossos clientes contam com um time de especialistas que trabalham sempre em busca de soluções para garantir as melhores alternativas e opções em proteção para milhares de empresas.É através de tecnologia, informações, estudos aprofundados e conhecimentos amplo dos nossos especialistas que nós orientamos nossos clientes a tomarem as melhores decisões.Somos a primeira corretora de seguros a promover um programa de aceleração de startups, que trouxe mais tecnologia e inovação para os nossos processos internos e para o sucesso de nossos clientes.Temos o certificado GPTW, pelo quarto ano consecutivo, o que reforça o nosso comprometimento em proporcionar uma excelente experiência também para os nossos colaboradores.
 Responsabilidades e atribuiçõesAtribuições de negócio:- Atuar em conjunto com as áreas de negócio, traduzindo as necessidades e problemas em dados e insights acionáveis; - Construir relatórios e dashboards com base nas necessidades de negócio, revisando, estruturando e/ou automatizando os processos;- Inspirar nossa cultura data driven e ser referência sobre boas práticas para disponibilização de dados.Atribuições técnicas:- Interpretar e analisar sistemas de dados, propondo métodos de acesso que permitam conectividade ao nosso data lake, alinhado com nosso pipeline de engenharia de dados; - Desenhar, em conjunto com parceiros, modelos lógicos e processos que permitam a transcrição de regras de negócio para boas práticas de consumo de dados; - Buscar mecanismos e processos que habilitem a exploração estatística dos dados para novos modelos de qualidade e melhoria contínua do data lake.
@@ -1828,7 +1946,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -1839,10 +1961,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Cesta de natal', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
         <v>6659618</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos em busca de um Analista de Dados para somar no nosso time!Buscamos profissionais com propósito, que sonham grande e que acreditam na força da Cooperação! Nossa cultura é focada em um ambiente inclusivo, diverso e colaborativo, permitindo que as pessoas possam ser elas mesmas! Juntos, construímos valores que são aplicados em nosso dia a dia, no relacionamento com cada cooperado, com o compromisso de tornar a Cresol cada vez mais forte!  Vem ser Cresol você também! 
 Responsabilidades e atribuiçõesDesenvolvimento de painéis, análises e modelo de dados;Apoio as áreas de negócio para estudos baseados em dados;
@@ -1923,7 +2046,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -1934,10 +2061,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
         <v>6703147</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaVocê se identifica com a área de Tecnologia? Gosta de projetos que envolvam sustentação e dados?﻿Estamos em busca de um Analista de Dados para fortalecer nossa equipe. O profissional desempenhará um papel crucial nas análises de dados, Desenvolvendo e aprimorando dashboards e relatórios, automatizando e otimizando soluções de dados por meio da criação de pipelines e workflows, enquanto atua como ponto focal para disseminar a cultura de Dados e MIS, buscando constantemente a evolução dos relatórios com novas ferramentas e abordagens inovadoras.Se você quer desenvolver uma carreira desafiadora e fazer parte de uma equipe dinâmica, nós queremos te conhecer! Conheça nossa história:A nossa história começa em 1994, na Argentina, quando a GIF se estabeleceu como fornecedora estratégica para empresas. Na mesma época, houve uma expansão comercial significativa, que foi acompanhada por um aumento de casos de fraudes. Foi nesse momento que a assumimos a responsabilidade de garantir a segurança das empresas e entramos em ação. Ao longo desses quase 30 anos, a GIF tem trabalhado incansavelmente na prevenção, detecção e combate às fraudes corporativas. Uma história marcada por confiança, dedicação, colaboração, transparência e respeito.
 Responsabilidades e atribuiçõesO que você fará no dia a dia:Dar visibilidade às principais métricas com Dashboards e relatórios;Automação e otimização de solução de dados, criar pipelines e workflows de tarefas.Criação e tratamento de bases de dados, criação e automatização de processos e relatórios;Ser ponto focal e difusor da cultura de Dados e MIS;Buscar constantemente a evolução dos relatórios através de novas ferramentas e visões diferenciadas;Elaborar dashboards para análises gerenciais e acompanhamento de indicadores, utilizando Power BI.Otimizar e automatizar planilhas e controles manuais para aumentar a eficiência operacional.Analisar, modelar, administrar e integrar bancos de dados, bem como os sistemas associados, garantindo aderência ao padrão de segurança de informação, arquitetura e dados;
@@ -2018,17 +2150,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="n">
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
         <v>6700878</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Descrição da vagaNossa área de Estratégia e Tecnologia é um pilar fundamental dos nossos negócios, sendo responsável pela nossa transformação digital. Aqui criamos soluções tecnológicas sempre idealizando e desenvolvendo técnicas e processos de automação, seja para aprimorar a experiência de trabalho das nossas equipes ou aumentar a capacidade de entrega dos nossos produtos e serviços.Nós somos responsáveis por uma infraestrutura gigantesca que atende aos principais produtos de vídeo da Globo, como o Globoplay, Premiere e os Canais Globo. Além disso, somos responsáveis pela transmissão ao vivo de grandes eventos - desde os campeonatos estaduais de futebol, a Copa do Mundo, Olimpíadas, Rock in Rio e até as câmeras ao vivo do Big Brother Brasil, que fica disponível 24x7 para todos os assinantes do Globoplay.Criamos ambientes onde todas as pessoas são incluídas, acolhidas e valorizadas. Nos empenhamos em ser uma Globo cada vez mais diversa, em representatividade e pensamento, aprendendo uns com os outros e estimulando a criatividade e inovação.Acreditamos na intencionalidade para gerar movimentos transformadores, que reconheçam que diferentes grupos sociais partem de diferentes realidades que precisam ser levadas em consideração e acolhidas pelas pessoas e pelo negócio.Equipes representativas trazem inovação inclusiva, nos permitindo criar experiências emocionantes para diferentes tipos de pessoas.Queremos ser cada vez mais o lugar onde todas as pessoas se encontram e, por isso, essa vaga é para você, mulher, que quer crescer e construir o futuro com a gente, nos bastidores de produtos e serviços que impactam a vida de milhões de brasileiros e brasileiras todos os dias. 
 Responsabilidades e atribuiçõesComo será seu dia a dia:  Administração de bancos de dados, incluindo instalação, configuração, monitoramento e manutenção de sistemas de gerenciamento de banco de dados (SGBDs);Assistir na implementação de políticas de segurança e garantir a integridade dos dados;Realizar backups e recuperação de dados em caso de falhas ou desastres;Colaborar com a equipe de desenvolvimento para otimizar consultas e melhorar o desempenho do banco de dados;Participar ativamente na resolução de problemas relacionados a bancos de dados, identificando e solucionando incidentes;Aprender e aplicar práticas recomendadas de administração de banco de dados;Analisar custos nas diferentes clouds.
@@ -2109,7 +2250,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -2120,10 +2265,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Participação nos Lucros ou Resultados', 'Programa de treinamentos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
         <v>6677373</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Descrição da vagaVenha integrar o time de Digital da Portobello Shop, marca referência global em inovação e design de soluções completas de revestimento. Somos a maior rede do varejo especializado no Brasil, movidos desde 1998 pelo propósito de transformar ambientes e emocionar pessoas.Aqui é você quem desenha o próximo passo de sua carreira, em um espaço com autonomia para criar, inovar e transformar. Por isso, se você tem uma visão empreendedora e gosta de trabalhar em equipe para evoluir sempre enquanto colabora com seus colegas, venha fazer parte do futuro do design aqui na Portobello Shop!
 Responsabilidades e atribuiçõesDesenvolver e implementar dashboards na plataforma Tableau;Trabalhar em colaboração com áreas internas para implementar soluções de Analytics que apoiem a tomada de decisão baseada em dados;Realizar análises através de cruzamentos de dados para geração de insights e recomendações para melhoria contínua do resultado e apoio ao time de performance, usando ferramentas analíticas e de automação;Identificar e sugerir novos KPIs para monitoramento de desempenho;Gerar documentação de informações e processos utilizados;Ser um agente para disseminação da cultura Data Driven.
@@ -2204,7 +2354,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -2215,10 +2369,15 @@
           <t>['Seguro de vida']</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python']</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
         <v>6616875</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaEstá preparado(a) para cultivar novas experiências em um time que joga junto e valoriza o melhor de cada um(a)? Aqui, os desafios se tornam oportunidades de inovação que podem impactar na sua trajetória profissional e na vida de milhões no Brasil e no mundo. Nós buscamos pessoas cheias de energia e prontas para agarrar novas oportunidades, que realizem um trabalho que gere valor a nossos clientes e funcionários(as).Buscamos uma(a) Analista Dados Financeiros Pleno, para atuar em nossa unidade em Piracicaba ou São Paulo- SP.
 Responsabilidades e atribuiçõesResponsabilidades do Cargo (principais atividades):  Atualização do Resultado por Bioparque:Rotina mensal de fechamento gerencial por unidade que utiliza um programa em Pandas para compilar e tratar mais de trinta bases de dados.Necessário conhecimento de Python, fluxo de dados e abordagem criativa para resolução de problemas e ajustes no programa. Esse processo também aborda a maior parte dos conceitos de Finanças em EAB  - desde custos, preços e questões contábeis até indicadores operacionais e simulações financeiras. O output desses dados é disponibilizado em Power BI, e suas habilidades de painel serão necessárias para atualizar os visuais existentes e eventualmente propor novas telas. Manuntenção da BU de Custos:Feita no ambiente de Analytics, a BU de Custos é um repositório de todos os dados de Totex EAB. Aqui você precisará dar manutenção a um projeto feito em Airflow que é o core de dados da área, utilizando Spark e diversas APIs. ﻿O output, também em Power BI, será da sua responsabilidade para propor novos visuais, de acordo com as necessidades do cliente.
@@ -2299,17 +2458,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="n">
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
         <v>6653223</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>Descrição da vagaInquietos e Acelerados. Criativos ou Cartesianos. Talentosos e Autodidatas. Artesanais ou Tecnológicos.Não importa: gostamos de diversidade e de quem está aqui para agregar.Porque GENTE É O QUE SOMA.O Fornecimento é a área responsável por todos os fornecedores das produções das marcas Animale, Fábula, Farm, Foxton, e Maria Filó do Grupo SOMA.Nosso objetivo é concretizar os sonhos de cada marca por meio de produtos e soluções inovadoras!Nossa célula de Projetos de Fornecimento é responsável pela implementação das principais melhorias de processo. Buscamos incansavelmente atuar nas maiores alavancas do Fornecimento para melhorar o resultado operacional da área. Somos data-driven, críticos, questionadores e movidos a desafios!
 Responsabilidades e atribuiçõesElaborar e manter indicadores da célula do Fornecimento de Produto;Sugerir e implementar melhorias de processos e indicadores;Análises de dados para suportar tomadas de decisão da liderança;Dar suporte analítico aos projetos e planejamento estratégico da área;Elaborar análise de viabilidade econômica (payback) de Projetos que demandam investimento;Atuar como PO (product owner) dos Projetos, garantindo execução das atividades e cumprimento de prazos.
@@ -2389,7 +2557,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -2400,10 +2572,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
         <v>6693236</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSomos um dos maiores ecossistemas de Negócios SaaS do país e pioneiros na Transformação Digital do setor público. Especialista em simplificar complexidades e criar softwares que solucionam as principais dores dos setores que atuamos, assim, promovemos transformações fundamentais na vida das pessoas.  Possuímos um portfólio de mais de 19 marcas – essa posição é para atuar na solução do Coorporativo. 
 Responsabilidades e atribuiçõesDesenvolvimento de ETLs;Modelagens de dados para o BI;Criação de visualizações no PowerBI;Criação de documentação dos projetos e elaboração de manuais;Monitoramento de cargas;Atuar em projetos de otimização e melhoria.
@@ -2484,17 +2661,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="n">
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
         <v>6691755</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaBuscamos uma pessoa muito proativa, com habilidades para o entendimento de diferentes fontes de dados (na maioria estruturadas), análise e cruzamento de informações, e comunicação dos seus insights para as áreas de negócio.
 Responsabilidades e atribuiçõesImpactar a estratégia comercial da empresa com recomendações para otimização de vendas e redução de despesas.Colaborar com equipes comerciais e de planejamento, identificando oportunidades de melhoria nos processos.Preparar e apresentar análises, principalmente descritivas, entregando periodicamente às diferentes diretorias insights e recomendações de negócios.Definir e criar dashboards para monitoramento de indicadores, bem como realizar análises ad hoc de situações específicas.#LI-KS1
@@ -2575,17 +2761,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="n">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
         <v>6607448</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>Descrição da vagaSobre o Reclame AQUIO Reclame AQUI é a maior plataforma de solução de conflitos entre consumidores e empresas da América Latina! Durante 20 anos de história, temos ajudado a tornar mais simples, fácil e transparente esse relacionamento. Todos os dias, recebemos a visita de milhões de consumidores que pesquisam a reputação e o atendimento das marcas e as experiências de outros consumidores.Somos referência em reputação e confiança nas relações de consumo! Além de um grande gerador de dados, com informações valiosas e únicas de jornadas e experiências de compra que contribuem, inclusive, para que as empresas evoluam no seu processo de atendimento.#VemSerRA #QueroCrescerComRA #oRAéMeuLugar Trabalhamos com pessoas que:- Querem mudar o mundo e gostam de ajudar as pessoas;- Pensam diferente, mas respeitam as diferenças;- Sejam criativas para solucionar e superar os desafios do dia a dia;- Não têm medo de mudanças;- Sabem o seu valor e são gratas;- Acreditam que através da confiança, reputação e transparência é possível melhorar as relações de consumo.Aqui nossos colaboradores são protagonistas e têm a liberdade de criar, transformar, compartilhar, aprender e é isso que nos faz SER FODA! Por isso, todo mundo que entra para nosso time, se torna um Trustmaker!Como diz nosso primeiro mandamento, "As empresas são feitas por pessoas", e aqui no RA a gente tem o compromisso de respeitar a pluralidade da nossa gente e tornar a nossa empresa cada vez mais representativa. Sendo assim, buscamos contratar pessoas independente de gênero, raça, idade, orientação sexual ou deficiência. #EuSouRA #RASouEu
 Responsabilidades e atribuiçõesQual a missão do cargo?Analisar dados de mercado e produzir informações (mercadológicas, financeiras e econômicas, etc.), através de dados do mercado e/ou do banco de dados da organização, proporcionando a geração de informações que subsidiem os gestores nas tomadas de decisão mercadológicas ou estratégicas, organizando, tratando e armazenando os dados, gerando base de informações para relatórios gerenciais, gráficos, apresentações entre outros, visando a satisfação de seus clientes internos e alinhadas com as diretrizes e políticas corporativas, atuando com eventual orientação.Quais serão suas responsabilidades?- Conduzir o levantamento de requisitos e necessidade de cada área solicitante e prover soluções adequadas de BI, atualizando e analisando relatórios de indicadores de performance com o objetivo de apoiar o acompanhamento do negócio e na elaboração de estratégias futuras;- Desenvolver projetos de relatórios de pesquisas de mercado e/ou dados da empresa, envolvendo a definição das hipóteses de pesquisa, objetivos, metodologia utilizada, instrumentos de pesquisa e operacionalização da pesquisa, visando a geração de dados que proporcionem a emissão de relatórios gerenciais para análise e decisões, atuando sob orientação;                                                                   - Analisar e levantar requisitos, definir modelagem e modelos de dados a serem tratados e transformados e estudar a melhor ferramenta para extração de dados, atuando sob eventual orientação;                                                              - Analisar e desenvolver as demandas de soluções técnicas de visibilidade através de ferramentas de BI, entendendo as necessidades do cliente internos e construindo soluções adequadas para aumentar a visibilidade e agilizar o fluxo das informações;- Elaborar relatórios de indicadores de mercado para atender as necessidades/tomadas de decisão das áreas fins.      - Participar de reuniões com os envolvidos no projeto, para entendimento do escopo, regras dos sistemas, funcionalidades e restrições, analisando objetivos e antecipando possíveis restrições, para obter dados para análises da necessidade das solicitações apresentadas e elaboração de propostas de soluções;                                     - Buscar a melhoria contínua dos processos, através do controle, da documentação e da utilização de boas práticas de desenvolvimento e verificação das rotinas operacionais realizando a otimização no uso dos recursos disponíveis;- Executar atividades de administração de banco de dados, elaborando e implementando projetos, efetuando ajustes e recuperações, zelando pela segurança e desempenho dos Sistemas Gerenciadores de Bancos de Dados;- Desenvolver outras atividades inerentes ao cargo ou a critério de seu superior imediato, desde que habilitado e estejam de acordo com o seu conhecimento e experiência;- Prestar suporte aos usuários quanto aos meios adequados de manuseio dos dados conforme necessidades dos diversos setores, dirimindo eventuais dúvidas.
@@ -2666,7 +2861,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -2677,10 +2876,11 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche']</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
         <v>6664571</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA Caju é uma empresa brasileira de tecnologia, que busca dar mais sabor à vida profissional, transformando a relação entre empresas e colaboradores por meio de soluções inovadoras e seguras. Hoje contamos com um único cartão para multi benefícios, despesas, premiação, e também uma plataforma para gestão de colaboradores.Continuamos crescendo o nosso time, buscando por novos talentos que queiram transformar o mundo de benefícios com soluções inovadoras. Aqui na Caju, aprendemos sempre, e nos tornamos cada vez melhores em um ambiente colaborativo e divertido!São muito bem-vindas candidaturas de pessoas negras, mulheres, indígenas, LGBTQIA+, ou outros grupos minorizados. 🧡Inscreva-se e conheça mais sobre nosso time 🧡
 Responsabilidades e atribuiçõesEstratégia de governança de dados: Definir e implementar a estratégia geral de governança de dados. Colaborar com as partes interessadas internas para entender os requisitos, identificar as metas de governança de dados e definir os processos necessários para atingir essas metas.Desenvolvimento de políticas e procedimentos: Desenvolver políticas, padrões e procedimentos para governar a coleta, armazenamento, acesso, uso e descarte de dados. Essas políticas garantem que as melhores práticas sejam seguidas em relação à qualidade, privacidade, segurança e conformidade regulatória dos dados.Monitoramento e conformidade: Responsável por monitorar o cumprimento das políticas e procedimentos de governança de dados em toda a organização. Isso pode envolver a realização de auditorias, revisões periódicas e avaliações de conformidade para garantir que as diretrizes estabelecidas sejam seguidas e que quaisquer problemas ou desvios sejam identificados e resolvidos.Gerenciamento de metadados: Desenvolve e mantém a eficiência do sistema de gerenciamento de metadados. Isso inclui a definição de padrões de metadados, a criação de catálogos de dados e a documentação de informações essenciais sobre os dados, como origem, significado, estrutura e relacionamentos.Colaboração interdepartamental: Atua como ponto focal para todas as questões relacionadas à governança de dados e colabora com equipes multidisciplinares em toda a organização. Isso inclui trabalhar em estreita colaboração com os departamentos de Tech, segurança da informação, LGPD e áreas de negócio para garantir que as práticas de governança de dados sejam integradas em todos os processos e sistemas.Melhoria contínua: O analista está constantemente envolvido em atividades de melhoria contínua para aprimorar a governança de dados na organização. Isso pode envolver a identificação de áreas de risco, a implementação de soluções e a realização de treinamentos para conscientização e educação dos funcionários sobre a importância da governança de dados.
@@ -2761,7 +2961,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -2772,10 +2976,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
         <v>6607967</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>Descrição da vagaEspecialista AminoScience da área de Planejamento.Ajinomoto do Brasil faz parte do Grupo Ajinomoto líder mundial em aminoácidos.Contribuiremos para o bem-estar de todos os seres humanos, da nossa sociedade e do nosso planeta com a "Ciência dos Aminoácidos".Vamos muito além dos temperos. Somos referência em aminoácidos e estamos na mesa da sua casa, no restaurante, no agronegócio, na nutrição animal, nos suplementos, nos cosméticos, e nos medicamentos.A AminoScience é uma divisão de negócios da Ajinomoto, com o objetivo de produzir e comercializar aminoácidos e seus derivados como matéria prima para diversos segmentos, como, por exemplo, indústria alimentícia e de bebidas, nutrição clínica e esportiva, farmacêutica, cosmética, limpeza, veterinária, química e nutrição animal. Para atender a todos estes mercados a divisão AminoScience se subdivide em quatro áreas de negócios: Aminoácidos, Especialidades Químicas, Nutrição Animal e Nutrição Esportiva.A área de Planejamento atua para as quatro áreas de negócio, atendendo e se adequando a todas as particularidades que cada segmento necessita.Para isso buscamos profissionais comprometidos e com conhecimento técnico para afazer parte da nossa equipe.
 Responsabilidades e atribuiçõesAtuar na área de Planejamento da divisão AminoScience da Ajinomoto;Atualizar os relatórios mensais de vendas das áreas de negócios de Aminoácidos (AA), Especialidades Químicas (SC), Nutrição Esportiva (SN) e Nutrição Animal (AN) da divisão AminoScience;Garantir a acuracidade dos dados para análises e acompanhamentos dos resultados da divisão.Atender aos prazos de entrega dos materiais;Atualizar materiais de apresentação de resultado de vendas;Dar suporte nos processos de Budget, Rolling Forecast, Roadmap, na preparação, atualização, desenvolvimento de materiais de análise e simulação que envolvem estes processos;Atender a demais demandas e projetos internos e/ou externos que envolvem o time de Planejamento da divisão AminoScience;Busca por melhoria contínua através de desenvolvimento de projetos que visam aprimorar e otimizar processos e relatórios da divisão.
@@ -2856,7 +3065,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -2867,10 +3080,15 @@
           <t>['Assistência odontológica', 'Auxílio creche', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Programa de treinamentos', 'Refeitório', 'Seguro de vida', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
         <v>6685664</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO Grupo Koch procura por profissionais engajados e motivados em crescer, se você é um profissional dinâmico, que tem interesse em ter contato com diferentes times da companhia, aqui é o seu lugar!#Juntos e Unidos Somos Melhores! E para alcançar nosso potencial ao máximo buscamos por pessoas com alta energia, colaborativas, comprometidas e que busquem por excelência!!Se identificou? Inscreva-se! Queremos conhecer você! 😄Oportunidade para atuar em Itapema/SC em regime presencial;Horário de trabalho: 08:00/ 12:00/ 13:10/ 17:58 de segunda a sexta.#VEMJUNTO!! 🚀
 Responsabilidades e atribuiçõesVocê será responsável por:Analisar e levantar requisitos;Definir modelagem e modelos de dados a serem tratados e transformados;Estudar a melhor forma e ferramenta para extração de dados;Administrar ambiente informatizado;Prestar suporte técnico ao usuário; Elabora documentação técnica;Estabelecer padrões, executar projetos, estár envolvido com as soluções para ambientes informatizados e de pesquisas tecnológicas. 
@@ -2951,7 +3169,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -2962,10 +3184,15 @@
           <t>['Auxílio academia', 'Day off aniversário', 'Ginástica laboral', 'Restaurante interno', 'Seguro de vida']</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
         <v>6554657</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaComo Analista de Dados II, buscamos uma pessoa com vontade de aprender e com gosto pela parte técnica de dados. Você trabalhará no desenvolvimento, manutenção e construção de reports, além de ajudar em eventuais estudos e soluções para o Brandsplace, braço de marketplace da Privalia.
 Responsabilidades e atribuições- Analista de Dados dedicado ao Brandsplace- Design, construção e aprimoramento de dashboards- Análise de performance de vendas - visitas, conversão, gaps e oportunidades
@@ -3046,7 +3273,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -3057,10 +3288,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
         <v>6678516</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaAtuar na implantação de pipelines de wrangling de dados e feature store e criar produtos de dados que ajudem no ciclo de vida de modelos de machine learning e no cotidiano dos times de analytics.
 Responsabilidades e atribuiçõesAuxiliar a configurar pipelines de dados escaláveis e eficientes assegurando a transição contínua de informações, a execução ágil de processamentos e a otimização do armazenamento, viabilizando análises precisas e oportunas;Contribuir ativamente na colaboração com equipes multifuncionais, visando atender de forma abrangente e eficaz aos requisitos de negócios;Participar da identificação e extração de dados provenientes de diversas fontes, possibilitando a análise abrangente e embasada que impulsiona a tomada de decisões informadas;Colaborar a transformação e limpeza de dados para garantir a qualidade e eficiência, assegurando a disponibilidade de informações confiáveis e coerentes para análises e decisões embasadas;Acompanhar o design da arquitetura de dados, padrões e melhores práticas, proporcionando uma base sólida para análises e tomada de decisões bem fundamentadas;Participar da manutenção e atualização dos pipelines de dados, garantindo que os dados sejam precisos, atualizados e prontamente disponíveis para análises e processos de decisão;Auxiliar na implementação de soluções de armazenamento escaláveis, viabilizando o acesso rápido e confiável às informações, promovendo análises precisas e suportando decisões informadas;Participar no monitoramento e otimização dos pipelines de dados, garantindo a eficiência contínua do fluxo de informações;Colaborar no dimensionamento de máquinas e recursos de acordo com as necessidades dos pipelines de dados, assegurando que operem de maneira eficaz, promovendo o processamento rápido e confiável dos dados;Auxiliar na definição de KPIs de desempenho e qualidade do Data Lake, proporcionando um meio de monitorar o funcionamento do Data Lake, identificar áreas de melhoria e garantir que os dados sejam confiáveis para análise;Colaborar na aplicação das melhores práticas de engenharia de dados em nuvem, assegurando a otimização do processamento, armazenamento e transferência de dados, promovendo um ambiente robusto para análises;Participar nas otimizações avançadas de desempenho e governança de dados, a fim de melhorar o tempo de resposta e a velocidade de processamento dos dados, contribuindo para análises mais ágeis e precisas;Auxiliar na criação e desenvolvimento de automação via CI/CD, a fim de automatizar a construção, teste e implantação de pipelines de dados, resultando em entregas mais rápidas, confiáveis e consistentes;Colaborar e promover a cultura data driven no Banco, fortalecendo a capacidade da organização de se adaptar às mudanças e aproveitar oportunidades com base em evidências sólidas.
@@ -3141,7 +3377,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -3152,10 +3392,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
         <v>6683140</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê é apaixonado por análise de dados?Gostaria de trabalhar em uma grande empresa? Então venha com a gente construir experiências lindas para os nossos clientes! Cadastre-se em nossa oportunidade de Analista de Dados. #vemcrescercomagente #gruporomabrasil #aquiteminovacao 
 Responsabilidades e atribuiçõesRealizar consultas em bancos de dados SQL Server e em relatórios de sistemas ERP, utilizar estratégias de análise de dados que otimizem a eficiência e agilidade na entrega de Dashboards.Interpretar dados, analisar resultados usando técnicas estatísticas e fornecer relatórios contínuos.Identificar, analisar e interpretar tendências ou padrões em conjuntos de dados.Trabalhar com a liderança para priorizar necessidades de negócios, identificar oportunidades de uso de dados e desenvolver soluções aderentes.Utilizar Power BI para criação de painéis interativos e Excel para relatórios estáticos.Utilização avançada de linguagem DAX e fórmulas de Excel para aplicação das regras de negócio.Criar e executar consultas SQL para coleta de dados.Executar outras tarefas correlatas que lhe forem atribuídas pela liderança imediata.
@@ -3236,7 +3481,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -3247,10 +3496,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Day off aniversário', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
         <v>6681040</v>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>Descrição da vagaA Supergasbras é uma empresa do grupo holandês SHV Energy, líder mundial na distribuição de Gás liquefeito de Petróleo (GLP), com mais de 100 anos de experiência. Nosso negócio é levar energia limpa e eficiente para milhões de brasileiros, seja nas suas casas, comércios, indústrias ou agronegócio. Os mais de 76 anos de atuação no Brasil nos posiciona como uma das principais distribuidoras nacionais de GLP - comercializamos cerca de 1,5 milhão de toneladas do produto por ano com aproximadamente 20% de participação de mercado.Desenvolvemos uma série de projetos com foco em transformação digital, experiência do cliente, inovação e desenvolvimento sustentável do negócio. Nossa estratégia é conseguir através da confiança e integridade, ser a melhor empresa de Energia do Brasil para nossos clientes, parceiros, colaboradores e acionistas, com responsabilidade socioambiental.Diversidade e inclusão é uma prioridade de negócios para a Supergasbras. Valorizamos e acreditamos no desenvolvimento de pessoas, tanto no contexto profissional como pessoal, tendo como estratégia a equidade de gênero, inclusão de pessoas com deficiência, respeito a todas as orientações sexuais e luta contra a discriminação racial nas diferentes camadas da sociedade.Ser diverso é ser Super!  
 Responsabilidades e atribuiçõesObjetivos do cargo:  Usando seu conhecimento em programação e Power BI, você participará da implantação de projetos de data &amp; analytics para apoiar nossos parceiros de negócios na tomada de decisões fundamentadas. Você desempenhará um papel crucial em todas as fases do processo, desde a concepção da solução em colaboração com as equipes de negócios até a sua implementação e pós entrega mantendo um fluxo de atendimento de incidentes e melhorias evolutivas. Responsabilidades e Atividades:  Participar ativamente do desenvolvimento de soluções de analytics para problemas de negócio, através de consultas (queries), procedimentos (procedures) e painéis em Power BI;Atendimento de chamados abertos por nossos clientes internos, investigação do problema até a implementação da solução;Desenvolvimento e acompanhamento dos indicadores internos do time de inteligência visando garantir a alta performance da área.
@@ -3331,7 +3585,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -3342,10 +3600,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Day off aniversário', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
         <v>6680994</v>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>Descrição da vagaA Supergasbras é uma empresa do grupo holandês SHV Energy, líder mundial na distribuição de Gás liquefeito de Petróleo (GLP), com mais de 100 anos de experiência. Nosso negócio é levar energia limpa e eficiente para milhões de brasileiros, seja nas suas casas, comércios, indústrias ou agronegócio. Os mais de 76 anos de atuação no Brasil nos posiciona como uma das principais distribuidoras nacionais de GLP - comercializamos cerca de 1,5 milhão de toneladas do produto por ano com aproximadamente 20% de participação de mercado.Desenvolvemos uma série de projetos com foco em transformação digital, experiência do cliente, inovação e desenvolvimento sustentável do negócio. Nossa estratégia é conseguir através da confiança e integridade, ser a melhor empresa de Energia do Brasil para nossos clientes, parceiros, colaboradores e acionistas, com responsabilidade socioambiental.Diversidade e inclusão é uma prioridade de negócios para a Supergasbras. Valorizamos e acreditamos no desenvolvimento de pessoas, tanto no contexto profissional como pessoal, tendo como estratégia a equidade de gênero, inclusão de pessoas com deficiência, respeito a todas as orientações sexuais e luta contra a discriminação racial nas diferentes camadas da sociedade.Ser diverso é ser Super!  
 Responsabilidades e atribuiçõesObjetivos do cargo: Usando seu conhecimento em programação e Power BI, você participará da implantação de projetos de data &amp; analytics e ciência de dados (end-to-end) para apoiar nossos parceiros de negócios na tomada de decisões fundamentadas. Você desempenhará um papel crucial em todas as fases do processo, desde a concepção da solução em colaboração com as equipes de negócios até a sua implementação. Nossa cultura de trabalho é caracterizada pela colaboração, autonomia e proximidade com as equipes de negócios, mantendo sempre o foco na entrega final. Responsabilidades e Atividades:  Participar ativamente do desenvolvimento de soluções de analytics para problemas de negócio, através de consultas (queries), procedimentos (procedures) e painéis em Power BI;Analisar grandes volumes de dados e a partir de problemas de negócios específicos propor soluções, e gerar insights para as áreas de negócio;Participar e desenvolver projetos globais (em inglês) de analytics com outras empresas do grupo;Monitorar e garantir o atingimento das metas de indicadores internos do time de analytics.
@@ -3426,7 +3689,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -3437,10 +3704,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Desconto em produtos', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
         <v>6648727</v>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>Descrição da vagaO que é a área de Análises de Inteligência Comercial da Porto?A área busca oferecer uma sustentação ágil e flexível, melhorando as inter-relações com as Sucursais e áreas parceiras, através de novos serviços e modelos de gerenciamentos relacionados aos nossos processos.
 Responsabilidades e atribuiçõesSeus principais desafios serão: Apoiar a equipe na criação dos resultados e indicadores da produção comercial;Disponibilizar informações e bases para os times interno e comercial;Criar documentação dos planos estratégicos da produção em books para utilização em reuniões que orientarão as tomadas de decisão, apoiando na criação de estudos internos e de mercado;Sempre que necessário, participar de reunião com áreas parceiras, equipe comercial e de negócios, a fim de identificar demandas e oportunidades;Apoiar na construção e sustentação das campanhas provendo dados e dashboards para os resultados, escrita de documentações e regulamentos;Sustentar a apurações das campanhas;Cooperar com a equipe comercial, como interlocutor com as áreas internas, para solução de processos e de atendimento; Homologação de relatórios e painéis no Portal da Produção.
@@ -3521,17 +3793,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="n">
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
         <v>6677691</v>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO time de Insights de Clientes e Marketing é protagonista na transformação Data-Driven e centrado ao cliente da Lojas Renner S.A. e tem como missão gerar insights a partir de análise de dados de comportamento de cliente para a tomada de decisão pelo negócio. Buscamos pessoa Analista de Dados II para compor o time de Insights de Clientes e Marketing. A pessoa deve ser proativa, comunicativa, fazer análise e exploração de dados com excelência e compreender que seus inputs contribuirão para decisões importantes para o negócio.
 Responsabilidades e atribuiçõesAtuar e inovar como consultoria analítica interna e embaixador de dados na área de atendimento ao cliente e CSC (centro de serviços compartilhados), utilizando conhecimento de programação e pensamento analítico para fomentar discussões de metodologias e realizar recomendações. Utilizar o entendimento do negócio e o mindset analítico para fazer exploração de dados proativamente, com o intuito de responder perguntas especificas do negócio.
@@ -3612,17 +3893,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="n">
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
         <v>6677627</v>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO time de Insights de Clientes e Marketing é protagonista na transformação Data-Driven e centrado ao cliente da Lojas Renner S.A. e tem como missão gerar insights a partir de análise de dados de comportamento de cliente para a tomada de decisão pelo negócio. Buscamos pessoa Analista de Dados IlI para compor o time de Insights de Clientes e Marketing. A pessoa deve ser proativa e buscar fazer análise e exploração de dados com excelência.
 Responsabilidades e atribuiçõesAtuar e inovar como consultoria analítica interna e embaixador de dados na aliança de inteligência de clientes, utilizando conhecimento de programação e pensamento analítico para fomentar discussões sobre o comportamento do cliente e realizar recomendações. Utilizar o entendimento do negócio, o mindset analítico e conhecimento técnico em análise de dados, com o intuito de responder perguntas especificas do negócio incluindo:Análises de comportamento do cliente para o ecossistema Lojas Renner S.A.Análises de campanhas de CRM e fidelização.Desenvolvimento de segmentações e modelos simples para análise de clientes
@@ -3703,7 +3993,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -3714,10 +4008,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio desenvolvimento']</t>
         </is>
       </c>
-      <c r="R35" t="n">
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
         <v>6675144</v>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>Descrição da vagaOi, somos a HOLDING SIMPAR! Somos um Grupo com mais de 40 mil colaboradores sob a mesma Cultura, Valores e um Modelo de Gestão único, que produz resultados sustentáveis e alinhados às melhores práticas de ESG. Uma holding que empresaria 7 negócios com operações independentes e complementares nos segmentos de logística, mobilidade, saneamento, infraestrutura, concessões e serviços financeiros. A SIMPAR é a holding que controla sete empresas independentes: JSL, Movida, Vamos, CS Brasil, Automob, Banco BBC Digital e CS Infra. Nossa Gente é formada por diversidade de gerações, com complementariedade de conhecimentos, experiências e com muita energia para realizar. Venha fazer parte da #NossaGente!Dentre nossos valores, contamos com CLIENTE, sendo a razão da nossa existência empresarial, escutamos nossos clientes para entender a atender suas necessidades, GENTE, sendo nosso grande diferencial e que nos permite alcançar os objetivos, SIMPLICIDADE, um jeito descomplicado de ser e agir, ATITUDE DE DONO, agimos com profundidade e visão do todo, SUSTENTABILIDADE, com atitudes economicamente viáveis, ecologicamente corretas e socialmente justas, LUCRO, sendo uma missão de todos, fundamental para o crescimento e desenvolvimento sustentável dos nossos negócios.Todos os processos seletivos conduzidos pela SIMPAR são afirmativos, inclusivos e não discriminatórios.
 Responsabilidades e atribuiçõesMissão do Cargo:Atuar no time de Pós M&amp;A como apoio no tratamento das bases analíticas das empresas adquiridas, para analises das necessidades do negócio, indicadores de eficiência e performance; e proposição de soluções para tomadas de decisão baseadas em dados. Responsabilidades:Desenvolver modelos e estrutura de dados para otimização de processos;Analisar conjuntos de dados para extrair padrões e tendências;Executar análises complexas considerando diferentes suposições, metodologias e fontes de informação;Apoiar na construção de indicadores e análises para identificar oportunidades de redução de custos e de sinergias entre as adquiridas, e os negócios independentes da Holding;Criar visualizações de dados impactantes para comunicar insights de maneira eficaz;Criar materiais analíticos e de fácil entendimento da alta gestão e do time do projeto de integração;Garantir entregas pontuais e atender ao nível de qualidade esperado;Colaborar com equipes interdisciplinares para captura de eficiência operacional e inovação.
@@ -3798,7 +4097,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -3809,10 +4112,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio farmácia', 'Day off aniversário', 'Ginástica laboral', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R36" t="n">
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>['Tableau', 'Clickview']</t>
+        </is>
+      </c>
+      <c r="S36" t="n">
         <v>6673339</v>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>Descrição da vagaNosso time é formado por pessoas com brilho no olho e vontade de fazer a diferença.Temos objetivo de encantar clientes do Brasil e do mundo, com propósito de Interpretar Tendências e Despertar Desejos.Se você também faz com paixão, tem flexibilidade, transparência, envolvimento, gosta de trabalhar com união e desafio, a Arezzo&amp;Co pode ser o lugar certo para você!Queremos cada vez mais construir um ambiente diverso e inclusivo, por isso, nossa política de contratação não discrimina gênero, raça/cor, religião, orientação sexual, idade, condição de HIV e deficiência intelectual ou física.Venha evoluir com a gente, em cada passo da nossa jornada. RUMO A 2154!
 Responsabilidades e atribuições• Produzir análises e insights para identificar ofensores de resultados (Receita, Margem Bruta, EBITDA) e suportar a tomada de decisão do E-commerce;• Realizar análise de performance dos canais de aquisição demonstrando através de dashboards ou relatórios;• Produzir análise de funil de venda, identificando possíveis fricções na jornada de compra e contribuindo com insights para recuperação de resultados, aumento da taxa de conversão, incremento de receita;• Projetar resultados através da elaboração de cenários de ativações promocionais antes de sua execução, com simulação de receita, margem bruta, desconto e outros indicadores necessários para a avaliação do nível de agressividade e intensidade promocional de cada ação;• Contribuir com propostas para ativações comerciais, sugerindo produtos (categorias, preços, descontos) para campanhas em banners, e-mails e outros veículos por meio da análise de segmentação, tendência e predição com apoio e interação com área de operações;• Processar indicadores, KPIs e metas da área, interpretando os dados e consolidando as informações em ferramentas de BI, como PowerBI, Tableau e outras adotadas;• Realizar forecast mensais, com projeções de resultado por canal englobando todos os KPIS (tráfego, taxa de conversão, AOV, preço médio, desconto, taxa de devoluções, investimentos de mídia, AdCost, ROAS, entre outros), além de diarização de metas;• Conduzir reuniões de forecast mensais com o time financeiro;• Realizar a construção de budget e avaliação de cenários;• Realizar a construção de estrutura e matriz de custos para P&amp;L;• Prestar suporte na definição de ordenamento de produtos no site (VM) através de indicadores (pageviews, cliques, conversão) por produto (SKU, modelo, categoria).
@@ -3893,17 +4201,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="n">
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python']</t>
+        </is>
+      </c>
+      <c r="S37" t="n">
         <v>6671950</v>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>Descrição da vagaComo é a área:·        Planejamento de peças de reposição (backstock) para suporte de vendas balcão e de contratos para clientes (todas as plataformas), garantindo a performance de estoque, através de soluções E2E, integrando forecast de clientes e fornecedores.Benefícios:Seguro de VidaConvênio Médico Convênio OdontológicoBenefício VacinaBenefício Farmácia GympassCartão Multibenefícios (para modelo de trabalho Híbrido ou 100% remoto)Refeitório na empresaAuxílio Home Office (para modelo de trabalho Híbrido ou 100% remoto)PLR (Participação de Lucros e Resultados)Previdência PrivadaCooperativaEMpower (plataforma interna de treinamento e desenvolvimento)
 Responsabilidades e atribuiçõesComo será o seu dia a dia:·        Desenvolvimento de soluções técnicas para apoio de tomadas de decisões de negócio (métodos de forecast, sazonalidade, redes neurais, análise comportamental).
@@ -3984,7 +4301,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -3995,10 +4316,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R38" t="n">
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S38" t="n">
         <v>6664823</v>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos aproximadamente 50k Minsaiters no Mundo e mais de 9k Minsaiters no Brasil e estamos presentes nas maiores empresas em todos os setores. Nossa estrutura permite participar de projetos globais e proporciona um ambiente colaborativo que nos certifica em GreatPlacesToWork e planos diferenciados para Jovens Profissionais também reconhecidos pela Employers for Youth. Você atuará no nosso time de  Data Analytics em um projeto estratégico, utilizando metodologias ágeis e em um ambiente de inovação.Buscamos profissionais com senso de dono, comprometidos com o sucesso do nosso cliente e com o desenvolvimento da sua carreira dentro da MinsaitVocê será um pilar fundamental nos melhores e maiores projetos de TI do Brasil e em nível global.Venha ser um Minsaiter!
 Responsabilidades e atribuições💼 Responsabilidades:Interpretar dados, analisar resultados usando técnicas estatísticas e fornecer relatórios de progresso; Desenvolver e implementar bancos de dados, sistemas de coleta de dados, análise de dados e outras estratégias que otimizem a eficiência estatística e a qualidade; Obter dados de fontes primárias ou secundárias e manter bancos de dados/sistemas de dados; Identificar, analisar e interpretar tendências ou padrões em conjuntos de dados complexos; Apoiar a priorização necessidades de negócios e de informações; Apoiar a definição de melhorias de processo.
@@ -4079,17 +4405,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="n">
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S39" t="n">
         <v>6642798</v>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaResponsável por coletar, analisar e interpretar dados da área de controladoria, identificando tendencias, padrões e insigths a partir de dados coletados, buscando constantemente a atualização sobre as melhores práticas e ferramentas de análise de dados a fim de otimizar os processos de análise e garantir a qualidade e precisão das informações fornecidas para a tomada de decisão.Se identificou com a vaga? Então participe da seleção!Fique sempre ligado em seus meios de comunicação! Eles serão fundamentais para sua jornada no processo seletivo #Fruki!
 Responsabilidades e atribuiçõesDesenvolver automações, implantar novos processos na ferramenta de automação de processos de conciliação;Desenvolver análises de dados e dashboards conforme definido pela área;Construção técnica no desenvolvimento, monitoramento de indicadores de performance e sustentação de forma geral;Interagir com os diferentes papéis do processo de dados (engenheiros, outros analistas, cientistas de dados e analistas de negócio);Apoiar no processo de desenvolvimento de produtos de dados e automação, desde a concepção até o acompanhamento dos resultados em produção;Entender o cenário atual dos processos apoiando na definição de solução em conjunto com o time de dados;Incentivar e promover a disseminação da cultura de dados para os colegas e times da nossa operação;Prestar atendimento a clientes internos e externos, dirimindo dúvidas e informando sobre procedimentos, regras e informações referente à área;Criar e sugerir melhorias em processos e tecnologias para o setor;Executar outras atividades no seu campo de atuação, alinhadas e contributivas para o alcance dos resultados do setor e da Fruki Bebidas.
@@ -4170,17 +4505,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="n">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S40" t="n">
         <v>6670178</v>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaBuscamos um cientista de dados que tenha uma boa multidisciplinaridade para atuar na área de abastecimento da companhia, criar análises e modelos preditivos através dos dados estruturados, e que seja proativo para entender e buscar soluções para os problemas de negócio.
 Responsabilidades e atribuiçõesEntender qualitativamente e quantitativamente os problemas de negócio.Conversar com áreas de negócio, participar de reuniões e decisões para implementações técnicas.Criar e testar hipóteses a partir das problemáticas do negócio.Obter os dados através de queries, realizar análises, preparação e transformação nos dados.Desenvolver modelos estatísticos avaliar e validar os resultados obtidos através das previsões.Apresentar e documentar os resultados para time técnico e área de negócios.Monitorar os resultados obtidos das iniciativas implementadas.
@@ -4261,17 +4605,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="n">
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S41" t="n">
         <v>6670117</v>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaBuscamos pessoa Analista de Dados para compor o time de insights de negócios com foco no atendimento do ecommerce de Lojas Renner
 Responsabilidades e atribuiçõesAnálise de performance do ecommerce, incluindo análise de funil, performance de produto e campanhas com foco em identificação de gaps e oportunidades de melhoria na jornada do cliente.Também realizará o desenvolvimento de estudos diversos, análises e segmentações para geração de insights tanto para o ecommerce quanto para o marketplace.Seu papel também é o de fomentar a cultura data driven e realizar recomendações para o time que estará inserido, sendo um embaixador de dados dentro do time de negócio digital).
@@ -4352,7 +4705,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -4363,10 +4720,15 @@
           <t>['Assistência odontológica', 'Auxílio academia', 'Previdência privada', 'Seguro de vida']</t>
         </is>
       </c>
-      <c r="R42" t="n">
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
         <v>6668595</v>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê é um profissional expert em SQL Server, SSIS e Power BI? Além disso, tem fluência no idioma inglês?Se as suas respostas foram sim, estamos procurando por você! Venha trabalhar em uma equipe colaborativa , onde você é o protagonista! #VEMPRAATENTO
 Responsabilidades e atribuiçõesDesenvolver relatórios em Excel e POWER BI;Realizar levantamento de requisitos / mapeamento de processos;Participar de reuniões gerenciais;Realizar integração e pesquisa de informações em banco de dados SQL Server, utilizando o SSIS;Automatizar rotinas;Negociar demandas;Manter relacionamento com clientes internos.
@@ -4447,17 +4809,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="n">
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>['Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
         <v>6549376</v>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>Descrição da vagaA Fortbras tem como razão de existir, ser PEÇA- CHAVE na MOBILIDADE Brasileira, facilitando a VIDA de nossos COLABORADORES e CLIENTESEstar cada vez mais próximo dos clientes é o principal objetivo, oferecendo os principais itens para reposição automotiva de marcas nacionais e estrangeiras com qualidade, agilidade e com atendimento qualificado. Hoje a Fortbras é uma das Empresas que mais cresce no setor de Autopeças no Brasil e somos uma das principais investidas do fundo de private equity Advent International. Formada por 17 marcas Regionais (Ambra Pneus, Atacado União, Atacarejo União, BHZ, Hipervarejo, Jaicar, Javali, Menil, Milenium Lubrificantes e Elétrica, Multiplan, Pegasus, Rondobras, Soma, TBrasil, Total e União Autopeças). Do Oiapoque ao Chuí, atuamos na consolidação e profissionalização do mercado de autopeças no Brasil com foco no varejo, com +200 lojas, presente em 20 estados, em mais de 160 cidades que possuem uma ou mais filiais das nossas Marcas Regionais. Nosso compromisso é com a satisfação de todos os clientes e com nossos 5 mil colaboradores que refletem diariamente os Valores da Fortbras: Ética &amp; RespeitoValorizamos Nossa GenteMeritocraciaExcelência com simplicidadePaixão em tudo que fazFoco no clienteDono do negócioAusteridade TODAS AS PESSOAS SÃO BEM-VINDAS em todas as nossas vagas independente de seu gênero, orientação sexual, raça/etnia, idade ou deficiência. Venha ser Fort, venha ser Fortbras!
 Responsabilidades e atribuições- Elaboração de relatórios operacionais;- Gestão de relatórios cotidianos;- Realização de análises demandadas por outras áreas da empresa;- Acompanhamento de resultados de ações realizadas;- Realização de análises em busca de oportunidades na operação da empresa;
@@ -4538,7 +4909,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -4549,10 +4924,15 @@
           <t>['Vale-refeição']</t>
         </is>
       </c>
-      <c r="R44" t="n">
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
         <v>6667309</v>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>Descrição da vagaPensou em farmácia? Farmácias App.O seu APP de compras online de medicamentos, saúde e beleza!
 Responsabilidades e atribuiçõesAtuar na área de suporte e desenvolvimento de extração de dados para os canais digitais;Análise e Criação de Indicadores;Criação de relatórios e dashboards utilizando melhores práticas de mercado;Desenvolvimento de análises para alavancar performance do canal;Automatização de bases para ganhos de eficiência em processos internos.
@@ -4633,7 +5013,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -4644,10 +5028,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Programa de remuneração variável', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R45" t="n">
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S45" t="n">
         <v>6657210</v>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos em busca de alguém como você, que deseja iniciar uma nova jornada na área de Dados para impactar pessoas, clientes e sociedade. Nós, da Solutis, temos um desafio apaixonante, com o melhor ecossistema de uma Agile Company.Estamos com a posição de Analista de qualidade de dados que envolve criatividade, proatividade, desenvolvimento ágil e que permite compartilhamento constante de conhecimentos. Somos um mundo plural, que promove um ambiente descontraído de verdade, flexível e focado no desenvolvimento humano e profissional para que você possa exercer a sua singularidade.Então, se você entende que este é o caminho em direção aos seus sonhos, movido por projetos desafiadores, uma carreira bem desenvolvida e o propósito de impactar uns aos outros, todos os dias: venha fazer parte deste vasto mundo Solutis. 
 Responsabilidades e atribuiçõesComo será seu dia a dia: (Atividades que vai realizar)Foco na participação de projetos;Entender as necessidades do projeto e inserir camadas de qualificação de dados necessárias para mantermos o padrão estabelecido ou melhorá-lo;Entender quais as melhores validações, tratamentos e monitoramentos precisam ser criados nos novos pipelines de ingestão de dados da cia;Entender os dados documentando os conceitos relacionados a sua origem, descrição e comportamento , olhando para seus processos de geração e atualização;Criar controles eficientes e garantir a qualidade do dado na sua ingestão, olhando para os princípios de cobertura, acurácia, atualização, integridade, consistência e unicidade;Explorar os dados minimamente através das ferramentas, variando de excel, SQL, Athena, Dremio ou outras disponíveis para análise descritiva simples;Escrever histórias a serem desenvolvidas nas squads dos projetos, acompanhando seu desenvolvimento e realizando a homologação;Manter comunicação clara e compartilhada das frentes envolvidas com o restante do time, mantendo padrão e qualidade na entrega.
@@ -4728,7 +5117,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -4739,10 +5132,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R46" t="n">
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
         <v>6620315</v>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>Descrição da vagaQue tal trabalhar com uma equipe engajada e que contribui para transformar a vida das pessoas?A S.I.N. tem em seu DNA o posicionamento “Human to Human”, desde o cuidado com nossos colaboradores até o zelo com nossos clientes finais.Venha gerar sorrisos com a S.I.N.!#SorrisosQueGeramSorrisosVaga também afirmativa para PCD's﻿Híbrido - Zona Leste de SP, próximo ao Shopping Anália FrancoContrato CLT - Segunda a Sexta das 8h12 as 18h
 Responsabilidades e atribuições• Coleta de Dados: Identificar fontes de dados relevantes e coletar informações de diversas fontes, como bancos de dados, sistemas, arquivos e APIs.• ETL: Extrair, limpar, transformar e preparar os dados para análise, incluindo tratamento de valores ausentes, padronização e validação.• Manutenção de Dados: Garantir a qualidade e a integridade dos dados, bem como propor melhorias nos processos de coleta e armazenamento de dados.• Automatização de Processos: Desenvolver scripts ou ferramentas para automatizar tarefas de rotina, economizando tempo e melhorando a eficiência.• Segurança de Dados: Garantir a segurança e a conformidade dos dados, protegendo informações confidenciais e cumprindo regulamentos de privacidade.• Avaliação de Ferramentas e Tecnologias: Avaliar e recomendar ferramentas e tecnologias para melhorar a eficácia das operações de análise de dados.• Realizar levantamento de requisitos e mapeamento de processos para organização dos dados• Ajudar no gerenciamento de projetos internos do time de Análise de Dados.
@@ -4823,7 +5221,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -4834,10 +5236,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R47" t="n">
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
         <v>6632443</v>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSomos o Grupo Casas Bahia, com mais de 70 anos de história, realizando os sonhos de +90 milhões de brasileiros. Estamos indo muito além do varejo, em uma jornada que coloca o cliente no centro de tudo. Por aqui, a dedicação total nunca foi tão forte!Liderar e atuar em todo o fluxo de desenvolvimento de projetos de modelos em parceria com as áreas de negócio (CRÉDITO e SERVICOS FINANCEIROS), desde o planejamento até a implantação dos modelos.
 Responsabilidades e atribuiçõesLiderar demais colaboradores nos projetos de modelagemInteração com os times de negócios para atender a necessidades com os modelos.Desenvolver modelos preditivos e identificar oportunidades nas aplicações das técnicas de machine learning;   Integrar, refinar e enriquecer bases de dados (ETL);     Realizar implantação dos modelos;  Construir KPIs dos modelos preditivos;  Avaliar novos dados (alternativos) que resultem em aumento de acurácia dos modelos;Preparar material e apresentar para diretoria e áreas clientes.
@@ -4918,7 +5325,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -4929,10 +5340,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R48" t="n">
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
         <v>6636707</v>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSomos o Grupo Casas Bahia, com mais de 70 anos de história, realizando os sonhos de +90 milhões de brasileiros. Estamos indo muito além do varejo, em uma jornada que coloca o cliente no centro de tudo. Por aqui, a dedicação total nunca foi tão forte!Executar todo o fluxo de desenvolvimento de projetos de modelos em parceria com as áreas de negócio (CRÉDITO e SERVICOS FINANCEIROS), desde o planejamento até a implantação dos modelos.
 Responsabilidades e atribuiçõesInteração com os times de negócios para atender a necessidades com os modelos.Desenvolver modelos preditivos e identificar oportunidades nas aplicações das técnicas de machine learning;   Integrar, refinar e enriquecer bases de dados (ETL);     Realizar implantação dos modelos;  Construir KPIs dos modelos preditivos;  6Preparar material e apresentar para diretoria e áreas clientes.
@@ -5013,7 +5429,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -5024,10 +5444,15 @@
           <t>['Auxílio home office', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R49" t="n">
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
         <v>6658700</v>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos com uma vaga aberta para nosso time analítico do contas a receber, na função responsável por acompanhar a inadimplência de todas as escolas do Grupo. É uma oportunidade de colocar em prática sua capacidade analítica para calcular indicadores, projetar tendências e ajudar na tomada de decisão de melhores estratégias para o dia a dia do time de cobrança. Procuramos alguém com muita proatividade e brilho nos olhos. Somos um time muito unido e entusiasmado, fazendo todo dia nossa parte na transformação da educação no Brasil! 🤩
 Responsabilidades e atribuições 💡 Sua missão será:Calcular os indicadores da área de cobrança mensalmente e criar dashboards para acompanhamento;Desenvolver modelos de dados para prever comportamentos futuros de inadimplência e apoiar a tomada de decisão;Criar visualizações de dados claras e informativas sobre números de inadimplência, para facilitar a compreensão dos insights pelas áreas interessadas e pelos diretores das escolas do Grupo;Acompanhar e apoiar estratégias de performance das empresas terceirizadas de cobrança;Apresentar resultados e estudos para as lideranças da área e de outras áreas próximas.
@@ -5108,17 +5533,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="n">
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
         <v>6657022</v>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>Descrição da vagaNo Grupo Elfa, somos apaixonados pelo que fazemos. Acreditamos que desta maneira nos realizamos, contagiamos e motivamos todos que se relacionam conosco. Sonhamos alto. Aqui, temos paixão pelo desenvolvimento das pessoas, buscamos modelos de negócio diferenciados que nos permitam crescer e evoluir juntos, somos determinados em garantir um futuro sempre através da excelência e inovação produtiva nos dias de hoje. Acreditamos que a ética e a integridade são bases fundamentais para uma empresa duradoura e queremos contribuir na construção de uma sociedade melhor.
 Responsabilidades e atribuiçõesAtuação na área de E-commerce;Apoiará a Diretoria e Gerência que demandará análises especificas;Coleta e organização de conjuntos de dados para fornecer informações para as tomadas de decisões estratégicas nas organizações;Coletará os dados relevantes de várias fontes, como bancos de dados, planilhas, registros de transações ou até mesmo dados provenientes de sensores e dispositivos conectados;Extração de informações significativas dos dados brutos, permitindo uma compreensão melhor os padrões, identificando tendências e obtendo uma visão abrangente de seu desempenho;Realizar limpeza e pré-processamento, garantindo a qualidade e integridade dos dados;Aplicar técnicas de mineração de dados e estatística para identificar padrões, correlações e anomalias nos dados. Utilizando ferramentas de análise de dados, como linguagens de programação, bancos de dados e softwares estatísticos;Comunicar os resultados de forma clara e compreensível para diferentes públicos clientes internos e externos, através da criação de relatórios, visualizações de dados, gráficos ou apresentação dos resultados em reuniões.
@@ -5198,7 +5632,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -5209,10 +5647,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Day off aniversário', 'Programa de remuneração variável', 'Sala de Jogos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R51" t="n">
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S51" t="n">
         <v>6617144</v>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>Descrição da vagaNós da Aliare, unimos o agronegócio em um ambiente de produtividade. Vamos juntos?Somos a plataforma de cooperação do agronegócio, conectando pessoas, ferramentas e empresas para transformar tempo em produtividade. Existimos para que todos os agentes da cadeia produtiva tenham informações certas, no tempo certo.A partir da integração, digitalização e inteligência de dados, promovemos uma grande evolução no campo, um setor cada vez mais conectado, com desafios mais complexos, impactando em todo o mundo.O Analista de Integração tem como função analisar, mapear, documentar, criar e manter integrações entre softwares.Se você é esse profissional e quer fazer parte de uma equipe engajada, de alto desempenho, essa oportunidade é pra você!
 Responsabilidades e atribuiçõesRealizar o levantamento e documentação de processos de negócios do cliente a serem integrados;Avaliar a aderência dos processos do cliente nos sistemas junto aos times responsáveis pelos sistemas;Realizar o mapeamento de rotinas e dados entre os sistemas a serem integrados;Realizar o desenvolvimento e documentação do escopo do projeto com as definições do cliente;Levantar requisitos para estimativa e desenvolvimento das integrações;Validar as integrações desenvolvidas junto ao usuário final;Propor soluções aplicando os melhores serviços e recursos de integrações;Planejar a realização e obtenção de aprovação de testes das soluções integradas;Denifir estratégia de entrada em produção dos sistemas integrados;Acompanhamento dos usuários no processo de operação assistida;Realizar suporte para eventuais dúvidas ou erros no desenvolvimento e nas execuções das integrações junto ao cliente;Realizar suporte necessário para as equipes de implantação e integração;Manter atualizada a documentação dos serviços de integração disponíveis.
@@ -5293,17 +5736,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="n">
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="n">
         <v>6633727</v>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos buscando profissional para fazer parte da nossa equipe de performance e dados. Sua principal atribuição será desenvolver soluções de dados desde o ETL até as visualizações e automações para os diversos problemas de negócio que temos. O candidato ideal terá experiência em áreas correlatas a dados como, business intelligence, analytics, data science, engenharia de dados e etc.
 Responsabilidades e atribuições·        Desenvolver e executar análises de dados para apoiar a tomada de decisão estratégica·        Modelar e construir soluções de dados para problemas de negócios. ·        Desenvolver analytics e dashboards para visualização de dados e fomento de cultura data driven.·        Colaborar com outras equipes para identificar e resolver problemas relacionados a dados
@@ -5383,17 +5831,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="n">
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S53" t="n">
         <v>6652529</v>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>Descrição da vagaDESCRIÇÃO DA VAGAVocê já pensou em trabalhar em um dos maiores varejistas de moda do Brasil, seria incrível, não é? Agora imagina poder trabalhar em nossa Administradora de Cartões e construir uma história de crescimento com a gente, pode ser demais, hein?
 Responsabilidades e atribuiçõesTemos oportunidade para ANALISTA DE DADOS (CRM) SÊNIOR que irá atuar na Administradora de Cartões do Grupo Torra! #VEMPRATORRA!RESPONSABILIDADES E ATRIBUIÇÕESSerá responsável por coletar, manter e transformar dados. Na busca contínua em trazer insights relevantes ao negócio, seja conhecendo o comportamento do cliente, monitorando resultado das campanhas ou identificando padrões e tendências que apoiem decisões estratégicas. ·       Identificar fontes de dados e buscar soluções para automatização dos processos de coleta;·       Integrar dados de diferentes fontes, como bancos de dados, APIs, arquivos CSV etc;·       Garantir a qualidade e integridade dos dados;·       Manipular grande volume de dados buscando analisar e responder questões relevantes ao negócio;·       Desenvolver Relatórios e Dashboards para monitoramento dos KPIs de CRM;·       Desenvolver análises exploratórias sobre o comportamento de clientes, buscando diagnosticar oportunidades de negócio e trazendo insights através da mineração dos dados, tanto para o varejo quanto para Cartão Torra.·       Trabalhar em estreita colaboração com outras equipes, como TI e áreas de negócio, para entender suas necessidades analíticas;·       Executar outras atividades correlatas, conforme orientação superior.
@@ -5474,7 +5931,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -5485,10 +5946,11 @@
           <t>['Assistência médica']</t>
         </is>
       </c>
-      <c r="R54" t="n">
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="n">
         <v>6645994</v>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO Bullla é a primeira fintech de emprestimo entre pessoas fisicas, sem intermediação bancária no formato SEP( Sociedade de Emprestimos enter Pessoas).Oferecemos crédito por meio do cartão Bullla para milhares de empresas que desejam facilitar o dia a dia de seus colaboradores.Facilitamos a inclusão financeira, simplificando o recebimento e antecipação de salário através do Cartão Bullla.Somos uma comunidade financeira, feita de gente para gente, que cresce junto com você! Somos Digitais e transparentes. Nosso objetivo como empresa é:-Construir soluções inovadores em um ambiente do bem;-Se provocar a todo momento e conhecer mais, superando expectativas;-Ter uma liderança que constrói com você;-Convidar pessoas do bem para fazer parte desta história e crescer com a gente;
 Responsabilidades e atribuiçõesMissão:Responsável por prevenir, detectar e estabelecer ações para prevenção a fraudes, visando mitigar as perdas por fraude e risco de imagem da Organização.Principais responsabilidades:·      Construir modelos e soluções analíticas para monitoramento em canais digitais;·      Realizar a mineração de dados, podendo utilizar-se de SQL, Phyton, SAS, Excel, etc·      Estruturar bases para a identificação de modalidades ofensoras de fraude;·      Construir e acompanhar performance de todas as regras em sistema antifraude;·      Elaborar estudos e construir mapa da fraude e suas variações: produtos, cliente, regiões, entre outros;·      Elaborar estudos que possam viabilizar criação de modelos de score·      Contribuir na geração de Dashboard de toda volumetria e resultados da área;·      Estruturar bases para atuações tempestivas na mitigação de fraudes·      Suporte e colaboração nos desenhos de automações
@@ -5569,7 +6031,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -5580,10 +6046,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio farmácia', 'Clube de vantagens', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R55" t="n">
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="n">
         <v>6587524</v>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>Descrição da vagaO profissional fará parte do grupo de desempenho de redes da V.tal, apoiando na geração das informações que suportam o crescimento e a qualidade da rede.  No dia a dia fará parte do grupo responsável por coletar, manipular e transformar os dados de redes em informações úteis que colaboram nas tomadas de decisões da companhia.  Irá atuar nas rotinas de acompanhamento de condução de análises de dados, resultados e mapeamento de ações. Deverá propor novas análises, direcionar ações e mapear ganhos. 
 Responsabilidades e atribuiçõesGarantir a qualidade da rede de dados e banda larga da V.tal através da condução de projetos e análises que visam melhorar o entendimento, as métricas de performance e de qualidade de rede. Trabalhar na análise, elaboração de relatórios, em bases de dados, visões executivas, que ajudem a suportar os times com informações e dados para garantir o crescimento e utilização sustentável da rede. Principais desafios: ·        Análise de resultados, identificação de causas, ofensores e impactos·        Especificação funcionais de relatórios, de aquisição e tratamento de dados·        Desenvolvimento de rotinas automatizadas de geração, correlação, tratamento e apresentação de dados·        Criação de visões analíticas e apresentação de dados·        Desenvolver especificações para ferramentas e sistemas (no âmbito da atividade de desempenho de redes)·        Consolidar e elaborar dashboards que ajudem a apresentar e entender os dados
@@ -5664,7 +6131,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -5675,10 +6146,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio farmácia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R56" t="n">
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S56" t="n">
         <v>6228463</v>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>Descrição da vagaFaça parte de uma Startup inovadora, que transforma a vida de milhões de brasileiros e empresas com o desenvolvimento de tecnologias para as áreas que mais crescem nos últimos anos: Open Finance e Open Banking.Pioneira na área, a Celcoin surgiu em 2016 e se tornou a maior plataforma de Open Finance do Brasil. Temos a missão de criar uma rede de serviços que democratize o acesso e ofereça mais oportunidades no universo financeiro. Atualmente, impactamos cerca de 7,5 milhões de brasileiros a cada mês em todo o país! Para todo esse sucesso ser alcançado diariamente, construímos um ambiente de trabalho inspirador e colaborativo, e agora queremos novos Celcoiners para fazer parte dessa história!Você se identificou com o nosso propósito? Estamos com uma oportunidade de Analista de Inteligência de Dados Jr para atuar no nosso time de talentos que utiliza a tecnologia para levar serviços financeiros a toda população.
 Responsabilidades e atribuiçõesSer o responsável pelo principal sistema de indicadores da Celcoin;Criar e gerenciar dashboards de métricas do negócio para a área em PowerBI;Organizar bases de dados, fontes de informação e prover dados confiáveis para o restante do time;Realizar análises de dados internas e externas sobre todas as unidades de negócio da Celcoin.
@@ -5759,7 +6235,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -5770,10 +6250,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R57" t="n">
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S57" t="n">
         <v>6648413</v>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>Descrição da vagaA pessoa Analista de Inteligência de Dados realizará análises de dados de múltiplas fontes (sistemas), participará do desenvolvimento de indicadores de negócio para projetos de BI, visando apoiar todas as áreas de negócio da empresa.Será responsável pela apuração de resultados mensais de campanhas, além de participar da transformação de dados brutos em insights, visando orientar as decisões estratégicas da empresa..  O perfil de profissional que buscamos é aquele que está em constante aprimoramento técnico na sua área de atuação para seu desenvolvimento profissional e para entregar um trabalho analítico de qualidade, agilidade e expertise para o negócio.Se você é esse profissional, então venha fazer parte do nosso time.#vamospracima🚀
 Responsabilidades e atribuiçõesPropor e implementar modelos de dados que permitam armazenar informações de forma a responder as necessidades do negócio;Apuração dos resultados de campanhas mensais;Elaborar relatórios/dashboards que permitam ver as informações em diversos níveis: estratégico, tático e operacional;Acompanhar resultados e fornecer informações para as áreas de negócios;Elaborar dashboards gerenciais;Realizar a manutenção e evolução de relatórios já existentes;Gerar informações para as áreas demandantes, verificando as regras de negócio x consistência, também analisando dados;Atuar na extração, limpeza, tratamento e análise de dados para gerar informações que auxiliem as áreas.
@@ -5854,7 +6339,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -5865,10 +6354,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R58" t="n">
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="n">
         <v>6640718</v>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>Descrição da vagaA JBS é a maior empresa de alimentos do mundo, liderando globalmente em diversos segmentos e negócios.Há mais de 6 décadas trabalhamos com foco em excelência, inovação, segurança dos alimentos e práticas de sustentabilidade. Somos um Time de mais de 250 mil pessoas, alimentando o mundo com o que há de melhor!Venha fazer parte da JBS!
 Responsabilidades e atribuiçõesProfissional atuará na área de Planejamento, com foco em Análise de Dados, com as seguintes atribuições:Buscar oportunidades de produção e venda;Participar do ciclo de planejamento dos negócios;Estudos e cenários locacionais e cenário de otimização;Acompanhar Plano Orçamentário Anual;Manutenção de capacidades fabris;Plano de Malha Otimizada;Gestão da otimização de mix / paridade e liquidação;Acompanhar Plano Orçamentário Anual;Acompanhar gestão estoque;Acompanhamento de projetos de otimização / lacunas
@@ -5949,17 +6439,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="n">
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S59" t="n">
         <v>6636300</v>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>Descrição da vagaO UOL EdTech, maior empresa de tecnologia para educação do Brasil, promove soluções inovadoras para as maiores empresas e instituições de ensino superior do país. Acreditamos que o presente da Educação é Digital! Aqui trabalhamos em times multidisciplinares, cultivamos uma filosofia de trabalho ágil, enxuto e estamos em busca de um profissional que tenha #PaixaoPorAprender, que seja #Ousado, tenha #FocoEmResultados e que queira fazer parte de uma #RevoluçãoNaEducação.  Se você tem este perfil e está em busca de novos desafios, venha fazer parte do nosso time e desenvolver sua carreira numa das áreas que prometem grandes disrupções nos próximos anos #edtech. #VemProUOLEdTech!  No UOL EdTech todas as pessoas são bem-vindas 😊, sem distinção de gênero, orientação sexual, etnia, cultura, religião, deficiência etc. O importante é você gostar de desafios, trabalhar bem em equipe, vivenciar nossa cultura e nossa missão de inovar e revolucionar a educação online no Brasil para gerar oportunidades e transformar vidas. 
 Responsabilidades e atribuiçõesDar suporte analítico ao time no qual estiver alocado.Automatizar processos manuais.Construir dashboards inteligentes.Ajudar na construção e análise de experimentos e testes A/B.Facilitar o acesso à informação e otimizar a tomada de decisão.
@@ -6040,7 +6539,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -6051,10 +6554,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Convênio com empresas parceiras', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R60" t="n">
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S60" t="n">
         <v>6637866</v>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê é uma pessoa apaixonada por análise de dados e busca um ambiente de trabalho estimulante, onde sua criatividade e habilidades técnicas possam evoluir continuamente? Então, vem somar com a gente! 🚀✨ Estamos em busca de uma Pessoa Analista de Dados Sênior para para somar com nossa equipe supimpa. Aqui, valorizamos a liberdade e a responsabilidade, encorajando você a trazer suas ideias inovadoras para solucionar desafios de maneira única. 😍✨ Acreditamos que a soma de expertises e paixão são a chave para o sucesso, e você terá a oportunidade de colaborar com profissionais incríveis que compartilham o mesmo entusiasmo pelo que fazem. 🙌✨ Venha fazer parte do nosso time e aproveitar um ambiente de trabalho colaborativo com somas constantes que farão sua carreira evoluir 🚀Sua jornada de sucesso começa aqui! Nossa soma, sua evolução #vemserilegra 🧡💜💛+++ Conheça mais sobre o processo seletivo em nosso playbook: encurtador.com.br/bvS89
 Responsabilidades e atribuiçõesDesenvolver estudos analíticos e segmentações para os testes;Gestão de KPIs, métricas, MIS e geração de insights para o negócio;Colaborar com as equipes de comércio, faturamento e avaliações para entender suas necessidades de dados e fornecer insights acionáveis;Investigar e analisar casos de inadimplência, propondo estratégias para minimizar riscos financeiros;Criar relatórios e dashboards personalizados para auxiliar na tomada de decisões estratégicas.
@@ -6135,17 +6643,26 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="n">
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S61" t="n">
         <v>6638157</v>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>Descrição da vagaBuscamos um profissional dinâmico e antenado às tecnologias
 Responsabilidades e atribuiçõesRealizar análises exploratórias para entender a distribuição dos dados, identificar padrões e gerar insights preliminares;Aplicar métodos estatísticos para entender relações, tendências e variações nos dados. Isso pode incluir testes de hipóteses, regressão, entre outros;Criar visualizações claras e impactantes para comunicar resultados, utilizando ferramentas como Power BI e Power Point;Comunicar efetivamente os insights derivados dos dados para públicos não técnicos, fornecendo relatórios, apresentações e visualizações compreensíveis;Escrever e manter códigos e scripts para automatizar tarefas repetitivas e facilitar a replicação de análises;Manter-se atualizado sobre as últimas tendências e tecnologias em análise de dados, explorando ferramentas e abordagens inovadoras;Trabalhar em estreita colaboração com profissionais de diferentes áreas, como engenheiros, executivos e equipes de negócios para atender às necessidades organizacionais.
@@ -6225,7 +6742,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -6236,10 +6757,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Horário flexível', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R62" t="n">
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>['Excel']</t>
+        </is>
+      </c>
+      <c r="S62" t="n">
         <v>6602101</v>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê se identifica com a área de Dados, é uma pessoa comunicativa e possui como propósito ser excelente em gestão de comunidade de dados?Então essa oportunidade é para você!Para nós, a pessoa Analista de Dados com foco em Gestão de Comunidade de Dados, precisará criar e assegurar engajamento numa comunidade de dados internas no Sicredi.. 😉
 Responsabilidades e atribuiçõesComo pessoa Analista de Dados com foco em Gestão de Comunidade de Dados, você será responsável por desenvolver e gerenciar uma comunidade interna de dados no Sicredi. Seu objetivo será criar/manter/evoluir um ambiente colaborativo onde os membros possam compartilhar conhecimentos, melhores práticas e insights para impulsionar a cultura de dados e a tomada de decisão baseada em evidências em toda a organização.Responsabilidades:Criar e implementar estratégias para estabelecer e cultivar uma comunidade de dados ativa e engajada.Facilitar a comunicação e a colaboração entre os membros da comunidade, incentivando a troca de ideias e a resolução de problemas.Organizar eventos virtuais e presenciais, como workshops, seminários e fóruns de discussão para promover o aprendizado contínuo e o compartilhamento de conhecimento.Desenvolver e manter uma plataforma de comunidade de dados que permita a interação eficaz e o compartilhamento de recursos.Monitorar o engajamento da comunidade e fornecer relatórios regulares sobre o progresso e o impacto das iniciativas da comunidade.Trabalhar em estreita colaboração com as equipes de análise de dados, negócios e TI para garantir que as ferramentas e os recursos estejam alinhados com as necessidades da comunidade.Identificar e promover líderes de opinião dentro da comunidade para atuar como embaixadores e influenciadores.O Sicredi é uma empresa que valoriza a diversidade e está comprometido em prover um ambiente inclusivo para todos os colaboradores.
@@ -6320,17 +6846,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="n">
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S63" t="n">
         <v>6635916</v>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>Descrição da vagaComo Analista de Dados Sênior na WEBJUMP, você terá como responsabilidade realizar a implementação de sistemas de coleta, armazenamento, transformação, visualização e análise de dados de e-commerce e operações online.Você será ponto focal em questões técnica envolvendo BI, Dados e Análise de Resultados e um expert nas soluções Adobe de gestão de Audiências e Insights.
 Responsabilidades e atribuiçõesPlanejamento e Modelagem de sistemas de ETLImplementação e Sustentação de ferramentas de Analytics;Criação de painéis e relatórios, Análise de Resultados;Apresentação para clientes em Português e Inglês.
@@ -6411,7 +6946,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -6422,10 +6961,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R64" t="n">
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S64" t="n">
         <v>6635843</v>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSeu sonho é trabalhar com propósito? Tem desejo de contribuir transformando a vida das pessoas? 😍Embarque com a gente na missão e juntos vamos promover transformação social nas periferias e favelas de todo Brasil! 🚀Você tá ligado(a) que, aqui na Gerando Falcões, não temos como falar em acabar com a pobreza das favelas sem falar em Diversidade e Inclusão. Acreditamos e lutamos pela nossa GENTE: plural, diversa e potente 🏳‍🌈✊🏿✊✊🏾Estamos tentando resolver os maiores e mais desafiadores problemas do Brasil, e chegaremos lá com um time de diferentes Falcões: pretas e pardas, indígenas, PCD, LGBTQIAP+, mulheres (cis ou trans), aqui você é livre para ser quem realmente é.Os melhores talentos são as pessoas que estão conosco. #A gente não entra para jogar. Trabalhamos todos os dias para vencer!#Nós somos as peças quadradas nos espaços redondos!#Temos coragem para liderar no ataque com o melhor que podemos entregar para a favela.#Não temos medo dos desafios, por mais difíceis que eles sejam.#Somos donos daquilo que realizamos e temos a responsabilidade de fazer o melhor que pudermos. Cada um tem um papel muito importante na nossa missão, estamos aqui para brilhar!
 Responsabilidades e atribuiçõesAqui você irá:Coletar, limpar e processar dados provenientes de diversas fontes;Apoiar na criação e manutenção de dashboards e relatórios para monitoramento de KPIs;Realizar análises exploratórias de dados para identificar padrões e tendências;Colaborar na interpretação de resultados e na formulação de recomendações baseadas em dados;Participar de projetos de implementação e manutenção de soluções de Business Intelligence;Colaborar com outras equipes para entender e atender às necessidades de dados específicas.
@@ -6506,7 +7050,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -6517,10 +7065,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R65" t="n">
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S65" t="n">
         <v>6593545</v>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>Descrição da vagaJunte-se a nós!▶️Que tal atuar em projetos que contribuem diretamente para melhoria do nosso dia-a-dia?▶️Que tal ser desafiado a aprender e aprender sempre?  👉Se o novo te desafia e o conhecimento te inspira, #VemserMagna.
 Requisitos e qualificaçõesConhecimento de processos de dados e Analytics;Conhecimento avançado em Banco de Dados (DML - Data Manipulation Language / DOL (Data Definition Languag / Stored Procedures);Conhecimento avançado em modelagem de dados relacional e multidimensional e tecnica de segmentação;Conhecimento avançado em ETL e automação (Integration Services);Experiência em analise de visualização de dados (Power BI / Tableau);Conhecimento em Data Wrangling, limpeza e manipulação de dados, extrair informações de arquivos tais como CSV, Excel, XML;Conhecimento e habilidade em linguagem de programação tais como R, Puthon, C#, Java;Conhecimento em governança e qualidade de dados;Experiência pratica em análises estatísticas.Desejável:Conhecimento em sistemas da área da Saúde;Inglês Intermediário;Formação na área de tecnologia.
@@ -6600,7 +7153,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -6611,10 +7168,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R66" t="n">
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S66" t="n">
         <v>6597603</v>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>Descrição da vagaJunte-se a nós!▶️Que tal atuar em projetos que contribuem diretamente para a melhoria do nosso dia-a-dia?▶️Que tal ser desafiado a aprender e aprender sempre?  👉Se o novo te desafia e o conhecimento te inspira, #VemserMagna.
 Requisitos e qualificaçõesConhecimentos em:Estatística Avançada;Spark;Python;Modelagem ML;Linguagem SQL;Visualização de Dados.Desejável:Atuação com as APIs Cognitivas e ambiente em Nuvem.
@@ -6694,7 +7256,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -6705,10 +7271,15 @@
           <t>['Assistência médica', 'Convênio com empresas parceiras', 'Day off aniversário', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R67" t="n">
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S67" t="n">
         <v>6515547</v>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>Descrição da vagaA Think Digital faz parte do Grupo Tecnoset, atende grandes players de mercado, dos mais diversos segmentos. Acreditamos em um mundo conectado de forma inteligente e segura, garantindo velocidade de informações com um mercado mais rentável e dinâmico!
 Responsabilidades e atribuiçõesColeta e Análise de Dados das ferramentas de monitoramento;Customização e geração de relatórios a serem apresentados ao cliente;Indicar os pontos de destaque dos dados apresentados e sugetões de melhorias;Apresentação dos dados para a Gerencia e também ao cliente.
@@ -6789,7 +7360,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -6800,10 +7375,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio estacionamento', 'Consignado', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R68" t="n">
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S68" t="n">
         <v>6628641</v>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos um Banco que trabalha na busca do melhor ambiente trabalho e do melhor atendimento aos clientes.Por trás do melhor atendimento, existem pessoas. Se construímos uma história de sucesso e relações de confiança é porque temos um time formado por facilitadores, capazes de enxergar o negócio do cliente, com atitude empreendedora e trabalho em equipe, sempre com foco em fazer acontecer.Sabemos que o mercado é dinâmico e que nossos clientes precisam tomar decisões rápidas. Por isso, buscamos profissionais que se movem com agilidade. Ao longo de 30 anos, acompanhamos diferentes cenários e ciclos econômicos e seguimos nos atualizando para atender necessidades que se transformam a todo momento. O Fibra está crescendo bastante e com isto, precisamos de pessoas que topem novos projetos e com vontade de ir sempre além!Em nossos processos seletivos preservamos o respeito, a equidade e a inclusão de profissionais com diversidade de gênero, raça, religião, orientação sexual, deficiência e idade
 Responsabilidades e atribuiçõesCriação de Dashboard´s;Extração, transformação e carregamento (ETL) de dados e disponibilização de informações úteis para as áreas de Operações;Identificação e implementação de melhorias no processamento de informações;Desenvolvimento e análise de relatórios de KPI’s, para melhor gestão e tomada de decisões com visão estratégica;Elaboração de apresentações institucionais, para atender toda estrutura de Operações e Middle Office;Interação com todas as áreas de Operações (Esteiras de Crédito, Derivativos, Câmbio Pronto, Middle-Office) e demais áreas (principalmente TI, SI, Processos e Auditoria).
@@ -6884,7 +7464,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -6895,10 +7479,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Programa de treinamentos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R69" t="n">
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S69" t="n">
         <v>6620351</v>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos gente que cuida de gente. Cada um com características, histórias e qualidades únicas, mas todos unidos pelo mesmo propósito: viver plenamente. Temos orgulho da nossa história, por isso fazemos o nosso melhor hoje, sem deixar de olhar para o amanhã. Se você preza pela valorização humana, integridade, foco no cliente, superação de resultados, sustentabilidade, inovação em soluções em tudo o que faz, vem fazer parte do nosso time de gigantes.Como é o ambiente de trabalho?Oferecemos um ambiente em que todos são protagonistas e agentes de transformação. Temos um excelente clima organizacional com pessoas engajadas em entregar os melhores resultados, assim como grandes oportunidades de crescimento para você.Vem conferir!
 Responsabilidades e atribuiçõesDESCRIÇÃO GERALGarantir o acompanhamento dos indicadores do time de Marcas Próprias, além de analisar dados e gerar insights para o aprimoramento do resultado da equipe.ATIVIDADESGarantir a base de dados de MP, montar gráficos e relatórios, identificar gaps, etc; Preparar apresentações de resultados (Power BI, PPT);Montar dashboards de relatórios diários (ruptura/venda);Analisar e gerar insights para melhoria e desenvolvimento estratégico;Garantir gráfico de venda (Anual, mensal, produtos, etc) e participação (percentual de venda da marca própria);Divulgar resultados por Gerentes Regionais;Inovar e melhorar processos;Acompanhar zerados (índice de rupturas, previsão de recebimento, etc);Analisar Forecast (previsão de compras enviadas para os fornecedores);Acompanhar pedidos.
@@ -6979,17 +7568,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="n">
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S70" t="n">
         <v>6601467</v>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>Descrição da vagaTemos uma trajetória marcada pelo pioneirismo, pela inovação e por uma crescente agenda ESG. Nos movimentando e evoluindo diariamente, seguimos trabalhando de maneira sólida, criando um ambiente cada vez mais inclusivo e diverso para nossos colaboradores, pois o mundo pede um novo ritmo. Não fazemos distinção entre pessoas candidatas, seja por gênero, deficiência, orientação sexual, raça/etnia ou idade.Venha fazer parte deste movimento e construir sua jornada com a gente. Vem ser Ultra! 
 Responsabilidades e atribuiçõesSe você é apaixonado por dados, orientado para resultados e deseja fazer parte de uma equipe comprometida com a excelência na transformação digital, essa é a sua oportunidade! A posição possui um papel de apoio à Diretoria Financeira e ao Conselho de Administração do Grupo, contribuindo com análises financeiras e operacionais dos negócios da Companhia, e de suas empresas pares. É responsável por desempenhar um papel crucial na condução da transformação digital da área, fornecendo suporte em projetos de BI e na construção de ETL’s.﻿Condução de projetos específicos da área, principalmente ligados à dados;Apoio no projeto de transformação digital, construção de BI’s e ETL de dados;Participar do desenvolvimento, implementação e manutenção de projetos de Business Intelligence, garantindo que as análises de dados atendam às necessidades estratégicas da empresa;Trabalhar em estreita colaboração com equipes interdepartamentais, incluindo TI, Negócios e Planejamento, para garantir a coesão e a integração de iniciativas relacionadas a dados.
@@ -7069,7 +7667,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -7080,10 +7682,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio combustível', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R71" t="n">
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S71" t="n">
         <v>6603725</v>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSomos uma empresa inovadora que atua em diversas indústrias e estamos na vanguarda da análise de dados espaciais e cartografia. Estamos buscando um profissional dedicado e experiente para se juntar à nossa equipe dinâmica. Se você é apaixonado por transformar dados geoespaciais em insights valiosos e visualizações impactantes, esta é uma oportunidade emocionante para você contribuir para projetos desafiadores e significativos
 Responsabilidades e atribuiçõesPrincipais atividades:Coletar, limpar e organizar dados geoespaciais de diversas fontes.Realizar análises espaciais para identificar padrões, tendências e relações em conjuntos de dados geográficos.Desenvolver e implementar modelos espaciais para prever ou simular fenômenos geográficos.Colaborar com equipes multidisciplinares, incluindo cientistas de dados, geógrafos e especialistas em domínios específicos.
@@ -7164,7 +7771,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -7175,10 +7786,15 @@
           <t>['Assistência médica', 'Auxílio creche', 'Auxílio home office', 'Day off aniversário', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R72" t="n">
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S72" t="n">
         <v>6604154</v>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê irá exercer um papel de extrema importância no crescimento da Doc9, será responsável por realizar análises de diferentes bases gerando insights na construção de soluções, desenvolver indicadores e soluções envolvendo dados da nossa operação. Este papel é crucial para impulsionar o crescimento da empresa e aumentar a eficiência da nossa operação.A Doc9 é uma lawtech com marca consolidada no mercado jurídico com seus serviços de marketplace (cálculos, audiências e outras diligências) e que cresce em ritmo exponencial com produtos puramente tecnológicos (SaaS), como o Whom.doc9 e o eHealth.doc9.Somos formados por gente inquieta e empreendedora, que valoriza o trabalho em equipe e acredita que o crescimento sustentável se dá a partir de pessoas que amam o que fazem. Estamos em busca de pessoas engajadas, que tenham brilho no olho e muita vontade de se desenvolver e crescer com a gente.
 Responsabilidades e atribuiçõesComo Analista de Dados, você atuará juntamente à Diretoria Operacional auxiliando nos seguintes processos:Realizar análises de diferentes bases operacionais, nos sentido de gerar insights na construção de soluções;Desenvolver indicadores em Excel e Power BI para gestão da operação;Realizar análises dos resultados dos times apresentando propostas de melhorias;Participar de projetos para evoluir a eficiência da plataforma em garantir o atendimento;Desenvolver outras soluções de dados relacionadas à operação.
@@ -7259,7 +7875,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -7270,10 +7890,11 @@
           <t>['Clube de vantagens']</t>
         </is>
       </c>
-      <c r="R73" t="n">
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="n">
         <v>6272624</v>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA Europ Assistance Brasil considera a diversidade e a inclusão como valores a serem cultivados, fortalecendo a dignidade das pessoas e o respeito aos direitos humanos.Valorizamos as pessoas, encorajamos a diversidade, investimos no aprendizado contínuo e no crescimento por meio da criação de um ambiente de trabalho transparente, coerente e acessível. Nossos valores envolvem estarmos abertos e olharmos o mundo de diferentes perspectivas, trazendo a equidade como um pilar, para entendermos as realidades distintas.Promovemos uma organização com uma cultura de respeito a singularidade de cada pessoa juntamente com a construção de um ambiente igualitário e aberto a novas ideias e sugestões vindas de todas as áreas. 
 Responsabilidades e atribuições·        Avaliação de performance de prestadores·        Análises de causa raiz para identificação de oportunidades de melhoria de processos e redução de custos externos·        Construção de painéis e dashboards para monitoramento dos indicadores·        Interação com equipe de BI para entendimento e revisão das métricas·        Realizar análise de dados e propor melhoria de processos·        Elaboração e exposição de apresentações/ conteúdo para comitês de diretoria e de clientes
@@ -7354,7 +7975,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -7365,10 +7990,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Day off aniversário', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R74" t="n">
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S74" t="n">
         <v>6617171</v>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaOlá, tudo bem?Que tal fazer parte de uma equipe que está revolucionando o setor de consultoria em Tecnologia no Brasil, com foco total em transformação digital? 🚀Esta é uma oportunidade para fazer parte da equipe de Dados da T10, compartilhar conhecimentos (e ideias) &amp; colaborar em projetos desafiadores e que fazem a diferença para nossos Parceiros!Seu momento profissional combina com o desafio de compartilhar ideias e comprometer-se com a equipe? Então a vaga é pra você! Na T10, você trabalhará ao lado de pessoas apaixonadas pelo que fazem, motivadas por transformar o cotidiano do trabalho e sagazes por conhecimento. Esses diferenciais acompanham nosso foco: criar oportunidades reais de crescimento em sua carreira.Ah, e o melhor de tudo: a T10 está crescendo rápido e com bases sólidas! Com isso, as oportunidades de evolução para sua carreira são reais e não falta espaço para você compartilhar e absorver conhecimento!Essa vaga é pra você que possui:Capacidade de comunicar conceitos técnicos de forma clara e eficaz para públicos não técnicos, além de colaborar efetivamente com equipes de diversos departamentos.Habilidade em identificar problemas complexos de dados e desenvolver soluções criativas e eficientes.Capacidade de analisar grandes conjuntos de dados e extrair insights significativos, auxiliando na tomada de decisões baseadas em dados.Eficiência na priorização de tarefas e gerenciamento de múltiplos projetos simultaneamente, mantendo a qualidade e o cumprimento dos prazos.Precisão e cuidado na análise de dados, garantindo a acurácia e confiabilidade dos resultados.Capacidade de trabalhar colaborativamente em equipe, compartilhando conhecimentos e aprendendo com os colegas.Ao mesmo tempo, espera-se a capacidade de operar de forma independente, tomando a frente nas tarefas e projetos sem a necessidade de supervisão constante. Esta habilidade inclui ser proativo na busca de informações, soluções e recursos necessários, além de ter a determinação de seguir em frente com as tarefas e cobrar ações e decisões quando necessário.Habilidade para se adaptar rapidamente a novas ferramentas, tecnologias e mudanças no ambiente de trabalho.Iniciativa para antecipar necessidades e problemas potenciais, agindo para resolver ou mitigar questões antes que elas se tornem problemas maiores.Disposição e habilidade para aprender e se atualizar constantemente em um campo que está sempre evoluindo.Curtiu? O Reino te espera 🚀
 Responsabilidades e atribuiçõesO que será esperado de você?Atualizar o Cognos para a versão 11 em colaboração com equipes internas.Migrar a Telemetria Comercial para Cognos v11 e criar novas visões de dados.Priorizar entre as necessidades existentes e novas.Garantir a disponibilização dos dados no IntergrAll via web e aplicativos móveis.Colaborar no encerramento do PowerBI e transição para Cognos.Recriar ambientes Docker, configurar schedules e gerar relatórios relevantes.
@@ -7446,20 +8076,29 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="n">
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>['Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
         <v>6615954</v>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>Descrição da vagaVenha se juntar com a gente na Unidade Souza Santos &amp; Co.!Sobre o ambiente de trabalho, é importante você saber que:Somos guiados por atitudes claras e transparentes em nossa rotina, que nos permitem fazer o máximo para nossos clientes. Trabalhamos de modo colaborativo, o que significa que confiamos nas pessoas que estão do nosso lado.﻿Aqui ninguém é empregado de ninguém. O ambiente é o mais horizontal possível, possibilitando a sua autonomia para tomar as melhores decisões para as atividades pelas quais você é responsável. Não espere pelos outros aquilo que você pode fazer por si mesmo.
 Responsabilidades e atribuiçõesAlguns dos desafios que você vai encarar:Criação do processo completo de BI e Dashboards no Power BI;Reuniões e rotinas do Departamento;Criação de ferramentas no Excel/Power BI;Treinamentos gerais para os Cientistas (Análise de Dados, Utilização dos Dashboards, Sugestões de Apresentação de Resultados).
@@ -7540,7 +8179,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -7551,10 +8194,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Auxílio home office', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R76" t="n">
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S76" t="n">
         <v>6609435</v>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos procurando por uma pessoa para atuar no nosso time de Tecnologia que queira ser livre para pensar diferente e ser protagonista da nossa jornada incrível. Se você deseja fazer o seu melhor trabalho e contribuir para crescer junto, esta oportunidade é para você.Esta vaga é direcionada para nosso time de tecnologia, atuando diretamente no time de Analista de Dados. Como Analista de Dados, você terá a oportunidade de estar na vanguarda da condução de uma grande transformação dentro da Getrak.
 Responsabilidades e atribuiçõesAtuar em projetos multidisciplinares e/ou em conjunto com outras áreas;Traduzir os problemas de negócio em perguntas que possam ser respondidas por dados, adaptando a comunicação para stakeholders técnicos e não técnicos;Interpretar dados, descobrindo padrões e tendências, utilizando técnicas de exploração, visualização e storytelling.Construir dashboards e estudos de dados para apoiar áreas no monitoramento dos seus indicadores.Coletar, organizar e conferir a autenticidade de grandes volume de dados;Atuar com metodologia ágil, realizando pequenas entregas de dados acionáveis ao longo do projeto.
@@ -7635,17 +8283,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="n">
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S77" t="n">
         <v>6586884</v>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>Descrição da vagaInovação é o que nos move. A Cogna é uma das maiores organizações de educação no mundo e pioneira no Brasil. Temos o objetivo de “impulsionar as pessoas a construírem uma melhor versão de si”. Com mais de 50 anos de tradição, atualmente somos uma das maiores empresas do setor de educação do mundo, temos um modelo de negócio amplo e com muitas oportunidades de crescimento. Possibilitamos produtos e serviços educacionais que vão desde a jornada de aprendizado infantil até à terceira idade. #AquiéCogna e temos em nosso DNA a evolução e o dinamismo de uma jovem startup, mas com a estrutura de uma grande empresa com mais de 70 marcas. Por aqui, agimos pensando no sucesso do aluno. Temos paixão por educar e valorizamos as pessoas. Somos responsáveis por fazer acontecer, sempre gerando valor sustentável e juntos, podemos mais. Nós somos a Cogna! 🤩
 Responsabilidades e atribuições•	Atuar nos processos atuais da área (início e fim de ciclo);•	Compreender um processo ponta a ponta (inputs, transformação e outputs) e recomendar ações para otimizá-lo;•	Extrair informações do banco de dados em grande volume, analisando resultados obtidos e apontando inconsistências existentes;•	Criar painéis de indicadores para mensuração dos resultados;•	Propor melhorias nos processos e automações nos processos relacionados à virada de semestre (processamento de notas, rematrícula, inclusão de disciplinas, formatura)•	Interagir com as demais áreas a fim de identificar oportunidades, projetar e avaliar melhorias nos produtos e processos;•	Garantir execuções dentro de prazos pré-estabelecidos, mantendo a qualidade do resultado;•	Conduzir reuniões com outras áreas; 
@@ -7726,7 +8383,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -7737,10 +8398,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Desconto em produtos', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R78" t="n">
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
         <v>6605576</v>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>Descrição da vagaO que é a área de Engenharia de Dados na Porto Seguro? Você é movido por inovação e apaixonado por dados? Então temos um lugar esperando por você na área de Engenharia de Dados &amp; Plataformas Analíticas da Porto!A Engenharia de Dados é uma área corporativa responsável por construir, gerenciar e disponibilizar dados com qualidade para fins analíticos, para todas as áreas de negócio da Porto Seguro. Define e governa as plataformas analíticas e suas ferramentas, bem como promove as boas práticas na utilização dos dados e ferramentas.Trata-se de uma área estratégica, que habilita o trabalho com dados das variadas áreas de negócio, suportando Analistas e Cientistas de Dados espalhados pela empresa.Estamos em um período de grande modernização e expansão, de forma a atender as necessidades da empresa quanto à transformação digital e orientação a dados (“data-driven”).
 Responsabilidades e atribuiçõesAnalisar as necessidades de negócio e assegurar o correto desenvolvimento e implementação das aplicações;Criar e manter fluxos de dados (estruturados e não-estruturados) que suportem soluções de BI e Analytics e entreguem as informações no tempo requerido e com qualidade;Realizar análise de impacto de alterações propostas em fluxos e modelos de dados compartilhados, mitigando impactos, evitando redundâncias, garantindo performance e confiabilidade nas informações que serão providas ao negócio;Realizar alinhamentos das soluções com as áreas de apoio da TI (Arquitetura, Segurança da Informação, Operações, etc), a fim de seguir as melhores práticas em todos os aspectos;Mapear e documentar as integrações entre os sistemas, garantindo o rastreamento correto do dado fim-a-fim;Elaborar cenários de testes técnicos, assim como coordenar testes funcionais e não funcionais para validar a qualidade das soluções entregues;Gerir estimativas e orçamento das atividades de projetos, para que estejam coerentes com o escopo de desenvolvimento necessário e acordado;Gerir a dinâmica com os fornecedores de fábrica de software, assim como garantir a qualidade dos objetos entregues por eles;Coordenar os procedimentos de Gestão de Mudanças para implantação dos projetos, assim como os alinhamentos com as áreas envolvidas;Zelar pela integridade do sistema, bem com tomar medidas preventivas a fim de antecipar problemas e monitorar a estabilidade das soluções;Incentivar a busca e reutilização de dados corporativos e compartilhados, a fim de evitar redundância de dados;Monitorar os processamentos de preparação e carga de dados e relatórios das áreas, com a finalidade de garantir a atualização dos dados e informações em tempo e com qualidade;Facilitar o desenvolvimento técnico contínuo da área e dos demais colegas de equipe, assumindo responsabilidades e mantendo bom relacionamento interno e externo (com clientes e fornecedores);Garantir a entrega bem sucedida das soluções de Engenharia de Dados, sempre olhando para as necessidades de negócio.
@@ -7821,17 +8483,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="n">
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
         <v>6606178</v>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>Descrição da vagaAqui no Grupo RBS nós acreditamos na Comunicação. Uma comunicação que conecta, diverte, emociona e informa. Acreditamos no "viver junto", porque é junto que vivemos as melhores experiências. Estamos há 65 anos construindo nossa história e "vivendo junto" dos gaúchos, seja através da TV, do Rádio, do Jornal e do Digital. Por aqui desafios e oportunidades não faltam e só crescem a medida que evoluímos. Você também acredita na Comunicação e no impacto que ela pode ter na vida das pessoas e nos resultados dos negócios?Venha fazer parte do nosso time.
 Responsabilidades e atribuiçõesCriar diagnósticos e dashboards de acompanhamento que direcionem as decisões de conteúdo e de negócio;Realizar análises de dados complexas e interpretar os resultados para equipes de produção de conteúdo, comunicação e negócios;Integrar grupos de trabalho e squads de produto, levando insights e recomendações e apoiando as decisões com dados;Realizar análises exploratórias de dados para identificar padrões, tendências e insights relevantes ao negócio;Extrair, limpar e transformar dados de diversas fontes para análise;Colaborar com a equipe de desenvolvimento de sites e aplicativos para implementação de soluções e integração de dados;Fornecer treinamento e apoio aos usuários para uso de dashboards e ferramentas de BI;Apoiar na manifestação da cultura de dados e contribuir para o desenvolvimento analítico das demais áreas da empresa.
@@ -7911,7 +8582,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -7922,10 +8597,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio desenvolvimento', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Refeitório', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R80" t="n">
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
         <v>6601171</v>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>Descrição da vagaA Wilson Sons é uma das maiores operadoras de serviços portuários, marítimos e logísticos do Brasil, e iniciou suas atividades em 1837, em Salvador, Bahia. Nesses 180 anos de existência, a Companhia se estabeleceu como renomada prestadora de serviços pela competente gestão de seus negócios nos segmentos em que atua.Quem Somos?Somos conexões que acompanham as tendências do mercado, investem em infraestrutura e tecnologia, inovam em processos e antecipam necessidades. É o nosso olhar para o futuro que garante as melhores oportunidades para os nossos parceiros.Nossa equipe é composta por pessoas que compartilham os valores e princípios que norteiam a visão de futuro da Wilson Sons. São pessoas engajadas e comprometidas com a qualidade de entrega de nossos serviços, o que reflete diretamente na produtividade da companhia. Em nossa Visão, assumimos o compromisso de ser a primeira escolha dos colaboradores e de crescer de forma arrojada, sinérgica e sustentável. Nesse desafio, buscamos promover e manter um alto nível de engajamento de equipe.Buscamos pessoas que desejam entregar o seu melhor para crescermos juntos.  Junte-se a nós! Conheça Melhor a Wilson Sons!Site: www.wilsonsons.com.brInstagram: wilsonsonsFacebook: pt-br.facebook.com/WilsonsonsBRLinkedin: www.linkedin.com/company/wilsonsons/
 Responsabilidades e atribuições-Liderança Técnica dos Projetos na área de Data Science &amp; Analytics.- Coleta e Armazenamento de Dados: Coletar dados de diversas fontes, como sistemas de gestão de terminais, sensores e outros dispositivos. Certificar-se de que os dados sejam armazenados de maneira segura e acessível.- Limpeza e Preparação de Dados: Realizar a limpeza e a preparação dos dados para garantir que estejam livres de erros e prontos para análise. Isso inclui a eliminação de dados duplicados, correção de erros e formatação adequada.- Análise de Dados: Utilizar ferramentas de análise de dados, como Python, R, ou software de análise estatística, para identificar tendências, padrões e insights nos dados. Isso pode incluir análise de desempenho operacional, produtividade, eficiência e segurança.- Desenvolvimento de Modelos e Algoritmos: Criar modelos estatísticos e algoritmos de machine learning para prever comportamentos futuros, como demanda de contêineres, necessidade de manutenção de equipamentos ou tendências de segurança.- Geração de Relatórios: Produzir relatórios e painéis de controle que resumam os principais indicadores de desempenho (KPIs) e forneçam informações valiosas para a alta administração e equipes operacionais.- Otimização Operacional: Identificar oportunidades de melhoria em operações de carregamento, descarregamento, armazenagem, movimentação e distribuição de contêineres com base na análise de dados.- Segurança de Dados: Garantir a segurança e a integridade dos dados, implementando medidas de proteção, como criptografia, controle de acesso e monitoramento constante.- Colaboração Interdepartamental: Trabalhar em estreita colaboração com departamentos relevantes, como TI, operações, manutenção, comercial e segurança, para garantir que os dados estejam sendo usados de maneira eficaz em toda a organização.- Aprimoramento de Sistemas: Propor melhorias nos sistemas de gerenciamento de terminais e outras ferramentas para aprimorar a coleta, análise e disseminação de dados.- Treinamento e Orientação: Oferecer treinamento e orientação a outros membros da equipe para promover a cultura de análise de dados e a adoção de boas práticas.- Acompanhamento de Tendências Tecnológicas: Manter-se atualizado sobre as últimas tendências em análise de dados, tecnologias e ferramentas, garantindo que o terminal esteja aproveitando ao máximo as inovações disponíveis.
@@ -8006,17 +8682,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="n">
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>['Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S81" t="n">
         <v>6600663</v>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>Descrição da vagaA Globo é feita de gente que quer fazer diferente, fazer junto, fazer o futuro.Gente espalhada por todo o país (e mundo!) trabalhando com conteúdo, notícias, negócios, tecnologia e brasilidade de sobra. Canais na TV aberta e por assinatura, produtos digitais como globoplay, Cartola, g1, ge, gshow e outros serviços estão reunidos no mesmo lugar, na mesma Globo.Novos modelos de negócios digitais estão sendo pensados e desenvolvidos, buscando nos aproximar cada vez mais do usuário e dos seus desejos. As oportunidades de novos negócios também trazem a chance e o desafio de construirmos novos times data-driven e que coloquem o consumidor no centro das nossas decisões.Criamos ambientes onde todas as pessoas são incluídas, acolhidas e valorizadas. Nos empenhamos em ser uma Globo cada vez mais diversa, em representatividade e pensamento, aprendendo uns com os outros e estimulando a criatividade e inovação. ﻿Dentro da diretoria de Negócios Integrados em Publicidade, a área de Gestão da Receita possui um olhar abrangente sobre o potencial de monetização e o devido uso das diferentes alavancas comerciais para ampliação da receita. Entre as responsabilidades estão o desenho de ações promocionais, gestão de políticas comerciais e desconto, evoluções do Globo Impacto, confecção de propostas de Revenue Share e análise do mercado publicitário para suportar decisões do negócio.
 Responsabilidades e atribuiçõesComo será seu dia a dia:  Atualizar e analisar bases de dados;Criar dashboards de acompanhamento;Gerir o dia a dia de Globo Impacto;Realizar análises do mercado publicitário para suportar decisões do negócio.
@@ -8097,7 +8782,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -8108,10 +8797,11 @@
           <t>['Assistência psicológia', 'Convênio com empresas parceiras', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R82" t="n">
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="n">
         <v>6600243</v>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>Descrição da vagaA Marketdata é uma das mais renomadas consultorias de dados e tecnologia, fazendo parte do Grupo VML, que integra a gigante mundial WPP, maior conglomerado de comunicação do mundo, conhecido por suas transformações impactantes em mercados locais e internacionais através de soluções criativas inovadoras.Com uma história de 23 anos repleta de conquistas e em um momento de franca expansão internacional, a Marketdata se destaca não apenas por sua trajetória impressionante, mas também por seu compromisso inabalável com a inovação, a tecnologia e a análise profunda de dados. Ao longo de sua jornada, acumulou inúmeros prêmios internacionais e nacionais: A Marketdata foi eleita, por 10 vezes, a Melhor Empresa de CRM do Ano, pela Associação Brasileira de Marketing de Dados (ABEMD), além de ser a maior vencedora da categoria de Marketing Baseado em Dados do Prêmio Echo Latam.Na Marketdata, valorizamos não apenas os resultados, mas acima de tudo, as pessoas. Fomentamos relações humanas sólidas e promovemos valores como comprometimento, excelência, flexibilidade, ética e inovação. Estamos firmemente comprometidos com a inclusão, a diversidade e a preservação do meio ambiente. Buscamos talentos que compartilhem de nossa visão e que desejem fazer parte de uma equipe onde o senso de pertencimento é valorizado, e onde juntos, contribuímos para um futuro mais sustentável e inclusivo. Se você se identifica com esses valores, venha fazer parte da nossa equipe na Marketdata.Junte-se a nós e faça a diferença!
 Responsabilidades e atribuiçõesPrincipais desafios:Apresentação para o cliente e condução de projetos (controle de cronograma, elaboração de relatórios, interface com equipe multidisciplinar).Estabelecer relacionamento estreito e frequente com os principais stakeholders do projeto;Conhecer e seguir a metodologia de planejamento, aplicando adequadamente as ferramentas existentes no desenvolvimento de planejamento estratégico de loyalty /CRM/CX;Identificar oportunidades, propor soluções para gaps e trazer insights relevantes no desenvolvimento e execução do projeto de consultoria;Homologar as entregas realizadas pela equipe, garantindo assim a alta qualidade no processo;Identificar novas oportunidades de ampliação do projeto.Pesquisar tendências de mercado sobre loyalty, CX (Customer Experience) e CRM para identificar possíveis oportunidades de negócio;Elaborar e conduzir apresentações executivas do projeto;Conduzir reuniões de status e report para o cliente;
@@ -8192,17 +8882,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="n">
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
         <v>6588929</v>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>Descrição da vagaModelo de trabalho: Remoto | CLT 💻🎯 O TIME INMETRICS Com maestria técnica e excelência operacional estão sempre buscando entender as necessidades dos nossos clientes para criar e desenvolver os melhores produtos digitais.Nosso time é multidisciplinar, dominam metodologias e práticas ágeis, são dedicados a fazerem entregas constantes de valor.Diante disso, construímos o produto certo, do jeito correto e operamos para garantir a melhor experiência do cliente, além de estabilidade, qualidade e confiabilidade.
 Responsabilidades e atribuiçõesAtuar no projeto de transformação de solução técnica;Ser um perfil consultivo;Responsável por atuar no controle, administração e estabelecimento dos métodos e modelos de dados diversosImplementar e propor soluções a partir de dados, sejam elas análises, visualizações ou automaçõesResponsável por disseminar a cultura de dados.Desenvolver novos estudos baseados em diferentes tipos de dados, extrair indicadores e insightsAtuar com total comprometimento e qualidade de entrega
@@ -8283,17 +8982,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="n">
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
         <v>6561197</v>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê é conhecedor das estratégias de negócio? Busca o crescimento com foco no resultado? Está sempre ligado as inovações e ama estar rodeado de pessoas? Então é você que estamos buscando! Venha fazer parte da equipe de Mercado.﻿Esta e as demais vagas anunciadas estão disponíveis para PcD ♿
 Responsabilidades e atribuiçõesApresentar relatórios de resultados à direção da empresa;Elaborar estudos de Forecast de venda e Previsão orçamentária do setor;Garantir a confiabilidade das análises de dados;Criar aplicativos e dashboards de B.I;Extrair, tratar e transformar dados coletados em informações relevantes para a gestão no direcionamento estratégico;Realizar benchmarking, entender o cenário da concorrência, desenvolver análises comparativas entre a empresa e os principais players do mercado;Acompanhar os KPIs da empresa e levar para os tomadores de decisão;Elaborar dashboards com informações relevantes para os setores de Mercado e Comercial;Poderá ser eventualmente destacado para novas atribuições dedicada para campanhas, projetos ou produtos.Foco em extração de dados e relatórios, fornecendo apoio a todos canais de vendas horizontal e verticais.Liderar as necessidades e adequações sistêmicas junto a equipe de T.I, agendas de treinamentos sistêmicos, entregas e sustentação sistêmica do negócio.
@@ -8374,7 +9082,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -8385,10 +9097,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Café da manhã', 'Massoterapia', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R85" t="n">
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S85" t="n">
         <v>6594377</v>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê é apaixonado por dados, análises e busca incessante por insights? Estamos à procura de um Analista de Dados talentoso e motivado para se juntar à nossa equipe e contribuir para a excelência em nossas operações.Candidate-se hoje!
 Responsabilidades e atribuiçõesCriar painéis para controle de indicadores do setor;Realizar pesquisas de oportunidades de negócio;Construir conteúdos da trilha de conhecimento do Analytics;Controlar o comitê de iniciativas de pesquisas;Conduzir interação dos analytics das áreas de negócio.
@@ -8469,17 +9186,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="n">
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
         <v>6589546</v>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>Descrição da vagaConstruir um sistema de gerenciamento e gestão das equipes e do levantamento realizado em campo.Roteirização de veículos e gerenciamento das equipesBusca e extração e manipulação de dados em banco de dados sql e planilhas de excel para apresentação de indicadores e métricas.O você deve ter: ser proativo, perfil autogerenciável (saber controlar o próprio ritmo de trabalho, as tarefas que devem ser realizadas e as metas que precisam ser cumpridas) facilidade em trabalhar com novas ferramentas, raciocínio lógico e estratégico, conhecimento ou interesse em planejamento de rotinas e roteirização.
 Responsabilidades e atribuiçõesFormação superior completa em áreas relacionadas a tecnologia;Conhecimentos Técnicos: Power BI, banco de dados;Ousadia para aprender e ensinar.
@@ -8560,17 +9286,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="n">
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S87" t="n">
         <v>6446884</v>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>Descrição da vagaA EQI segue na sua trajetória de crescimento, quebrando barreiras entre as pessoas e o mercado. Venha fazer parte do maior fenômeno dos últimos tempos no mundo das finanças.Tudo nos trouxe até aqui e convidamos você a irmos ainda mais longe.A área de Data Analytics é responsável por gerenciar e desenvolver todas as aplicações que envolvem o consumo, tratamento e distribuição de dados de fontes diversas.Entregamos dados para todos os departamentos da EQI, ou seja, temos que atuar com diferentes negócios para atender entre financeiro, jurídico, vendas, marketing, etc.Buscamos um(a) profissional para atuar como Analista de Dados JR.Então se você tem conhecimento em analytics, PBI, e gosta do universo de dados, se inscreva!Você poderá fazer parte de uma equipe multidisciplinar responsável por todo o ciclo de vida de desenvolvimento de projeto, desde a concepção até a implantação. Atuamos em formato de Squad focados na implementação de soluções escaláveis que atendam as necessidades do nosso negócio.
 Responsabilidades e atribuições• Planejamento de projetos para dimensionamento da infraestrutura de BI e modelos de dados junto aos clientes;• Em conjunto com os responsáveis pelas demais áreas, alinhar estratégias e objetivos de negócio;• Extrair os dados de diversas fontes de dados para ingestão nas plataformas de análise de dados;• Garantir que os dados sejam apropriados, acessíveis e disponíveis;• Construir dashboards para visualização de dados;• Prover a manutenção e a disponibilidade da solução de BI;• Otimizar a performance e escalabilidade;
@@ -8650,7 +9385,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -8661,10 +9400,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio estacionamento', 'Day off aniversário', 'Horário flexível', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R88" t="n">
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
         <v>6579909</v>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>Descrição da vagaTrabalhamos para você ser mais você em todos os momentos, começando pela sua carreiraReferência no varejo de moda, a C&amp;A se orgulha de ter mais de 14 mil pessoas atuando em suas operações no Brasil para oferecer a melhor experiência para nossas clientes!Trabalhar na C&amp;A é fazer parte de um ambiente inovador e divertido, que estimula o desenvolvimento profissional em todas as fases da carreira.Aqui você pode ser quem é! O respeito às pessoas e à diversidade fazem parte dos nossos valores.Enxergamos a moda como uma plataforma de expressão e de como as pessoas se conectam.Queremos fazer uma moda com impacto positivo, o que nos torna únicos. Nossa cultura acredita no valor e na riqueza das diferenças. Somos uma multinacional com alma brasileira.Curta nossa página de carreira no Linkedin para saber mais sobre nosso dia-a-dia!Se você se identifica com a C&amp;A e procura uma empresa, acima de tudo, apaixonada por pessoas, #VemPraCeA.
 Responsabilidades e atribuiçõesDesenvolvimento dos principais indicadores e OKR's de atendimento;Garantir que os resultados estejam adequados aos interesses estratégicos da companhia através da gestão das EPS (empresas terceiras que prestam serviços de atendimento);Execução do planejamento e dimensionamento operacional das centrais de atendimento, bem como acompanhar e validar a aplicação das estratégias nas EPS;Gestão financeira do centro de custo da área, garantindo que os resultados estejam de acordo com o orçamento;Apoiar as EPS para garantir o funcionamento adequado de todo workstation, disponibilizando acessos e sistemas adequados aos perfis de usuários;Monitorar os principais motivos de contato através dos indicadores gerados e analisar oportunidades sistêmicas e/ou processuais para otimização de capacity e produtividade;Elaborar apresentações de resultados e acompanhamento de atividades em pipeline.
@@ -8742,10 +9486,14 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -8756,10 +9504,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida']</t>
         </is>
       </c>
-      <c r="R89" t="n">
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S89" t="n">
         <v>6112464</v>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>Descrição da vagaFaça parte do time #SunoLoversNosso propósito é transformar a sociedade por meio da educação financeira, e para isso nossos valores são a pedra fundamental.Temos um compromisso muito sério com nossos clientes e investir no seu sucesso é um dos nossos principais valores.Somos uma empresa certificada pela Great Place to Work® Brasil, pois acreditamos que pessoas são nosso ativo mais valioso.Estamos crescendo exponencialmente e você pode fazer parte dessa trajetória de sucesso com a gente.A pessoa Analista de Dados Pleno será responsável por acompanhar o dia a dia dos negócios da empresa, entendendo suas necessidades, para que assim consigam definir, desenvolver indicadores, relatórios e dashboards. Sua missão é apoiar a coleta, análise e interpretação de dados para fornecer insights acionáveis valiosos e soluções analíticas robustas que contribuam para a tomada de decisões, realizando análises consistentes e precisas, voltadas para o crescimento e eficiência dos processos internos.
 Responsabilidades e atribuiçõesAlém disso, você também vai:Modelar dados e construir consultas SQL mais complexas e otimização de bancos de dados;Construir dashboards interativos e visualizações de dados avançadas para apresentar informações de forma clara e impactante com ferramentas de DataViz (PowerBI, Metabase, LookerStudio);Minerar e analisar dados com pensamento crítico para suporte à tomada de decisão dos negócios da empresa, além de extrações de bases periodicamente e sob demanda;Integrar e transformar dados de múltiplas fontes, garantindo a qualidade e a consistência dos dados utilizados nas análises, explicando as variações e tendências, agregando novos conhecimentos sobre processos/produtos;Colaborar com os times de negócio para entender suas necessidades analíticas, propor soluções customizadas e fornecer suporte analíticoIdentificar oportunidades de melhoria nos processos de análise e propor automações para aumentar a eficiência da equipe;Elaborar documentações técnicas e relatórios analíticos para comunicação com stakeholders;Acompanhar indicadores-chave de desempenho (KPIs) e métricas de negócios, identificando desvios e sugerindo ações corretivas quando necessário.
@@ -8840,7 +9593,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -8851,10 +9608,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R90" t="n">
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S90" t="n">
         <v>6573078</v>
       </c>
-      <c r="S90" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>Descrição da vagaO Grupo Petz tem como premissa a pluralidade. Por isso, as diferenças são essenciais para a construção de um ecossistema criativo, inovador e descomplicado. Não à toa, somos o maior ecossistema pet do Brasil. Pessoas e empresas diversas atuando juntas em prol do bem-estar animal. Se você se identifica e quer construir sua história com um time descomplicado, proativo, focado em resultados e, principalmente, apaixonado por pets, candidate-se. Aqui, queremos que você seja você, para juntos sermos Petz.Buscamos um Analista de Dados para nos ajudar a tomar melhores decisões via análises de dados, modelagem e relatórios, assim como melhorar processos com automação e evolução da infraestrutura.O trabalho será focado nas áreas de Supply, Financeiro e/ou Serviços. Essa pessoa deve se sentir confortável trabalhando com alto volume de dados, usando SQL, Python e/ou R e também deve conhecer técnicas de análise e como aplicá-las para otimizar resultados de negócios. 
 Responsabilidades e atribuiçõesConstante relacionamento com o time de Supply, Financeiro e/ou Serviços para entender seus conceitos, cotidiano e necessidades;Criação, manutenção e acompanhamento de indicadores chave da área;Criação de modelos estatísticos em conjunto com o time de Data Science;Análise dos dados e desenvolvimento de estudos personalizados para decisões estratégicas;Construção de dashboards e apresentações de resultados;Automação de modelos, relatórios e outros processos;Construção de infraestrutura de dados em conjunto com o time de Engenharia de Dados.
@@ -8935,17 +9697,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="n">
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="n">
         <v>6571840</v>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="T91" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê é apaixonado por pessoas, tecnologia, análise de dados e melhoria contínua?A Betha está em busca da nova pessoa Analista de Dados!Seu desafio será desenvolver, manter atualizada e documentada a estrutura de dados necessária, apoiando no desenvolvimento de indicadores de resultados, painéis de estratificação de resultado, garantindo segurança, integridade e conformidade com as regras/métricas da empresa.Essa é uma oportunidade única para você atuar em um papel fundamental na otimização dos nossos processos e impulsionar o crescimento sustentável da empresa.Somos especialistas no desenvolvimento de software para a gestão pública. Estamos no mercado há 38 anos e contamos com mais de um milhão de usuários distribuídos por todo o Brasil.Somos mais de 700 mentes focadas em usar a tecnologia para transformar a realidade das pessoas.Seja um Betther e transforme com a gente a gestão pública do nosso país.
 Responsabilidades e atribuiçõesDesenvolver, manter atualizada e documentada a estrutura de dados necessária de processos e de resultados;Identificar, solicitar e homologar necessidades de fontes de dados;Realizar a modelagem multidimensional nos datamarts;Manter política de restrição de acesso de dados;Garantir a integridade da estrutura de dados;Desenvolvimento de indicadores de resultados e painéis de estratificação de acordo com as regras/métricas de indicadores e pontos de controle dos processos;Realizar análise de dados para identificar tendências e/ou realizar projeções;Manter padrões e templates que conduzam à produtividade das atividades de medições;Manter-se atualizado sobre as novas tecnologias de BI;Contribuir com o desenvolvimento e capacitação da equipe de sua área de atuação.Manter a infraestrutura de BI íntegra e acessível Mapear os processos de negócio com o objetivo de facilitar a automação destes através do desenvolvimento de sistemas de informação;Elaborar políticas, fluxos de processos e procedimentos em conjunto com as áreas;Elaborar, organizar e aplicar treinamentos de processos em conjunto com as áreas;Prestar suporte dos processos aos colaboradores;Sugerir a criação/alterações de políticas, processos e procedimentos, objetivando melhorar os controles, otimizando os processos e recursos;Criar e manter manuais de indicadores com as regras/métricas de pontos de controle dos processos que apoiem os gestores no acompanhamento dos resultados;Planejar e realizar auditorias dos resultados dos processos, reportando desvios aos gestores;Sugerir padrões e procedimentos para a execução dos trabalhos de auditoria de processos.
@@ -9025,17 +9792,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="n">
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="n">
         <v>6569233</v>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="T92" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos à procura de profissionais que tenham muita vontade de inovar e colaborar com o crescimento da Every.Somos uma empresa sólida de Cybersecurity and GRC, com foco no cliente, liderança visionária, time colaborativo e excelente clima organizacional, e vale ressaltar que somos GPTW! Vem #SerFeliz na Every!
 Responsabilidades e atribuiçõesAtividades a serem desempenhadas:§ Irá apoiar o desenvolvimento do programa de privacidade dos clientes Every, nomeadamente na implementação das leis de privacidade aplicáveis ​​ao negócio, e na elaboração, atualização e acompanhamento dos principais documentos de privacidade;§ Você revisará e negociará contratos, do ponto de vista da privacidade e proteção de dados;§ Você prestará suporte às áreas do negócio em questões relacionadas à privacidade e proteção de dados;§ Apoiará o desenvolvimento de novos produtos e metodologias de privacidade, desde a concepção, bem como eventuais melhorias;§ Você interagirá com o time interno, orientando e apoiando, bem como com os clientes.§ Responsável pela criação, desenvolvimento, manutenção e implementação de políticas e processos que permitem práticas de privacidade consistentes, eficazes e em conformidade com a LGPD e/ou GDPR;§ Responsável pelo desenvolvimento de Avaliações de Impacto de Proteção de Dados para avaliar os riscos;§ Projeta e implementa ferramentas e padrões para auxiliar a rede de DPOs e especialistas jurídicos;§ Auxilia no acompanhamento, investigação e relato de violações de dados e auxilia no gerenciamento de reclamações de privacidade e investigações por autoridades regulatórias de clientes;§ Estabelece ações como parte de eventos importantes de proteção de dados pessoais e privacidade (aniversário do GDPR, dia de Proteção de Dados Pessoais e Privacidade, eventos de segurança, etc.).§ Desenvolve e fornece treinamento contínuo sobre privacidade para colaboradores e clientes;§ Realiza avaliações periódicas de risco de privacidade e conformidade para a empresa, incluindo todos os planos e esforços de mitigação e remediação.
@@ -9116,17 +9888,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="n">
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>['Excel']</t>
+        </is>
+      </c>
+      <c r="S93" t="n">
         <v>6562610</v>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="T93" t="inlineStr">
         <is>
           <t>Descrição da vagaFAÇA PARTE DO TIME QUE CONSTRÓI SONHOS! O grupo Direcional faz a diferença na vida de milhares de pessoas. Para seguir cumprindo seu propósito, temos um time formado por profissionais brilhantes, com o mesmo objetivo, e você pode ser o próximo talento a integrar nossa equipe, que hoje é referência no mercado.
 Responsabilidades e atribuiçõesManipulação de dados em excel, power point e think cell para apresentações. Construção de relatórios para estratégia da área de relacionamento com o cliente pós venda. Acompanhamento diário de indicadores no BI e junto a sistemas de fornecedores. Suporte em planilhas para equipes
@@ -9207,7 +9988,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -9218,10 +10003,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R94" t="n">
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>['Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S94" t="n">
         <v>6560465</v>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>Descrição da vagaNesta oportunidade de Analista de Customer Service, você será responsável por gerar relatórios e analisar indicadores referentes a utilização dos sistemas contratados. Além disso, também será responsável por enviar/apresentar estes dados para o cliente.Somos uma empresa de tecnologia orientada a desenvolver soluções customizadas para auxiliar nossos clientes a gerir suas frotas de forma eficiente. Nossa missão além de promover a melhoria nos processos logísticos dos nossos clientes é promover um ambiente desafiador a fim de incentivar o autoconhecimento e autodesenvolvimento adaptado as necessidades profissionais dos nossos colaboradores.
 Responsabilidades e atribuiçõesPara te ajudar a entender o desafio, aqui estão algumas responsabilidades:Extrair e analisar relatórios referente a utilização dos sistemas contratados;Construir dashboards para apresentação de indicadores ao cliente;Identificar as necessidades do cliente, definindo novos indicadores para extração e análise;Identificar melhorias nos processos de extração de dados, identificando ferramentas que possam tornar o processo mais ágil e eficiente.
@@ -9302,17 +10092,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="n">
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="n">
         <v>6561400</v>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaProfissional irá atuar na área de Governança de Dados, dentro da Diretoria de Dados da Lojas Renner SA. Será responsável por garantir a integridade, qualidade e conformidade dos dados e a implementação e manutenção de políticas e práticas de governança de dados. Irá colaborar com diversas áreas da empresa para promover a utilização eficiente e segura dos dados. 
 Responsabilidades e atribuiçõesDesenvolver e implementar políticas de governança de dados.Realizar auditorias e monitorar a conformidade com normas e regulamentações.Colaborar com as equipes para melhorar a qualidade e uso dos dados.Identificar e mitigar riscos relacionados aos dados.Participar de iniciativas de gestão de metadados e catálogos de dados.Desenvolver e conduzir treinamentos sobre práticas de governança de dados.Contribuir para a definição e manutenção de padrões de qualidade de dados.
@@ -9393,17 +10188,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="n">
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S96" t="n">
         <v>6560815</v>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="T96" t="inlineStr">
         <is>
           <t>Descrição da vagaO nosso Analista de Dados será responsável por tratar os temas de armazenagem e chegada dos nossos produtos no Centro de Distribuição da companhia garantindo a assertividade do processo logística.
 Responsabilidades e atribuiçõesColetar, limpar e preparar dados de diversas fontes para análise.Realizar análise exploratória para identificar padrões, tendências e anomalias nos dados.Projetar, implementar e manter modelos de dados eficazes para análises recorrentes.Criar relatórios e dashboards interativos para apresentar insights de maneira clara e compreensível.Escrever consultas SQL complexas para extrair e transformar dados conforme necessário.Trabalhar em conjunto com equipes de negócios, desenvolvimento e outras áreas para entender e atender às demandas analíticas.Garantir a segurança e conformidade com as políticas de privacidade de dados estabelecidas pela empresa.Comunicar resultados de análises de maneira eficaz, adaptando a linguagem técnica para diferentes públicos.
@@ -9484,7 +10288,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P97" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -9495,10 +10303,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Clube de vantagens', 'Day off aniversário', 'Programa de remuneração variável', 'Restaurante interno', 'Seguro de vida', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R97" t="n">
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S97" t="n">
         <v>6552404</v>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="T97" t="inlineStr">
         <is>
           <t>Descrição da vagaCom uma história de mais de 50 anos, estamos consolidados como uma das maiores indústrias gráficas da América Latina, com um moderno portfólio que oferece soluções integradas para qualquer tipo de mídia impressa e publicitária.Estamos em constante aprimoramento e investimos nas melhores tecnologias do mercado e em capacitação profissional, oferecendo serviços que procuram satisfazer às mais específicas necessidades de cada cliente. Estamos comprometidos em atrair os melhores talentos, pessoas movidas por desafios e inspiradas por oportunidades de crescimento pessoal e profissional.Se você se identifica com o nosso jeito Positivo de ser, cadastre seu currículo e se aplique na vaga!VAGA DESTINADA PARA PESSOAS COM OU SEM DEFICIÊNCIA
 Responsabilidades e atribuiçõesO que nossa área faz aqui na Posigraf? Vem ver! Estamos em busca de um Analista Júnior de Dados Comerciais altamente motivado e apaixonado por números para integrar nossa equipe dinâmica. Este profissional será peça-chave na condução da nossa estratégia comercial, fornecendo insights valiosos através da análise de dados relacionados a receitas, margens e outras métricas essenciais para o sucesso do nosso negócio. Saiba como irá contribuir com a nossa equipe: Coletar dados de planilhas de vendas e do sistema, processar e analisar dados comerciais para identificar padrões, tendências e oportunidades de aprimoramento;Desenvolver relatórios em Excel e dashboards, incorporando técnicas de storytelling para auxiliar na tomada de decisões estratégicas;Colaborar com equipes internas para compreender as necessidades comerciais e oferecer suporte analítico para definição de preços;Monitorar indicadores-chave de desempenho (KPIs) relacionados a receitas por segmento, desempenho dos vendedores, entre outros;Fornecer informações para tomada de decisão para a gestão;Atuar na melhoria de processos à partir de dados apurados;Fazer a interface entre equipe técnica/orçamentos e comercial/vendas;Acompanhar e fornecer suporte para que o processo de vendas seja eficiente, buscando o alcance de novos clientes e também a fidelização e manutenção dos já existentes;Acompanhamento e atualização da previsão de vendas semanal;Apuração e controle das metas dos executivos de vendas, através da geração de relatório de faturamento;Acompanhamento dos indicadores de vendas dos representantes comerciais;Revisão de orçamentos e confecção de propostas comerciais.
@@ -9579,17 +10392,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P98" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="n">
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S98" t="n">
         <v>6558977</v>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>Descrição da vagaA função envolve a responsabilidade de efetuar cadastros no sistema SAP, atuando dentro da esfera da Gestão e Ciência de Dados. 
 Responsabilidades e atribuições Auxiliar no controle e saneamento dos dados;Auxiliar no estabelecimento de métodos e modelos de diversos dados;Apoiar a gestão, prestando informações para definição de padrões e nomenclatura de dados;Colaborar no desenvolvimento de projetos relacionado a dados demandados pelas áreas da Cia;Colaborar nas diversas etapas de análise de dados, como coleta, limpeza, organização, compilação e análise de dados; Proceder sob orientação da gestão, a estruturação e manuseio dos dados para identificação de padrões para a Empresa;Colaborar na síntese de base de dados na forma de gráficos, tabelas e painéis para apresentação a gestão;Produzir materiais de apoio para outros colaboradores;
@@ -9669,7 +10491,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -9680,10 +10506,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Horário flexível', 'Massoterapia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R99" t="n">
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
         <v>6545941</v>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="T99" t="inlineStr">
         <is>
           <t>Descrição da vagaIntegrar os times de dados da Diretoria Executiva de Crédito significa incorporar a cultura data-driven no dia a dia. Nosso intuito é aprimorar todo o pipeline de dados, desde a sua estruturação até a tomada de decisão. Queremos gerar insights baseados em dados, garantir um olhar amplo que seja cross a todas as áreas de crédito e direcionar a construção de planos e ações relevantes para a estratégia do Sicredi. Nos envolvemos em várias etapas dos estudos, passando pela compreensão do assunto, elaboração de perguntas-chave, busca por dados relevantes, estruturação dos dados, análise dos dados e apresentação dos resultados.
 Responsabilidades e atribuições​- Elaborar estudos de cenário e diagnóstico do negócio;​- Desenvolver e apoiar os times na mensuração de resultados, identificando oportunidades, tendências e padrões em conjuntos de dados;​- Construção técnica no desenvolvimento e monitoramento dos principais indicadores de performance da organização (KPIs);​- Se comunicar com as pessoas do seu time e dos demais times de forma a promover uma cultura analítica;​- Interagir com os diferentes papéis do processo de dados (engenheiros, outros analistas, cientistas de dados e analistas de negócio);​- Acompanhar o processo de desenvolvimento de produtos, desde a concepção até o acompanhamento dos resultados em produção (Upstream e Downstream);​- Participar da Chapter de Analistas de dados, incentivando e promovendo a disseminação da cultura de dados para os colegas e times da nossa operação;​- Manter a documentação necessária p/ permitir a gestão da estratégia de dados (democratização, governança, qualidade e etc.);​- Apoiar na definição dos pipelines de dados juntamente com os engenheiros de dados;​- Se manter em constante evolução técnica e do negócio.
@@ -9764,17 +10591,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="n">
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
         <v>6550775</v>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos em busca de um(a) Analista para fazer parte da estrutura de Planejamento Comercial na LiveMode, em Rio de janeiro ou São PauloA área de Planejamento Comercial é a responsável por desenvolver os melhores planos comerciais para conectar grandes marcas aos produtos da LiveMode e como Analista de Planejamento Comercial com foco em Dados, você será responsável por analisar e controlar os principais KPI’s de mídia, análises de rentabilidade, construção de defesas e pesquisas de resultados.
 Responsabilidades e atribuições(i) Análise e controle dos principais dados de Mídia / Plataformas digitais  - Organizar e acompanhar os principais KPI's de audiência dos produtos LiveMode ao longo do tempo - Obter e organizar dados do mercado capazes de gerar comparações de valor para os produtos LiveMode (IBOPE e pesquisas)  - Organizar os nossos resultados realizados e projetados nos diferentes formato de mídia/ entrega  - Gerar insights capazes de alimentar o time de planejamento na construção de posicionamentos e defesas de cada produto(ii) Análises de rentabilidade  - Analisar e organizar as precificação por formatos de mídia/ entrega dos produtos LiveMode - Organizar os valoração e entregas dos planos comerciais do restante do mercado  - Comparar os planos comerciais (entregas e precificação) do restante do mercado com a CazéTV
@@ -9854,7 +10686,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -9865,10 +10701,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R101" t="n">
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S101" t="n">
         <v>6554613</v>
       </c>
-      <c r="S101" t="inlineStr">
+      <c r="T101" t="inlineStr">
         <is>
           <t>Descrição da vagaReinventar é a marca da RECORD!Somos uma empresa aberta para o novo e em constante mudança para acompanhar a transformação digital na comunicação.Valorizamos a DIVERSIDADE e as relações humanas, entendendo que um time plural e com paixão pelo que faz são a chave para o nosso sucesso!Buscamos profissionais criativos, com vontade de aprender, inovar e com senso de equipe.Venha fazer parte de um dos maiores Grupos de mídia e entretenimento do Brasil.#VEMPRARECORD 
 Responsabilidades e atribuiçõesRealizar levantamento de requisitos, dados e mapeamento de processos da organização, verificando as necessidades de cada área de negócio, visando levantar as informações para elaborar um plano de ação;Extrair dados nas bases não estruturadas do ambiente Big Data (Data Lake), padronizando informações, visando implementar estratégias que otimizem a eficiência estatística e a qualidade no processamento de informações;Analisar e organizar dados não estruturados, aplicando os padrões definidos na estrutura, visando ajustas as informações conforme a necessidade da área de negócio;Aplicar técnicas de análise em dados estruturados, ajustando as bases conforme a necessidade de cada área de negócios, visando transformar em informações relevantes;Apoiar a área de Inteligência de dados e TI-Sistemas, extraindo e analisando dados, visando levantar informações para planos de ação em cada área de negócio.
@@ -9949,17 +10790,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P102" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="n">
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'Pacote Office', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S102" t="n">
         <v>5830578</v>
       </c>
-      <c r="S102" t="inlineStr">
+      <c r="T102" t="inlineStr">
         <is>
           <t>Descrição da vagaNa Elfa, somos apaixonados pelo que fazemos. Acreditamos que desta maneira nos realizamos, contagiamos e motivamos todos que se relacionam conosco.  Sonhamos alto. Aqui, temos paixão pelo desenvolvimento das pessoas, buscamos modelos de negócio diferenciados que nos permitam crescer e evoluir juntos, somos determinados em garantir um futuro sempre através da excelência e inovação produtiva nos dias de hoje. Acreditamos que a ética e a integridade são bases fundamentais para uma empresa duradoura e queremos contribuir na construção de uma sociedade melhor. Estamos em busca de um Analista de Dados com expertise em análise avançada em dados comerciais. O profissional será responsável por conduzir análises detalhadas e fornecer insights acionáveis para impulsionar as estratégias de vendas e o crescimento do negócio.
 Responsabilidades e atribuiçõesDesenvolver/aplicar modelos estatísticos avançados para projeção de vendas (Forecast) e planejamento comercial;Colaborar com equipes de vendas para entender suas necessidades analíticas e fornecer suporte estratégico;Criar visualizações de dados eficazes no Tableau ou Power BI para comunicar insights;Analisar o funil de vendas, métricas de desempenho e dados de clientes para otimizar estratégias comerciais;Desenvolver estratégias de expansão de vendas com base em análises de mercado e tendências;Relatórios estatísticos, históricos relacionando indústrias, clientes, vendedores;Projeções e estratégias baseadas em resultados já obtidos;Apresentação de resultados aos líderes e equipes;Desenvolvimento e implementação de acompanhamento de indicadores;Analises profundas utilizando Excel e domínio em Power point.
@@ -10040,7 +10890,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P103" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10051,10 +10905,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Day off aniversário', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R103" t="n">
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>['Excel']</t>
+        </is>
+      </c>
+      <c r="S103" t="n">
         <v>6551029</v>
       </c>
-      <c r="S103" t="inlineStr">
+      <c r="T103" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê já pensou em trabalhar em um dos maiores varejistas de moda do Brasil, seria incrível, não é?Temos oportunidade para ANALISTA DE DADOS COM FOCO PLANEJAMENTO COMERCIAL SÊNIOR  ! #VEMPRATORRA!
 Responsabilidades e atribuições· Responsável por apoiar a construção e acompanhar os indicadores dos produtos financeiros (Book de Produtos).· Apoiar na elaboração do planejamento comercial junto ao time, alinhado ao planejamento estratégico, e através da análise e acompanhamento das tendências de mercado, concorrência e demais informações que possam suportar a elaboração das estratégias de vendas;· Apoiar no planejamento, organização e controle das atividades comerciais, efetuando o acompanhamento de funil de vendas, a análise e acompanhamento do forecast de clientes ativos e novos, bem como a elaboração de ações estruturais e táticas em conjunto com áreas de Vendas;· Elaborar ações estruturais e táticas em conjunto com áreas de Vendas, bem como apoiar na organização da agenda comercial;· Apoiar nos processos de geração de informações gerenciais, emissão de relatórios mensais de controle de orçamento, produtividade, assim como de acompanhamento mensal dos custos e resultados de vendas e na identificação de possíveis desvios dos mesmos;· Realizar levantamentos, para geração de relatórios para análises e tomada de decisão, através da utilização de pesquisas;· Confeccionar e analisar cronogramas e relatórios de produtividade, desempenho das equipes, monitorando indicadores para acompanhamento dos resultados da área;· Apoiar na análise dos os indicadores comerciais, identificando desvios e oportunidades, bem como a análise dos resultados e propondo melhorias dos processos e sistemas de Gestão Comercial, visando a superação de metas e objetivos.· Desenvolver e demandar ações e campanhas de rentabilização das linhas deficitárias, propor e acordar meta com a área de estratégia comercial e acompanhar o atingimento das mesmas;· Realizar o monitoramento do mercado e concorrência, abertura de demandas e projetos com as áreas parceiras;· Apoiar na definição da estratégia de preços competitivos frente a concorrência e acompanhar a rentabilidade;· Revisar os produtos existentes, e redefinir novas estratégias de resultado ou até propor a descontinuidade do mesmo;· Identificar gaps (falhas) nos processos que podem impactar o fluxo de trabalho nas áreas operacionais e prover sugestões de melhorias;· Responsável por desenvolver e controlar o orçamento / Forecast das linhas de receitas e o atingimento do mesmo;· Dar suporte na elaboração de Business Case de novos produtos ou serviços;· Acompanhamento do ciclo de vida do produto (end to end).  
@@ -10135,7 +10994,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P104" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10146,10 +11009,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Refeitório', 'Seguro de vida', 'Vale-alimentação', 'Vale-cultura', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R104" t="n">
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S104" t="n">
         <v>6550003</v>
       </c>
-      <c r="S104" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos em busca de um(a) Analista Contábil .Se você é uma Pessoa entusiasta, resiliente, austera, integra e trabalha com segurança, respeito e confiança nas pessoas, estamos te esperando para transformar recursos em valor e sonhos em realidade! Essa vaga tem como prioridade Pessoas com Deficiência, Negras, LGBTQIA+ e Mulheres. Se você faz parte de um desses grupos, venha fazer parte de uma Petroreconcavo mais diversa, plural e inclusiva. Venha fazer parte desse time que só cresce!
 Responsabilidades e atribuições Manutenção e melhora de Painéis de BI existentes Entendimento/Diagnóstico de processos para futura automação; Desenho de fluxos automatizados Criação de formulários e aplicativos para automação e controle de fluxo de atividades;   
@@ -10230,7 +11098,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr"/>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10241,10 +11113,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Day off aniversário', 'Desconto em produtos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R105" t="n">
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S105" t="n">
         <v>6357024</v>
       </c>
-      <c r="S105" t="inlineStr">
+      <c r="T105" t="inlineStr">
         <is>
           <t>Descrição da vagaBuscamos pessoas inquietas por inovação, que procuram soluções criativas e novas perspectivas, que tenham o olhar direcionado ao cliente, e que reconheçam que a curadoria e o conhecimento compartilhado são as melhores maneiras de construir relações de confiança. Identificou-se? Então a Víssimo é para você. Venha fazer parte do nosso time!
 Responsabilidades e atribuiçõesComo Analista de Marketing - CRM (Dados), você vai:Participar de projetos com times multidisciplinares;Liderar a frente de dados de CRM, estruturando pipelines, APIs, visões analíticas e segmentações de clientes;Entender as métricas de negócio e necessidades de diferentes áreas do negócio, questionando e propondo melhorias;Gerar análises e testes para garantir objetividade e clareza nas tomadas de decisão;Auxiliar na governança de dados: manutenção e desenvolvimento da estrutura de dados (ETL) e da modelagem de dados no Looker (Software de Business Intelligence).Desenvolver e implementar modelos estatísticos e de machine learning, buscando resolver diferentes problemas de negócio.
@@ -10325,7 +11202,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10336,10 +11217,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Consignado', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R106" t="n">
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S106" t="n">
         <v>6538109</v>
       </c>
-      <c r="S106" t="inlineStr">
+      <c r="T106" t="inlineStr">
         <is>
           <t>Descrição da vaga "Nós transformamos o mundo em um lugar mais seguro através da logística!" Sobre a BRK Fundada em 2006, a BRK Tecnologia, anteriormente chamada de Brasil Risk, é líder nacional em gerenciamento de risco, gestão logística e prevenção de acidentes no transporte rodoviário de cargas.Faz parte do portfólio de empresas da nstech, tem mais de 17 anos de atuação, conta com uma equipe de mais de 1.000 colaboradores e está presente em mais de 12 estados do Brasil. Somos guiados por tecnologia e inovação, com foco em evoluir os negócios de nossos clientes e garantir alta performance da cadeia logística.﻿A BRK está presente em todo o território nacional. Nossa estrutura operacional garante atendimento 24 horas por dia/365 dias por ano. São mais de mil especialistas em gerenciamento de riscos, gestão logística e prevenção de acidentes, trabalhando para atender todas as necessidades de nossos clientes. Temos mais de 50 colaboradores dedicados exclusivamente a pesquisa e desenvolvimento, criando soluções inovadoras e aperfeiçoando constantemente nossos serviços. Somos a mais completa plataforma de tecnologia Open Logistics do mundo Sobre a nstech Buscando expandir nosso impacto e continuar evoluindo de forma exponencial, em 2021 a BRK passou a fazer parte da nstech, vertical da SK Tarpon.Junto a diversas empresas líderes em seus segmentos, formamos o maior ecossistema de tecnologia para logística e mobilidade da América Latina, com mais de 100 soluções para toda a cadeia: embarcadores, transportadoras de carga e passageiros, corretores, seguradoras e motoristas. A nstech é um hub integrador de centenas de soluções de ponta a ponta para a cadeia logística, onde você resolve todas as suas dores sem burocracia e em pouco tempo. Você tem os mais diversos motivos para ser um (a) #brklover!Vem com a gente?resolve odas as suas dores sem burocracia e em pouco tempo
 Responsabilidades e atribuiçõesConosco as suas atividades serão:Reunir informações relevantes dos clientes através de plataformas de SQL; XML; XLS; TXT; CRM; PROTHEUS; LEGADOSAcompanhar as tendências de mercado, KPI’s e estimativas, sugerindo otimizações;Compreensão completa dos objetivos de negócio para a extração de dados relevantes;Monitorar as fontes de dados relevantes para os negócios;Organizar relatórios e dashboards para serem apresentados aos demais setores da empresa.
@@ -10420,17 +11306,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="n">
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="n">
         <v>6538918</v>
       </c>
-      <c r="S107" t="inlineStr">
+      <c r="T107" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaNascemos para democratizar os serviços bancários e de pagamentos! Pioneirismo, tecnologia, inovação e resultados sustentáveis são constantes da nossa trajetória. Lançamos a primeira maquininha de cartão sem aluguel do Brasil e ao longo dos anos seguimos evoluindo para ampliar nosso ecossistema de soluções financeiras. Somos o 2º maior banco digital do país e a fintech mais rentável do segmento, resultado do trabalho de um time formado por pessoas talentosas e criativas, que atuam com dedicação, paixão e vontade de fazer acontecer. Se você ama tecnologia, curte um bom desafio e acredita no poder da colaboração para fazer grandes entregas, o Pags é pra você! Então, confira essa oportunidade e vem pintar o Brasil de amarelo com a gente💛! No PagBank todas as pessoas são bem-vindas 😊, sem distinção de gênero, orientação sexual, etnia, cultura, religião, deficiência etc. O importante é você gostar de desafios, trabalhar bem em equipe, vivenciar nossa cultura e nossa missão de transformar e democratizar os serviços bancários e de pagamentos no Brasil. #VemProPags 
 Responsabilidades e atribuiçõesAplicar metodologias ágeis de gestão de projetos e atuar em times multidisciplinares.Liderar squad multidisciplinar, responsável pela entrega colaborando com equipe de engenharia.Definir e gerenciar a documentação do produto, incluindo desenvolvimento.Garantir que as soluções desenvolvidas atendam aos requisitos de negócios, regulatórios e de conformidade.Construir e gerenciar roadmaps com ações alinhadas ao direcionamento do negócio.Priorizar backlog de forma a garantir que o time esteja trabalhando no que possa gerar o maior impacto para o negócio.Monitorar o desempenho do produto e recomendar ajustes conforme necessário.Colaborar com as equipes de desenvolvimento e stakeholders para entender as necessidades e requisitos relacionados a produtos nas áreas de risco de crédito e risco de mercado.
@@ -10511,7 +11402,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -10522,10 +11417,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R108" t="n">
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S108" t="n">
         <v>6541118</v>
       </c>
-      <c r="S108" t="inlineStr">
+      <c r="T108" t="inlineStr">
         <is>
           <t>Descrição da vagaA JBS é uma das maiores empregadoras, liderando globalmente em diversos segmentos e negócios.Há quase 70 anos trabalhamos com foco em excelência, inovação, segurança dos alimentos e práticas de sustentabilidade. Somos um Time de mais de 260 mil pessoas, alimentando o mundo com o que há de melhor!Venha fazer parte da JBS!﻿
 Responsabilidades e atribuições•   Apoiar no desenvolvimento e na criação de novos pipelines de dados, visando estratégia, enriquecimento do datalake;-  Experiência em executar projetos de grandes volumes de dados e inovação no cloud AWS ;•   Vivência com ferramentas de ETL, NIFI, Integration Service, Power Center, etc..   Executar integrações de dados com foco em estratégia junto aos clientes.•   Participar de reuniões e definições de novos projetos de dados e BI com foco em cloud AWS;
@@ -10606,7 +11506,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P109" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10617,10 +11521,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio home office', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R109" t="n">
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="n">
         <v>6539695</v>
       </c>
-      <c r="S109" t="inlineStr">
+      <c r="T109" t="inlineStr">
         <is>
           <t>Descrição da vagaIntegrar os times de dados da Superintendência de Associação e Contas significa incorporar a cultura data-driven no dia a dia. Nosso intuito é aprimorar todo o pipeline de dados, desde a sua estruturação até a tomada de decisão. Queremos gerar insights baseados em dados, garantir um olhar amplo que seja cross a todas as áreas e direcionar a construção de planos e ações relevantes para a estratégia do Sicredi. Nos envolvemos em várias etapas dos estudos, passando pela compreensão do assunto, elaboração de perguntas-chave, busca por dados relevantes, estruturação dos dados, análise dos dados e apresentação dos resultados.
 Responsabilidades e atribuições​*Elaborar estudos de cenário e diagnóstico do negócio;​*Desenvolver e apoiar os times na mensuração de resultados, identificando oportunidades, tendências e padrões em conjuntos de dados;​*Construção técnica no desenvolvimento e monitoramento dos principais indicadores de performance da organização (KPIs);​*Se comunicar com as pessoas do seu time e dos demais times de forma a promover uma cultura analítica;​*Interagir com os diferentes papéis do processo de dados (engenheiros, outros analistas, cientistas de dados e analistas de negócio);​*Acompanhar o processo de desenvolvimento de produtos, desde a concepção até o acompanhamento dos resultados em produção (Upstream e Downstream);​*Participar da Chapter de Analistas de dados, incentivando e promovendo a disseminação da cultura de dados para os colegas e times da nossa operação;​*Manter a documentação necessária p/ permitir a gestão da estratégia de dados (democratização, governança, qualidade e etc.);​*Apoiar na definição dos pipelines de dados juntamente com os engenheiros de dados;​*Apoiar no onboarding de novos colaboradores do time;​*Se manter em constante evolução técnica e do negócio.
@@ -10701,7 +11606,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10712,10 +11621,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Cesta de natal', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R110" t="n">
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="n">
         <v>6506834</v>
       </c>
-      <c r="S110" t="inlineStr">
+      <c r="T110" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos em busca de um Analista de Dados para somar no nosso time!Buscamos profissionais com propósito, que sonham grande e que acreditam na força da Cooperação! Nossa cultura é focada em um ambiente inclusivo, diverso e colaborativo, permitindo que as pessoas possam ser elas mesmas! Juntos, construímos valores que são aplicados em nosso dia a dia, no relacionamento com cada cooperado, com o compromisso de tornar a Cresol cada vez mais forte!  Vem ser Cresol você também! 
 Responsabilidades e atribuiçõesDesenvolvimento de painéis, análises e modelo de dados;Apoio as áreas de negócio para estudos baseados em dados;
@@ -10796,7 +11706,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10807,10 +11721,11 @@
           <t>['Assistência psicológia', 'Convênio com empresas parceiras', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R111" t="n">
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="n">
         <v>6528189</v>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="T111" t="inlineStr">
         <is>
           <t>Descrição da vagaA Marketdata é uma das mais renomadas consultorias de dados e tecnologia, fazendo parte do Grupo VML, que integra a gigante mundial WPP, maior conglomerado de comunicação do mundo, conhecido por suas transformações impactantes em mercados locais e internacionais através de soluções criativas inovadoras.Com uma história de 23 anos repleta de conquistas e em um momento de franca expansão internacional, a Marketdata se destaca não apenas por sua trajetória impressionante, mas também por seu compromisso inabalável com a inovação, a tecnologia e a análise profunda de dados. Ao longo de sua jornada, acumulou inúmeros prêmios internacionais e nacionais: A Marketdata foi eleita, por 10 vezes, a Melhor Empresa de CRM do Ano, pela Associação Brasileira de Marketing de Dados (ABEMD), além de ser a maior vencedora da categoria de Marketing Baseado em Dados do Prêmio Echo Latam.Na Marketdata, valorizamos não apenas os resultados, mas acima de tudo, as pessoas. Fomentamos relações humanas sólidas e promovemos valores como comprometimento, excelência, flexibilidade, ética e inovação. Estamos firmemente comprometidos com a inclusão, a diversidade e a preservação do meio ambiente. Buscamos talentos que compartilhem de nossa visão e que desejem fazer parte de uma equipe onde o senso de pertencimento é valorizado, e onde juntos, contribuímos para um futuro mais sustentável e inclusivo. Se você se identifica com esses valores, venha fazer parte da nossa equipe na Marketdata.Junte-se a nós e faça a diferença!
 Responsabilidades e atribuiçõesPrincipais desafios:Apresentação para o cliente e condução de projetos (controle de cronograma, elaboração de relatórios, interface com equipe multidisciplinar).Estabelecer relacionamento estreito e frequente com os principais stakeholders do projeto;Conhecer e seguir a metodologia de planejamento, aplicando adequadamente as ferramentas existentes no desenvolvimento de planejamento estratégico de loyalty /CRM/CX;Identificar oportunidades, propor soluções para gaps e trazer insights relevantes no desenvolvimento e execução do projeto de consultoria;Homologar as entregas realizadas pela equipe, garantindo assim a alta qualidade no processo;Identificar novas oportunidades de ampliação do projeto.Pesquisar tendências de mercado sobre loyalty, CX (Customer Experience) e CRM para identificar possíveis oportunidades de negócio;Elaborar e conduzir apresentações executivas do projeto;Conduzir reuniões de status e report para o cliente;
@@ -10891,7 +11806,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr"/>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10902,10 +11821,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Desconto em produtos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R112" t="n">
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S112" t="n">
         <v>6519678</v>
       </c>
-      <c r="S112" t="inlineStr">
+      <c r="T112" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê é um expert na área de dados? Domina SQL server e Power BI?Se as suas respostas foram sim, estamos procurando por você!#VempraAtento
 Responsabilidades e atribuiçõesDesenvolver e enviar relatórios em Power BI;Realizar levantamento de requisitos;Participar de reuniões gerenciais;Realizar integração e pesquisa de informações em banco de dados SQL Server;Rotina em ETL (SSIS);Automatizar rotinas;Negociar demandas;Manter relacionamento com clientes internos.
@@ -10986,7 +11910,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr"/>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P113" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -10997,10 +11925,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio home office', 'Cesta de natal', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R113" t="n">
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S113" t="n">
         <v>6519157</v>
       </c>
-      <c r="S113" t="inlineStr">
+      <c r="T113" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaResponsável pela análise e report de dados utilizados pelo BI, bem como o desenvolvimento de modelos de análise de dados a serem utilizados pela companhia.
 Responsabilidades e atribuiçõesColetar, compilar, analisar e interpretar os dados que serão usados para prover à Cia de informações que serão suporte para tomada de decisão e desenvolvimento de novas estratégias;Elaborar painéis de informações através da utilização do BI, visando otimizar o acesso à informação pelas demais áreas da companhia;Realizar pesquisas de mercado relacionadas a determinado ramo de seguro para atendimento à demanda da diretoria;Atualizar as informações necessárias para a elaboração das apresentações ao Conselho e Diretoria;Definir formas de automatização da obtenção de informações utilizadas nas apresentações institucionais através do BI, visando maior agilidade na apresentação dos resultados;Analisar e interpretar os dados para avaliação de novos produtos e mercados, descontinuar produtos não rentáveis, campanhas de marketing visando a geração de valor para a companhia;Estruturar o banco de dados (Data Warehouse/ Data Lake) a ser utilizado pelo BI através de ferramentas disponiveis (ETL, Phynton, Dremio), visando a correta disponibilização das informações da companhia;Desenvolver métodos de análise de dados através da utilização de modelos estatísticos, visando gerar informações que facilitem a tomada de decisão pelas áreas de negócio.
@@ -11081,7 +12014,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr"/>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P114" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11092,10 +12029,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio home office', 'Day off aniversário', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R114" t="n">
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S114" t="n">
         <v>6517423</v>
       </c>
-      <c r="S114" t="inlineStr">
+      <c r="T114" t="inlineStr">
         <is>
           <t>Descrição da vagaAprender, desaprender e reaprender faz parte da nossa rotina! #SomosGente e temos um olhar aberto ao mundo e a todas as possibilidades que ele nos oferece. Se você é apaixonado por descomplicar, costuma pensar com ousadia e foco em resultados, dá uma olhadinha em nossas oportunidades e #VemFazerAcontecer junto com a gente! #VemSerBernEstamos com uma vaga massa para atuar como Analista de Dados voltados para área de CS/CX de uma das nossas áreas de negócio! 🚀😍 
 Responsabilidades e atribuiçõesComo será o seu dia a dia:Apoiar o time de customer success e experience na construção de métricas;Construção de gráficos e materiais de apresentação;Garantir a atualização das bases de dados e métricas;Monitorar o desempenho e os planos de controle de qualidade para identificar melhorias;
@@ -11176,7 +12118,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P115" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11187,10 +12133,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio home office', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R115" t="n">
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="n">
         <v>6509073</v>
       </c>
-      <c r="S115" t="inlineStr">
+      <c r="T115" t="inlineStr">
         <is>
           <t>Descrição da vagaVem pra NÚCLEAJá imaginou se os meios de pagamento parassem de funcionar? Pois é, isso nem passa pela nossa cabeça, porque trabalhamos com inovação, confiabilidade e tecnologia de ponta para que você, pequenas ou grandes empresas possam fazer suas transações com total segurança e agilidade, a qualquer hora do dia ou da noite.Nosso ambiente é feito de gente movida pela vontade de interagir de forma colaborativa e disposta a se desafiar todos os dias. Estamos cheios de energia para continuar transformando o mercado financeiro. Temos muito Orgulho de Ser NÚCLEA.Sobre a NÚCLEAhttps://www.nuclea.com.br/Para todas as posições consideramos diversidade e inclusão.Na Núclea, valorizamos muito o respeito e a diversidade em nossas equipes, aqui, acreditamos que nossas diferenças são nossas maiores forças.De acordo com nossos valores, as pessoas estão no centro do nosso negócio e somente elas são capazes de movimentar a economia digital em benefício de toda a sociedade.Essa é a chance para você mudar a sua vida, corra e se inscreva!
 Responsabilidades e atribuiçõesEntender as regras de negócio de todos os Serviços/Produtos, através de estudos e análises.Atualizar os Indicadores de todos os Serviços / Produtos a fim de suportar os clientes internos na tomada de decisão.Automatizar relatórios de volumetria de todos os Serviços/Produtos para utilização pelas áreas, a fim de viabilizar o acesso às informações.Atender às solicitações e demandas de clientes internos e externos provendo relatórios e indicadores solicitados.Realizar validações e consistências das informações divulgadas.
@@ -11271,17 +12218,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P116" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="n">
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>['Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S116" t="n">
         <v>6506809</v>
       </c>
-      <c r="S116" t="inlineStr">
+      <c r="T116" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos em busca de uma pessoa com bom relacionamento interpessoal, comunicativo, com facilidade para trabalhar em equipes multidisciplinares, com postura de dono e foco em resultado. Pró ativo, engajado e inovador!
 Responsabilidades e atribuiçõesMapear e construir, junto à equipe de Business Intelligence, bases de dados que reflitam KPIs e alavancas das operações comercial e correlatas;Estruturar e analisar os principais indicadores de performance de venda, para dar visão desses indicadores, enxergar gaps e propor soluções;Construir ferramentas de gestão que possibilitem ao cliente interno (regional, corporativo ou áreas) visão e entendimento pleno dos KPIs das operações comercial e correlatas;Elaborar análises e reportes periódicos, por meio do Tableau e Excel, agregando carga analítica nos resultados;Elaborar estudos e análises pontuais de performance para apoiar o planejamento regional;Avaliar, criticar e propor processos e melhorias sistêmicas que possibilitem melhor mapeamento, criação e acompanhamento dos indicadores de performance e produtividade;Apoiar as lideranças da empresa na tomada de decisão com dados e informações relevantes.
@@ -11361,7 +12317,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr"/>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P117" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11372,10 +12332,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R117" t="n">
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="n">
         <v>6022876</v>
       </c>
-      <c r="S117" t="inlineStr">
+      <c r="T117" t="inlineStr">
         <is>
           <t>Descrição da vagaO Analista de Dados em Agricultura de Precisão será responsável por coletar, processar e analisar dados para ajudar a nossa empresa a melhorar a eficiência e a produtividade na agricultura.
 Responsabilidades e atribuiçõesColetar e interpretar dados relacionados à agricultura de precisão e máquinas John Deere.Desenvolver algoritmos e modelos preditivos para prever rendimentos e identificar variáveis que afetam a produtividade agrícola.Trabalhar em estreita colaboração com agrônomos e engenheiros para implementar soluções de agricultura de precisão.Apresentar informações de maneira clara e concisa para partes interessadas não técnicas.
@@ -11456,7 +12417,11 @@
           <t>Associado</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr"/>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11467,10 +12432,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R118" t="n">
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S118" t="n">
         <v>6018646</v>
       </c>
-      <c r="S118" t="inlineStr">
+      <c r="T118" t="inlineStr">
         <is>
           <t>Descrição da vagaConstrói banco de dados, dashboards e simuladores de forma integral ou a partir de atividades de alta complexidade. Faz a extração, integração e modelagem de dados de diferentes ambientes. Realiza análises mais profundas a partir de problemas pouco estruturados. Critica, acompanha e atualiza indicadores do negócio, além de propor novos indicadores. 
 Responsabilidades e atribuiçõesApoiar no desenho e construção das soluções de dados, de acordo com os requisitos de negócios;Identificar as melhores práticas para desenvolvimento dos projetos de dados;Apoiar na construção das técnicas de entrega de dados, garantindo a qualidade e consistência das informações, monitorando qualidade e confiabilidade dos dados.
@@ -11551,7 +12521,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr"/>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P119" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11562,10 +12536,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Café da manhã', 'Ginástica laboral', 'Programa de treinamentos', 'Refeitório', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R119" t="n">
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>['Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S119" t="n">
         <v>6494027</v>
       </c>
-      <c r="S119" t="inlineStr">
+      <c r="T119" t="inlineStr">
         <is>
           <t>Descrição da vagaÁguas Azuis é uma sociedade de propósito específico estabelecida entre a thyssenkrupp Marine Systems, a Embraer Defesa &amp; Segurança e a Atech, subsidiária da Embraer, para a construção dos quatro novos navios Classe Tamandaré, a fim de ampliar e modernizar a esquadra da Marinha do Brasil.
 Responsabilidades e atribuiçõesAvaliar, projetar, revisar e implementar banco de dados de documentação;Atualizar o banco de dados de documentação para documentos eletronicos e impressos;Verificar e distribuir diariamente os documentos recebidos pelo cliente;Outras funções administrativas conforme cargo.
@@ -11646,7 +12625,11 @@
           <t>Associado</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P120" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11657,10 +12640,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio fretado', 'Clube de vantagens', 'Day off aniversário', 'Refeitório', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R120" t="n">
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S120" t="n">
         <v>6465686</v>
       </c>
-      <c r="S120" t="inlineStr">
+      <c r="T120" t="inlineStr">
         <is>
           <t>Descrição da vagaOlá talento que que gostaria de seguir uma carreira na área de Dados!Tem interesse em atuar em uma grande empresa que trabalha para levar saúde e bem-estar, que só cresce e gera oportunidades? Então venha fazer parte do nosso time como Analista de Dados!É bem bom ser do time Panvel! Trabalhamos para levar saúde e bem-estar para as pessoas, sempre com um toque de energia e vontade de fazer acontecer! Somos unidos, trabalhamos em equipe e temos espírito inovador. Você se identificou? Então vem fazer parte do Time Panvel, vamos compartilhar ideias e ajudar a impactar milhares de pessoas!
 Responsabilidades e atribuiçõesDurante o dia a dia, esperamos que você:Conduza reuniões para entendimento de problema do negócio, necessidades e refinamento do propósito;Realiza análises estatísticas e exploratórias para identificar correlações, causas raiz e fatores que afetam os negócios da empresa;Apresente impressões e resultados para o negócio, expondo e validando suposições para a equipe;Colabore com as equipes de negócios, TI e Dados para identificar oportunidades de melhoria e propor soluções baseadas em dados;Contribua com as validações dos produtos de dados desenvolvidos pelo time;
@@ -11741,7 +12729,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P121" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11752,10 +12744,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R121" t="n">
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S121" t="n">
         <v>6467949</v>
       </c>
-      <c r="S121" t="inlineStr">
+      <c r="T121" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA hora de fazer parte de um time comprometido, acolhedor e que leva saúde para milhões de pessoas, é agora!Estamos na busca de profissionais para compor a nossa equipe!Se você é comprometido(a) e apaixonado(a) por novos desafios, aqui é o seu lugar! Faça seu cadastro e envie seu currículo!
 Responsabilidades e atribuiçõesDesenvolvimento de trabalhos voltados para ciência de dados;Construção e manutenção de painéis em Power BI;Consultas no banco de dados SQL Oracle.
@@ -11836,7 +12833,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P122" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -11847,10 +12848,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-cultura', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R122" t="n">
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S122" t="n">
         <v>6464014</v>
       </c>
-      <c r="S122" t="inlineStr">
+      <c r="T122" t="inlineStr">
         <is>
           <t>Descrição da vagaAqui na Riachuelo a gente se conecta com @vc! #CarreiraQueConecta 🚀❤️Existimos para conectar desejos a realizações. E você escolher a Riachuelo para fazer a sua carreira acontecer é uma realização para a gente!Aqui, nossos milhares de RCHLOVERS encontram o melhor ambiente para se transformarem e se desenvolverem junto com a gente. Afinal, somos moda, varejo, tech, logística, financeira, indústria e uma das maiores empregadoras do país! ♥Vamos juntos construir o maior ecossistema de moda, lifestyle e produtos financeiros do Brasil!Nosso time de MARKETING - FIDELIDADE está em busca de um ANALISTA DE DADOS PLENO para compor a equipe!♿ Lembramos que nossas oportunidades são para todos. Na Riachuelo, você encontra um ambiente diverso, com respeito e empatia, em que cuidamos dos RCHLOVERS.
 Responsabilidades e atribuiçõesOs desafios da função são:Responsável pela análise de dados, e gestão de resultados do time de Fidelidade;Desenvolver estudos e análises de indicadores específicos, como Frequência, Spending e ticket médio dos clientes de fidelidade;Analise e gestão dos indicadores operacionais de fidelidade;Construir/Testar hipóteses com base em análise de dados de clientes;Realizar a busca de dados nas nossas plataformas internas para gerar insights.
@@ -11931,7 +12937,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P123" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -11942,10 +12952,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Clube de vantagens', 'Consignado', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R123" t="n">
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S123" t="n">
         <v>6181335</v>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="T123" t="inlineStr">
         <is>
           <t>Descrição da vagaQuer fazer parte de uma das mais relevantes empresas do mercado brasileiro? Nós, do grupo OLX, estamos de portas abertas para você!Somos uma empresa 100% digital, com tecnologia desenvolvida localmente e líder no mercado de compra e venda online. Nos tornamos a marca que melhor representa a economia circular no país. Hoje contamos com dois escritórios nas cidades de Rio de Janeiro e São Paulo. Queremos proporcionar às nossas pessoas um trabalho que seja flexível, que se adapte ao dia a dia das nossas pessoas. Tudo isso com bastante equilíbrio entre o remoto e os encontros presenciais, que são tão importantes para criarmos conexão com quem trabalhamos.Disciplina, protagonismo, conexão e o propósito do negócio norteiam nosso modelo de trabalho. Para isso possuímos Políticas que sustentam não só nosso modelo de trabalho flexível, como também auxiliam na prática do Nosso Jeito de Ser, Nosso Jeito de Aprender e no Nosso Jeito de Liderar.
 Responsabilidades e atribuiçõesSe você gosta de aprender e quer fazer parte desse desafio, essa oportunidade é a sua chance. Nessa posição de Analista de dados pleno,  você vai somar ao time de Estratégia que tem como objetivo trazer valor à nossa companhia por meio de insights e recomendações quanto aos melhores caminhos em termos de evolução do negócio e posicionamento no mercado.  No dia a dia você vai:Identificar novas oportunidades de crescimento da companhia, seja a partir do avanço para novos mercados, a partir do lançamento de novos produtos ou a partir de um ganho de posicionamento através de análise de padrões de comportamento de usuários;Liderar e apoiar investigações quantitativas de problemas relacionados à execução da estratégia;A partir da aplicação de metodologias estatísticas, realizar projeções e identificar tendências em séries temporais de variáveis relevantes do negócio;Coletar e analisar dados de mercado, tanto tendências como concorrência, para apoiar a tomada de decisão sobre os próximos passos do negócio;Apoiar o time de estratégia no acompanhamento de indicadores internos e de concorrência, automatizando cálculo e visualização, gerindo o monitoramento e entendimento dessas métricas considerando as dimensões apropriadas para a análise de cada indicador.Interagir com os times de dados das diversas áreas da companhia apoiando iniciativas ou capturando informações/dados para os trabalhos a serem feitos no time de estratégia.Utilizar as ferramentas da companhia para modelagem, armazenamento, leitura e visualização de dados (Superset, Tableau etc.)
@@ -12026,7 +13041,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P124" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -12037,10 +13056,15 @@
           <t>['Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R124" t="n">
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Pacote Office', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S124" t="n">
         <v>6110820</v>
       </c>
-      <c r="S124" t="inlineStr">
+      <c r="T124" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA hora de fazer parte de um time comprometido, acolhedor e que leva saúde para milhões de pessoas, é agora!Estamos na busca de profissionais para compor a nossa equipe!Se você é comprometido(a) e apaixonado(a) por novos desafios, aqui é o seu lugar! Faça seu cadastro e envie seu currículo!
 Responsabilidades e atribuições Criação e Desenvolvimento de processos de analise e Inteligência Médica.Coleta e Preparação de Dados:-Identificar e coletar dados relevantes de diversas fontes.-Limpar e preparar dados para análise, garantindo a integridade e qualidade.-Análise Exploratória de Dados:-Realizar análises aprofundadas para identificar padrões, tendências e insights.-Utilizar técnicas estatísticas para extrair informações valiosas.Modelagem de Dados:-Desenvolver e implementar modelos estatísticos e algoritmos.-Aplicar técnicas de aprendizado de máquina para previsões e otimizações.-Visualização e Comunicação:-Criar visualizações claras e impactantes para comunicar resultados.-Apresentar insights de maneira acessível a públicos variados.Colaboração e Apoio à Decisão:-Trabalhar em estreita colaboração com equipes multidisciplinares.-Fornecer suporte analítico para ajudar na tomada de decisões estratégicas.
@@ -12121,7 +13145,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -12132,10 +13160,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R125" t="n">
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="n">
         <v>5851381</v>
       </c>
-      <c r="S125" t="inlineStr">
+      <c r="T125" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos a maior multinacional brasileira e estamos entre as 100 maiores empresas de TI do mundo.Estamos presentes em 41 países com +30k colaboradores. A Stefanini tem como principal objetivo auxiliar os clientes a encontrar, por meio de soluções personalizadas, a maneira ideal para alcançar seus desafios, impulsionando a inovação digital.E queremos mais!
 Requisitos e qualificaçõesImersao em squad multidisciplinar orientada a metodologia agil;Desenvolvimento de atividades utilizando predominantemente tecnologias Cloudera e AWSSuperior Completo- (Superior Completo) : Engenharia da Computacao, Ciencias da Computacao, Analise de Sistemas, Sistemas da Informacao (Exigido)
@@ -12215,17 +13244,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P126" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="n">
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python']</t>
+        </is>
+      </c>
+      <c r="S126" t="n">
         <v>6363273</v>
       </c>
-      <c r="S126" t="inlineStr">
+      <c r="T126" t="inlineStr">
         <is>
           <t>Descrição da vagaNascemos para transformar a vida de milhares de pessoas, provendo as ferramentas e o caminho para quem enfrenta a indiferença e supera cada obstáculo para conquistar os seus sonhos.Pautados nos firmes sensos de propósito, urgência e ownership, somos uma das startups que cresce mais rápido em toda a América Latina.Já são mais de 48.000 clientes alugando nossas motos e mais de 500 empresas utilizando o Mottu Entregas como solução de delivery -para realizar mais de 500.000 entregas mensalmente, em mais de 25 cidades do Brasil e também na Cidade do México.Grandes investidores já acreditam no nosso sonho, como Base Partners, Crankstart e Tiger Global. E você, quer construir a Mottu conosco?Estamos em busca de Analista De Dados para construção de soluções analíticas e parar gerar métricas e indicadores importantes para o time de Tecnologia. Queremos evoluir em gestão de tecnologia baseada em dados e toma decisões estratégicas em cima disso.Que tal construir uma ferramenta capaz de fornecer insights relevantes para liderança e contribuir para criar e desenvolver times de alta performance em tecnologia?
 Responsabilidades e atribuiçõesPreparação de Dados: Realizar limpeza dos dados, montagem de views e formatos de tabelas para facilitar o desenvolvimento dos dashboards.Análise de Dados: Realizar análises que respondam perguntas relevantes e tragam a transparência dos cenários mediante a interpretação das informações compiladas, para identificar tendências, padrões e insights relevantes;Visualização de Dados: Criar visualizações/dashboards, relatórios e estudos preditivos para comunicar resultados de análises de forma clara e acessível através de ferramenta como o PowerBiColaboração Interfuncional: Trabalhar em estreita colaboração com equipes multidisciplinares para entender os requisitos de análise e fornecer suporte analítico;Melhoria Contínua: Entender contexto da empresa, identificar oportunidades e recomendar ações para melhorar processos e procedimentos da empresa, bem como oportunidades de automação e eficiência.
@@ -12305,7 +13343,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P127" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -12316,10 +13358,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R127" t="n">
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S127" t="n">
         <v>6265534</v>
       </c>
-      <c r="S127" t="inlineStr">
+      <c r="T127" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaAqui na AXA você pode ser quem você realmente é. Acreditamos que somos muito melhores juntos e, por isso, buscamos sempre os melhores talentos. Todos os candidatos que atendem aos requisitos serão considerados para a vaga independentemente de raça, cor, religião, gênero, identidade, orientação sexual, nacionalidade ou idade. Esta oportunidade é extensiva a pessoas com deficiências. Quem buscamos?Buscamos alguém que sempre pense em cada projeto, processo ou produto pela perspectiva do cliente, tornando as coisas mais fáceis e simples, mesmo que isso signifique desafiar nosso status quo. Buscamos alguém que tome decisões rápidas, e que pense, decida e aja de maneira simples; alguém que valorize feedbacks e, com eles, aprenda e se desenvolva. Buscamos alguém que seja ético, que cumpra o que foi prometido. Buscamos alguém que trabalhe em equipe, respeitando as diferenças, pois acreditamos que elas são fundamentais para o nosso sucesso, mas que também ouse divergir e compartilhe suas convicções. 
 Responsabilidades e atribuiçõesQuais são os principais desafios?Trabalho de Equipe em Governança, Analytics, Qualidade e Cultura de Dados da AXA Brasil;Desenvolver e manter pipelines de dados escaláveis, confiáveis e de alto desempenho; Implementar modelos de dados para armazenar e analisar grandes volumes de dados; Trabalhar em colaboração com outros engenheiros de dados, cientistas de dados e analistas de negócios para desenvolver soluções de dados alinhadas à estratégia da companhia; Realizar a coleta, limpeza, preparação e transformação de dados de diferentes fontes em formatos adequados para análise e consumo; Atuar em projeto multidisciplinar com interações com times de diversos departamentos.
@@ -12400,7 +13447,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P128" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -12411,10 +13462,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Café da manhã', 'Massoterapia', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R128" t="n">
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S128" t="n">
         <v>6230759</v>
       </c>
-      <c r="S128" t="inlineStr">
+      <c r="T128" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaAtuar na construção de relatórios estratégicos, criação, manutenção e governança de painéis/dashboard de dados, além de realizar análises de dados direcionadoras do negócio e se envolver em produtos de dados!
 Responsabilidades e atribuiçõesEste profissional terá como principais atribuições:Atuar diretamente com o negócio e o time de Data Analytics, buscando soluções e melhorias pautadas em dados;Ter conhecimento do Tableau, Power BI ou excel avançado para análise exploratória e criação de Dashboards;Criar e ministrar treinamentos de ferramentas e metodologias da análise de Dados;Conhecimento de Gestão por Processos.
@@ -12495,7 +13551,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P129" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -12506,10 +13566,15 @@
           <t>['Assistência médica', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R129" t="n">
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S129" t="n">
         <v>6296355</v>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="T129" t="inlineStr">
         <is>
           <t>Descrição da vagaSe você gosta de desafios e quer fazer parte da maior loja de departamentos do Brasil, em um ambiente inovador e transformador, antenado no futuro e com práticas de metodologias ágeis, vem com a HAVAN, pois temos a oportunidade certa para você!Venha desenvolver soluções digitais para o varejo com a gente!Oportunidade para atuar em Brusque/SC em regime presencial.
 Responsabilidades e atribuiçõesResolução de problemas de negócios usando técnicas orientadas a dadosCriação de estruturas de informação, por meio de modelagem de dados, incluindo etapas de consolidação e validação, focando na integridade do dadoAplicação de linguagens de programação, incluindo raciocínio lógico e analítico para solução de problemasUtilização de técnicas de busca, limpeza e estruturação de fonte de dadosRealização de análises que demandem o conhecimento em Excel Avançado e Análise Exploratória de Dados de EstatísticaElaboração de dashboards na ferramenta Power BI voltados para monitoramentos operacionais, gerenciais e estratégicosProposição de melhores práticas para visualização de dadosExplicação dos resultados encontrados, por meio do uso de técnicas de Storytelling e ferramentas de apresentação (PowerPoint)Desenvolvimento de documentações de processos e projetosAtuação em conjunto com o time de engenheiros e cientistas de dados a fim de criar soluções analíticas
@@ -12590,7 +13655,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr"/>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P130" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -12601,10 +13670,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio farmácia', 'Cesta de natal', 'Convênio com empresas parceiras', 'Cooperativa de crédito', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R130" t="n">
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S130" t="n">
         <v>6336703</v>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="T130" t="inlineStr">
         <is>
           <t>Descrição da vagaA Hprojekt Start é uma consultoria de Recrutamento &amp; Seleção especializada na contratação de PCDs, programas de diversidade / vagas afirmativas, vagas operacionais, projetos de volume e Estágio e Trainee. Confira essa nova oportunidade que trouxemos para você hoje: Analista de Dados Junior Sobre nosso cliente: Nosso cliente é um grupo multinacional líder no mercado de materiais de construção civil de alta performance, proporcionando soluções inovadoras que visem construção sustentável, eficiência energética e proteção ambiental. Presente em mais de 70 países, está entre as 100 empresas mais inovadoras do mundo, tendo como compromissos principais: bem-estar, inovação e sustentabilidade.
 Responsabilidades e atribuiçõesTrabalhará dentro da área fiscal dando suporte ao time fiscal com dados, informações e dashboards, com as atividades:Resolução de pendências de pedidos de compras x documento de entrada;Interação com unidades Brasil para resolução de ineficiência de processos;Elaboração de apresentação, controles, KPIs;Montagem de planos de ações para otimização;Padronização de processos.
@@ -12685,7 +13759,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P131" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -12696,10 +13774,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R131" t="n">
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S131" t="n">
         <v>6271027</v>
       </c>
-      <c r="S131" t="inlineStr">
+      <c r="T131" t="inlineStr">
         <is>
           <t>Descrição da vagaA Tegra Incorporadora esta com uma posição em aberto para Analistas de Dados Sr., que desempenham um papel fundamental na transformação de dados em insights acionáveis que beneficiem a empresa. Eles são responsáveis por coletar, preparar, analisar e comunicar dados para auxiliar a empresa a tomar decisões mais informadas, melhorar o desempenho e alcançar seus objetivos de negócios.
 Responsabilidades e atribuiçõesRealizar análises estatísticas e modelagem de dados;Desenvolver visualizações e dashboards;Comunicar resultados complexos de análise;Criar modelos de previsão e classificação;Liderar projetos de análise de dados complexos e multidisciplinares;Acompanhar as tendências em tecnologia de dados e recomendar a adoção de novas ferramentas e técnicas;Trabalhar em estreita colaboração com outras áreas da empresa para alinhar as estratégias de dados.
@@ -12780,7 +13863,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P132" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -12791,10 +13878,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio creche', 'Auxílio estacionamento', 'Auxílio farmácia', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Refeitório', 'Sala de Jogos', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R132" t="n">
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>['Power BI']</t>
+        </is>
+      </c>
+      <c r="S132" t="n">
         <v>6290520</v>
       </c>
-      <c r="S132" t="inlineStr">
+      <c r="T132" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos um excelente lugar para trabalhar segundo certificação do Great Place to Work, isso é conquista do time de pessoas fantásticas que temos na nossa empresa e que são apaixonadas pelo que fazem.Vem fazer parte da FCC, um time de pessoas curiosas e movidas pelo conhecimento.Estamos com uma oportunidade para atuar como Analista de Dados Jr.Inscreva-se aqui e venha trabalhar conosco.
 Responsabilidades e atribuiçõesColetar dados de fontes internas e externas;Criar dashboards interativos e personalizados no power bi com dados extraidos de diversas fontes;Identificar melhorias, conduzir e responder pelo projeto de desenvolvimento e atualização de hardware e software junto aos parceiros de tecnologia;Mapear números de devoluções, retrabalho e demais informações relevantes para definição do modelo de negócio;Desenvolver soluções para o monitoramento de novas etapas do processo do cliente junto aos parceiros de tecnologia;Buscar e desenvolver parceiros de tecnologia para execução das diferentes etapas do projeto;Instalar os equipamentos nos clientes, treiná-los na utilização, acompanhar os dados gerados e sugerir melhorias nos processos, para correção de falhas;Conduzir reuniões semanais de status nos clientes;Aplicar técnicas de análise de dados, como estatística, machine learning e inteligência artificial;Comunicar resultados de análises de dados de forma clara e concisa;Trabalhar em equipe com outros profissionais de dados, negócios e tecnologia;Construir e acompanhar cronograma de execução, criando reporte semanais para clientes.
@@ -12875,17 +13967,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="n">
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>['Tableau']</t>
+        </is>
+      </c>
+      <c r="S133" t="n">
         <v>6291665</v>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="T133" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaVocê que busca trabalhar com propósito e engajamento social, venha fazer parte do Instituto Unibanco em prol de uma educação pública de qualidade :)A diversidade é um de nossos valores e, por isso, estimulamos a candidatura de pessoas negras e LGBTQIAPN+ em nossos processos seletivos.
 Responsabilidades e atribuições• Conhecer e registrar a estrutura e o funcionamento da gestão de dados das secretarias de educação parceiras;• Desenhar e operacionalizar melhoria de processos na gestão de dados;• Elaborar e implementar estratégia de monitoramento das ações de implementação e das soluções;• Apoiar na organização dos normativos da organização;• Coletar, armazenar e tratar dados, de fontes primárias e secundárias, da implementação ou de outros campos pertinentes;• Gerar visualizações das evidências da implementação e/ou de outros campos pertinentes;• Elaborar análises utilizando dados e evidências, expressando tais análises em relatórios ou outros meios;• Propor novos conteúdos para os sistemas de gestão utilizado pelo Instituto Unibanco em parceria com as redes de educação;
@@ -12965,17 +14066,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O134" t="inlineStr"/>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P134" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="n">
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S134" t="n">
         <v>6168051</v>
       </c>
-      <c r="S134" t="inlineStr">
+      <c r="T134" t="inlineStr">
         <is>
           <t>Descrição da vagaO UOL EdTech, maior empresa de tecnologia para educação do Brasil, promove soluções inovadoras para as maiores empresas e instituições de ensino superior do país. Acreditamos que o presente da Educação é Digital! Aqui trabalhamos em times multidisciplinares, cultivamos uma filosofia de trabalho ágil, enxuto e estamos em busca de um profissional que tenha #PaixaoPorAprender, que seja #Ousado, tenha #FocoEmResultados e que queira fazer parte de uma #RevoluçãoNaEducação.  Se você tem este perfil e está em busca de novos desafios, venha fazer parte do nosso time e desenvolver sua carreira numa das áreas que prometem grandes disrupções nos próximos anos #edtech. #VemProUOLEdTech!  No UOL EdTech todas as pessoas são bem-vindas 😊, sem distinção de gênero, orientação sexual, etnia, cultura, religião, deficiência etc. O importante é você gostar de desafios, trabalhar bem em equipe, vivenciar nossa cultura e nossa missão de inovar e revolucionar a educação online no Brasil para gerar oportunidades e transformar vidas. 
 Responsabilidades e atribuiçõesSer a referência analítica do time no qual estiver alocado.Automatizar processos manuais.Construir dashboards inteligentes. Ajudar na construção e análise de experimentos e testes A/B. Facilitar o acesso à informação e otimizar a tomada de decisão. Transformar dados em informação por meio de Storytelling 
@@ -13056,7 +14166,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O135" t="inlineStr"/>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P135" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -13067,10 +14181,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R135" t="n">
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>['Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S135" t="n">
         <v>6208871</v>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="T135" t="inlineStr">
         <is>
           <t>Descrição da vagaSobre a green4T:Valorizamos ações assertivas, orientadas para a eficiência e embasadas pelo know-how. Buscamos novas formas de olhar e encarar desafios, sempre com uma postura resiliente e perseverante. Nos antecipamos às situações, garantindo a minimização do risco. Somos pragmáticos, com foco em resultados e em nossos clientes, e prezamos pela excelência.A green4T é uma empresa líder em soluções de tecnologia e infraestrutura digital. Fundada em 2016 e presente em 12 países da América Latina, contamos com 30% das 1.000 maiores empresas do Brasil em nossa carteira de clientes.Gerimos nossos negócios de forma socialmente responsável. Temos o compromisso de desenvolver soluções de tecnologia e infraestrutura para a transformação digital de empresas, cidades e nações de forma eficiente e sustentável para o planeta. Vamos juntos #Begreen nessa transformação?
 Responsabilidades e atribuiçõesResponsabilidades e Atribuições:Estamos buscando um(a) Analista de Dados para atuar desenvolvendo as seguintes atividades: Analisar e reportar indicadores ao acompanhar as etapas de gestão de projetos desde a iniciação, planejamento, execução, controle e encerramento; Construção de indicadores e seus painéis de acompanhamento através da Análise de Dados;Construção e desenvolvimento de ferramentas para gestão de indicadores;Apoiar a Liderança nos projetos, processos e tarefas, visando a otimização da eficiência operacional, a minimização de riscos e a redução de custos.Seguir os KPIs adequados, tendo a mentalidade orientada para os resultados, orientando as rotinas diárias sobre KPIs e PIs adequados.Colaborar na implementação de rotinas e mentalidades de melhoria contínua na equipe, visando o aumento da eficiência dos processos, redução de custos e otimização de recursos no atendimento de exigências regulares e extraordinárias.Engajar com as equipes visando aumentar a aderência das ferramentas, painéis e indicadores construídos através das disciplinas de Gestão de Mudança Organizacional.
@@ -13151,7 +14270,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P136" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -13162,10 +14285,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Participação nos Lucros ou Resultados', 'Programa de remuneração variável', 'Seguro de vida']</t>
         </is>
       </c>
-      <c r="R136" t="n">
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S136" t="n">
         <v>6223768</v>
       </c>
-      <c r="S136" t="inlineStr">
+      <c r="T136" t="inlineStr">
         <is>
           <t>Descrição da vagaSe você é um profissional que busca constantemente o desenvolvimento e tem paixão pelo que faz, a M. A. Máquinas é o seu lugar!Buscamos pessoas apaixonadas pelo que fazem e que queiram construir suas carreiras em uma empresa sólida, com constantes oportunidades de crescimento. Nossos(as) Analistas de Dados BI são responsáveis por transformar as informações e fontes de dados em relatórios acessíveis, facilitando a tomada de decisões dos gestores da empresa; bem como otimizar os processos internos da empresa através da consultoria e análise de dados, com o objetivo de obter vantagens competitivas.
 Responsabilidades e atribuiçõesAnálise Técnica e Funcional de projetos de dados;Responsável pelo desenvolvimento de dashboards Corporativo em Power BI;Mapeamento de origens de dados (Relacional, DW e Data Lake);Estruturação de dados com funções DAX ;Desenvolvimento e manutenção de dashboards, relatórios e KPIs estratégicos e operacionais;Prover soluções adequadas no processo interno para melhoria da empresa;Manutenção da política interna dos acessos aos relatórios e regras das atualizações periódicas dos relatórios;Atuar na segurança dos bancos de dados dos projetos.
@@ -13246,17 +14374,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr"/>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P137" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="n">
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S137" t="n">
         <v>6222248</v>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="T137" t="inlineStr">
         <is>
           <t>Descrição da vagaAqui no Grupo RBS nós acreditamos na Comunicação. Uma comunicação que conecta, diverte, emociona e informa. Acreditamos no "viver junto", porque é junto que vivemos as melhores experiências. Estamos há 65 anos construindo nossa história e "vivendo junto" dos gaúchos, seja através da TV, do Rádio, do Jornal e do Digital. Por aqui desafios e oportunidades não faltam e só crescem a medida que evoluímos. Você também acredita na Comunicação e no impacto que ela pode ter na vida das pessoas e nos resultados dos negócios?Venha fazer parte do nosso time.
 Responsabilidades e atribuiçõesRealizar análises exploratórias de dados para identificar padrões, tendências e insights relevantes para o desempenho de negócios;Desenvolver dashboards e relatórios personalizados para monitoramento contínuo de métricas de desempenho;Realizar análises de dados complexas e interpretar os resultados para a equipe de gestão;Colaborar com as equipes de negócios para entender requisitos e objetivos de análise de dados;Extrair, limpar e transformar dados de diversas fontes para análise.
@@ -13336,17 +14473,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr"/>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P138" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="n">
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="n">
         <v>5414291</v>
       </c>
-      <c r="S138" t="inlineStr">
+      <c r="T138" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaEstamos à procura de um profissional altamente motivado e orientado a resultados para se juntar à nossa equipe como Data Product Manager. Se você é apaixonado por dados, possui uma sólida compreensão dos desafios e oportunidades relacionados à gestão de dados em produtos e plataformas, e deseja fazer parte de uma empresa inovadora, essa vaga é para você!Como Data Product Manager, você será responsável por liderar as iniciativas de dados para nossos diferentes produtos e plataformas. Você irá colaborar com equipes multifuncionais, incluindo engenharia, ciência de dados, design e gerenciamento de produtos, para desenvolver soluções que maximizem o valor dos dados em nossos produtos.Responsabilidades principais:
 Responsabilidades e atribuiçõesDefinir a estratégia de dados e os objetivos para cada produto e plataforma.Identificar oportunidades para melhorar a coleta, armazenamento, processamento e análise de dados.Trabalhar em estreita colaboração com a equipe de engenharia de dados para garantir uma infraestrutura de dados robusta e escalável.Colaborar com cientistas de dados para desenvolver modelos e algoritmos que impulsionem insights e tomada de decisões baseada em dados.Garantir a privacidade e segurança dos dados em conformidade com as regulamentações e políticas da empresa.Acompanhar métricas de desempenho relacionadas a dados e fornecer relatórios regulares à equipe de liderança.
@@ -13427,17 +14569,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O139" t="inlineStr"/>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P139" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="n">
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="n">
         <v>6214510</v>
       </c>
-      <c r="S139" t="inlineStr">
+      <c r="T139" t="inlineStr">
         <is>
           <t>Descrição da vagaA vaga para programador tem como objetivo a trazer inovações a Confiança por meio de automações de tarefas e otimização de processos. 
 Responsabilidades e atribuições• Implementar melhorias diversas via automação;• Apresentar e fomentar o uso e mapeamento de novas inovações junto ao restante do time.
@@ -13518,7 +14665,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P140" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -13529,10 +14680,15 @@
           <t>['Auxílio academia', 'Clube de vantagens', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R140" t="n">
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S140" t="n">
         <v>6123574</v>
       </c>
-      <c r="S140" t="inlineStr">
+      <c r="T140" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA Europ Assistance Brasil considera a diversidade e a inclusão como valores a serem cultivados, fortalecendo a dignidade das pessoas e o respeito aos direitos humanos.Valorizamos as pessoas, encorajamos a diversidade, investimos no aprendizado contínuo e no crescimento por meio da criação de um ambiente de trabalho transparente, coerente e acessível. Nossos valores envolvem estarmos abertos e olharmos o mundo de diferentes perspectivas, trazendo a equidade como um pilar, para entendermos as realidades distintas.Promovemos uma organização com uma cultura de respeito a singularidade de cada pessoa juntamente com a construção de um ambiente igualitário e aberto a novas ideias e sugestões vindas de todas as áreas.
 Responsabilidades e atribuiçõesComo será seu dia-a-dia:• Desenvolverá estudos, cálculos e análises atuariais através das bases de dados da Cia;• Construirá estruturas de dados (tabelas), filtros de consulta, apresentações gráficas e de relatórios, automação de importação, automação de consulta pelo usuário e protocolos de testes;• Com o apoio dos Especialistas, e através de uma massa de dados histórica, atualizará a modelagem estatística para acompanhar o comportamento do ciclo de vida dos produtos de assistência e potencializar os resultados inerentes à operação;• Executará testes funcionais das soluções desenvolvidas;• Apoiará os Especialistas nas rotinas de manutenção da estrutura de dados, garantindo sua integridade, na especificação dos requisitos funcionais do BI e na elaboração da documentação de suporte e no levantamento das informações necessárias;• Prestará suporte à equipe de Precificação, Rentabilidade e Produtos.
@@ -13613,7 +14769,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr"/>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P141" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -13624,10 +14784,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R141" t="n">
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S141" t="n">
         <v>6034272</v>
       </c>
-      <c r="S141" t="inlineStr">
+      <c r="T141" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSe você busca uma atuação profissional em um ambiente onde desafios são encarados como oportunidades, aqui é o seu lugar! Por aqui encontrará um ambiente que preza pelo respeito, ética, diversidade, equidade e inclusão, um time que valoriza a parceria sendo esse, o valor principal da companhia. A 3tentos, não admite discriminação de nenhuma forma em seus processos de recrutamento e seleção, está aberta a novas ideias respeitando as pessoas e suas individualidades, aprecia o desenvolvimento de habilidades comportamentais e profissionais de seus talentos. Você quer seguir carreira na área de Análise de Dados e ter a possibilidade de aprender com profissionais experientes e com novas ferramentas e métodos (QlikSense, RPA, etc)?Gostaria de atuar em uma das melhores e maiores empresas do agronegócio do Brasil? Então venha crescer em parceria com a gente! #vempra3tentos
 Responsabilidades e atribuiçõesRealizar análise e interpretação de resultados usando ferramentas e técnicas estatísticas, visando utilizar dados para elaborar e responder as perguntas certas de negócio;Desenvolver consultas de banco de dados com SQL ou PL/SQL;Apoiar na implementação de indicadores e processos com base em dados dentro das áreas de negócio, a fim de explorar todas as informações e conectar todas as pontas;Propor novos dashboards e análises junto à área técnica de dados e buscar transformar tudo isso em planos de ação estratégicos;Filtrar e “limpar” dados mediante revisão de relatórios de computadores, cópias impressas e indicadores de desempenho para localizar e corrigir problemas de código.
@@ -13708,17 +14873,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P142" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="n">
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S142" t="n">
         <v>6195196</v>
       </c>
-      <c r="S142" t="inlineStr">
+      <c r="T142" t="inlineStr">
         <is>
           <t>Descrição da vagaA Start Recrutamento é uma consultoria de Recrutamento &amp; Seleção especializada na contratação de PCDs, programas de diversidade / vagas afirmativas, vagas operacionais, projetos de volume e Estágio e Trainee. Confira essa nova oportunidade que trouxemos para você hoje: Analista de Processos (Dados) - nível plenoSobre nosso cliente: Se construir ou reformar faz parte dos seus sonhos, então você está no lugar certo. A Telhanorte Tumelero vai te ajudar a fazer desse momento um prazer e não um problema. Somos o homecenter inteligente que oferece a solução completa para pensar, executar e otimizar sua obra. Integramos uma das maiores redes varejistas de material de construção do país, a Saint-Gobain Distribuição Brasil, pertencente ao grupo francês Saint-Gobain desde 2000.São 75 lojas espalhadas pelos estados de SP, MG, PR e RS, dois e-commerces (telhanorte.com.br e tumelero.com.br) e multicanais para oferecer a melhor experiência de compra, com qualidade no atendimento, serviços diferenciados e um mix de produtos com mais de 50 mil itens para toda a família. Para nós, cada obra é um sonho. Vamos junto da planta à casa pronta. Somos o alicerce fundamental para fazer sua obra acontecer da melhor forma possível. Imprevistos acontecem, a gente sabe. Por isso, para nós, sair dos planos também faz parte dos planos.Inovamos ao ser a primeira e única rede de materiais de construção brasileira a adotar o conceito de homecenter de proximidade: é a Telhanorte Já!, que leva a gama de um home-center comum para lojas de bairro, pertinho dos nossos clientes e com serviços exclusivos, como entrega expressa, aluguel de ferramentas e muito mais!Também fomos pioneiros em trazer para o Brasil a Pro Telhanorte, um conceito de lojas destinadas à profissionais da construção, construtoras, empresas de manutenção, indústrias e hobbistas. Para atender esse público, contamos com atendimento especializado, produtos exclusivos e preços competitivos.E somos o único homecenter brasileiro com uma loja que funciona 24 horas: a Telhanorte Marginal, no bairro da Água Branca, em São Paulo (SP), conta com 13 mil metros quadrados e milhares de itens de estoque local, além de espaços exclusivos, como o Projete-se, em que um time de designers projetam ambientes personalizados para nossos clientes.
 Responsabilidades e atribuiçõesAtuará no centro de distribuição em Guarulhos com as atividades: Coletar, limpar e preparar dados de várias fontes para análise no Power BI;Desenvolver relatórios e painéis interativos no Power BI, focando na apresentação visual de dados complexos de maneira clara e eficaz;Colaborar com as equipes internas para entender as necessidades de análise de dados e garantir que os relatórios atendam às expectativas;Realizar análises para responder a perguntas de negócios específicas;Manter-se atualizado sobre as melhores práticas e novos recursos do Power BI;Participar de reuniões de revisão de dados e compartilhar insights com a equipe.
@@ -13799,7 +14973,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P143" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -13810,10 +14988,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R143" t="n">
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S143" t="n">
         <v>6185213</v>
       </c>
-      <c r="S143" t="inlineStr">
+      <c r="T143" t="inlineStr">
         <is>
           <t>Descrição da vagaAqui na Riachuelo a gente se conecta com @vc! #CarreiraQueConecta 🚀❤️Existimos para conectar desejos a realizações. E você escolher a Riachuelo para fazer a sua carreira acontecer é uma realização para a gente!Aqui, nossos milhares de RCHLOVERS encontram o melhor ambiente para se transformarem e se desenvolverem junto com a gente. Afinal, somos moda, varejo, tech, logística, financeira, indústria e uma das maiores empregadoras do país! ♥Vamos juntos construir o maior ecossistema de moda, lifestyle e produtos financeiros do Brasil!Nosso time de (UNIDADE OU TIME) está em busca de um (CARGO) para compor a equipe!♿ Lembramos que nossas oportunidades são para todos. Na Riachuelo, você encontra um ambiente diverso, com respeito e empatia, em que cuidamos dos RCHLOVERS.
 Responsabilidades e atribuiçõesOs desafios da função são:Manipular dados de acordo com as solicitações e demandas das áreas internas;Entrega de  conteúdo/ material relevante  para tomada de decisão do negocio;Ter domínio das ferramentas de Dados como Databricks, Python e SQL;Entregar conteúdo relevante de acordo ao que foi solicitado e apresentar o material para os stakeholder.
@@ -13894,7 +15077,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P144" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -13905,10 +15092,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio farmácia', 'Clube de vantagens', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R144" t="n">
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+      <c r="S144" t="n">
         <v>6128539</v>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="T144" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO Observatório de Pesquisas em Educação e Cultura busca promover, a partir da produção, sistematização e disseminação de conhecimentos e pesquisas, uma cultura de evidências que inspire inovações e estimule a reflexão e debate da sociedade civil e o poder público sobre pautas contemporâneas e aprimoramento de políticas públicas em educação e cultura. Também busca inspirar novas iniciativas para programas da Fundação Itaú nas distintas superintendências como Itaú Social, Itaú Cultural e Educação e Trabalho.O Observatório realiza pesquisas de forma consistente e com metodologias diversas no campo das economias (digital, criativa, verde, prateada e do cuidado) assim como em temas prioritários da cultura e educação com ênfase em evidenciar as desigualdades. Os estudos são baseados em análise de dados primários e secundários e também prioriza pesquisa aplicada em articulação com o setor público, governo federal, estadual e municipal e em parceria com o terceiro setor, universidades, especialistas e centros de pesquisa públicos e privados, nacionais e internacionais.
 Responsabilidades e atribuiçõesConduzir pesquisas a partir do tratamento e análises de dados primários e de base de dados públicas como a Pesquisa Nacional por Amostra de Domicílios (PNAD), Relação Anual de Informações Sociais (RAIS) e outras bases de dados divulgadas pelo IBGE e que contribuam para investigar pautas prioritárias para a Fundação.Contribuir com o desenho e o desenvolvimento de estudos e pesquisas aderentes às necessidades e desafios das frentes de educação e cultura. Analisar indicadores e dados secundários que possam contribuir para debates e reflexões nas áreas temáticas da fundação.Realizar análises críticas de relatórios com proposições de melhoramento.Gerir projetos de pesquisa em articulação com as distintas áreas da Fundação Itaú e com atores do setor público como governo federal, estadual e municipal e em parceria com o terceiro setor, universidades, especialistas e centros de pesquisa públicos e privados, nacionais e internacionais.Produzir relatórios analíticos e dashboards.Gestão dos projetos (escopo, orçamento e cronograma).Estruturar e implementar, em apoio com a área de comunicação da fundação, planos de divulgação dos estudos e pesquisas. Produzir e realizar apresentações dos resultados das pesquisas a distintos públicos interessado.
@@ -13989,7 +15181,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P145" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -14000,10 +15196,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R145" t="n">
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="n">
         <v>6176843</v>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="T145" t="inlineStr">
         <is>
           <t>Descrição da vagaAtuar na área de automação realizando testes de aceitação de campo (TAC) em novos projetos e/ou melhorias, realizar análise de dados por meio de regressão múltipla, incluindo a exportação da base de dados para formatos CVS/XLX. Monitorar empresas prestadoras de serviços quanto ao desenvolvimento de automação, realizando o tratamento de alarmes de acordo com a necessidade atendendo a ISA 18.2 e a EEMUA-191.
 Responsabilidades e atribuiçõesAnalisar e monitorar atividades no desenvolvimento dos projetos, considerando aspectos técnicos e qualidade;Atuar na área Técnica, auxiliando na automatização dos processos de fabricação, mediante implantação de recursos para racionalização da produção;Colaborar no desenvolvimento de atividades inerentes à implantação de novos equipamentos e novas tecnologias; Preparar modificações para readequação de equipamentos existentes a novas necessidades da produção, bem como realizando demais atividades correlatas e inerentes ao cargo;Utilizar a ferramenta do AssetCenter, para colaborar com diagnósticos e log¿s de alterações na plataforma, assegurando a automatização dos processos de fabricação;Realizar análise, gestão e compressão de dados no Historian Live Data Interface;Realizar checklist trimestral da capacidade de processamento dos controles e ajuste de frequência de atualização das (TASKs – grupo de rotinas logicas);Extrair cópia de segurança de arquivos, diretórios ou discos, sejam eles físicos ou virtuais, de dispositivos eletrônicos para um sistema de armazenamento secundário, com o objetivo de preservar o ambiente em conformidade com as diretrizes da norma ISO 27001;Realizar a compatibilização de materiais hardware de automação na obra;Orientar técnicamente o preparo de modificações para readequação de equipamentos existentes a novas necessidades da produção, sejam elas de aumento de capacidade produtiva, qualidade ou segurança;Participar ativamente no desenvolvimento de projetos e soluções, buscando o processo de melhorias contínuas e qualidade total;Realizar preenchimento de formulários referentes à automação industrial, mediante autorização do superior imediato para envio de informações;Analisar, acompanhar e elaborar relatórios das etapas do processo de fabricação, com intuito de garantir que os processos sejam realizados da melhor forma possível;Apoiar no preparo de modificações para readequação de equipamentos existentes a novas necessidades da produção, sejam elas de aumento de capacidade produtiva, qualidade ou segurança; Colaborar no suporte e manutenção das automações implementadas;Controlar e definir os níveis mínimos e máximos de estoque de materiais utilizados na automação, analisando necessidades e solicitando a aquisição de novos;Acompanhar solicitação de Serviço SS, abertura de ordem de serviço OS, distribuição de atividade de acordo com necessidade, monitoramento de chamados;Realizar auditoria de acesso e alterações feitas na plataforma de automação (garantindo as evidências via Citrix);Manter controles de equipamentos utilizados na automação, bem como fornecer informações que servirão para preparação de relatórios gerenciais;Auxiliar no preenchimento de relatórios referentes à planta industrial sendo esses, quando por algum evento de parada de produção parcial ou total na indústria; Organizar arquivo de laudos de inspeções em geral; Acompanhar cronograma de execução de novos projetos de automação;Apoiar equipe de campo quando necessário, auxiliando no manuseio de dispositivos ou viabilizando formas de fazer manutenção conforme avaliação local;Desenvolvimento de planos de ação voltados a automação oriundos de relatórios de paradas industriais não programadas (desarmes), acompanhando a melhoria a ser implementada da sua concepção até a validação da tecnologia implementada e todos os processos e unidades correlacionadas;Executar as atividades da função respeitando todas as normas e procedimentos de segurança, saúde e meio ambiente do trabalho, estabelecidos pela organização, bem como, utilizar constantemente todos os EPIs de uso obrigatório no desenvolvimento das atividades do cargo e do setor. Tendo a responsabilidade de informar ao seu superior imediato qualquer atividade que apresente risco a sua saúde ou dos demais colegas de trabalhpo;Manter a disciplina no programa 5S, objetivando um trabalho seguro por meio da manutenção da organização, padronização e limpeza do ambiente de trabalho;Zelar pelas propriedades da empresa sob sua responsabilidade, informando ao superior imediato qualquer problema ou avaria detectada;
@@ -14084,7 +15281,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P146" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -14095,10 +15296,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio farmácia', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R146" t="n">
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S146" t="n">
         <v>5994772</v>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="T146" t="inlineStr">
         <is>
           <t>Descrição da vaga.
 Responsabilidades e atribuiçõesLevantamento do backlog junto às áreas de negócio, representando os interesses de todos envolvidos (stakeholders);Auxílio nas definições das funcionalidades do produto, priorizando os itens de backlog;Realização de coleta de dados, analise de soluções de média complexidade, apresentando informações úteis para a tomada de decisões através do BI;Levantamento de Demandas de Negócio e Construção de Soluções.
@@ -14178,7 +15384,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P147" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -14189,10 +15399,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Convênio com empresas parceiras', 'Refeitório', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R147" t="n">
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S147" t="n">
         <v>6124175</v>
       </c>
-      <c r="S147" t="inlineStr">
+      <c r="T147" t="inlineStr">
         <is>
           <t>Descrição da vagaVENHA FAZER PARTE DA NOSSA EQUIPE!A Engbras, fundada em 2001, nasceu com o propósito de trazer inovações ao mercado, e principalmente, fornecer aos nossos clientes as soluções para problemas específicos de engenharia, atuando nas etapas de criação do produto como um todo. Nosso diferencial é criar soluções específicas tanto para uma fase no projeto, como propor a melhoria do processo de fabricação de um produto, desde sua concepção até seus testes finais, englobando todas as fases e resultando em aspectos positivos de performance e tempo de projeto.
 Responsabilidades e atribuiçõesDescrição de cargoRealizar o planejamento financeiro da área de Engenharia de Manufatura;Construir forecast e explicar as variações de realizado vs forecast;Pilotar reuniões sobre forecast mensal, semestral e anual da área;Preparar indicadores de performance dos projetos em andamento;Levantamento de oportunidades de redução de custos considerando legislação de incentivos fiscais (Rota 2030).
@@ -14273,7 +15488,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr"/>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P148" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -14284,10 +15503,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Café da manhã', 'Participação nos Lucros ou Resultados', 'Refeitório', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R148" t="n">
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="n">
         <v>6121437</v>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="T148" t="inlineStr">
         <is>
           <t>Descrição da vagaTrabalhar na equipe de Gestão da Plataforma de Dados da Ajinomoto é estar envolvido nas estratégias e processos que sustentam a gestão dos dados. É assegurar que possamos implementar soluções inovadoras que contribuam para aprimorar os processos e o compliance, por meio uma atuação estratégica, essa função é essencial para garantir a eficiência e integridade dos dados, promovendo o sucesso das operações e a excelência no suporte as diversas áreas.
 Responsabilidades e atribuiçõesResponsável pela atuação em projetos de construção de análise de dados (Analytics) com levantamentos, debates e compreensão de requisitos com participação no desenho da proposta de solução, aplicabilidade e utilização de diferentes ferramentas e tecnologias relacionadas a análise de dados. Elaboração de especificações técnicas / funcionais, manuais de treinamento, documentações de sistemas, procedimentos, instruções de trabalho para soluções de análise de dados e aplicação de metodologias de melhores práticas de TI, visando automatizar processos e rotinas de trabalho das áreas de negócio, corporativos e unidades fabris, a fim de alcançar as metas e objetivos de TI.Atuar como ponto focal para todas as áreas de negócios da B2B, auxiliando em situações especificas que necessitem de tomada de decisãoGestão de incidentes críticos e atendimento / retorno de requisições;Garantir a disponibilidade e segurança do ambiente de dados, apoiar no desenvolvimento dos projetos junto aos fornecedores;Atuar na resolução de problemas de forma colaborativa, analisando e escalonando os problemas identificados com as áreas cross, garantindo uma entrega consistente e de qualidade;Dar suporte aos produtos relacionados a dados (timesheet);
@@ -14368,17 +15588,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P149" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="n">
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="n">
         <v>6112059</v>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="T149" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaInquietos e Acelerados. Criativos ou Cartesianos. Talentosos e Autodidatas. Artesanais ou Tecnológicos. Não importa: gostamos de diversidade e de quem está aqui para agregar.Porque GENTE É O QUE SOMA.QUER FAZER PARTE DESTA JORNADA COM A GENTE?
 Responsabilidades e atribuições·      Atualização de base de dados ·      Criação de relatórios e dashboards ·      Criação e validação de consultas SQL ·      Automação de processos ·      Suporte na criação de apresentações
@@ -14459,17 +15684,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P150" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="n">
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S150" t="n">
         <v>6112877</v>
       </c>
-      <c r="S150" t="inlineStr">
+      <c r="T150" t="inlineStr">
         <is>
           <t>Descrição da vagaA Globo é feita de gente que quer fazer diferente, fazer junto, fazer o futuro.Gente espalhada por todo o país (e mundo!) trabalhando com conteúdo, notícias, negócios, tecnologia e brasilidade de sobra. Canais na TV aberta e por assinatura, produtos digitais como globoplay, Cartola, g1, ge, gshow e outros serviços estão reunidos no mesmo lugar, na mesma Globo.Novos modelos de negócios digitais estão sendo pensados e desenvolvidos, buscando nos aproximar cada vez mais do usuário e dos seus desejos. As oportunidades de novos negócios também trazem a chance e o desafio de construirmos novos times data-driven e que coloquem o consumidor no centro das nossas decisões.Criamos ambientes onde todas as pessoas são incluídas, acolhidas e valorizadas. Nos empenhamos em ser uma Globo cada vez mais diversa, em representatividade e pensamento, aprendendo uns com os outros e estimulando a criatividade e inovação. Dentro da diretoria de Negócios Integrados em Publicidade, a área de Analytics e Insights tem o objetivo de fornecer análises de dados, estudos e relatórios, unindo KPIs de sucesso e modelos estatísticas para alcançar com profundidade as melhores oportunidades para decisões estratégicas do negócio dentro da publicidade da Globo.Modelo de trabalho: Híbrido - São Paulo/SP
 Responsabilidades e atribuiçõesComo será seu dia a dia:  Você atuará na estruturação de projetos analíticos e na gestão de projetos estratégicos da área de Negócios Integrados em Publicidade;Irá mapear e/ou modelar dados, identificando e entendendo o comportamento dos clientes que compram publicidade na Globo e propondo soluções ou oportunidades que tragam impactos positivos para o negócio;Liderar iniciativas que ajudarão na tomada de decisão estratégica das lideranças da empresa, utilizando de diferentes metodologias e sendo a interface para diferentes áreas e com pessoas em diferentes cargos;Será um dos agente de mudança e de disseminação do poder dos dados na publicidade da Globo, trazendo soluções para as necessidades da Globo através do conhecimento, sistemas e estruturas adequadas aos desafios de negócios.
@@ -14550,7 +15784,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P151" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -14561,10 +15799,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Desconto em produtos', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R151" t="n">
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S151" t="n">
         <v>6044533</v>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="T151" t="inlineStr">
         <is>
           <t>Descrição da vagaA área de Vistoria Prévia é responsável pela avaliação de veículos na contratação de cobertura securitária. Atua na avaliação e prevenção de riscos com qualidade e eficácia, garantindo uma relação de compromisso e respeito com nossos corretores, segurados e colaboradores.
 Responsabilidades e atribuiçõesSerá o responsável pela liderança técnica do time de Inteligência Analítica, trazendo insumos de mercado e desenvolvendo as pessoas de forma didática, fazendo o onboarding e disseminando conhecimento;Construção, acompanhamento e manutenção de indicadores da área;Responsável pelo desenvolvimento das demandas mais complexas (comitês/assuntos estratégicos) que envolvam conhecimentos amplos do negócio e/ou de base de dados. Gerando estudos e materiais para garantir a excelência nos pontos de tomadas de decisão da diretoria;Formular e analisar hipóteses que ajudem a área a alcançar seus desafios estratégicos;Interagir com as diversas áreas da diretoria de auto para identificar oportunidades de negócio e ganho de escala com a transformação digital da área;Desenvolver estudos que influenciem a performance da área de vistoria prévia;Criar visualizações de dados, dashboards e relatórios de acompanhamento de performance e resultado das iniciativas da área de vistoria.
@@ -14645,7 +15888,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P152" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -14656,10 +15903,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R152" t="n">
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S152" t="n">
         <v>6098386</v>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="T152" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA Gradus é uma consultoria de gestão brasileira de grande prestígio nacional e internacional, com mais de 27 anos de história, reconhecida pela qualidade de seus profissionais e pelo alto impacto que gera em seus clientes através das soluções analíticas que desenvolve. Como exemplo, nos últimos 4 anos, recebemos 3 prêmios internacionais por soluções desenvolvidas por nosso time. Além disso, temos um plano de carreira acelerado e com foco na formação e capacitação de nossos colaboradores, oferecendo acesso a plataformas de aprendizado online, treinamentos presenciais e cursos de MBA patrocinados.Como analista de dados, você terá a oportunidade de desenvolver soluções de machine learning, otimização e simulação para grandes empresas do cenário nacional e internacional.
 Responsabilidades e atribuiçõesCompetências desejadas:Interesse em aprender com empresas de vários setores, em projetos de consultoriaCapacidade de traduzir problemas de negócio em problemas matemáticosTrabalho em equipe e bom relacionamento interpessoalRaciocínio lógico e capacidade analítica
@@ -14740,7 +15992,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O153" t="inlineStr"/>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P153" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -14751,10 +16007,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio desenvolvimento']</t>
         </is>
       </c>
-      <c r="R153" t="n">
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S153" t="n">
         <v>6087890</v>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="T153" t="inlineStr">
         <is>
           <t>Descrição da vagaOi, somos a HOLDING SIMPAR! Somos um Grupo com mais de 40 mil colaboradores sob a mesma Cultura, Valores e um Modelo de Gestão único, que produz resultados sustentáveis e alinhados às melhores práticas de ESG. Uma holding que empresaria 7 negócios com operações independentes e complementares nos segmentos de logística, mobilidade, saneamento, infraestrutura, concessões e serviços financeiros. A SIMPAR é a holding que controla sete empresas independentes: JSL, Movida, Vamos, CS Brasil, Automob, Banco BBC Digital e CS Infra. Nossa Gente é formada por diversidade de gerações, com complementariedade de conhecimentos, experiências e com muita energia para realizar. Venha fazer parte da #NossaGente!Dentre nossos valores, contamos com CLIENTE, sendo a razão da nossa existência empresarial, escutamos nossos clientes para entender a atender suas necessidades, GENTE, sendo nosso grande diferencial e que nos permite alcançar os objetivos, SIMPLICIDADE, um jeito descomplicado de ser e agir, ATITUDE DE DONO, agimos com profundidade e visão do todo, SUSTENTABILIDADE, com atitudes economicamente viáveis, ecologicamente corretas e socialmente justas, LUCRO, sendo uma missão de todos, fundamental para o crescimento e desenvolvimento sustentável dos nossos negócios.Todos os processos seletivos conduzidos pela SIMPAR são afirmativos, inclusivos e não discriminatórios.
 Responsabilidades e atribuiçõesConsolidação de relatórios e apresentações gerenciais de resultados;Elaboração de indicadores de acompanhamento operacional;Perseguir a melhoria contínua dos processos operacionais;Elaboração de relatórios em Excel e Power BI.
@@ -14835,17 +16096,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P154" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="n">
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S154" t="n">
         <v>5897832</v>
       </c>
-      <c r="S154" t="inlineStr">
+      <c r="T154" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSomos uma empresa de tecnologia movida por nossa paixão por animais de estimação! 💜Nosso trabalho diário é tornar a vida dos pais dos animais de estimação mais fácil por meio de uma experiência única de aprender, fazer compras e consumir o que eles precisam, a qualquer hora. Sempre centrado no que é melhor para a felicidade e saúde dos animais de estimação.A Petlove já é a maior empresa de tecnologia na indústria pet do Brasil. Recentemente, adicionamos ao nosso portfólio empresas estratégicas como DogHero, VetSmart, Vetus e Porto.pet para animais de estimação, a fim de perseguir nossa visão de criar o maior ecossistema de animais de estimação do Brasil.Temos muito orgulho de já ter atendido mais de 5 milhões de clientes em todo o país, mas ainda estamos famintos pelo que vem por aí (o Brasil tem mais de 48 milhões de domicílios com animais de estimação). Se você está procurando uma oportunidade única na vida, adora tecnologia e é realmente apaixonado por animais de estimação, somos perfeitos um para o outro!O time de Inteligência da Petlove é formado por cientistas, engenheiros e analistas de dados e tem como principais objetivos a criação produtos/processos para as áreas de negócio tomarem decisões mais assertivas, automação de processos e democratização do uso de dados.Nosso time é extremamente comprometido e colaborativo. Todos gostam de estudar bastante e a troca de feedbacks é constante!Buscamos um analista de dados para compor o nosso time.Atuamos como squad suportando diversas áreas da companhia.
 Responsabilidades e atribuiçõesRESPONSABILIDADES E ATRIBUIÇÕESAtuar próximo do time de Petlog apoiando no processo decisório com análises de dados e métricas;Criação de modelos de machine learning voltados a logística (ex: simulador de modal e de rotas);Utilização de dados de forma a otimizar e melhorar a efetividade das nossa malha logística (causal learning e testes A/B);Entender as necessidades em dados, traduzi-los em insights estratégicos e visualizações que ajudem a identificar oportunidades e geração de insights;Desenvolver dashboards de forma a produtizar entregas e trazer maior valorContribuir no desenvolvimento de uma cultura data driven e de uma visão Customer Centric.Análise exploratória de dados e também avaliando a qualidade dos dados utilizados
@@ -14926,7 +16196,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr"/>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P155" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -14937,10 +16211,15 @@
           <t>['Assistência médica', 'Horário flexível', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R155" t="n">
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python']</t>
+        </is>
+      </c>
+      <c r="S155" t="n">
         <v>6077464</v>
       </c>
-      <c r="S155" t="inlineStr">
+      <c r="T155" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos em busca de uma pessoa extraordinária, dinâmica e analítica. Como nosso Analista de Dados, você será responsável pela coleta e apresentação de dados. Deverá coletar os dados de nossos sites, páginas, ferramentas, apresentar esses e outros dados em dashboards para fácil visualização do time. Também ficará responsável pelo acompanhamento dos dados.Se identificou e curtiu? Vem fazer parte do nosso time! 🐝 ‍🏴‍☠
 Responsabilidades e atribuiçõesSeu dia a dia: Criar estratégia de coleta de dados;Criar scripts de Java Script que peguem os dados nos sites;Armazenamento dos dados e tratamento em banco de dados e Google Sheets;Realizar processamento e exploração de dados;Trabalhará na construção e manutenção de dashboards para acompanhamento de métricas importantes para o negócio;Você estará em contato com todas as áreas da empresa, realizará levantamentos estudos para tomada de decisão;Trabalhará com obtenção de dados de diferentes fontes;Atuação com outros especialistas para construção de ferramentas de predição, com utilização de machine learning.
@@ -15018,10 +16297,14 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P156" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -15032,10 +16315,15 @@
           <t>['Seguro de vida']</t>
         </is>
       </c>
-      <c r="R156" t="n">
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S156" t="n">
         <v>6077001</v>
       </c>
-      <c r="S156" t="inlineStr">
+      <c r="T156" t="inlineStr">
         <is>
           <t>Descrição da vagaDescrição da vaga:Estamos em busca de um Analista de Dados altamente qualificado e motivado para integrar nossa equipe de atendimento a clientes exclusivos. Nesta função, você será responsável por colaborar com nossos clientes no desenvolvimento de dashboards personalizados e na entrega de análises de dados estratégicas. Você desempenhará um papel fundamental na interpretação de informações complexas e na tradução delas em insights acionáveis que impulsionarão o sucesso de nossos clientes.
 Responsabilidades e atribuiçõesResponsabilidadesColaborar com clientes exclusivos para entender suas necessidades de análise de dados e requisitos de dashboard.Coletar, limpar, transformar e consolidar dados de várias fontes para uso em análises.Projetar, desenvolver e manter dashboards interativos e visualizações de dados personalizadas que atendam às necessidades dos clientes.Realizar análises avançadas de dados para identificar tendências, padrões e oportunidades de melhoria.Fornecer suporte contínuo aos clientes, ajudando-os a interpretar e usar eficazmente as informações geradas.Colaborar com a equipe técnica para garantir a integridade dos dados e a otimização de desempenho dos dashboards.
@@ -15116,7 +16404,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P157" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -15127,10 +16419,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R157" t="n">
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S157" t="n">
         <v>6065103</v>
       </c>
-      <c r="S157" t="inlineStr">
+      <c r="T157" t="inlineStr">
         <is>
           <t>Descrição da vaga+30.000 pessoas, 41 países, 44 línguas.Na Consultoria e em mais de 25 Ventures com expertise em soluções digitais, temos centros de inovação, um mindset empreendedor, um ecossistema de crescimento e vemos o cliente como o centro de tudo.Incentivamos a diversidade, a criatividade, trabalhamos com agilidade e flexibilidade. Nosso propósito é orquestrar relacionamentos entre negócios, tecnologia e pessoas. Vem cocriar com a gente, VEM SER #STEFANINER !!!Atuação 100% presencial em Santana (Zona Norte) / SP
 Responsabilidades e atribuiçõesO que esperamos que você realize:Atividades de indicadores, analise de performance, desenvolvimento de novos KPIs, atuando junto a transportadores e cliente. Necessário base analítica para desenvolvimento da atividade devido a criticidade dos indicadores que tratam de reconhecimento de vendas no mês onde o resultado é compartilhado na cia inteira com as áreas envolvidas
@@ -15211,7 +16508,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P158" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -15222,10 +16523,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R158" t="n">
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S158" t="n">
         <v>6048389</v>
       </c>
-      <c r="S158" t="inlineStr">
+      <c r="T158" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA AegeaCriada em 2010, a Aegea é líder no setor privado de saneamento básico no Brasil. Em cada município onde atua, leva mais saúde e qualidade de vida para a população, respeitando sempre o meio ambiente e a cultura local.Programa Respeito dá o TomO programa nasceu com a meta de espelhar a demografia da população brasileira no quadro de funcionários da empresa. Em 2022 a Aegea emitiu um título sustentável atrelado a metas que incluem alcançar 45% de mulheres e 27% de negros em cargos de liderança até 2030, sendo pioneira em se comprometer com meta de diversidade racial em cargos de liderança.A Aegea tem o compromisso com a promoção de um ambiente de trabalho mais igualitário, diverso e inclusivo, e estimula o respeito e a valorização das diferenças. Aqui, todos os candidatos qualificados serão considerados no processo seletivo, independentemente de raça, gênero, orientação sexual, religião, naturalidade, nacionalidade, deficiência, idade ou outras características.
 Responsabilidades e atribuiçõesIrá atuar no gerenciamento de cadastros de Materiais no sistema e Fornecedores SAP, acompanhando a qualidade dos dados e processos de governança nos cadastros, através do sistema integrado da empresa -SAP;Identificar gaps e resolver assuntos, encaminhando para os setores correspondentes e prestar assistência à equipe nas atividades rotineiras;Apoiar nas informações solicitadas por Compliance, DARC e Auditoria Interna/Externa;Participar da implementação de políticas de governança de dados mestres, alinhada à estratégia da empresa;Administrar treinamentos para a equipe em atividades rotineiras, participar ativamente de projetos, absorvendo e repassando conhecimento.
@@ -15306,7 +16612,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O159" t="inlineStr"/>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P159" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -15317,10 +16627,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R159" t="n">
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>['Power BI']</t>
+        </is>
+      </c>
+      <c r="S159" t="n">
         <v>5963730</v>
       </c>
-      <c r="S159" t="inlineStr">
+      <c r="T159" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSomos um dos maiores ecossistemas de Negócios SaaS do país e pioneiros na Transformação Digital do setor público. Especialista em simplificar complexidades e criar softwares que solucionam as principais dores dos setores que atuamos, assim, promovemos transformações fundamentais na vida das pessoas.Possuímos um portfólio de mais de 19 marcas – essa posição é para atuar na solução Sider, em um cliente de Cuiabá/MT.
 Responsabilidades e atribuiçõesConhecimento de ferramentas de BI e extração de dados (ETL);Realizar reuniões com clientes com o intuito de obter informações estratégicas, analisar e propor mecanismos de visualizações de informações alavancando oportunidades internas e para o cliente;Atuar com autonomia buscando dar orientações aos demais profissionais da sua equipe.Participar de reuniões de governança com o cliente;Controlar os projetos de implantação, gerindo sistemas que geram informações estratégicas que podem ser extraídas em painéis na ferramenta de BI;Manter comunicação ativa com o cliente organizando os trabalhos e garantindo assim a implantação das entregas.
@@ -15398,10 +16713,14 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P160" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -15412,10 +16731,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Programa de remuneração variável']</t>
         </is>
       </c>
-      <c r="R160" t="n">
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S160" t="n">
         <v>5999533</v>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="T160" t="inlineStr">
         <is>
           <t>Descrição da vagaComo será um dia de trabalho típico na Seazone?Fazer parte dessa equipe significa que você somará ao nosso propósito de trazer inovação e tecnologia para o mercado de aluguel por temporada visando maximizar a rentabilidade para clientes proprietários e investidores, além de garantir uma excelente experiência aos hóspedes que escolhem os imóveis Seazone. Desse modo, trabalhar conosco é se tornar parte essencial do crescimento exponencial do nosso modelo de negócio, somando aos nossos títulos de maior parceira nacional do Airbnb e uma das 20 Top Startups do Linkedin.O que estamos procurando exatamente?De modo geral, procuramos pessoas que acreditem em nossa missão, visão e valores enquanto organização, além de se identificarem com o setor de Revenue Management, pertencente ao nosso time de Tecnologia, que hoje é responsável por precificar nossos imóveis e permitir a escalabilidade dos nossos serviços sem que haja perda de qualidade do que entregamos aos nossos clientes. Mas atenção: embora esta posição seja para compor nosso time de Tech, ela não se relaciona diretamente com atividades como programação e desenvolvimento web, mas sim com planilhas e análise de dados visando tornar nossas estratégias de precificação cada vez mais assertivas. Assim, para seguir crescendo com nosso time que transforma sonhos em objetivos todos os dias, buscamos pessoas que gostem de aprender, bem como que tenham iniciativa, autonomia e sangue no olho para fazer o melhor por nossos clientes.
 Responsabilidades e atribuiçõesAtuar em atividades relacionadas à precificação de imóveis na Seazone;Atuar em KPIs relacionados aos nossos canais de venda;Atuar na análise de imóveis externos à empresa.﻿
@@ -15496,7 +16820,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr"/>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P161" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -15507,10 +16835,15 @@
           <t>['Assistência médica']</t>
         </is>
       </c>
-      <c r="R161" t="n">
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>['Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S161" t="n">
         <v>5984701</v>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="T161" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSomos a J&amp;T Express, empresa multinacional que chegou ao Brasil para revolucionar o mercado de entregas expressas. Nossos números: Presença em 13 países;240 centros de transferências de larga escala;1.000 equipamentos de triagem inteligente;23.000 pontos de distribuição;400.000 colaboradores;Nossos serviços atingem 2,5 bilhões de pessoas ao redor do mundo.E queremos mais... tá afim?
 Responsabilidades e atribuiçõesAnálise e levantamento de indicadores; Análise e levantamento de custos do cliente; Desenvolvimento, controle de dados relacionados ao cliente;Elaboração de dashboards, painéis e relatórios gerenciais;
@@ -15591,17 +16924,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr"/>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P162" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="n">
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="n">
         <v>5983056</v>
       </c>
-      <c r="S162" t="inlineStr">
+      <c r="T162" t="inlineStr">
         <is>
           <t>Descrição da vagaVenha fazer parte de uma empresa que é referência no mercado de saúde suplementar e gera valor para sócias, médicos e clientes. Para fazer parte deste time você precisa: Respeitar e valorizar a diversidade, ter empatia com todas e todos, ter coragem de ousar, ter iniciativa e gostar de cuidar de pessoas, gostar de fazer, de mudar, de transformar.#Unimed #JeitoDeCuidarUnimed
 Responsabilidades e atribuiçõesCriar e desenvolver relatórios interativos atráves de dashboards e cubos que facilitem a análise e os processos dos times assistenciais da Unimed Nacional Acompanhamento e controle das principais demandas da área sempre com o olhar de inovação e de melhoria
@@ -15682,7 +17020,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O163" t="inlineStr"/>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P163" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -15693,10 +17035,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Consignado', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Restaurante interno']</t>
         </is>
       </c>
-      <c r="R163" t="n">
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S163" t="n">
         <v>5982009</v>
       </c>
-      <c r="S163" t="inlineStr">
+      <c r="T163" t="inlineStr">
         <is>
           <t>Descrição da vagaNós somos a Mosaico!Somos líderes em criar conteúdo e originar vendas para o e-commerce no Brasil. Temos como parceria grandes lojas do comércio eletrônico e nossa tecnologia desenvolve os sites, aplicativos e sistemas de grandes marcas, aqui, da Mosaico.No mercado de tecnologia desde 1999, o Buscapé é um dos nossos principais nomes e recebe diariamente milhões de acessos, originando milhares de vendas mensais. Aqui, você vai contribuir com os desafios de aprimorar a tecnologia do Buscapé, Zoom, Bondfaro e outras marcas. Irado, não é mesmo? 😊
 Responsabilidades e atribuiçõesTrabalhar em parceria com as áreas de negócio, produto, marketing e operações;Analisar grandes volumes de dados para apoiar as diversas áreas da Mosaico na tomada de decisão;Implementar TAGs e acompanhar implementações realizadas para captura de dados do Google Analytics;Dar suporte às áreas de produto e tecnologia com Teste A/B, garantindo o funcionamento do motor interno de experimentação e acompanhamento de resultados;Dar visibilidade por meio de dashboards, relatórios e apresentações de métricas do negócio;Apoiar as demais áreas de dados, auxiliando na modelagem do dado para consumo;Definir e acompanhar indicadores chave para acompanhamento de resultados de diferentes áreas.
@@ -15777,7 +17124,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O164" t="inlineStr"/>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P164" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -15788,10 +17139,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Clube de vantagens', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R164" t="n">
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S164" t="n">
         <v>5969611</v>
       </c>
-      <c r="S164" t="inlineStr">
+      <c r="T164" t="inlineStr">
         <is>
           <t>Descrição da vagaComo Analista de Dados SR na Montreal, você fará parte de uma das melhores empresas de tecnologia do Brasil. Nossa trajetória iniciou há mais de trinta anos com uma pequena equipe de engenharia apaixonada por inovação. Em 1986, pessoas visionárias fizeram um compromisso com a tecnologia e sua capacidade de transformar o mundo. Aquele, seria apenas o começo de uma trajetória que nos tornou referência sólida no mercado e uma das melhores empresas para se trabalhar.
 Responsabilidades e atribuiçõesParticipar das cerimônias do SAFe como Arquiteto (PI Planning, System Demo etc.)Orientar as equipes de desenvolvimento em relação aos processos relativos a bancos de dados;Revisar arquitetura de dados de sistemas;Revisar e auxiliar na modelagem de dados e propor melhorias;Revisar e auxiliar no desenvolvimento de Jobs de processamento de dados;Revisar e auxiliar na preparação do sistemas para processos de ETL;Avaliar maturidade de dados dos sistemas em relação a:Aderência a padrões de nomenclaturaParticionamento de tabelasCriação de índicesChaves primárias e estrangeirasMascaramentoExpurgoDentre outros
@@ -15872,7 +17228,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr"/>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P165" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -15883,10 +17243,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R165" t="n">
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="n">
         <v>5972478</v>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="T165" t="inlineStr">
         <is>
           <t>Descrição da vagaOlá, somos a Cruzeiro do Sul Educacional! ⭐  Nós acreditamos no poder de transformação de vidas pormeio da educação de qualidade e excelência! Aqui, nós buscamos conectardiferentes pessoas para que possam construir um mundo melhor a partir daeducação, com muito trabalho, respeito e dedicação, proporcionando a melhorexperiência e apoiando a jornada do conhecimento de mais de 390 milalunos.  A Cruzeiro do Sul Educacional S/A é um dos maiores emais representativos grupos de educação do país, tendo instituições de ensinoacademicamente relevantes e marcas reconhecidas em suas respectivas regiões,das suas escolas de ensino básico às instituições de ensino superior.  Docentes e colaboradores de diversas áreas trabalham emsintonia para garantir essa construção diária. E estamos sempre em busca de novaspessoas para colaborar com esse objetivo, sejam profissionais que procuram poruma primeira oportunidade no mercado de trabalho, até os mais experientes. Você se identifica e acredita nesse propósito e quertrabalhar em uma de nossas marcas? Venha fazer parte donosso time! Estamos de braços abertos pararecebê-lo(a). Para se candidatar a uma de nossas vagas, é importantemanter todos os seus dados atualizados e completos. Fique à vontade para secadastrar em todas as vagas disponíveis do seu interesse, apenas recomendamosque você finalize um processo antes de iniciar um novo. 
 Responsabilidades e atribuiçõesMISSÃO DO CARGO: Tratar e analisar dados através da ferramenta de BI, a fim de gerar informações relevantes para subsidiar as tomadas de decisões para se obter uma gestão empresarial eficiente. Atuar como multiplicador de conhecimentos técnicos junto a equipe. PRINCIPAIS ATRIBUIÇÕES / RESPONSABILIDADES: Coletar, organizar, analisar, compartilhar e monitorar dados através de ferramenta de BI e gerar informações que darão suporte a uma gestão empresarial eficiente; Criar painéis de indicadores e dashboards necessários para fazer análises e dar suporte as tomadas de decisões; Monitorar as métricas e indicadores de desempenho a fim de identificar desvios; Atuar nas demandas administrativas da reitoria, preparando e divulgando manuais e processo seletivo de docentes;Atuar nas demandas administrativas e financeiras, relacionadas com o registro de ponto dos colaboradores, pagamentos, compra de passagens, cadastramento e contratos;Elaborar relatórios e redigir atas, portarias, resoluções, ofícios, memorandos, comunicados e outros, operacionalizando o envio aos destinatários internos;Organizar informações para abertura de cursos no sistema, orientando-se pelo objetivo e conteúdo proposto;Acompanhar e verificar a validade de nomeações e documentação essencial para fins de fiscalização;Manter atualizadas as informações da intranet, incluindo publicações de atos normativos, notícias e avisos em geral;Proceder nas operações de trancamento de módulo e curso, e outras solicitações, de acordo com as demandas;Providenciar a requisição de materiais para suprimento do setor de acordo com as rotinas e procedimentos administrativos;Prestar assistência à assessoria de assuntos estudantis no agendamento de reuniões com o responsável e na elaboração de relatórios;Providenciar a requisição de materiais para suprimento do setor, de acordo com as rotinas e procedimentos administrativos;Atuar no controle e organização do arquivo de documentos para facilitar sua visualização e consulta, quando necessário;Fornecer documentação solicitada por outros setores para apresentação aos órgãos de controle e fiscalização;Otimizar o fluxo das operações, conforme demandas, visando garantir a veracidade das informações processadas;Preparar e participar de reuniões segundo orientações recebidas, analisando e orientando possíveis ajustes nos processos administrativos;Redigir ofícios, memorandos e outros documentos valendo-se do conhecimento e experiências requeridas para produzir conteúdos e informações sobre os temas demandados;Manter-se atualizado em relação aos processos administrativos, baseando-se em informações e histórico das ocorrências nos grupos, núcleos e comissões;Emitir relatórios, baseando-se nos levantamentos efetuados a fim de subsidiar decisões superiores;Manter o controle dos materiais, equipamentos e infraestrutura utilizados, zelando pelas condições de uso e conservação, a fim de mantê-los em perfeito estado de funcionamento;Desenvolver outras atividades correlatas em seu setor de atuação.
@@ -15967,7 +17328,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O166" t="inlineStr"/>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P166" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -15978,10 +17343,15 @@
           <t>['Assistência médica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio fretado', 'Cesta de natal', 'Convênio com empresas parceiras', 'Previdência privada', 'Restaurante interno', 'Seguro de vida', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R166" t="n">
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>['Power BI']</t>
+        </is>
+      </c>
+      <c r="S166" t="n">
         <v>5967218</v>
       </c>
-      <c r="S166" t="inlineStr">
+      <c r="T166" t="inlineStr">
         <is>
           <t>Descrição da vagaGostaria de trabalhar e se desenvolver dentro de uma grande empresa?Então venha trabalhar com a gente e construir a Marcopolo do Futuro!Cadastre-se para vaga de ANALISTA DE DADOS E BIVenha se desafiar com a gente! #vemcomagenteMarcopolo #marcopolodofuturo #aquitemtrabalhoemequipe
 Responsabilidades e atribuiçõesFazer interface entre as áreas de suporte e ser responsável por tratar as informações e manter atualizado o banco de dados da ferramenta; Prestar suporte aos usuários da ferramenta de TCO; Acompanhar testes de coletas de dados de consumo e com elas auxiliar na construção dos argumentos TCO.Analisar indicadores macroeconômicos e financeiros e seus impactos na construção da argumentação de venda do portfólio de produtos;
@@ -16062,7 +17432,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr"/>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P167" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -16073,10 +17447,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R167" t="n">
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S167" t="n">
         <v>5928556</v>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="T167" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO Elo7 foi fundado em 2008 e é o maior marketplace de produtos criativos da América Latina! Nossa missão é transformar a vida das pessoas por meio de um ambiente humanizado de compra e venda que conecta e inspira, conferindo significado a cada transação realizada. 💛Hoje fazemos parte do grupo Enjoei, um marketplace brasileiro que nasceu em 2009 com uma visão muito semelhante à nossa, trabalhando para a construção de uma nova cultura de consumo, estimulando a economia sustentável, ressignificando itens únicos e contando novas histórias.O nosso time está crescendo e estamos em busca de novos Elosetters! Que tal fazer parte de um time criativo, colaborativo e inovador? 😉Estamos buscando um Analista de Dados Sênior para se juntar à nossa equipe e desempenhar um papel crucial na análise do comportamento de compradores e vendedores, bem como na segmentação para direcionar nossas estratégias de CRM. Além da análise de dados, é necessário ter experiência na criação de dashboards para facilitar a tomada de decisões baseada em dados.﻿Curtiu? Agora vamos te explicar como será o processo. Bora lá! Inscrição e preenchimento de cadastro na Gupy (mantenha as informações do seu currículo sempre atualizadas) ✍Estreitando nosso Elo: Pessoa Candidata + Talent Elo7 🎯Case Técnico: Mostre seu Talento! 👩🏾‍💻Bate-Papo Final 🎯Proposta e Contratação: Você aceita ser um Elosetter? 🤝Esperamos te ver em breve no nosso time! ✨
 Responsabilidades e atribuiçõesComo será o seu dia a dia?Análise Exploratória de Dados: Analisar dados internos e externos para identificar tendências, padrões e insights relevantes sobre o comportamento de compradores e vendedores;Geração de Insights: Desenvolver relatórios e apresentações que destaquem os principais insights obtidos por meio da análise de dados, fornecendo orientações valiosas para a tomada de decisões estratégicas;Segmentação de Clientes: Utilizar técnicas avançadas de segmentação de clientes para identificar grupos específicos de compradores e vendedores com características comuns, a fim de personalizar estratégias de comunicação de CRM;Acompanhamento de Métricas: Monitorar o desempenho de métricas de clientes, incluindo leads, conversão, ciclo de vida e outros KPIs relevantes;Experimentação: Propor experimentos aos times de Marketing, mensurar os resultados incrementais obtidos e fornecer insights para otimização contínua;
@@ -16157,7 +17536,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr"/>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P168" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -16168,10 +17551,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Day off aniversário', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R168" t="n">
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S168" t="n">
         <v>5913251</v>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="T168" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA GOVBR é uma empresa que contribui para um Brasil melhor através de soluções de governança para auxiliar a gestão pública municipal na tomada de decisão com mais agilidade, estratégia e controle. Isso não é incrível?Informatizamos a gestão, mas antes de tudo: entendemos o processo e entregamos soluções de excelência que levam a transformação digital para os municípios Brasileiros.
 Responsabilidades e atribuiçõesAnalista de Dados irá coletar, organizar e analisar dados de diferentes fontes. Realizando a modelagem lógica de dados com base nos requisitos e necessidades específicas do projeto.Construir visualizações analíticas e sintéticas de informações;Analisar e estudar dados para identificação de padrões e modelos de predição;Auxiliar na definição da arquitetura lógica da informação e seu mapeamento e documentação para o banco de dados;Manter e acompanhar os modelos de dados dos projetos da empresa;Atualizar catálogo e dicionário de dados das bases existentes;
@@ -16252,7 +17640,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr"/>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P169" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -16263,10 +17655,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Café da manhã', 'Convênio com empresas parceiras', 'Refeitório', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R169" t="n">
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>['Excel']</t>
+        </is>
+      </c>
+      <c r="S169" t="n">
         <v>5880958</v>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="T169" t="inlineStr">
         <is>
           <t>Descrição da vagaToda receita de sucesso tem um toque especial, e para a Avivar Alimentos, esse toque está nas pessoas que trabalham juntas no propósito de alimentar bem um mundo em movimento. Ao longo da nossa história, com compromisso que gera confiança ganhamos o território nacional e conquistamos o paladar dos brasileiros. Estamos presentes também em países da Ásia, África e América Central, nos preparando para desbravar ainda mais novos mercados internacionais. Somos dinâmicos e gostamos de desafios e assim estamos sempre em movimento.Aqui na Avivar, acreditamos que a pluralidade enriquece a nossa equipe e o nosso ambiente de trabalho. A simplicidade que é o que nos une, ela está em nosso jeito de fazer acontecer, respeitando o jeito de ser de cada um. Aqui a segurança é de ponta a ponta. O nosso time não para: buscamos inovar sempre e levar as melhores soluções em alimentação para os nossos clientes e consumidores.Se identificou com o nosso jeito de ser? Então vem fazer parte deste time que alimenta bem um mundo em movimento!Estamos em busca de um(a) Analista Comercial l Dados
 Responsabilidades e atribuiçõesVocê será responsável por:Desdobramento dos indicadores de Performance da área comercial, gerando insights capazes de contribuir com a tomada de decisão estratégica.Analisar e acompanhar os Mercados e as metas definidas pela Empresa, visando melhor entendimento do mercado de atuação e suas oscilações para prestar suporte à tomada de decisão.Coletar dados de vendas através de leitura do mercado utilizando ferramentas capazes de disponibilizar informações para a área Comercial, visando dar suporte nas decisões para produção do portfólio que traga melhores resultados financeiros, bem como atualizar a área Comercial em relação a eventuais problemas produtivos.Planejar e realizar as atividades previstas para a sua função com o eventual suporte de profissionais de maior domínio técnico ou gestor imediato, apresentando a desenvoltura na maioria das operações, processos da área de atuação, atendendo aos níveis de produtividade.Desenvolvimento/Criação de relatórios Gerenciais através de ferramentas de análise estratégica: Power BI/Scanntech/Nielsen/Neogrid-EDI.Direcionamento da Força de Vendas (FDV) a partir das métricas buscando máxima produtividade, Análise de cenários e projeções de vendas.Contribuição com informações gerenciais para projetos de melhoria, planejamento de vendas, e estruturação de Planos de Ações com equipe e Follow-up.Criações de modelos de análise de dados e automatização de processos, utilizar metodologia e análises estatísticas para comprovação de causa-raiz e viabilidade de recomendações técnicas.Interagir com diversas áreas da empresa para governança e obter informações para análises e construção de relatórios.Apoiar a estratégia comercial por meio de análises de dados elaborando apresentações para a diretoria comercial.
@@ -16347,17 +17744,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O170" t="inlineStr"/>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P170" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="n">
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S170" t="n">
         <v>5856089</v>
       </c>
-      <c r="S170" t="inlineStr">
+      <c r="T170" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaVocê fará parte do time e também um trusted advisor das áreas de negócio na disciplina de engenharia de dados e é uma BAITA responsabilidade.  Buscamos alguém disruptivo e inovador para atuar no capítulo de engenharia de dados com os times de plataforma (azure databricks) e também suportando algumas squads de negócio! Baseado no roadmap que será desenvolvido a partir da estratégia da organização e pela sua squad (e você fará parte disso), você será responsável por realizar a ingestão de dados de plataformas transacionais , modelar dados baseado na necessidade de dados e negócio desenvolvendo camadas bronze, silver e gold, além de atuar em alguns projetos visando a otimização de performance e custo da nossa plataforma.  Aqui, você será praticamente um #dataInfluencer. Buscamos alguém com habilidades em engenharia de dados mas, além disso, também seja capaz de ter uma visão além do alcance, que traga insights e apoie na estratégia da squad, visando sempre melhorar a experiência dos nossos clientes e buscando meios para alavancar receita  😉  Grandes poderes, grandes responsabilidades! 
 Responsabilidades e atribuiçõesDesenho e desenvolvimento de novas arquiteturas para ingestão de dados às áreas da companhia; Atuar no backend de dados, apoiando times de negócio para desenhar e implementar as melhores soluções; Desenvolver orquestrações com o azure datafactory; Construir modelagens de dados baseado nas melhores práticas; Apoiar o time de BI na modelagem e construção dos datasets para as visualizações projetadas; Foco na qualidade e disponibilidade dos dados #LI-KS1
@@ -16438,7 +17844,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O171" t="inlineStr"/>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P171" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -16449,10 +17859,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R171" t="n">
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S171" t="n">
         <v>5809701</v>
       </c>
-      <c r="S171" t="inlineStr">
+      <c r="T171" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos a maior multinacional brasileira e estamos entre as 100 maiores empresas de TI do mundo.Estamos presentes em 41 países com +30k colaboradores. A Stefanini tem como principal objetivo auxiliar os clientes a encontrar, por meio de soluções personalizadas, a maneira ideal para alcançar seus desafios, impulsionando a inovação digital.E queremos mais!
 Responsabilidades e atribuiçõesElaborar modelagem funcional e de dados levando em consideração as necessidades de negócio.Modelagem conceitual, lógica e física das informações necessárias para atender o negócio.
@@ -16533,7 +17948,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O172" t="inlineStr"/>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P172" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -16544,10 +17963,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R172" t="n">
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+      <c r="S172" t="n">
         <v>5734611</v>
       </c>
-      <c r="S172" t="inlineStr">
+      <c r="T172" t="inlineStr">
         <is>
           <t>Descrição da vagaJunte-se a nós!▶️Que tal atuar em projetos que contribuem diretamente para a melhoria do nosso dia-a-dia?▶️Que tal ser desafiado a aprender e aprender sempre?  👉Se o novo te desafia e o conhecimento te inspira, #VemserMagna.
 Responsabilidades e atribuições Desenhar o modelo de consulta. 
@@ -16628,7 +18052,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P173" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -16639,10 +18067,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R173" t="n">
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S173" t="n">
         <v>5615074</v>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="T173" t="inlineStr">
         <is>
           <t>Descrição da vagaAnalisar dados e construir indicadores de Suprimentos para fornecer informações para tomada de decisão da área principalmente com execução do Power BI, que goste de trabalhar com análise de dados em diferentes sistemas com aptidão para interpretar e gerar indicadores que ajudem na tomada de decisão e direcionamento das ações da área.
 Responsabilidades e atribuiçõesDar suporte para as obras caso haja algum problema com os indicadores reportados;Criar indicadores de controle através de ferramentas como Excel e Power BI.Analisar informações de diversas ferramentas como SAP e Sharepoint;Coletar, organizar e interpretar conjuntos de dados;Fornecer insights aos gestores contribuindo na gestão da área;Criar indicadores de controle e performance através de ferramentas como Excel e principalmente Power BI;Analisar constantemente os indicadores gerados garantindo a qualidade da informação;Mapear inconsistências no processo e atuar prioritariamente para resolução;Atuar nas melhorias sistêmicas da organização, de acordo com a necessidade, garantindo a integralidade das informações;Dar suporte aos clientes internos.
@@ -16723,7 +18156,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O174" t="inlineStr"/>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P174" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -16734,10 +18171,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R174" t="n">
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S174" t="n">
         <v>5728275</v>
       </c>
-      <c r="S174" t="inlineStr">
+      <c r="T174" t="inlineStr">
         <is>
           <t>Descrição da vagaA +A Educação é o único ecossistema de educação do país que integra soluções em conteúdo, tecnologia e serviços, com propósito de expandir os horizontes do conhecimento! Hoje contamos com mais de 4 mil livros publicados, 1mil instituições de ensino impactadas, mais de 800 colaboradores e 3,5 milhões de estudantes. Nesta posição, você atuará no time de Dados, responsável por toda coleta, organização, estruturação e estratégia de dados da empresa como um todo! Não é incrível?! Confira os detalhes abaixo e venha entregar experiências educacionais transformadoras com a gente! 😀
 Responsabilidades e atribuiçõesNesta posição, você será ser responsável pelas seguintes tarefas:Criação de fluxos de ETL/ELT.Estruturação da arquitetura do nosso datawarehouse, lake e lakehouse.Estruturação de modelagem dos bancos de dados.Criação e sustentação da infraestrutura já existente.Responsável pela governança e boas práticas dos dados na empresa.
@@ -16818,7 +18260,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr"/>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P175" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -16829,10 +18275,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R175" t="n">
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S175" t="n">
         <v>5678635</v>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="T175" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos o futuro da Saúde e Educação!   A Afya é o maior ecossistema de educação em saúde e healthtechs do Brasil. Nascemos do sonho de democratizar o acesso à saúde a todas as pessoas do país.  Acompanhamos os profissionais de saúde em toda a sua jornada. Somos o único grupo do país parceiro de longo prazo do médico, com entrega de valor em todas as etapas acadêmicas, no exercício da profissão e no seu relacionamento com o mercado de saúde.  Nosso propósito é revolucionar o jeito de ensinar, aprender e aplicar a medicina para formar os melhores profissionais médicos em todas as fases de sua trajetória, combinando educação e saúde para potencializar a formação, atualização, assertividade e produtividade.  ﻿Queremos nos tornar referência na jornada médica, capacitando nossos clientes para transformarem seus sonhos em experiências extraordinárias ao longo da vida.   Desde a nossa existência, apoiamos milhares de vidas, impactando positivamente ponta a ponta do clico médico e ajudando a transformar a saúde no Brasil. 🚀   Todas as nossas oportunidades são extensivas à pessoas com deficiência e reabilitadas do INSSPara todas as oportunidades afirmativas para Pessoas com Deficiência - PCD, estimulamos a contratação desse público, mas estamos abertos a contratação de membros de diferentes grupos.
 Responsabilidades e atribuições💻🩺 Como será seu dia-dia?  Responder a perguntas de negócios por meio de consultas SQL ad-hoc, análises em planilhas e outras fontes de dados, a fim de facilitar a tomada de decisões;Realizar análise exploratória de dados, definindo e analisando conjuntos de dados para compreender o produto/serviço e seus usuários;Auxiliar na construção de códigos e scripts para a limpeza e tratamento de dados, em colaboração com a equipe de engenharia, utilizando consultas SQL no banco de dados;Conduzir análises estatísticas iniciais (usando Excel e consultas SQL), avaliando e elaborando experimentos para avaliar o impacto de alterações no produto e identificando oportunidades de crescimento e otimização do produto;Gerar e iterar sobre dashboards e visualizações de dados (principalmente no Power BI) para responder a perguntas de negócios com base em bases de dados, identificando tendências e padrões;Coletar e analisar dados relacionados ao negócio e a benchmarks, incluindo pesquisas de mercado e análise de concorrentes, e desenvolver projeções e tendências para enriquecer as informações, aprimorando nossos processos internos e acompanhando as tendências do mercado;Atuar como ponto de contato para as demais equipes, atualizando o catálogo de dados e compartilhando esse conhecimento para seguir os processos de governança;Criar e manter documentação e metadados para o banco de dados, relatórios gerados e o acompanhamento de métricas nas plataformas.
@@ -16913,7 +18364,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr"/>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P176" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -16924,10 +18379,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Auxílio fretado', 'Cesta básica', 'Participação nos Lucros ou Resultados', 'Restaurante interno', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R176" t="n">
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S176" t="n">
         <v>5670740</v>
       </c>
-      <c r="S176" t="inlineStr">
+      <c r="T176" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaQuer fazer parte da nossa turma?São mais 30 anos recheados de aprendizados e doces conquistas. A Cultura vivenciada na empresa traduz a essência de quem somos e onde queremos chegar.Vivemos para Juntos tocar a vida das pessoas compartilhando momentos especiais.Ingredientes como Foco, Atitude, União, Alegria e muita Paixão por realizar nos impulsiona a fazer sempre o melhor, transformando o Ordinário em Extraordinário.A nossa turma é formada por pessoas que fazem da Cacau show um lugar especial para se trabalhar, onde todos são tratados com igualdade, independentemente de gênero, raça, idade, origem ou orientação sexual, sendo nosso processo baseado em meritocracia.Na Cacau todos são Show!!!Se você é apaixonado pelo que faz, possui senso de dono e muito “gás” para trabalhar, essa vaga é a sua cara!!!
 Responsabilidades e atribuiçõesResponsável por realização a manutenção, sustentação e suporte no banco; Realizar todo o processo de documentação para os projetos. 
@@ -17008,7 +18468,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O177" t="inlineStr"/>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P177" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -17019,10 +18483,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Day off aniversário', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R177" t="n">
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S177" t="n">
         <v>5562796</v>
       </c>
-      <c r="S177" t="inlineStr">
+      <c r="T177" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos Espaçolaser – A maior e mais indicada rede de depilação a laser do mundoNós já somos mais de 5 mil corações azuis espalhados pelo Brasil, Argentina, Chile e Colômbia. Estamos em franca expansão e buscamos por pessoas que queiram crescer junto com a gente! Temos paixão pelo o que fazemos, estamos sempre buscando fazer e entregar o melhor para nossos clientes e colaboradores e só conseguimos isso por termos pessoas incríveis conosco.Deu match? Então venha para a Espaçolaser 
 Responsabilidades e atribuiçõesA espaçoLaser está a procura de um Tax Data Analyst para nossa célula de Tax Intelligence. Essa pessoa trabalhará em nosso departamento Tributário com foco em análise de dados para fornecer relatórios, painéis e análises para apoiar o departamento e as equipes em processos e projetos pioneiros.O que você vai liderar:Propor e criar mecanismos de medição dos principais indicadores tributários da empresa;Análise de dados usando várias técnicas, incluindo análise estatística, modelagem explicativa e preditiva para ajudar o crescimento de nosso negócio;Apoiar uma cultura de testes orientada a dados em toda a empresa;Construir métricas que permitam as demais áreas do departamento tributário a analisar melhor os resultados e propor melhorias continuas e sustentáveis;Apoiar processos de digitalização e automação de processos no departamento;Auxiliar na comunicação de resultados em apresentações e reuniões;Key-user na ferramenta monday.com.
@@ -17103,7 +18572,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr"/>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P178" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -17114,10 +18587,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R178" t="n">
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>['SQL', 'Pacote Office', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S178" t="n">
         <v>5666593</v>
       </c>
-      <c r="S178" t="inlineStr">
+      <c r="T178" t="inlineStr">
         <is>
           <t>Descrição da vagaA A3Data é uma consultoria referência em #Dados! 🚀 Temos a missão de acelerar a cultura Data Driven nas organizações. Nosso foco é implantar Inteligência Estratégica e potencializar a cultura dos dados para os nossos clientes! 🎯 Somos parceiros e estamos presentes no maior parque tecnológico urbano e aberto do Brasil o Porto Digital localizado em Recife. 🌎 Somos ágeis, analíticos e avançados e temos uma cultura leve, horizontal e muito colaborativa! ✌️ Nosso propósito é empoderar as pessoas por meio dos dados. E, por isso, buscamos parceiros que também sejam loucos por dados e apaixonados por gente! 🤩 #VemSerUmEu.A3 💙
 Responsabilidades e atribuiçõesPara ser uma Pessoa Analista de Dados na A3 buscamos alguém para:Desenvolver Dashboards analíticos em Tableau;Manutenção/melhoria de dashboards já existentes;Agendamento de atualizações no Tableau Server,Extração de dados via Dbeaver (SQL server),Extração de dados via Querys em SQL;Criação e automatização de fluxos ETL através da ferramenta Alteryx/Tableau Prep,Acompanhamento de demandas via MSPlanner,Comunicação e relacionamento com setores de negócios com o intuito de localizar novas demandas e necessidades; Realizar treinamento e consultoria de Tableau para clientes e membros da equipe.
@@ -17194,7 +18672,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O179" t="inlineStr"/>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P179" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -17203,6 +18685,7 @@
       <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17275,7 +18758,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr"/>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P180" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -17286,10 +18773,15 @@
           <t>['Assistência médica']</t>
         </is>
       </c>
-      <c r="R180" t="n">
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S180" t="n">
         <v>5601189</v>
       </c>
-      <c r="S180" t="inlineStr">
+      <c r="T180" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSomos a J&amp;T Express, empresa multinacional que chegou ao Brasil para revolucionar o mercado de entregas expressas. Nossos números: Presença em 13 países;240 centros de transferências de larga escala;1.000 equipamentos de triagem inteligente;23.000 pontos de distribuição;400.000 colaboradores;Nossos serviços atingem 2,5 bilhões de pessoas ao redor do mundo.E queremos mais... tá afim?
 Responsabilidades e atribuiçõesAnalisar dados e garantir o fluxo das informaçõesTrazer melhorias e garantir o processoAcompanhar e apontar melhorias no dia dia.
@@ -17367,20 +18859,25 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P181" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="n">
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="n">
         <v>5586834</v>
       </c>
-      <c r="S181" t="inlineStr">
+      <c r="T181" t="inlineStr">
         <is>
           <t>Descrição da vagaA Housi nasceu com o propósito de reinventar a forma de viver em sociedade. 🏠Somos uma moradia inteligente conectada a serviços para você ganhar mais tempo.Para o morador, somos o futuro da moradia. Para o investidor, uma plataforma que oferece a melhor gestão e rentabilidade para seu imóvel.Se você é simples, descomplicado e quer fazer parte de um time disruptivo que está criando uma nova categoria, se liga nessa posição!
 Responsabilidades e atribuiçõesNosso Analista de Dados Jr. tem os seguintes desafios:Extrair, refinar e preparar dados de várias fontes.Desenvolver e acompanhar indicadores de performance por meio de dashboards e relatórios.Analisar necessidades de negócio e implementar soluções adequadas.Criar e manter fluxos de dados para suportar soluções de BI e Analytics.Garantir alinhamento com áreas de apoio de TI e seguir as melhores práticas.Mapear e documentar integrações entre sistemas para rastreamento correto dos dados.Gerenciar infraestrutura e otimizar o armazenamento de dados no Google Cloud Platform, realizar análises exploratórias, implementar soluções de segurança e privacidade, e trabalhar em colaboração com a equipe de BI.
@@ -17460,7 +18957,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O182" t="inlineStr"/>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P182" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -17471,10 +18972,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R182" t="n">
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>['Power BI']</t>
+        </is>
+      </c>
+      <c r="S182" t="n">
         <v>5584926</v>
       </c>
-      <c r="S182" t="inlineStr">
+      <c r="T182" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaVocê gosta de trabalhar com os melhores produtos?Quer trabalhar numa empresa referência em distribuição para o varejo? A Unilider precisa de você!! Buscamos Analista de TI para lidar com situações que exigem soluções rápidas, que esteja apto a garantir o cumprimento dos SLA’s acordados, além de oferecer um atendimento de qualidade, se importando com o sucesso e satisfação do cliente, em colaboração com o time.  Que tal vir distribuir qualidade com a gente?!
 Responsabilidades e atribuiçõesEsperamos que você tenha conhecimentos em atendimento de suporte aos sistemas ERP e SFA, para realizar o acompanhamento junto a equipe interna e realizar o correto e constante follow-up com o cliente externo (usuários dos sistemas) ao longo do ciclo de vida do incidente/requisição.
@@ -17555,17 +19061,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O183" t="inlineStr"/>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P183" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="n">
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>['Tableau']</t>
+        </is>
+      </c>
+      <c r="S183" t="n">
         <v>5568857</v>
       </c>
-      <c r="S183" t="inlineStr">
+      <c r="T183" t="inlineStr">
         <is>
           <t>Descrição da vagaAtuar junto à equipe de Governança de Dados no planejamento, execução e controle das ações definidas pelas políticas implementadas no macro processo. Gerir Dados, alinhando roadmap de projetos e ações com as regras e estratégias da empresa, engajando pessoas, processos e tecnologias, por meio das diretrizes, padrões estabelecidos;
 Responsabilidades e atribuiçõesExecutar as ações definidas pela política de Governança dos Dados alinhado às regras e estratégias da empresa, engajando pessoas, processos e tecnologias, por meio das diretrizes, padrões estabelecidos;Executar as ações relacionadas à gestão de dados na empresa;Executar as ações para promover o aumento no nível de maturidade da gestão dos dados, nos processos envolvidos, bem como na Implantação dos conceitos DMBOK na Unimed Nacional;Executar a implementar ações que provêm a qualidade dos dados para o negócio;Executar o mapeamento dos processos que envolvam dados e na identificação dos riscos de dados, bem como na sua mitigação e possíveis melhorias nos processos de dados de toda a empresa;Executar as ações de catalogação dos dados, gestão dos seus metadados e identificar as linhagens de dados;Avaliar os controles de acesso aos dados, propondo melhorias da gestão de perfis de acesso;Executar desenvolvimento e avaliação dos modelos de dados, bem como, manter atualizado os modelos conceituais e físicos de dados.Executar a construção e a sustentação do catálogo e do dicionário de dados, suas atualizações e visibilidade;Executar a normatização, publicação e compartilhamento dos procedimentos relacionados aos processos de dados;Executar as ações de avaliação e monitoramento dos indicadores de governança de dados, mantendo-os atualizados e disponíveis.Participar das avaliações das situações que envolva tratamento de dados, trabalhando em estreita parceria com as áreas de Governança de TI, Segurança da Informação e Privacidade de Dados.
@@ -17646,7 +19161,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O184" t="inlineStr"/>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P184" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -17657,10 +19176,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R184" t="n">
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S184" t="n">
         <v>5550051</v>
       </c>
-      <c r="S184" t="inlineStr">
+      <c r="T184" t="inlineStr">
         <is>
           <t>Descrição da vagaSer a Melhor Empresa de Saneamento PARA o Brasil.Nascemos em 2017 com esse compromisso. Desde então, estamos presentes em 39 municípios, com mais de 2,5 mil colaboradores, 6 milhões de clientes e o propósito de atuar da melhor forma para levar saneamento às populações atendidas, ajudando o país a alcançar a universalização dos serviços de água e esgoto.O saneamento básico no Brasil está no momento de transformação e marcado por novos projetos de expansão. Para o nosso time, buscamos pessoas protagonistas e dispostas a inovar, atuando como agentes transformadores em prol do nosso objetivo. Alinhado ao nosso DNA, queremos promover um ambiente de trabalho sustentável, desenvolvedor e seguro. Local de Atuação: São Paulo - SP
 Responsabilidades e atribuiçõesDesenvolvimento de processos de ETL (Extract-Transform-Load) para dados internos e dados públicos;Desenvolvimento de dashboards (PowerBI e Streamlit);Desenvolvimento de soluções data-driven advindas de projetos de transformação;Interface com diversas áreas da cia e outros colaboradores da área de Analytics;Participar e contribuir com soluções para projetos da área de Analytics;Sustentação e melhorias de modelos e pipelines de dados;Programação respeitando boas práticas.
@@ -17741,7 +19265,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P185" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -17752,10 +19280,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R185" t="n">
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+      <c r="S185" t="n">
         <v>5550059</v>
       </c>
-      <c r="S185" t="inlineStr">
+      <c r="T185" t="inlineStr">
         <is>
           <t>Descrição da vagaSer a Melhor Empresa de Saneamento PARA o Brasil.Nascemos em 2017 com esse compromisso. Desde então, estamos presentes em 39 municípios, com mais de 2,5 mil colaboradores, 6 milhões de clientes e o propósito de atuar da melhor forma para levar saneamento às populações atendidas, ajudando o país a alcançar a universalização dos serviços de água e esgoto.O saneamento básico no Brasil está no momento de transformação e marcado por novos projetos de expansão. Para o nosso time, buscamos pessoas protagonistas e dispostas a inovar, atuando como agentes transformadores em prol do nosso objetivo. Alinhado ao nosso DNA, queremos promover um ambiente de trabalho sustentável, desenvolvedor e seguro. Local de Atuação: São Paulo - SP
 Responsabilidades e atribuiçõesDesenvolvimento de processos de ETL (Extract-Transform-Load) para dados internos e dados públicos;Desenvolvimento de dashboards (PowerBI e Streamlit);Desenvolvimento de soluções data-driven para modelagens de novos negócios;Interface com diversas áreas da cia e outros colaboradores da área de Analytics;Participar e contribuir com soluções para projetos da área de Analytics;Análises ad hoc para modelagens financeiras de novos negócios;Programação respeitando boas práticas.												     
@@ -17836,7 +19369,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O186" t="inlineStr"/>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P186" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -17847,10 +19384,15 @@
           <t>['Auxílio desenvolvimento']</t>
         </is>
       </c>
-      <c r="R186" t="n">
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S186" t="n">
         <v>5562939</v>
       </c>
-      <c r="S186" t="inlineStr">
+      <c r="T186" t="inlineStr">
         <is>
           <t>Descrição da vagaVenha jogar no nosso time! 🏆Se você quer trabalhar em um local dinâmico e repleto de desafios, conectado a uma equipe engajada em trazer os melhores resultados, além de ser atento a detalhes, organizado, e proativo, venha conhecer essa oportunidade! Buscamos um Analista Desenvolvedor de Dados Pleno, que irá atuar em projetos que transformarão dados dos sistemas em relatórios e dashboards, possibilitando às áreas de negócio uma melhor tomada de decisão.
 Responsabilidades e atribuiçõesDesenvolver relatórios, dashboards e KPI's usando as ferramentas Excel e Power BI;Realizar configurações e publicações no Serviço do Power BI.
@@ -17931,7 +19473,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P187" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -17942,10 +19488,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Seguro de vida', 'Vale-alimentação', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R187" t="n">
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S187" t="n">
         <v>5557396</v>
       </c>
-      <c r="S187" t="inlineStr">
+      <c r="T187" t="inlineStr">
         <is>
           <t>Descrição da vagaNós buscamos pessoas colaborativas, com pensamento crítico e perseverantes, que lideram pelo exemplo e sejam movidas por resultados, para fazer parte da revolução solar com a gente!Como Analista de Dados SR, você será responsável por gerar, extrair e organizar os dados da área de Marketing, Atendimento e Experiência do Parceiro, construindo uma visão histórica e comparativa dos dados, fornecendo informações e insights para embasamento de decisões estratégicas.
 Responsabilidades e atribuiçõesColeta de dados para modelagem em banco de dados com SQL (postgresql);Análise e criações de insights com foco em segmentação de clientes, churn, LTV, taxa de conversão, indicadores de atendimento e NPS;Construção e organização de dados de relacionamento dos clientes, reportando a voz dos parceiros;Monitorar e analisar resultados de campanhas de CRM e promocionais, medindo o desempenho, identificação de pontos de melhoria e recomendações de ações corretivas;Elaboração de relatórios e dashboards em ferramentas de dataviz (Tableau e PBI) sobre o desempenho dos produtos, funil e campanhas/CRM, além de estratégias em busca de maior ativação, conversão e retenção;Familiaridade com ferramentas e linguagens como Python, Excel (macros, power query), git hub e esteira de dados etl e elt.
@@ -18026,7 +19577,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P188" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -18037,10 +19592,15 @@
           <t>['Assistência médica', 'Day off aniversário', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R188" t="n">
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S188" t="n">
         <v>5552414</v>
       </c>
-      <c r="S188" t="inlineStr">
+      <c r="T188" t="inlineStr">
         <is>
           <t>Descrição da vagaA Crescimentum é uma empresa com uma missão de fazer a diferença no mundo, transformando pessoas em seres humanos extraordinários e empresas em organizações mais sustentáveis e humanas. Desde 2003, somos referência em Treinamento &amp; Desenvolvimento e buscamos ajudar cada pessoa, a partir da conexão humana, a se tornar a melhor versão de si mesma. Para atingirmos o nosso propósito, desenvolvemos métodos diferenciados e inovadores, e atuamos com palestras, workshops, aulas pontuais e programas In Company customizados, com o objetivo de maximizar o aprendizado dos participantes e trazer resultados reais para a vida profissional e pessoal.Com a mesma conexão, paixão e resultados, somos parte da Cegos Group, líder mundial em Treinamento &amp; Desenvolvimento e referência em educação corporativa digital. Fundado em 1926, o grupo treina mais de 250 mil pessoas a cada ano e está presente em mais de 50 países, o que nos oferece estrutura e recursos para operar em múltiplos idiomas.Acreditamos que mudanças corporativas são sobre seres humanos: com sonhos, histórias, qualidades, defeitos, e vontade de evoluir. Por isso, somos uma empresa de educação corporativa especializada em 4 grandes áreas: Liderança &amp; Human Skills, Coaching &amp; Mentoring, Cultura Organizacional e Vendas &amp; Atendimento.O time de Data Tech é responsável pelas análises de indicadores do negócio para que as nossas decisões sejam cada vez mais assertivas e inovadoras. Estamos buscando um(a) Analista de Dados para compor esse super time.
 Responsabilidades e atribuiçõesOs seus principais desafios serão:Relatórios e Dashboards: Desenvolver e manter relatórios regulares e dashboards interativos para as diversas áreas da empresa;Análises Ad Hoc: Realizar análises específicas conforme as necessidades da empresa;Documentação: Criar documentação para processos, análises, integrações e outras atividades relacionadas;Recomendações: Com base nas análises e solicitações das áreas, fornecer recomendações para otimização de processos;Modelos Preditivos: Desenvolver modelos para prever comportamentos futuros, como churn de clientes, vendas futuras etc.;Integrações: Estabelecer e manter integrações de dados entre diferentes sistemas para garantir fluxo de informações consistente e atualizado;Auditorias de Dados: Verificar regularmente a qualidade e consistência dos dados nos sistemas para garantir a confiabilidade das análises.
@@ -18121,7 +19681,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P189" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -18132,10 +19696,15 @@
           <t>['Assistência médica', 'Auxílio academia', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R189" t="n">
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S189" t="n">
         <v>5476764</v>
       </c>
-      <c r="S189" t="inlineStr">
+      <c r="T189" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos a Big Data, líderes no Brasil em Inteligência Artificial aplicada a negócios, ajudando grandes clientes como Dexco, Haleon, Kimberly Clark, Eagle Rock, Liberty Coca-Cola, Nivea, Jonhson &amp; Jonhson, Sanofi &amp; Medley, Germed, Natura, Kraft Heinz, P&amp;G, Nestlé, WP Lab, Colgate Palmolive, Banco Santander, Red Bull e muitos outros.Estamos em um momento de expansão internacional e procuramos pessoas com sangue nos olhos, foco e mentalidade de inovação para nos ajudar nesse grande sonho, que é sermos líderes globais em IA.Nosso Analista de Dados é responsável por extrair informações do grande volume de dados processados pela Big Data, com a finalidade de dar suporte à tomada de decisão pelo time interno e também pelo cliente. Atua nas principais etapas dos projetos, auxiliando no entendimento dos dados, e analisando os impactos gerados nos negócios de nossos clientes.É responsável também por desenvolver e gerenciar painéis de controle que apresentam dados e informações de negócios de forma clara e acessível. Ele colabora com diferentes departamentos para entender as necessidades de relatórios e garantir que os dashboards atendam aos requisitos de análise e tomada de decisão.
 Responsabilidades e atribuiçõesComo Analista de Dados, o que esperamos de você:Criar e manter dashboards usando ferramentas de visualização de dados, como QuickSight, Tableau, Power BI, Excel, entre outras;Coletar dados de várias fontes, limpar e transformar os dados para que sejam utilizáveis nos dashboards;Colaborar com partes interessadas internas para entender as necessidades de relatórios e análise de dados;Criar layouts de dashboard intuitivos e visualmente atraentes que tornem as informações acessíveis e compreensíveis;Garantir que os dashboards estejam sempre atualizados com dados recentes e funcionando sem problemas;Realizar testes para garantir a precisão dos dados e a funcionalidade dos dashboards;Fornecer treinamento e suporte para os usuários finais que precisam interagir com os dashboards;Identificar tendências e insights a partir dos dados apresentados nos dashboards;Garantir a segurança e a confidencialidade dos dados usados nos dashboardsApresentações de resultados para nossos stakeholders.
@@ -18216,7 +19785,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O190" t="inlineStr"/>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P190" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -18227,10 +19800,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Café da manhã', 'Convênio com empresas parceiras', 'Ginástica laboral', 'Restaurante interno', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R190" t="n">
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="n">
         <v>5424914</v>
       </c>
-      <c r="S190" t="inlineStr">
+      <c r="T190" t="inlineStr">
         <is>
           <t>Descrição da vagaQueremos aumentar nosso time!Aqui no GRUPO CRIAR somos apaixonados por inovar! Valorizamos a integração entre os colaboradores. Nosso maior objetivo é oferecer soluções rápidas, inovadoras e criativas para nossos clientes. Temos uma cultura de comprometimento, competência, confiança, crescimento e desafios. Ser CRIAR é ser inovação, é se desafiar! Buscamos alguém que se identifique com nossa missão, venha fazer parte da equipe GRUPO CRIAR.
 Responsabilidades e atribuiçõesGuardar e zelar os arquivos;Zelar pela segurança dos dados, acessibilidade e desempenho das máquinas;Organizar, selecionar e armazenar todos os dados;Editar formulários, relatórios e demais formas de informações que devem ser apresentadas aos Clientes.
@@ -18311,17 +19885,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P191" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="n">
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S191" t="n">
         <v>5195236</v>
       </c>
-      <c r="S191" t="inlineStr">
+      <c r="T191" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaBuscamos uma (um) Analista Sênior de Dados para a unidade de negócio Deca e Revestimentos. Se você tem atitude de dono, acredita na liderança pelo exemplo e tem interesse em fazer parte de um ambiente colaborativo, que fomenta a inovação e acredita na diversidade, o seu ambiente é aqui na Dexco.Inscreva-se e venha fazer parte da nossa jornada de transformação. Sobre a Unidade de Negócios Deca...Design, qualidade e inovação sempre foram conceitos que diferenciaram a Deca ao longo de sua história. São eles que fazem da empresa a maior fabricante de louças e metais sanitários do Hemisfério Sul e líder no mercado brasileiro, além de exportadora para os quatro continentes. Investindo constantemente em pesquisa e desenvolvimento tecnológico, a Deca se preocupa em oferecer produtos e soluções para clientes e consumidores, sempre buscando a excelência em serviços e uma gestão sustentável. Saiba mais sobre o nosso negócio em: deca.com.br Sobre a Hydra...O nascimento da Hydra é marcado pela Inovação. Nós somos referência no mercado de duchas, torneiras elétricas, plásticas, sistemas de aquecimento e descarga. Se você quer saber mais sobre a marca, acesse: www.hydra-corona.com.br Sobre a Unidade de Negócios Revestimento Cerâmicos...Por meio das marcas Ceusa e Portinari, nós somos uma das principais fabricantes de revestimentos cerâmicos do Brasil. Oferecemos soluções inovadoras e processos sustentáveis que refletem as maiores tendências do setor.A Portinari é a única marca brasileira do setor que pratica sustentabilidade com certificação LEED Compliance, concedida pelo Scientific Certification Systems – SCS.Já a Ceusa também conta com uma de suas unidades com tecnologia 4.0, em que todo o controle de processo é automatizado e toda movimentação interna é robotizada.Saiba mais em: www.ceusa.com.br e www.ceramicaportinari.com.br Sobre a Unidade de Negócios Castelatto...A Castelatto é líder em pisos e revestimentos em concreto arquitetônico. Mais do que uma indústria, somos uma empresa de design que promove visuais exclusivos para o mercado de luxo, atendendo os desafios dos profissionais da arquitetura e alta decoração. Processos produtivos sustentáveis e tecnológicos fazem da Castelatto uma marca reconhecida nacional e internacionalmente, conceitos que associados à inovação, fazem da Castelatto a marca Top Of Mind do setor, e a primeira a pertencer ao Green Building Council Brasil – organização não governamental que visa fomentar construções sustentáveis ao redor do mundo. Saiba mais em: www.castelatto.com.br  Com o propósito de oferecer Soluções para Melhor Viver, nós somos parte do dia a dia das cidades e da vida das pessoas por meio das marcas Deca, Hydra, Ceusa, Portinari, Durafloor e Duratex. Temos 5 unidades florestais (MG, SP e RS) e 16 unidades industriais no Brasil (MG, SC, RS, SP, PB, PE, SE e RJ), 3 fábricas na Colômbia e 100% da plataforma Viva Decora.
 Responsabilidades e atribuições Entender as necessidades do negócio e propor soluções ágeis baseadas em dados;Preparação, tratamento e modelagem de dados (Databricks, SQL, Python/PySpark...);Participação efetiva no desenho e acompanhamento dos pipelines de dados;Interface com o time de Analytics;Disseminação de boas práticas;  Visão de processos estruturantes e duradouros;Assertividade em prazos;Pensamento crítico e sistêmico;
@@ -18399,20 +19982,29 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P192" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="n">
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S192" t="n">
         <v>5354998</v>
       </c>
-      <c r="S192" t="inlineStr">
+      <c r="T192" t="inlineStr">
         <is>
           <t>Descrição da vagaEmpresa de Logística contrata Analista de Dados e Precificação Jr.
 Responsabilidades e atribuições- Tratar dados, transformando base histórica de pedidos em analise de demanda futura por geolocalização, extraindo a partir dai a necessidade de espaço de estoque, mão de obra de processamento e dimensionamento de veículos por região.  - Identificar oportunidades para otimizar preços e margens;  - Realizar análises de sensibilidade de preço e demanda;  - Coletar e analisar dados sobre preços e desempenho de vendas e monitorar a concorrência e as tendências de mercado em relação aos preços;  - Mapeamento de potencial de mercado por região e canal de venda;  - Responsável por a criação de KPIs e dashboard semanal das áreas comerciais para acompanhar os resultados e poder tomar decisões para correção;  - Sugerir melhorias para as áreas estratégicas da empresa;  - Gerir a qualidade dos dados, das integrações e a consistência de relatórios;  - Criar e desenvolver relatórios gerenciais, acompanhando os resultados e fornecendo as informações para as áreas de negócios;  - Ter compreensão completa dos objetivos de negócio para extração de dados relevantes.
@@ -18493,7 +20085,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O193" t="inlineStr"/>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P193" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -18504,10 +20100,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R193" t="n">
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="n">
         <v>5351752</v>
       </c>
-      <c r="S193" t="inlineStr">
+      <c r="T193" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê se considera um profissional técnico e analítico?Estamos em busca de um profissional capaz de examinar os dados de maneira crítica e identificar padrões e tendências importantes, que tenha habilidades técnicas, como conhecimento de ferramentas de análise de dados e estatísticas, e habilidades de comunicação e pensamento crítico. 
 Responsabilidades e atribuiçõesColetar e extrair dados de várias fontes.Limpar e preparar os dados para análise.Automatização de rotinas de atualização dos DashboardsIdentificar tendências, padrões e anomalias nos dados.Criar gráficos e visualizações para comunicar insights.Transformar dados brutos em informações compreensíveis.Fornecer informações que ajudem na tomada de decisões.Colaborar com outras equipes para entender suas necessidades.Contribuir para projetos analíticos e de negócios.Auxiliar na execução de tarefas relacionadas a análises.Entrega de relatórios aos clientes externos e internos
@@ -18588,7 +20185,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O194" t="inlineStr"/>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P194" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -18599,10 +20200,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R194" t="n">
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S194" t="n">
         <v>5341272</v>
       </c>
-      <c r="S194" t="inlineStr">
+      <c r="T194" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê tem experiência em atendimento com banco de dados e elaboração de relatórios? É comunicativo, proativo, organizado e focado?Buscamos pessoas dinâmicas, proativas, articuladas e que gostem da área de Dados!
 Responsabilidades e atribuiçõesElaboração de relatórios gerenciais;Análise de indicadores de performance e de resultados;Desenvolver sistema de coleta;Estruturar e interpretar dados para análises estatísticas e outras estratégias que otimizem a eficiência e a qualidade da informação.
@@ -18683,7 +20289,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O195" t="inlineStr"/>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P195" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -18694,10 +20304,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Day off aniversário', 'Programa de remuneração variável', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R195" t="n">
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S195" t="n">
         <v>5316469</v>
       </c>
-      <c r="S195" t="inlineStr">
+      <c r="T195" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaA GOVBR é uma empresa que contribui para um Brasil melhor através de soluções de governança para auxiliar a gestão pública municipal na tomada de decisão com mais agilidade, estratégia e controle. Isso não é incrível?Informatizamos a gestão, mas antes de tudo: entendemos o processo e entregamos soluções de excelência que levam a transformação digital para os municípios Brasileiros.
 Responsabilidades e atribuiçõesAnalista de Dados irá coletar, organizar e analisar dados de diferentes fontes. Realizando a modelagem lógica de dados com base nos requisitos e necessidades específicas do projeto. Desenhar e estruturar soluções para as necessidades do negócio;Construir visualizações analíticas e sintéticas de informações;Coletar e organizar dados de várias fontes, incluindo bancos de dados, planilhas e arquivos de texto para auxiliar na tomada de decisões de negócios;Auxiliar na definição da arquitetura lógica da informação e seu mapeamento e documentação para o banco de dados;Análise de dados usando técnicas estatísticas e de mineração de dados;Efetuar a aplicação dos padrões dos processos de extração e manipulação de dados e nomenclaturas de objetos;Manter e acompanhar os modelos de dados dos projetos da empresa;Realizar a aplicação de padrões dos processos de utilização de modelos de dados, observando conceitos técnicos, experiências e participação das áreas envolvidas para utilização da empresa;Identificação de padrões e tendências nos dados para ajudar na tomada de decisões de negócios;Efetuar a correta aplicação das definições de modelos de dados adotadas pela empresa junto às áreas de desenvolvimento e demais áreas da empresa.
@@ -18775,10 +20390,14 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P196" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -18789,10 +20408,11 @@
           <t>['Auxílio desenvolvimento', 'Day off aniversário']</t>
         </is>
       </c>
-      <c r="R196" t="n">
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="n">
         <v>5299901</v>
       </c>
-      <c r="S196" t="inlineStr">
+      <c r="T196" t="inlineStr">
         <is>
           <t>Descrição da vagaHá 20 anos, a ProcessMind é uma empresa focada na obtenção dos melhores resultados para os clientes a partir de uma visão moderna de seus processos de negócio.Visamos entregar consultorias, automações de processos e sistemas sob medida, além de soluções aderentes as necessidades de nossos clientes.E não seria diferente com os nossos colaboradores, se você busca uma empresa na qual você tenha oportunidades de aprender e compartilhar você está no lugar certo, aqui cada Minder é único, respeitamos a sua trajetória e oferecemos um ambiente no qual você poderá traçar novos caminhos e aprendizados.
 Responsabilidades e atribuiçõesCriação / alteração de modelos de dados entidade-relacionamento (ER) complexos. Elaboração e execução de scripts para criação / alteração de bancos de dados Oracle. Elaboração de scripts para carga de dados. Elaboração de stored procedures em PL/SQL para implementação de lógica de negócio de aplicações complexas.Administração básica de banco de dados Oracle em nuvem.
@@ -18873,17 +20493,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O197" t="inlineStr"/>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P197" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="n">
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>['Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S197" t="n">
         <v>5238575</v>
       </c>
-      <c r="S197" t="inlineStr">
+      <c r="T197" t="inlineStr">
         <is>
           <t>Descrição da vagaAnálise de dados pedagógicos e apoio as demandas pedagógicas da Rede.
 Responsabilidades e atribuiçõesAnálise de dados;Verificação de documentos;Elaboração de documentos para a equipe pedagógica;Compilação de dados;Formatação de documentos;Atendimento aos supervisores e coordenadores das unidadesCapacitação da equipe no que diz respeito ao uso das ferramentas do pedagógico;Elaboração de ferramentas no Excel para suprir as necessidades do pedagógico;Elaboração de apresentação em PP. 
@@ -18964,17 +20593,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O198" t="inlineStr"/>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P198" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="n">
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S198" t="n">
         <v>5228250</v>
       </c>
-      <c r="S198" t="inlineStr">
+      <c r="T198" t="inlineStr">
         <is>
           <t>Descrição da vagaServiços Técnicos de Processamento de Dados
 Responsabilidades e atribuiçõesApoio à Gerência com atividades de desenvolvimento e análise de dados;Realização de carga semiautomática dos Comprovantes de Entrega de QAV (CE’s) no Sistema ERP (SAP) e outros dados relacionados à gestão dos contratos de helicópteros;Atualização e automatização de planilhas com os dados extraídos do Sistema ERP (SAP) (Boletins de Avaliação de Desempenho de Fornecedores - BAD e Índice de Desempenho de Fornecedores - IDF, medição, saldo contratual, glosa, reajuste, frota, Querosene de Aviação – QAV, e outros dados relacionados à gestão dos contratos de helicópteros);Acompanhamento, manutenção e desenvolvimento de banco de dados com informações gerenciais críticas;Acompanhamento, controle e participação em reuniões para alinhamento e melhorias de processo.
@@ -19055,17 +20693,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O199" t="inlineStr"/>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P199" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="n">
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S199" t="n">
         <v>5133887</v>
       </c>
-      <c r="S199" t="inlineStr">
+      <c r="T199" t="inlineStr">
         <is>
           <t>Descrição da vagaNossa área de Estratégia e Tecnologia é um pilar fundamental dos nossos negócios, sendo responsável pela nossa transformação digital. Aqui criamos soluções tecnológicas sempre idealizando e desenvolvendo técnicas e processos de automação, seja para aprimorar a experiência de trabalho das nossas equipes ou aumentar a capacidade de entrega dos nossos produtos e serviços.Nós somos responsáveis por uma infraestrutura gigantesca que atende aos principais produtos de vídeo da Globo, como o Globoplay, Premiere e os Canais Globo. Além disso, somos responsáveis pela transmissão ao vivo de grandes eventos - desde os campeonatos estaduais de futebol, a Copa do Mundo, Olimpíadas, Rock in Rio e até as câmeras ao vivo do Big Brother Brasil, que fica disponível 24x7 para todos os assinantes do Globoplay.Criamos ambientes onde todas as pessoas são incluídas, acolhidas e valorizadas. Nos empenhamos em ser uma Globo cada vez mais diversa, em representatividade e pensamento, aprendendo uns com os outros e estimulando a criatividade e inovação.  
 Responsabilidades e atribuiçõesComo será seu dia a dia:  Esta posição é para trabalhar no time de banco de dados responsável por acompanhar os vários projetos digitais da Globo.Procuramos um analista com perfil de "DevOps para Bancos de Dados", que vai trabalhar em conjunto com os times de desenvolvimento e infraestrutura buscando as soluções mais otimizadas de banco de dados para cada projeto.Este profissional será responsável por levantar, definir, implementar e acompanhar os projetos de banco de dados em ambientes na nuvem e on premisses usando diversas tecnologias como NoSQL, replicação, sharding, automação, etc.
@@ -19146,7 +20793,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O200" t="inlineStr"/>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P200" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -19157,10 +20808,15 @@
           <t>['Refeitório', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R200" t="n">
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S200" t="n">
         <v>5112415</v>
       </c>
-      <c r="S200" t="inlineStr">
+      <c r="T200" t="inlineStr">
         <is>
           <t>Descrição da vagaVamos juntos fazer do Grupo Herval cada vez maior? O Grupo Herval é uma empresa gaúcha fundada em 1959. Com sede na cidade de Dois Irmãos, integra segmentos diferenciados e está presente em todas as regiões do país. Atualmente são 20 marcas que incluem indústria, comércio e serviços – consórcios, seguros, construção e financeira.Para sustentar nossas marcas e nosso crescimento, buscamos pessoas engajadas com nossos negócios, que busquem concentrar seus esforços para superar expectativas dos clientes internos e externos!Oportunidade para atuação como Analista de Dados na cidade de Dois Irmãos/RS. Venha fazer parte da equipe da HS Financeira.
 Responsabilidades e atribuiçõesGarantir a disponibilidade de indicadores, por meio do desenvolvimento e análise de dados, criação de dashboards;Apoiar no desenvolvimento de modelos preditivos, mediante a construção de correlações de dados relacionados à risco de crédito;Sustentar as tomadas de decisões, por meio do fornecimento de análises em relação aos indicadores de risco de crédito;Contribuir com a melhoria de políticas de crédito, por meio de análises de dados, levantamento de oportunidades e proposição de adequações;Colaborar com a construção e automação de processos e controles, mediante a identificação de oportunidades e proposição de soluções.
@@ -19241,7 +20897,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O201" t="inlineStr"/>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P201" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -19252,10 +20912,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R201" t="n">
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S201" t="n">
         <v>4950835</v>
       </c>
-      <c r="S201" t="inlineStr">
+      <c r="T201" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos uma instituição que está constantemente em evolução e inovando. Estamos em busca de um(a) profissional que se identifique com nosso modelo de negócio Cooperativo e que esteja preparado(a) para fazer a diferença no mundo da Análise de Crédito através da Ciência de Dados.
 Responsabilidades e atribuiçõesRealizar o processo de ETL (extração, transformação e carregamento de dados);Elaborar estudos relacionados a crédito, spread, mix de carteira, inadimplência e volume de propostas;Consolidar informações estratégicas e gerenciais com foco na tomada de decisão;Planejar e produzir relatórios gerenciais/dashboards;Tabulação e análise estatística de dados;Monitorar indicadores relacionados a crédito, se antecipando a movimentos de mercado;Entender os problemas e propor soluções para aplicações de tecnologias;Criar apresentações;
@@ -19336,17 +21001,26 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O202" t="inlineStr"/>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P202" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="n">
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S202" t="n">
         <v>4935313</v>
       </c>
-      <c r="S202" t="inlineStr">
+      <c r="T202" t="inlineStr">
         <is>
           <t>Descrição da vagaCom 25 anos de experiência no mercado de Tecnologia da Informação, a MTP é uma empresa multinacional com mais de 1.000 colaboradores espalhados em mais de 11 unidades em nível global, o que nos permite promover o crescimento e intercâmbio profissional. A MTP é líder no fornecimento de serviços e soluções de TI com foco em Quality Assurance. Possuímos mais de 10 certificações, incluindo o TMMI - level 5, o mais alto nível da categoria. Oferecendo um dos mais amplos portfólios, entregamos soluções inovadoras e flexíveis para ajudar empresas a resolver seus desafios mais complexos. Atuando em projetos em mais de 14 países, tais como: Alemanha, Reino Unido, Japão, Suécia, Coréia do Sul, Moçambique, Guatemala, Argentina, Chile, Peru, entre outros.
 Responsabilidades e atribuiçõesDesenvolvimento e Manutenção dos Data Lakes e Data Warehouses;Desenvolvimento e Manutenção de Indicadores e Painéis;Desenvolvimento e Manutenção de pipelines de Dados;Monitoramento de processos de carga e extração;Monitoramento de métricas e qualidade dos dados;Foco na proposta de soluções que geram valor e resolvem as grandes dores dos times de negócio relacionadas a dados.
@@ -19427,7 +21101,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P203" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -19438,10 +21116,11 @@
           <t>['Assistência médica']</t>
         </is>
       </c>
-      <c r="R203" t="n">
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="n">
         <v>4891136</v>
       </c>
-      <c r="S203" t="inlineStr">
+      <c r="T203" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaAcreditamos na diversidade, na inclusão e no trabalho feito com harmonia. Mais do que boas condições de cuidado com a saúde, desejamos também entregar tranquilidade, sorriso no rosto e satisfação a cada um que precisar de nós.Tem sempre uma nova oportunidade de mostrar o seu jeito de cuidar de todos!#ESSEÉOPLANO
 Responsabilidades e atribuiçõesDescrição Sumária: "Atuar na gestão da segurança da informação, implementando políticas e controles de segurança da informação, mapeando e acompanhando os riscos identificados na Cooperativa. Conduzir a Gestão de vulnerabilidades, garantir e executar os processos de segurança e minimizando riscos, monitorando sistemas de segurança da informação e de proteção contra-ataques, promovendo detecção, gestão e resposta a incidentes. Disseminar a cultura de proteção de dados e segurança da informação na empresa, além de desenvolver normas e procedimentos adequados à Lei Geral de Proteção de Dados (LGPD) e Governança de Dados Pessoais."
@@ -19522,7 +21201,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O204" t="inlineStr"/>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P204" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -19533,10 +21216,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R204" t="n">
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S204" t="n">
         <v>4816115</v>
       </c>
-      <c r="S204" t="inlineStr">
+      <c r="T204" t="inlineStr">
         <is>
           <t>Descrição da vagaA A3Data é uma consultoria referência em #Dados! 🚀 Temos a missão de acelerar a cultura Data Driven nas organizações. Nosso foco é implantar Inteligência Estratégica e potencializar a cultura dos dados para os nossos clientes! 🎯 Somos parceiros e estamos presentes no maior parque tecnológico urbano e aberto do Brasil o Porto Digital localizado em Recife. 🌎 Somos ágeis, analíticos e avançados e temos uma cultura leve, horizontal e muito colaborativa! ✌️ Nosso propósito é empoderar as pessoas por meio dos dados. E, por isso, buscamos parceiros que também sejam loucos por dados e apaixonados por gente! 🤩 #VemSerUmEu.A3 💙
 Responsabilidades e atribuiçõesPara ser uma Pessoa Analista de Dados na A3 buscamos alguém para:Realizar o entendimento das demandas com stakeholders, saber questionar, propor soluções e correlacionar com os objetivos do projeto;Manipular dados e traduzir em formas de entrega de informação, seja com visualizações de dados ou a melhor disponibilidade;Documentar as análises realizadas a fim da democratização dos dados ;Levantar melhorias e oportunidades de negócio;Alinhar com engenheiros de dados e cientistas de dados sobre necessidades e evoluções dos projetos;Conhecer sobre o processo ETL;
@@ -19613,7 +21301,11 @@
           <t>Também p/ PcD</t>
         </is>
       </c>
-      <c r="O205" t="inlineStr"/>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P205" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -19622,6 +21314,7 @@
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -19694,17 +21387,26 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O206" t="inlineStr"/>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P206" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="n">
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S206" t="n">
         <v>4350799</v>
       </c>
-      <c r="S206" t="inlineStr">
+      <c r="T206" t="inlineStr">
         <is>
           <t>Descrição da vagaNós estamos procurando um talento para se tornar parte do time de Integração e desenvolvimentos de sistemas para a área de Engenharia, essa pessoa dará apoio à Diretoria para gestão estratégica do negócio, elaborando relatórios, dashboards, visibilidades, indicadores de desempenho, exploração de dados, apresentações, projetos de melhoria, soluções e ferramentas. Você poderá fomentar a inovação tecnológica e de processo com amplitude global, propondo e desenvolvendo soluções, processos e tecnologia para alavancar o negócio da Empresa. Para garantirmos sua continuidade em nosso processo é importante o envio de um laudo atualizado em seu cadastro.
 Responsabilidades e atribuiçõesCriar análise de dados e estatísticas para extrair conclusões e recomendações atraves da criação de reports, dashboards e apresentações baseado em sua maioria em dados estruturados e com alta complexidade afim gerar ações para a melhoria de resultados e processos da companhia;Coletar, desenvolver e aprimorar o desenvolvimento de fluxos de dados end-to-end, desde a captação até a entrega das visibilidades, dashboard ou relatórios, junto às unidades de negócio, seja para o nível operacional ou executivo;Atuar como analista de dados numa equipe de desenvolvimento de sistemas que suportam os processos de desenvolvimento de produto;Planejamento e gestão utilizados por todas as áreas da Engenharia da Embraer.Apoiar na definição e manutenção de melhores prática de desenvolvimento e uso das plataformas da empresa. Extrair insights de bases de dados transformando em insights importantes para a empresa;Trabalhar com dados estruturados e se necessário, com dados não estruturados;Explicar as análises para diversos públicos com clareza e objetividade; Auxiliar no mapeamento dos critérios de dados para manter governança corporativa dos dados utilizados;Interagir com os principais clientes das áreas de interface, para melhoria contínua da qualidade dos processos. 
@@ -19781,7 +21483,11 @@
         </is>
       </c>
       <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P207" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -19792,10 +21498,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Consignado', 'Cooperativa de crédito', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R207" t="n">
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S207" t="n">
         <v>4105714</v>
       </c>
-      <c r="S207" t="inlineStr">
+      <c r="T207" t="inlineStr">
         <is>
           <t>Descrição da vagaTrabalhamos pensando no presente e no futuro do varejo alimentar, de forma transversal para nossos negócios, com muita agilidade e dinamismo. Temos liberdade para criar e desenvolver novas soluções, além de participarmos ativamente de toda a jornada de inovação para proporcionar a melhor experiência de compra para nossos(as) clientes em e-commerces e aplicativos. Tem interesse em aplicar e desenvolver seu conhecimento em tecnologia, inovação e agilidade e participar de nossa transformação digital? Então, a gente precisa conhecer você! #EscolhoGPAO QUE ESTAMOS BUSCANDO? Com informações de mais de 20 milhões de clientes e alta identificação dos tickets, o GPA tem produtos de fidelidade que permitem grande personalização, um deles é o Meu Desconto, funcionalidade do app que usa o histórico de compras dos clientes para sugerir as melhores ofertas. O/a analista terá como desafio a criação de KPIs e divulgação dos programas de fidelidades, além de atuar em estudos para tomada de decisão executiva. Atuamos com grande volumetria de dados, por isso é desejável o conhecimento em SQL, R, e Power BI.
 Responsabilidades e atribuiçõesCOMO SERÁ O SEU DIA A DIA?Entender o funcionamento dos algoritmos do Meus Prêmios e sugerir backlog de testes;Entender o funcionamento dos algoritmos do Meu Desconto e sugerir backlog de testes;Apoiar a automatização de seleção de ofertas;Acompanhar P&amp;L;Atualização dos resultados e mensuração do programa com foco na geração de insights executivos;Atuar em estudos para tomada de decisões de negócio.
@@ -19872,7 +21583,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O208" t="inlineStr"/>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P208" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -19881,6 +21596,7 @@
       <c r="Q208" t="inlineStr"/>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -19953,17 +21669,22 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O209" t="inlineStr"/>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P209" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="n">
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="n">
         <v>3946791</v>
       </c>
-      <c r="S209" t="inlineStr">
+      <c r="T209" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO profissional Freelancer atuará diretamente em nossos eventos, com atividades de Análise de dados em nossas corridas. Buscamos um perfil apaixonado por automobilismo, comprometido, bom relacionamento, focado em resultados e que goste de desafios.Se você é esse profissional, então, venha fazer parte do nosso time!
 Responsabilidades e atribuiçõesPreenchimento e acompanhamento das atividades descritas em check list;Checagem de dados vitais dos veículos;Análise de dados de performance dos pilotos;Orientação da equipe para ajustes técnicos em suspensão, aerodinâmica e calibração de pneus;Organização do BOX e equipe.
@@ -20044,17 +21765,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O210" t="inlineStr"/>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P210" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="n">
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>['Power BI', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S210" t="n">
         <v>3756723</v>
       </c>
-      <c r="S210" t="inlineStr">
+      <c r="T210" t="inlineStr">
         <is>
           <t>Descrição da vagaExecutar atividades de suporte à estruturação de dados e emissão de relatórios.
 Responsabilidades e atribuiçõesPreparar e estruturar bases de dados, inclusive a partir de manipulação de grande volume de dados estruturados e não estruturados obtidos de diversas fontes, para cálculo de diferentes KPI´s e suporte a tomada de decisões, utilizando ferramentas avançadas de pesquisa e recursos de BI;Atuar no suporte à emissão de relatório de informações a partir de fontes estruturadas;Atuar no suporte à emissão de relatório de informações a partir de fontes não estruturadas; Atuar no suporte à emissão de relatório analítico a partir de informações do processo suprir bens e serviços;Extrair informações de contratação de bens e serviços através de relatórios pré-definidos no SAP BW e SAP ERP, tais como: contratos, pedidos de compra, aditivos etc;Participar de reuniões para definição do escopo da previsão da demanda e em reuniões de apresentação de resultados; Extrair informações de contratos e pedidos através de relatórios pré-definidos no sistema SAP; Planejar o que se pretende entregar como resumos descritivos e os relatórios que serão utilizados (medidos separadamente), com consequente apresentação ao usuário;Atuar no suporte à emissão de dossiê com a descrição das etapas do processo de emissão de relatórios;Realizar a construção e alterações de painéis (Dashboard);Realizar atividades de suporte necessárias para monitoramento de mercado e de riscos;Demais atividades de estruturação de dados e emissão de relatório para suporte à gestão e às rotinas de suprimentos.
@@ -20130,7 +21860,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O211" t="inlineStr"/>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P211" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -20139,6 +21873,7 @@
       <c r="Q211" t="inlineStr"/>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -20211,7 +21946,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O212" t="inlineStr"/>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P212" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -20222,10 +21961,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio desenvolvimento', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R212" t="n">
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>['Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S212" t="n">
         <v>949803</v>
       </c>
-      <c r="S212" t="inlineStr">
+      <c r="T212" t="inlineStr">
         <is>
           <t>Descrição da vagaVaga para nosso BANCO DE TALENTOSSomos inquietos, somos desbravadores e estamos em constante transformação.Por isso, estamos na busca constante de crescimentos do nosso time com profissionais inovadores, que desafiam os limites e estejam preparados para embarcar em uma cultura totalmente nômade.SOMOS NÔMADES, NOSSAS VAGAS SÃO PARA QUALQUER LUGAR!Seja qual for o seu gênero, orientação sexual, idade, raça, etnia, crença ou deficiência, todos são bem-vindos no nosso time.
 Responsabilidades e atribuiçõesO analista de dados é responsável por realizar a verificação de cenários e o diagnósticos de marcas nos canais digitais a partir de dados e do monitoramento. É responsável por traduzir os dados em análises, fatos e insights que servem de insumos e orientação para os demais times envolvidos. Identifica padrões de comportamento, necessidades e expectativas, percepções de públicos, identificação de oportunidades de comunicação e de negócio.
@@ -20302,7 +22046,11 @@
           <t>Também p/ PcD</t>
         </is>
       </c>
-      <c r="O213" t="inlineStr"/>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P213" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -20311,6 +22059,7 @@
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -20379,7 +22128,11 @@
           <t>Autônomo</t>
         </is>
       </c>
-      <c r="O214" t="inlineStr"/>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P214" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -20388,6 +22141,7 @@
       <c r="Q214" t="inlineStr"/>
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -20457,20 +22211,29 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P215" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="n">
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S215" t="n">
         <v>6712121</v>
       </c>
-      <c r="S215" t="inlineStr">
+      <c r="T215" t="inlineStr">
         <is>
           <t>Descrição da vagaA Leega é uma empresa focada no atendimento eficiente e inovador em seus clientes. Isso não poderia ser diferente com o nosso principal combustível: as pessoas!  Nossa cultura é inspiradora e nossos valores estão presentes no dia a dia: ética e transparência, excelência de qualidade, trabalho em equipe, responsabilidade econômica, social e ambiental, relações humanas e credibilidade.Buscamos profissionais inovadores que sejam movidos por desafios e focados em resultados.Se você busca uma empresa dinâmica e parceira e que investe em seus colaboradores através de capacitação constante, a Leega é o lugar para você!Ficaremos muito felizes em ter você em nosso time. Venha fazer parte da nossa história e da construção do nosso futuro. Cadastre-se agora mesmo em nossas vagas!
 Responsabilidades e atribuiçõesProjetar e construir soluções escalonáveis e resilientes de análises de dados no ambiente AWSSugerir e implementar melhorias de arquiteturaAmpla Experiência no ambiente AWS (S3, EMR, Athena, Lambda, SQS, AWS Glue, RDS e DynamoDB)Domínio no desenvolvimento com Python, Pyspark e PandasCompreensão da estrutura do Spark e dos recursos e desafios da arquitetura distribuídaLevantamento de necessidade com as áreas de negócios e documentaçãoConhecer métodos ágeisAlinhar o ambiente corporativo de TI com as necessidades de negócios, padrões e melhores práticas de mercadoSer capaz de incorporar a cultura data-driven no dia a diaTer a capacidade de trabalhar em equipe com empatia, saber ouvir e ser ouvido e ter uma boa habilidade de comunicação
@@ -20551,7 +22314,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O216" t="inlineStr"/>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P216" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -20562,10 +22329,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R216" t="n">
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S216" t="n">
         <v>6706225</v>
       </c>
-      <c r="S216" t="inlineStr">
+      <c r="T216" t="inlineStr">
         <is>
           <t>Descrição da vagaMOBI7A Mobi7 é uma empresa que utiliza a tecnologia para criar soluções que otimizam a mobilidade, auxiliam na gestão e valorizam a segurança no trânsito. Hoje, nós fazemos parte das empresas da Localiza e temos uma plataforma de gestão de frotas corporativas, criada para monitorar e otimizar o uso de veículos leves ou pesados. E esse é só o começo 😉.
 Responsabilidades e atribuiçõesComo Engenheiro(a) de Dados Sênior com foco em AWS Cloud e dados de telemetria, você terá um papel crucial no desenvolvimento e implementação de soluções avançadas de gerenciamento, processamento e análise de grandes volumes de dados de telemetria. Suas soluções irão alimentar insights diretos aos usuários de negócios. Sua atuação será fundamental na integração e sinergia entre os times de Analytics e usuários de negócios, apoiando-os diretamente nas análises e decisões estratégicas. A posição requer uma habilidade significativa para tratar grandes massas de dados, integrar fontes variadas e gerenciar dados com alta velocidade, utilizando a infraestrutura AWS Cloud para criar vantagens competitivas sustentadas pelo uso intensivo de dados.Responsabilidades:Desenvolver e implementar soluções avançadas para gerenciar, processar e analisar grandes volumes de dados de telemetria em ambiente AWS Cloud.Colaborar estreitamente com times de Ciência de Dados, Analytics e usuários de negócios para apoiar análises e decisões estratégicas baseadas em dados.Integrar fontes variadas de dados e gerenciar dados com alta velocidade, garantindo a confiabilidade e a integridade dos dados em todas as etapas.Criar e manter ETLs, ELTs e Pipelines de dados robustos e eficientes, garantindo a máxima eficiência no processamento e análise de dados.Contribuir para a governança de dados e a administração de infraestruturas de dados, com foco em segurança, escalabilidade e desempenho.
@@ -20646,7 +22418,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O217" t="inlineStr"/>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P217" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -20657,10 +22433,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio farmácia', 'Clube de vantagens', 'Consignado', 'Convênio com empresas parceiras', 'Day off aniversário', 'Ginástica laboral', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R217" t="n">
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S217" t="n">
         <v>6550883</v>
       </c>
-      <c r="S217" t="inlineStr">
+      <c r="T217" t="inlineStr">
         <is>
           <t>Descrição da vagaCrescer é o único caminho, e para que possamos oxigenar conexões e impulsionar a saúde buscamos talentos para nosso time epharmer.Estamos contratando uma Pessoa Engenheira de Dados Sênior.Se você é acessível, tem humildade intelectual, desafia o status quo, se sente confortável com a ambiguidade e possui uma boa dose de coragem, você terá sucesso aqui na epharma, então confere essa oportunidade 👇
 Responsabilidades e atribuiçõesAtuar com liderança técnica dentro do time de Engenharia de Dados, garantindo a entrega de soluções de dados com alta confiabilidade e qualidade em ambientes modernos e cloud;Comunicar-se efetivamente com Analistas, Cientistas de Dados e Stakeholders para captura e priorização de requisitos técnicos exequíveis;Projetar, criar, manter e aprimorar pipelines e modelos de dados escaláveis, monitoráveis e eficientes, garantindo a integridade e disponibilidade dos dados;Ingestão, gestão e transformação de dados de diversas fontes;Monitorar a qualidade e disponibilidade dos dados, implementando técnicas de troubleshooting quando necessário;Criar infraestruturas robustas para conectar diferentes fontes de dados internas e externas;Desenvolver e modernizar pipelines de dados, aplicando práticas de testes como Testes Unitários, Integrados, Regressivos, A/B e ETL Test;Contribuir estrategicamente na definição e implementação da arquitetura de dados, considerando princípios do ecossistema de dados como Spark, DeltaLake, camadas de dados, governança e segurança de dados;Pesquisar, aplicar, compartilhar e capacitar equipes sobre boas práticas, novas tecnologias e tendências em engenharia de dados;Contribuir estrategicamente para a jornada data driven, promovendo a cultura de dados e tomando decisões baseadas em dados na organização.
@@ -20741,7 +22522,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O218" t="inlineStr"/>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P218" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -20752,10 +22537,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R218" t="n">
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S218" t="n">
         <v>6702528</v>
       </c>
-      <c r="S218" t="inlineStr">
+      <c r="T218" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO Processo Seletivo 2024.1 da EloGroup começou!Somos uma consultoria de transformação com um abordagem integrada da Estratégia até o Delivery das soluções, combinando tecnologia, analytics e gestão. Nossa visão de fazer consultoria de forma parceira na transformação e na promoção dos nossos clientes, é capaz de gerar impactos reais e duradouros nos seus negócios.   Nosso maior ativo é um time multidisciplinar de mais de 500 talentos bem preparados em diversas competências e, acima de tudo, com uma vontade enorme de aprender, se desenvolver e que trabalha de forma conjunta e colaborativa para a construção das melhores soluções. Destravar todo esse potencial só é possível com uma cultura única e um ambiente diverso que inspiram e engajam tanto os clientes quanto os talentos em uma espiral positiva de transformação no ecossistema em que fazem parte.  Para nos conhecer melhor, converse com um(a) EloGrouper, participe dos nossos debates com o mercado e compreenda um pouco mais dessa realidade através das pessoas que fazem parte dela. Se inscreva em nossos processos seletivos, conheça as carreiras e oportunidades abertas!  ﻿Etapas do Processo:Cadastro e Teste de lógica - até 23/02/2024Para participar do nosso processo é necessário concluir o cadastro e o teste de lógica até o dia 23/02!Teste Técnico As pessoas candidatas que obtiverem aprovação no teste de lógica avançarão para a próxima etapa na Gupy, que consiste em um teste técnico. Este tem como objetivo avaliar seus conhecimentos em linguagem de programação aplicadas ao contexto de Engenharia de dados.Crack the DEAs pessoas candidatas aprovadas na etapa anterior, receberão o convite por e-mail para participar dessa etapa, que será online. O objetivo é promover para as pessoas candidatas um momento de aprendizado, troca e de preparação para a etapa de Entrevista, com conteúdo exclusivo para o processo seletivo. Além disso, essa é uma oportunidade para conhecer melhor o dia a dia na EloGroup e parte do nosso time.EntrevistasApós o Crack the DE, as pessoas candidatas aprovadas no teste técnico serão convidadas para apresentar a resolução deste teste para o time técnico.Resultado final – A partir de 18/03
 Responsabilidades e atribuiçõesComo Engenheiro (a) de Dados na Elogroup você será responsável pelos projetos de coleta, processamento, armazenamento e fornecimento de dados orientados ao consumo, tanto como apoio em projetos de consultoria de gestão como em projetos de característica exclusivamente técnica.Principais atividades:Implementar, monitorar e suportar as soluções de dados;Criar pipeline dos dados, desenvolver melhorias em plataformas já existentes;Disponibilizar esses dados para consumo, via dashboard ou APIs;Gerenciar alto volume, variedade, velocidade e veracidade dos processos que envolvem dados;Implementar e colocar em produção os modelos e análises desenvolvidas em conjunto com as equipes de cientistas de dados da EloGroup.
@@ -20836,7 +22626,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O219" t="inlineStr"/>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P219" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -20847,10 +22641,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R219" t="n">
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S219" t="n">
         <v>6693212</v>
       </c>
-      <c r="S219" t="inlineStr">
+      <c r="T219" t="inlineStr">
         <is>
           <t>Descrição da vagaQuer fazer a diferença na nova economia e transformar pessoas e negócios para prosperarem? Vem pra Cadastra!Como Engenheiro de Dados, você vai atuar no desenvolvimento de frameworks e ferramentas para suportar o crescimento acelerado de um dos nossos clientes. Você vai atuar no desenvolvimento e orientar o time nas melhoras práticas de mercado, com objetivo de fornecer dados de maneira sustentável, escalonável e com segurança. Sua atuação vai ser cross com vários times da área de engenharia de dados.Essa posição é para atuar de forma remota.
 Responsabilidades e atribuiçõesNo nosso Data Hub você terá o desafio de:Desenvolver processos e pipelines de dados utilizando as melhores praticas de mercado;Criar automações para a plataforma de dados em Google Cloud, se preocupando com desempenho, segurança e governança de dados;Garantir que a plataforma de dados seja escalonável e flexível;Auxiliar os colegas na adoção das melhores práticas do mercado;Ser um facilitador junto com o time do cliente na adoção das melhores praticas de mercado;
@@ -20931,7 +22730,11 @@
           <t>Temporário</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr"/>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P220" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -20942,10 +22745,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Convênio com empresas parceiras', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R220" t="n">
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S220" t="n">
         <v>6700297</v>
       </c>
-      <c r="S220" t="inlineStr">
+      <c r="T220" t="inlineStr">
         <is>
           <t>Descrição da vagaA Minsait é uma companhia global de tecnologia com mais de 23 anos de atuação no Brasil, focada em inovação e líder em A Minsait, uma empresa do grupo Indra Company. É a maior empresa espanhola de Transformação Digital, presente em mais de 100 países e há quase 30 anos no Brasil. Combinamos nossa experiência em cloud, segurança, payments e phygital com a tecnologia mais inovadora para impulsionar nossos negócios, gerando um impacto positivo na sociedade.Somos aproximadamente 50k Minsaiters no Mundo e mais de 9k Minsaiters no Brasil e estamos presentes nas maiores empresas em todos os setores. Nossa estrutura permite participar de projetos globais e proporciona um ambiente colaborativo que nos certifica em GreatPlacesToWork e planos diferenciados para Jovens Profisionais também reconhecidos pela Employers for Youth.Nosso objetivo é liderar uma revolução tecnológica mais sustentável. Venha ser um Minsaiter!
 Responsabilidades e atribuiçõesPrincipais Frameworks: Django, Pandas e Selenium.Sólidos conhecimentos em integração de sistemas utilizando APISólidos conhecimentos em SQL server Desejável conhecimentos em Big Data.
@@ -21026,7 +22834,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr"/>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P221" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -21037,10 +22849,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R221" t="n">
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S221" t="n">
         <v>6700413</v>
       </c>
-      <c r="S221" t="inlineStr">
+      <c r="T221" t="inlineStr">
         <is>
           <t>Descrição da vagaQuer fazer parte de uma empresa que pensa no bem-estar dos seus colaboradores?Então, fique ligado nessa oportunidade! Estamos com vaga aberta para Engenheiro de dados Trainee para Campina Grande -PB.Como Engenheiro de Dados Trainee, você desempenhará um papel essencial na coleta, processamento e análise de dados para impulsionar as operações e decisões de negócios da empresa.
 Responsabilidades e atribuiçõesColeta e Limpeza de Dados: Auxiliar na coleta de dados de fontes internas e externas, garantindo que os dados estejam limpos e prontos para análise;Processamento de Dados: Participar da construção de pipelines de dados, transformando e integrando informações de diversas fontes para a análise;Modelagem de Dados: Contribuir para o design e implementação de modelos de dados para apoiar as necessidades de análise da empresa;Colaboração Interdepartamental: Trabalhar em estreita colaboração com as equipes de TI, análise de negócios e outras áreas para entender suas necessidades de dados e oferecer soluções eficazes;Aprendizado Contínuo: Manter-se atualizado com as tendências e avanços em engenharia de dados, aprendizado de máquina e análise de dados.
@@ -21121,7 +22938,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O222" t="inlineStr"/>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P222" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -21132,10 +22953,15 @@
           <t>['Auxílio academia']</t>
         </is>
       </c>
-      <c r="R222" t="n">
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S222" t="n">
         <v>6671167</v>
       </c>
-      <c r="S222" t="inlineStr">
+      <c r="T222" t="inlineStr">
         <is>
           <t>Descrição da vagaSobre a empresa:A Ewally nasceu com o intuito de levar serviços de bancarização para a linha de frente do mercado, desburocratizando seu acesso a serviços financeiros. Nos apropriamos de nossa paixão por Inovação, e a combinação entre Infraestrutura + Tecnologia + Regulatório, e nos tornamos uma Instituição de Pagamentos.Desde então, proporcionamos excelência e uma revolução no consumo de produtos e serviços financeiros às empresas, por meio da criação de seu próprio ecossistema financeiro, incorporando pagamentos, viabilizando crédito e melhorando a experiência de clientes e pessoas usuárias!Sobre a posição:Você irá atuar junto à equipe de dados da Ewally, na criação e aprimoramento de pipelines eficientes para a extração, transformação e carga de dados, visando garantir a qualidade e a fluidez do fluxo de informações. Além disso, você irá se dedicar também na manutenção da sincronia entre os bancos de dados de análise e operacional, implementando práticas rigorosas de governança de dados para assegurar a confiabilidade das informações utilizadas nas tomadas de decisão estratégicas da Ewally.﻿Compromisso com Diversidade, Equidade e Inclusão:Aqui na Ewally acreditamos que para se investir na sociedade, é preciso refletir em nosso time o futuro que desejamos alcançar, proporcionando equidade e respeito! Dessa forma, todas pessoas são bem vindas a se candidatar em nossas posições sem distinção de raça, cor, idade, religião, orientação sexual, identidade ou expressão de gênero, nacionalidade ou deficiência! 🏳️‍🌈🏳️‍⚧️♿✊🏾
 Responsabilidades e atribuiçõesConstrução e manutenção de ETL de dados; Otimização e monitoramento dos custos de processos de dados existentes; Garantir a atualidade, fidelidade e integridade dos bancos de dados de análise com os bancos de dados operacionais.
@@ -21216,17 +23042,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O223" t="inlineStr"/>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P223" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="n">
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S223" t="n">
         <v>6686801</v>
       </c>
-      <c r="S223" t="inlineStr">
+      <c r="T223" t="inlineStr">
         <is>
           <t>Descrição da vagaNossa área de Estratégia e Tecnologia é um pilar fundamental dos nossos negócios, sendo responsável pela nossa transformação digital. Aqui criamos soluções tecnológicas sempre idealizando e desenvolvendo técnicas e processos de automação, seja para aprimorar a experiência de trabalho das nossas equipes ou aumentar a capacidade de entrega dos nossos produtos e serviços.Nós somos responsáveis por uma infraestrutura gigantesca que atende aos principais produtos de vídeo da Globo, como o Globoplay, Premiere e os Canais Globo. Além disso, somos responsáveis pela transmissão ao vivo de grandes eventos - desde os campeonatos estaduais de futebol, a Copa do Mundo, Olimpíadas, Rock in Rio e até as câmeras ao vivo do Big Brother Brasil, que fica disponível 24x7 para todos os assinantes do Globoplay.Somos a área de Gestão Corporativa, nosso time tem a responsabilidade de suportar todas as gerências da área, com isso, nosso trabalho tem uma grande diversidade de cenários. A missão da nossa área é o desenvolvimento de soluções corporativas, atendimento ao colaborador e serviços de tecnologia, dentre nossas soluções corporativas, temos uma participação em áreas como Produção de Estúdios, Esporte, Jornalismo e Eventos. Criamos ambientes onde todas as pessoas são incluídas, acolhidas e valorizadas. Nos empenhamos em ser uma Globo cada vez mais diversa, em representatividade e pensamento, aprendendo uns com os outros e estimulando a criatividade e inovação.Acreditamos na intencionalidade para gerar movimentos transformadores, que reconheçam que diferentes grupos sociais partem de diferentes realidades que precisam ser levadas em consideração e acolhidas pelas pessoas e pelo negócio.Equipes representativas trazem inovação inclusiva, nos permitindo criar experiências emocionantes para diferentes tipos de pessoas.Queremos ser cada vez mais o lugar onde todas as pessoas se encontram e, por isso, essa vaga é para você, mulher, que quer crescer e construir o futuro com a gente, nos bastidores de produtos e serviços que impactam a vida de milhões de brasileiros e brasileiras todos os dias. 
 Responsabilidades e atribuiçõesComo será seu dia a dia:  ﻿Você será responsável por:Projetar, construir e gerenciar arquiteturas de dados na nuvem;Desenvolver pipelines que assegurem eficiência, confiabilidade, segurança e qualidade para nossos clientes;Realizar a manutenção contínua de projetos e pipelines, buscando soluções eficazes para desafios técnicos, como otimizações e implementação de correções automatizadas. 
@@ -21307,7 +23142,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O224" t="inlineStr"/>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P224" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -21318,10 +23157,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Café da manhã', 'Convênio com empresas parceiras', 'Day off aniversário', 'Ginástica laboral', 'Participação nos Lucros ou Resultados', 'Sala de Jogos']</t>
         </is>
       </c>
-      <c r="R224" t="n">
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="n">
         <v>6669351</v>
       </c>
-      <c r="S224" t="inlineStr">
+      <c r="T224" t="inlineStr">
         <is>
           <t>Descrição da vagaQuer fazer parte de uma empresa que pensa no bem-estar dos seus colaboradores?Então, fique ligado nessa oportunidade! Estamos com vaga aberta para Engenheiro de Migração de Dados para Chapecó (SC).
 Responsabilidades e atribuiçõesDesenvolver análises e planejamento de migração de dados dentros dos prazos e requisitos do cliente;Desenvolver e adaptar métodos e ferramentas para automatizar a migração de dados com foco na eficiência do processo;Implementar processos de verificação para assegurar a integridade e precisão dos dados migrados. Resolver discrepâncias e garantir a conformidade com os padrões de qualidade de dados;Trabalhar em conjunto com outras equipes (como suporte e desenvolvimento) para resolver problemas técnicos. Treinar e orientar usuários internos e clientes sobre processos de migração;Documentar procedimentos de migração e contribuir para a melhoria contínua dos processos e ferramentas utilizados.
@@ -21402,17 +23242,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O225" t="inlineStr"/>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P225" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="n">
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S225" t="n">
         <v>6670101</v>
       </c>
-      <c r="S225" t="inlineStr">
+      <c r="T225" t="inlineStr">
         <is>
           <t>Descrição da vagaDesde 2007 trabalhando com inovação, a Certsys se consolidou como uma forte parceira de Transformação Digital, apoiando empresas disruptivas por meio de soluções digitais completas e escaláveis alinhadas às principais tendências e necessidades do mercado. Temos uma cultura poderosa, conectados de ponta a ponta, colaborativos, ágeis e flexíveis para encarar o novo, transparentes em nossas ações e unidos por um grande propósito: Revolucionar negócios e impactar pessoas, resolvendo desafios complexos através da nossa cultura e tecnologia. Além disso, somos certificados pela GPTW pelo segundo ano consecutivo, sendo uma das melhores empresas para se trabalhar no Brasil.Somos a Certsys 🚀🤖Próximos dos clientes, apaixonados por tecnologia e pessoas (sim, aqui pensamos na sua evolução e carreira, vamos te desenvolver e cuidar da sua trilha de capacitação). Acreditamos na diversidade, equidade e inclusão de profissionais independente da sua deficiência, raça/ etnia, religião, gênero, orientação sexual, origem e constituição de família.
 Responsabilidades e atribuiçõesComo será seu dia a dia:  Coletar dados de várias fontes, seja em bancos de dados ou por meio de ferramentas de coleta de dados;Limpeza e preparação de dados: trata dados brutos para garantir que estejam limpos, consistentes e prontos para análise. Nesta etapa deverá ser removido todo dado duplicado, corrompido ou em branco que de alguma forma possa distorcer qualquer análise;Análise Exploratória de dados (EDA): realizar análises exploratórias para entender a distribuição dos dados, identificando padrões e/ou outliers que possam ser tendências iniciais;Desenvolvimento de relatórios e dashboards: criar através de ferramentas próprias da Certsys e/ou disponibilizadas por nossos clientes relatórios visuais e dashboards que destaquem os insights importantes identificados nas etapas de coleta, limpeza e EDA;Modelagem de dados: participar ativamente da criação de modelos de dados e estruturas de banco de dados que suportem as necessidades analíticas da organização;Análise estatística: saber aplicar técnicas estatísticas básicas para entender relações entre variáveis, aplicar teste de hipóteses e realizar análises comparativas com base em regras de negócio:Colaboração com as equipes: trabalhar colaborativamente com equipes de negócios, cientistas de dados e outros profissionais para entender todos os requisitos analíticos e traduzi-los em soluções;Compreensão dos objetivos de negócios: ter boa compreensão dos objetivos de negócios da organização para garantir que a análise dos dados estejam devidamente alinhadas com as metas da empresa;Desenvolvimento de habilidades técnicas: estar em constante aprimoramento de suas habilidades técnicas, incluindo o conhecimento de linguagens de programação como SQL, Python ou R, e as mais atuais ferramentas de análise de dados.Comunicação de resultados: Ser capaz de comunicar de forma eficaz os resultados da análise de dados para todas as partes interessadas técnicas e não técnicas, garantindo que os insights sejam compreendidos e possam de fato influenciar em decisões para o negócio da organização.Identificar oportunidades de melhoria de processos de negócios com base nos resultados da análise de dados;Participar das Auditorias Periódicas, provendo informações/evidências necessárias de acordo com o tema solicitado pelo auditor.
@@ -21492,7 +23341,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr"/>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P226" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -21503,10 +23356,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Convênio com empresas parceiras', 'Day off aniversário', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R226" t="n">
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S226" t="n">
         <v>6671488</v>
       </c>
-      <c r="S226" t="inlineStr">
+      <c r="T226" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos procurando por uma pessoa (Engenheira de Dados Sênior )  que seja apaixonada por tecnologia e, claro, tenha vontade de fazer parte de algo grandioso. Na MaxMilhas, já negociamos mais de 70 bilhões de milhas e tornamos possíveis mais de 7 milhões de viagens. Temos um modelo de negócio pioneiro, que revolucionou o mercado de viagens, e queremos voar ainda mais alto. Nosso time conta com pessoas motivadas para entregar um produto de alta qualidade, trabalhando em um ambiente colaborativo e leve 
 Responsabilidades e atribuiçõesComo Pessoa Engenheira de Dados Sênior você terá o desafio de criar pipelines de dados eficientes e sustentáveis, se preocupando sempre com o retorno do investimento aplicado na construção de soluções de dados. Trabalhar junto com a área de negócio e analistas de dados para criar as camadas de dados ideais para dar a resposta correta às áreas.No dia a dia, você será responsável por: Construir soluções para obter, processar e armazenar dados de várias fontes; Abordagem analítica e de resolução de problemas, entendimento de regras de negócio, e Identificar oportunidades de melhoria em processos existentes. Acompanhamento de implantações em produção dos serviços de dados. Coletar, organizar e disponibilizar dados estruturados de/para/entre aplicações e para áreas de negócio.
@@ -21587,7 +23445,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O227" t="inlineStr"/>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P227" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -21598,10 +23460,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R227" t="n">
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S227" t="n">
         <v>6672405</v>
       </c>
-      <c r="S227" t="inlineStr">
+      <c r="T227" t="inlineStr">
         <is>
           <t>Descrição da vagaTodo o BrasilJá pensou em contribuir com uma das maiores edtechs do país e fazer a diferença na educação de milhares de pessoas? Somos a Wiser Educação, uma holding que está há mais de 27 anos gerando valor por meio da educação, na vida de nossos alunos e colaboradores. Você já deve conhecer nossas marcas: Wise Up, Wise Up Online, Wiser Sales Platform, Number One, meuSucesso.com, Power House, Buzz Editora, Conquer, Aprova total, BuQme, Eu militar e Vende-C.
 Responsabilidades e atribuiçõesAtuar na modelagem, extração e tratamento de dados, cooperando para a formação de modelos confiáveis e duradouros;Proporcionar um ambiente de aprendizados para os demais integrantes da equipe, auxiliando na formação e cultura da equipe de Engenharia de Dados;Visão analítica para melhorias nos processos, a fim de obter entregas de qualidade;Monitoramento e otimização dos ambientes Clouds (GCP).
@@ -21681,17 +23548,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O228" t="inlineStr"/>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P228" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="n">
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+      <c r="S228" t="n">
         <v>6655027</v>
       </c>
-      <c r="S228" t="inlineStr">
+      <c r="T228" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos selecionando profissionais para a equipe de Curadoria de Dados do Centro de Integração de Dados e Conhecimentos para Saúde (CIDACS) do IGM-FIOCRUZ, no Parque Tecnológico da Bahia, para suporte às pesquisas. Os nossos novos membros participarão de atividades como: inspeção, validação, dicionarização, descrição e mapeamento de bases de dados e datasets desenvolvidos para pesquisa.
 Responsabilidades e atribuiçõesColaborar no desenvolvimento de pipeline de dados em linguagem adequada;colaborar na elaboração e desenvolvimento de soluções relacionadas à curadoria de dados, a exemplo de algoritmos curadores;auxiliar as atividades de inspeção, validação, dicionarização, descrição, historicização e mapeamento de base de dados e de datasets criados para pesquisa;participar de reuniões e sessões técnicos-científicas;elaborar e apresentar relatórios técnicos periódicos.
@@ -21772,7 +23648,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O229" t="inlineStr"/>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P229" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -21783,10 +23663,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R229" t="n">
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S229" t="n">
         <v>6669143</v>
       </c>
-      <c r="S229" t="inlineStr">
+      <c r="T229" t="inlineStr">
         <is>
           <t>Descrição da vagaNosso time está crescendo! Venha fazer parte.Como Pessoa Engenheira de Dados você fará parte do time de Tecnologia, e será responsável pela preparação de dados de uso analítico ou operacional. Estamos em busca de uma pessoa altamente competente e apaixonado por transformar dados em insights valiosos para se juntar à nossa equipe de tecnologia. Aqui no Mycon o candidato ideal terá experiência sólida em engenharia de dados, incluindo o desenvolvimento de pipelines de dados complexos, modelagem de dados e otimização de desempenho. Esta posição desempenhará um papel fundamental na construção e manutenção de nossa infraestrutura de dados, garantindo a qualidade, a escalabilidade e a disponibilidade dos dados para impulsionar nosso sucesso nos projetos de análise e tomada de decisões.
 Responsabilidades e atribuiçõesEm seu dia a dia, você será responsável por:Projetar, implementar e otimizar pipelines de dados escaláveis e eficientes para coletar, processar e armazenar grandes volumes de dados de diversas fontes.Colaborar com equipes de engenharia, análise de dados e cientistas de dados para entender e atender aos requisitos de dados específicos do projeto.Desenvolver e manter estruturas de armazenamento de dados, garantindo a integridade, a segurança e o desempenho dos dados.Automatizar processos de ETL (Extração, Transformação e Carregamento) para melhorar a eficiência e a agilidade na entrega de dados.Implementar práticas de monitoramento, resolução de problemas e escalabilidade para garantir a disponibilidade contínua dos pipelines de dados.Colaborar na definição e aplicação de políticas de segurança de dados e governança.
@@ -21864,20 +23749,25 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P230" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="n">
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="n">
         <v>6657179</v>
       </c>
-      <c r="S230" t="inlineStr">
+      <c r="T230" t="inlineStr">
         <is>
           <t>Descrição da vagaA Leega é uma empresa focada no atendimento eficiente e inovador em seus clientes. Isso não poderia ser diferente com o nosso principal combustível: as pessoas!  Nossa cultura é inspiradora e nossos valores estão presentes no dia a dia: ética e transparência, excelência de qualidade, trabalho em equipe, responsabilidade econômica, social e ambiental, relações humanas e credibilidade.Buscamos profissionais inovadores que sejam movidos por desafios e focados em resultados.Se você busca uma empresa dinâmica e parceira e que investe em seus colaboradores através de capacitação constante, a Leega é o lugar para você!Ficaremos muito felizes em ter você em nosso time. Venha fazer parte da nossa história e da construção do nosso futuro. Cadastre-se agora mesmo em nossas vagas!
 Responsabilidades e atribuiçõesCapacidade de manter e desenvolver uma arquitetura de data lake;Desenvolver e manter pipelines de dados orquestrados nas plataformas Azure e Google Cloud;Com verificações automatizadas de qualidade de dados e alertas/monitoramento;Construir e manter modelos de Machine Learning de média complexidade;Usando XGBoost;No full AI/Deep Learning;Realizar tarefas de Data Science para analisar dados, propor melhorias em métricas e na forma como são calculadas, assim como criação de novas;KPIs complexos;Análise de retenção / Cohort;Detecção de fraude.
@@ -21954,10 +23844,14 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P231" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -21968,10 +23862,15 @@
           <t>['Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R231" t="n">
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S231" t="n">
         <v>6655135</v>
       </c>
-      <c r="S231" t="inlineStr">
+      <c r="T231" t="inlineStr">
         <is>
           <t>Descrição da vagaLocal: São Paulo – SP Modelo de contrato: PJ 
 Responsabilidades e atribuições Papéis e Responsabilidades: Atuar com engenharia de dados utilizando a ferramenta SQL Server e Spark (PySpark) em projetos de integração de dados entre sistemas, desenvolvimento de camada analítica de dados (ETL/ELT) para projeto de BI e/ou Big Data.   Atividades Principais:  Coleta de requisitos Modelagem de banco de dados relacionais Construção de pipelines de Eng. Dados    
@@ -22052,7 +23951,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O232" t="inlineStr"/>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P232" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -22063,10 +23966,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Programa de treinamentos', 'Restaurante interno', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R232" t="n">
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S232" t="n">
         <v>6642870</v>
       </c>
-      <c r="S232" t="inlineStr">
+      <c r="T232" t="inlineStr">
         <is>
           <t>Descrição da vagaSer MJVer 🤝 é estar em um dos melhores lugares para trabalhar.Nós sabemos que na construção de uma sociedade mais forte a evolução deve vir de dentro para fora. Por isso, um ambiente acolhedor e com o sentimento constante de pertencimento é fundamental para o crescimento individual e coletivo.O esforço é de todos nós, e as conquistas também. Porque ser um MJVer é bem mais do que ser um colaborador: é sobre fazer parte. Somos colaborativos, ágeis, plurais, criativos e inovadores. Somos MJV! Saiba mais em Quem Somos: https://www.mjvinnovation.com/pt-br/quem-somos/
 Responsabilidades e atribuiçõesDescrição da Vaga:Estamos procurando um(a) Engenheiros de Dados para trabalhar na criação algoritmos para gerenciar um grande volume de dados brutos, além de gerar relatórios e trabalhar na otimização e na recuperação de dados quando necessário.  O candidato ideal terá um histórico comprovado de sucesso em projetos de desenvolvimento de software, bem como habilidades de comunicação e colaboração em equipe.Atividades:Será responsável pelo desenvolvimento e avaliação dos pipelines de dados que incluem extração, transformação e carga de massas de dados, viabilizando uma cultura data driven. Recuperar Dados no Lake, com habilidade em SQL, Python e SAS.Construir e otimizar o Pipeline de Dados;Desenvolver componentes de integração, on-line e batch com datalake, sistemas transacionais e/ou sistemas externos e demais consumidores (ex: FICO);Interação com time técnico DataOps, MLOps, Cloud, Arquitetura, sistemas produto;Comunicação fluida com o time multidiciplinar (negócio, infraestrutura, operações, arquitetura e governança 
@@ -22147,7 +24055,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O233" t="inlineStr"/>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P233" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -22158,10 +24070,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R233" t="n">
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S233" t="n">
         <v>6569845</v>
       </c>
-      <c r="S233" t="inlineStr">
+      <c r="T233" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaLOCALIZA&amp;COSomos uma empresa presente no futuro. Em nossa história, sempre trouxemos para o agora ideias que pareciam existir somente anos à frente. Enxergamos o amanhã pelas lentes do nosso espírito empreendedor.Construir o futuro da mobilidade é um propósito que impulsiona nossa habilidade de protagonizar e o nosso talento em fazer acontecer. Para cumprir o nosso propósito, precisamos de gente. Gente como nossos colaboradores, clientes, franqueados, fornecedores, investidores, sociedade e parceiros, que, juntos, pensam e criam formas inteligentes de ir e vir.
 Responsabilidades e atribuiçõesEstamos construindo o futuro da mobilidade sustentável e os dados são parte essencial para essa transformação! Se você é apaixonado(a) por dados e quer fazer parte de uma equipe inovadora, dinâmica e multidisciplinar, essa é a sua oportunidade! Como Engenheiros de dados somos responsáveis por desenvolver e implementar soluções que gerenciam, processam e analisam grandes volumes de dados que são utilizados por produtos, modelos de Ciência de Dados e de Inteligência Artificial, além de gerar insights valiosos para os usuários de negócio. Faz parte do nosso dia a dia interagir com profissionais de diversas áreas, apoiando-os nas análises e na tomada de decisões, além disso, lidamos com desafios complexos e interessantes, que envolvem os mais diversos problemas de dados, o que nos possibilita inovar e utilizar tecnologia e dados para simplificar e encantar nossos clientes.O QUE VOCÊ IRÁ FAZER COMO ENGENHEIRO(A) DE DADOSSerá responsável por projetar, desenvolver e implementar infraestrutura de dados e pipelines robustas, conectando dados de diversas fontes.Projetar e implementar soluções de engenharia de dados escaláveis e eficientes.Gerenciar integrações, extrações, modelagem de dados e análises usando conectores de dados e APIs SQL, Python/Java e Rest.Criar modelos de dados personalizados para descoberta, mapeamento e limpeza de da
@@ -22242,7 +24159,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O234" t="inlineStr"/>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P234" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -22253,10 +24174,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R234" t="n">
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S234" t="n">
         <v>6604212</v>
       </c>
-      <c r="S234" t="inlineStr">
+      <c r="T234" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaLOCALIZA&amp;COSomos uma empresa presente no futuro. Em nossa história, sempre trouxemos para o agora ideias que pareciam existir somente anos à frente. Enxergamos o amanhã pelas lentes do nosso espírito empreendedor.Construir o futuro da mobilidade é um propósito que impulsiona nossa habilidade de protagonizar e o nosso talento em fazer acontecer. Para cumprir o nosso propósito, precisamos de gente. Gente como nossos colaboradores, clientes, franqueados, fornecedores, investidores, sociedade e parceiros, que, juntos, pensam e criam formas inteligentes de ir e vir.
 Responsabilidades e atribuiçõesEstamos construindo o futuro da mobilidade sustentável e os dados são parte essencial para essa transformação! Se você é apaixonado(a) por dados e quer fazer parte de uma equipe inovadora, dinâmica e multidisciplinar, essa é a sua oportunidade! Como Engenheiros de dados somos responsáveis por desenvolver e implementar soluções que gerenciam, processam e analisam grandes volumes de dados que são utilizados por produtos, modelos de Ciência de Dados e de Inteligência Artificial, além de gerar insights valiosos para os usuários de negócio. Faz parte do nosso dia a dia interagir com profissionais de diversas áreas, apoiando-os nas análises e na tomada de decisões, além disso, lidamos com desafios complexos e interessantes, que envolvem os mais diversos problemas de dados, o que nos possibilita inovar e utilizar tecnologia e dados para simplificar e encantar nossos clientes.O QUE VOCÊ IRÁ FAZER COMO ENGENHEIRO(A) DE DADOS SENIORSerá responsável por projetar, desenvolver e implementar infraestrutura de dados e pipelines robustas, conectando dados de diversas fontes.Projetar e implementar soluções de engenharia de dados escaláveis e eficientes.Gerenciar integrações, extrações, modelagem de dados e análises usando conectores de dados e APIs SQL, Python/Java e Rest.Criar modelos de dados personalizados para descoberta, mapeamento e limpeza de dados.
@@ -22337,7 +24263,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O235" t="inlineStr"/>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P235" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -22348,10 +24278,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R235" t="n">
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S235" t="n">
         <v>6649420</v>
       </c>
-      <c r="S235" t="inlineStr">
+      <c r="T235" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaGranado | Phebo abre as portas para você!﻿Estamos em busca de um Engenheiro de Dados para fazer parte da nossa equipe. Se você é uma pessoa organizada, dinâmica e com visão sistêmica, esta pode ser a oportunidade perfeita para você. Como Engenheiro de Dados , você será responsável por projetar, desenvolver e manter sistemas de coleta, armazenamento e análise de dados. Assegurando que os dados sejam coletados de maneira eficiente, armazenados com segurança e disponibilizados para análise e tomada de decisões estratégicas.
 Responsabilidades e atribuiçõesDesenvolver sistemas e processos para coletar dados de diversas fontes, como bancos de dados, aplicativos, sensores e dispositivos.Projetar e manter bancos de dados e sistemas de armazenamento de dados, incluindo bancos de dados relacionais e não relacionais.Preparar e limpar os dados coletados, garantindo que estejam prontos para análise. Isso envolve a transformação, agregação e padronização de dados.Integrar dados de várias fontes em um único ambiente de dados, garantindo a consistência e a integridade dos dados.Criar e manter pipelines de dados que automatizem a transferência e transformação de dados de maneira eficiente.Implementar medidas de segurança para proteger os dados contra acessos não autorizados e vazamentos.Colaborar para fornecer conjuntos de dados prontos para análise.Monitorar o desempenho dos sistemas de dados e otimizar a escalabilidade e a eficiência.Manter documentação completa e atualizada de processos, fluxos de dados e arquitetura de sistemas.
@@ -22432,7 +24367,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O236" t="inlineStr"/>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P236" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -22443,10 +24382,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio estacionamento', 'Day off aniversário', 'Horário flexível', 'Restaurante interno', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R236" t="n">
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S236" t="n">
         <v>6648261</v>
       </c>
-      <c r="S236" t="inlineStr">
+      <c r="T236" t="inlineStr">
         <is>
           <t>Descrição da vagaTrabalhamos para você ser mais você em todos os momentos, começando pela sua carreiraReferência no varejo de moda, a C&amp;A se orgulha de ter mais de 14 mil pessoas atuando em suas operações no Brasil para oferecer a melhor experiência para nossas clientes!Trabalhar na C&amp;A é fazer parte de um ambiente inovador e divertido, que estimula o desenvolvimento profissional em todas as fases da carreira.Aqui você pode ser quem é! O respeito às pessoas e à diversidade fazem parte dos nossos valores.Enxergamos a moda como uma plataforma de expressão e de como as pessoas se conectam.Queremos fazer uma moda com impacto positivo, o que nos torna únicos. Nossa cultura acredita no valor e na riqueza das diferenças. Somos uma multinacional com alma brasileira.Curta nossa página de carreira no Linkedin para saber mais sobre nosso dia-a-dia!Se você se identifica com a C&amp;A e procura uma empresa, acima de tudo, apaixonada por pessoas, #VemPraCeA.
 Responsabilidades e atribuiçõesProjetar, implementar e gerenciar pipelines de dados para garantir a integridade, qualidade e disponibilidade dos dados;  Desenvolver e implementar processos de tratamento, limpeza, validação e transformação de dados, assegurando a conformidade com os requisitos de negócios;Integrar diversas fontes de dados a sistemas internos e externos, permitindo que os dados sejam acessíveis e utilizáveis para análises e tomada de decisões;Identificar oportunidades de otimização e propor melhorias de desempenho em soluções existentes, com foco em escalabilidade, eficiência e otimização de custos;  Criar e manter documentação técnica abrangente, incluindo especificações de design, fluxo de dados, processos de ETL, modelos de dados e melhores práticas, para facilitar a compreensão, colaboração e manutenção do sistema;
@@ -22527,17 +24471,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O237" t="inlineStr"/>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P237" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="n">
+      <c r="R237" t="inlineStr"/>
+      <c r="S237" t="n">
         <v>6638997</v>
       </c>
-      <c r="S237" t="inlineStr">
+      <c r="T237" t="inlineStr">
         <is>
           <t>Descrição da vagaDestinado à graduados nos cursos de Ciência da Computação, Engenharias, Sistemas de Informação e afins, que desejam se desenvolver em projetos de Engenharia de Dados, Automação de Processos, Gestão de TI e Desenvolvimento de Software. Nosso time atua em contextos desafiadores em nossos clientes, com objetivo de gerar valor ao negócio através de tecnologia
 Responsabilidades e atribuiçõesCriação, desenvolvimento e melhoramento de RPAs e pipeline de dados;Aprofundamento técnico em estudos na área de TI, como, cloud, banco de dados, versionamento;Experiência com novos conhecimentos como machine learning, artificial inteligence, etc;Acompanhamento e gestão de projetos através de metodologias ágeis, como Kanban, Scrum;Desenvolvimento interpessoal através de cursos, contato direto com clientes e trabalho em equipe.
@@ -22618,7 +24567,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O238" t="inlineStr"/>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P238" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -22629,10 +24582,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Convênio com empresas parceiras', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R238" t="n">
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+      <c r="S238" t="n">
         <v>6638077</v>
       </c>
-      <c r="S238" t="inlineStr">
+      <c r="T238" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê é uma pessoa apaixonada por dados e busca um ambiente de trabalho estimulante, onde sua criatividade e habilidades técnicas possam evoluir continuamente? Então, vem somar com a gente! 🚀✨ Estamos em busca de uma Pessoa Engenheira de Dados Sênior para para somar com nossa equipe supimpa. Aqui, valorizamos a liberdade e a responsabilidade, encorajando você a trazer suas ideias inovadoras para solucionar desafios de maneira única. 😍✨ Acreditamos que a soma de expertises e paixão são a chave para o sucesso, e você terá a oportunidade de colaborar com profissionais incríveis que compartilham o mesmo entusiasmo pelo que fazem. 🙌✨ Venha fazer parte do nosso time e aproveitar um ambiente de trabalho colaborativo com somas constantes que farão sua carreira evoluir 🚀Sua jornada de sucesso começa aqui! Nossa soma, sua evolução #vemserilegra 🧡💜💛+++ Conheça mais sobre o processo seletivo em nosso playbook: encurtador.com.br/bvS89
 Responsabilidades e atribuiçõesProjetar, desenvolver e manter arquiteturas de dados escaláveis e eficientes para suportar as necessidades analíticas da empresa;Implementar pipelines de dados robustos para coleta, transformação e carga (ETL) de dados provenientes de diversas fontes;Trabalhar em estreita colaboração com as equipes de desenvolvimento, análise de dados e demais stakeholders para entender e atender às necessidades de dados da empresa;﻿Orientar e apoiar membros juniores da equipe, compartilhando conhecimentos e liderando iniciativas técnicas.
@@ -22710,20 +24668,29 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O239" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P239" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="n">
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S239" t="n">
         <v>6638477</v>
       </c>
-      <c r="S239" t="inlineStr">
+      <c r="T239" t="inlineStr">
         <is>
           <t>Descrição da vagaA BrandMonitor está em plena expansão e busca por um(a) Engenheiro(a) de Dados experiente e apaixonado(a) por processamento e análise de dados para integrar nossa equipe. Terá a oportunidade de liderar e contribuir para o desenvolvimento de soluções inovadoras, participando ativamente em um ambiente dinâmico de startup.Conhecimentos em BigQuery, DataStudio, AWS, DBs e Heroku.
 Responsabilidades e atribuições→ Liderar o desenvolvimento e manutenção de pipelines de dados usando sistemas como BigQuery, Data Studio, e outros sistemas de engenharia de dados.→ Colaborar na implementação de estratégias técnicas para maximizar a eficiência e qualidade na análise de dados, utilizando serviços AWS e Heroku.→ Participar do processo de tomada de decisão técnica em conjunto com a equipe.→ Cooperar na orientação e desenvolvimento de membros da equipe, promovendo um ambiente de aprendizado contínuo.→ Colaborar com outras equipes para garantir a entrega eficiente e eficaz de projetos de análise de dados.
@@ -22804,7 +24771,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O240" t="inlineStr"/>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P240" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -22815,10 +24786,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio home office', 'Convênio com empresas parceiras', 'Day off aniversário', 'Horário flexível', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R240" t="n">
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S240" t="n">
         <v>6638122</v>
       </c>
-      <c r="S240" t="inlineStr">
+      <c r="T240" t="inlineStr">
         <is>
           <t>Descrição da vagaHoje, somos o software odontológico líder de mercado no Brasil. Atendemos mais de 12 mil clínicas e consultórios, e impactamos a vida de mais de 20 milhões de pessoas. A Simples Dental também é parte do grupo Henry Schein, que detém a liderança do mercado de odontologia mundial. Você deseja trabalhar na startup que se preocupa com a experiência de cada cliente e em como entregar sucesso durante toda a sua jornada conosco?Se sua resposta é SIM, chegou o seu momento! 😎💻Bora mudar o mercado odontológico junto com a gente? 🦷🚀🎉TIME DE DATA &amp; ANALYTICSNosso time é responsável por atender as demandas internas que demandam tratamentos de dados para análises estratégicas. Construímos pipelines de ETL, gerenciamos as bases analíticas (DW, Lake) e contribuímos na realização de análises complexas.
 Responsabilidades e atribuiçõesO QUE ESSA PESSOA IRÁ FAZER?Construir integrações entre diferentes fontes de dados para tratamento e sincronização de dados;Colaborar com as equipes de desenvolvimento de produto para auxiliar na construção de estrutura de dados que facilitam análises;Ajudar a liderança nas tomadas de decisões táticas, expondo sua visão e ponderações sobre os assuntos;Garantir a qualidade dos dados no sentido de estarem alinhadas com a fonte original;Garantir que as automações já existentes continuem produtivas, se ainda forem necessárias para a estratégia do negócio;Auxiliar áreas de negócios sobre boas práticas de consultas de dados e agregações para construção de relatórios;Auxiliar áreas de negócio com exportação de informações e construção de visualizações para serem utilizadas em ações e análises.QUEM ESTAMOS BUSCANDO?Alguém que goste de se comunicar, seja proativo e use a criatividade para encontrar soluções;Seja guiado por dados e tenha interesse em coletá-los;Tenha vontade de trazer diversas ideias para melhorar as práticas e processos da área;Tenha empatia e atenção aos detalhes;Goste de mudanças e de estar em um ambiente adaptável; Tenha senso de responsabilidade e prontidão para ajudar, orientar, ensinar e apoiar as pessoas; Esteja em constante atualização.
@@ -22899,7 +24875,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O241" t="inlineStr"/>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P241" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -22910,10 +24890,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Day off aniversário', 'Desconto em produtos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R241" t="n">
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S241" t="n">
         <v>6634329</v>
       </c>
-      <c r="S241" t="inlineStr">
+      <c r="T241" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaO Time de Dados desempenha papel essencial na organização, atuando tanto na engenharia quanto na análise de dados. Localizada na área de estratégia, seu objetivo é fornecer suporte e contribuir significativamente para a tomada de decisões eficazes em todos os níveis da organização, ajudando-nos a construir uma comunidade de pessoas que buscam suas melhores versões.Buscamos uma pessoa que queira crescer e evoluir 1% a cada dia junto com a nossa empresa e que tenha espírito de dono, responsabilidade e muita proatividade.Somos empreendedores. Sonhamos alto, somos ousados, acreditamos na nossa capacidade e trabalhamos todos os dias para cumprir com nosso propósito com muito esforço, dedicação e motivação.Você se identifica com a oportunidade e nossa cultura? Então essa vaga é para você!
 Responsabilidades e atribuiçõesIntegração de Dados: Desenvolver pipelines de ETL/ELT para coleta, limpeza, transformação e carga de dados provenientes de diversas fontes para os data lakes, data warehouses, lake house e outros sistemas de armazenamento;Arquitetura e Modelagem de Dados: Criar e otimizar arquiteturas de dados que atendam às exigências do negócio, assegurando escalabilidade, resiliência e desempenho;Otimização de Consultas: Aprimorar consultas em grandes volumes de dados, garantindo a entrega de informações em tempo hábil para facilitar as tomadas de decisão;Segurança de Dados: Implementar práticas de segurança para garantir a integridade, confidencialidade e disponibilidade dos dados;Colaboração com Times Multidisciplinares: Trabalhar em conjunto com analistas e outros stakeholders para garantir que as soluções de dados atendam às necessidades do negócio;Manutenção e Monitoramento: Monitorar o desempenho dos sistemas de dados, identificando gargalos e propondo melhorias contínuas.
@@ -22994,17 +24979,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O242" t="inlineStr"/>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P242" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="n">
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S242" t="n">
         <v>6609493</v>
       </c>
-      <c r="S242" t="inlineStr">
+      <c r="T242" t="inlineStr">
         <is>
           <t>Descrição da vagaSe você tem paixão por inovação e busca trabalhar em um ambiente ágil, colaborativo e desafiador, esta pode ser a sua oportunidade!  O Asaas ajuda empresas a gerir e automatizar seus processos financeiros e a melhorar o relacionamento com os seus clientes. Nossa conta digital é completa e reúne em um único lugar o envio e recebimento de cobranças, automação de comunicação por diversos canais e gestão de recebíveis descomplicada! Para compor nosso time de Plataforma de Dados, procuramos pessoas proativas, comunicativas e abertas a novos desafios. Mantemos nossa plataforma e pipeline de dados com foco em qualidade, organização, escalabilidade e confiabilidade.Para acompanhar o crescimento do Asaas, estamos construindo uma plataforma de dados moderna utilizando tecnologias, como Databricks, Airflow, Airbyte, dbt, AWS S3, AWS DMS, dentre outras. Manter essa stack traz inúmeros desafios, por isso o domínio nas ferramentas e conceitos serão indispensáveis! Se interessou pela oportunidade mas não reside em Joinville? Não tem problema, possibilitamos o trabalho remoto/home office.
 Responsabilidades e atribuiçõesProvisionar e configurar recursos na AWS para atender aos projetos da área de dados;Desenvolver projetos para elevar a autonomia dos times de engenharia e análise de dados;Participar ativamente nas decisões de evolução da plataforma de dados;Manter e evoluir a orquestração da pipeline de dados;Operar e monitorar os serviços da plataforma;Prezar pela qualidade das soluções desenvolvidas.
@@ -23085,17 +25079,22 @@
           <t>Estágio</t>
         </is>
       </c>
-      <c r="O243" t="inlineStr"/>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P243" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="n">
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="n">
         <v>6624127</v>
       </c>
-      <c r="S243" t="inlineStr">
+      <c r="T243" t="inlineStr">
         <is>
           <t>Descrição da vagaDestinado a universitários dos cursos de Ciência da Computação, Engenharias, Sistemas de Informação e afins, que desejam se desenvolver em projetos de Engenharia de Dados, Automação de Processos, Gestão de TI e Desenvolvimento de Software. Nosso time atua em contextos desafiadores em nossos clientes, com objetivo de gerar valor ao negócio através de tecnologia
 Responsabilidades e atribuiçõesCriação, desenvolvimento e melhoramento de RPAs e pipeline de dados;Aprofundamento técnico em estudos na área de TI, como, cloud, banco de dados, versionamento;Experiência com novos conhecimentos como machine learning, artificial inteligence, etc;Acompanhamento e gestão de projetos através de metodologias ágeis, como Kanban, Scrum;Desenvolvimento interpessoal através de cursos, contato direto com clientes e trabalho em equipe.
@@ -23176,7 +25175,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O244" t="inlineStr"/>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P244" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -23187,10 +25190,15 @@
           <t>['Assistência médica']</t>
         </is>
       </c>
-      <c r="R244" t="n">
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S244" t="n">
         <v>6618255</v>
       </c>
-      <c r="S244" t="inlineStr">
+      <c r="T244" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSobre o time:O time de engenharia de dados é responsável garantir a entrega dos dados de diferentes fontes na plataforma de dados de forma estruturada, acessível, confiável, escalável, segura, estável e que atenda as necessidades de cada área dentro da empresa e também é responsável por prover e manter ferramentas analiticas para acesso e manipilação dos dados. Esse time também desenvolve modelagem de dados e pipeline para o produto final de forma produtiva que garanta confiabilidade, escalabilidade e consistência dos dados e plataforma.Desafios da posição:O Engenheiro de Dados Especialista é responsável por liderar tecnicamente o time de engenharia de dados, ser uma referência técnica da plataforma de dados dentro e fora do time, integrar diferentes fontes de dados com a plataforma de dados de forma estruturante seguindo e definindo boas práticas e templates de ingestão para o time. Manter e monitorar a saúde e qualidade dos produtos e processos de dados em produção. Liderar projetos, propor e implementar soluções com arquiteturas confiáveis, estáveis, consistentes, seguras e escaláveis. Modelar bases de dados analíticas e de produto de forma estruturante conforme necessidade da empresa, otimizar bancos de dados analíticos em relação à performance, self-service e alinhado com o conceito de “data as a plataform”.
 Responsabilidades e atribuiçõesSeu dia a dia na Conta Simples:﻿Responsável por liderar tecnicamente o time de engenharia de dados e ser uma referência técnica da plataforma de dados dentro e fora do time;Responsável pela construção e manutenção de pipelines de ingestão e manipulação de dados;Liderar projetos de forma ativa propondo e implementando arquiteturas de dados;Definir e implementar boas arquiteturas de dados de acordo com cada necessidade;Utilizar e propor as ferramentas corretas da AWS e/ou outras Clouds para cada demanda;Implementar soluções escaláveis, seguras, acessíveis, confiáveis, estáveis e otimizar gastos;Garantir boas práticas de padronização e estruturação da arquitetura de dados;Desenvolver processos eficientes seguindo o pipeline de CI/CD;Garantir uma modelagem de dados eficiente para as necessidades da empresa.
@@ -23271,7 +25279,11 @@
           <t>Associado</t>
         </is>
       </c>
-      <c r="O245" t="inlineStr"/>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P245" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -23282,10 +25294,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Auxílio home office', 'Day off aniversário', 'Ginástica laboral', 'Horário flexível', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R245" t="n">
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S245" t="n">
         <v>6047694</v>
       </c>
-      <c r="S245" t="inlineStr">
+      <c r="T245" t="inlineStr">
         <is>
           <t>Descrição da vagaSobre nós:A Neoway foi fundada em 2002 em Florianópolis, lançou a sua plataforma SaaS em 2012, e, hoje, está presente em todo o Brasil. A Plataforma Neoway oferece soluções inteligentes que transformam informação em conhecimento e geram produtividade e precisão para as estratégias de marketing, compliance, prevenção contra perdas, entre outros. As tecnologias da empresa atendem mais de 20 setores de negócios como financeiro, automotivo, bens de consumo, cobrança e recuperação, saúde, óleo e gás, entre outros.Com cerca de 500 colaboradores, a Neoway tem como compromisso oferecer um ambiente psicologicamente seguro para todo o time, tendo sido reconhecida nacionalmente pela qualidade das suas relações pela pesquisa “Humanizadas” e certificada por sete anos consecutivos como um bom lugar para se trabalhar pelo Great Place To Work (GPTW).Cultura e Desenvolvimento = #ProudToBeNeoway:Somos apaixonados pelo que fazemos e estamos sempre em busca do nosso desenvolvimento pessoal e profissional. Temos a liberdade de ser quem somos, e assim, construímos a Neoway que queremos. Responsáveis por nossas entregas, confiamos e respeitamos umas às outras. Enxergamos o equilíbrio entre vida pessoal e trabalho como um aliado, pois sabemos que esse é o caminho para fazermos entregas de alta performance para nossos clientes.O universo Neoway proporciona experiências únicas, guiadas pelo manifesto de cultura, que é o combustível para ir além! Cada pessoa colaboradora, que chamamos aqui de GIGANTES, constrói a sua própria jornada, que é nomeada de #Neojourney.Na Neoway praticamos o “Win win”, todos ganham e para isso temos um ambiente que valoriza a colaboração, o protagonismo e a ousadia, que são os comportamentos de sucesso que apoiam a nossa cultura.Por aqui, além de alavancar a economia do país através de Big Data Analytics e Inteligência Artificial, estamos criando um futuro com mais oportunidades, tornando não só a Neoway um local mais diverso e inclusivo, mas também conscientizando as pessoas sobre o seu papel nessa construção.Sabemos que temos um longo caminho pela frente, por isso estamos constantemente aprendendo e criando iniciativas para fortalecer a diversidade e inclusão aqui dentro. E essa jornada conta com o apoio dos nossos grupos de afinidade: #NeoLadies #NeoOba e #NeoPride, todos com o propósito de traduzir nossas mudanças internas em responsabilidade como cidadãos.Sobre a Operação e Produção de Dados:Somos a área responsável pela coleta, tratamento, organização e disponibilização dos dados nas soluções e API da Neoway. Nossa área está organizada por pacotes de contextos de dados e cada pacote possui um time específico, composto por: uma pessoa Data Owner, responsável por fazer a ponte entre os times de dados e o time de produtos, definir o backlog e as prioridades do seu respectivo time; pessoas Engenheiras de Dados, responsáveis pelo desenvolvimento e configuração de todas as etapas do fluxo da operação e produção de dados.
 Responsabilidades e atribuiçõesComo será o seu dia a dia no time:Desenvolvimento de web crawling para coleta de dados;Fornecimento de dados em APIs;Tratamento, higienização e agregação de dados;Monitoramento dos serviços de produção;Evolução e manutenção de serviços de coleta, tratamento e agregação;Fornecimento de dados como serviços para a Plataforma Neoway.Seguimos práticas básicas de desenvolvimento: Testes unitários, integração, e em alguns casos, sistema.Projeto de infraestrutura como código.Usamos CI do gitlab, para automatizar a maior parte de rotinas (testes, release). Nos preocupamos com um código limpo e bem estruturado. Fazemos Code Review. Nenhuma mudança vai para a operação sem o time aprovar. Seja via thumbs up do Gitlab ou durante uma discussão da daily. Todo desenvolvimento de uma nova fonte é baseado em especificações que são escritas pela nossa pessoa Data Owner. Nela temos as definições de inputs e outputs, regras de negócio e resultados esperados. A especificação técnica fica sob responsabilidade do desenvolvedor que tem total abertura para decidir a melhor forma de desenvolvimento em conjunto com os demais colegas de time.
@@ -23366,7 +25383,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O246" t="inlineStr"/>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P246" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -23377,10 +25398,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R246" t="n">
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S246" t="n">
         <v>6608144</v>
       </c>
-      <c r="S246" t="inlineStr">
+      <c r="T246" t="inlineStr">
         <is>
           <t>Descrição da vagaVem pra NÚCLEAJá imaginou se os meios de pagamento parassem de funcionar? Pois é, isso nem passa pela nossa cabeça, porque trabalhamos com inovação, confiabilidade e tecnologia de ponta para que você, pequenas ou grandes empresas possam fazer suas transações com total segurança e agilidade, a qualquer hora do dia ou da noite.Nosso ambiente é feito de gente movida pela vontade de interagir de forma colaborativa e disposta a se desafiar todos os dias. Estamos cheios de energia para continuar transformando o mercado financeiro. Temos muito Orgulho de Ser NÚCLEA.Sobre a NÚCLEAhttps://www.nuclea.com.br/Para todas as posições consideramos diversidade e inclusão.Na Núclea, valorizamos muito o respeito e a diversidade em nossas equipes, aqui, acreditamos que nossas diferenças são nossas maiores forças.De acordo com nossos valores, as pessoas estão no centro do nosso negócio e somente elas são capazes de movimentar a economia digital em benefício de toda a sociedade.Essa é a chance para você mudar a sua vida, corra e se inscreva!
 Responsabilidades e atribuições  Irá atuar com cientistas de dados, arquitetos de dados, engenheiros machine learning para criar produtos inovadores e novas tecnologias que facilitem, acelerem e permitam o desenvolvimento e implantação de soluções de Inteligência Artificial/Aprendizado de máquina com qualidade e escaláveis.   Trabalhar em estreita colaboração com o time técnico para produzir pipelines de dados, de ponta a ponta (extração, tratamento e delivery de dados).     Desenvolver em nuvem pipelines de processamento de dados de ponta a ponta para garantir que os dados estejam disponíveis para consumo no data lake.     Selecionar a melhor Stack tecnológica e usar as bibliotecas e serviços de nuvem adequados para cada tarefa, alinhado com arquitetura e aplicar as melhores práticas e padrões de engenharia. Produzir código de alta qualidade que nos permita colocar nossas soluções em produção de forma contínua.
@@ -23461,7 +25487,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O247" t="inlineStr"/>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P247" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -23472,10 +25502,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio desenvolvimento', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R247" t="n">
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S247" t="n">
         <v>6607160</v>
       </c>
-      <c r="S247" t="inlineStr">
+      <c r="T247" t="inlineStr">
         <is>
           <t>Descrição da vagaMissão da Squad (inserir o squad):Atuar na estruturação das bases de dados, aplicando técnicas variadas, a fim de facilitar o acesso à informação e para dar mais eficiência às entregas da equipe.
 Responsabilidades e atribuiçõesComo será o seu dia a dia:Manutenção do Datalake, garantindo melhores práticas de integração dos dados, limpeza e disponibilização;Manutenção dos fluxos de processamento de dados, mantendo eles sempre atualizados e pensando na maior escalabilidade de entregas da área;Apoiar os times de tecnologia a estabelecer padrões e melhores práticas de modelagem de dados, além de auxiliar os times na decisão sobre melhores soluções de dados;Implementar e monitorar um sistema de BI (Business Intelligence).
@@ -23556,7 +25591,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O248" t="inlineStr"/>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P248" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -23567,10 +25606,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio home office', 'Horário flexível', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R248" t="n">
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S248" t="n">
         <v>6493056</v>
       </c>
-      <c r="S248" t="inlineStr">
+      <c r="T248" t="inlineStr">
         <is>
           <t>Descrição da vagaA área de Dados é protagonista na Superlógica Arbo, e você pode fazer parte dela.Estamos à procura de candidatos que gostem de organizar dados para nos ajudar a trazer respostas às perguntas de negócio da empresa e do mercado imobiliário.
 Responsabilidades e atribuiçõesRealizar ingestão de dados em ambiente de Cloud AWS;Lidar com as áreas de negócios ajudando-os com problemas relacionados a dados;Garantir que toda a empresa tenha a sua disposição dados com qualidade, governados e um ambiente com alta performance para auxiliá-los na tomada de decisão;apoiar o time dados no processo de migração dos dados das áreas de negócios para a Cloud AWS (Data Lake) e também disponibilização dos dados no Looker;
@@ -23651,7 +25695,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O249" t="inlineStr"/>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P249" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -23662,10 +25710,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R249" t="n">
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S249" t="n">
         <v>6598519</v>
       </c>
-      <c r="S249" t="inlineStr">
+      <c r="T249" t="inlineStr">
         <is>
           <t>Descrição da vagaEstamos em busca de alguém motivado a abraçar responsabilidades e que goste de trabalhar com autonomia. Alguém que queira fazer a diferença e enfrentar desafios junto com uma equipe determinada a transformar o mercado de energia no Brasil.Aqui na Órigo Energia você terá oportunidades de crescimento profissional e usará a sua energia para impactar positivamente o mundo.Além disso, reconhecemos e valorizamos a diversidade de perspectivas, experiências e identidades que nossos colaboradores trazem para o ambiente de trabalho.Nesse contexto acreditamos firmemente que a inclusão é a chave para um crescimento sustentável, e para a manutenção e fortalecimento de uma cultura verdadeiramente enriquecedora.Não fazemos distinção entre candidatos, seja por gênero, deficiência, orientação sexual, raça/etnia ou idade. Por aqui, a sua competência vem acima de qualquer outro ponto!Se você se identifica com esse perfil, candidate-se agora mesmo e seja parte de uma equipe dinâmica, colaborativa, criativa e inovadora.
 Responsabilidades e atribuiçõesA missão do cargo será atuar na consolidação e modelagem de dados de fontes internas e externas a fim de viabilizar iniciativas de Business Intelligence e Machine Learning e terá como responsabilidades:o Estruturar o DW onde os dados das principais fontes da companhia serão armazenados;o Criar processos de ingestão de dados de fontes internas e de fontes externas;o Replicar regras de negócio no processo de transformação de dados para a geração de datasets;o Desenvolver e gerenciar processos de ETL e integrações de forma performática, escalonável e de acordo com boas práticas do mercado;o Gerar datasets para iniciativas de Business Intelligence e Machine Learnin.
@@ -23743,20 +25796,29 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O250" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P250" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="n">
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S250" t="n">
         <v>6591237</v>
       </c>
-      <c r="S250" t="inlineStr">
+      <c r="T250" t="inlineStr">
         <is>
           <t>Descrição da vagaVem!  Vem fazer parte de um time que tem "brilhar" no nome, na marca, nas pessoas e no poder de suas ideias reunidas em uma razão de existir. Vem fazer parte de um time que tem como propósito desenvolver poder tecnológico em Data &amp; Analytics para organizações e pessoas alcançarem sua melhor performance.  Nossa busca por inovar é incessante. Nossa demanda por pessoas com vontade de transformar é constante. Nossa determinação por oferecer o melhor a cada cliente é vital. Porque queremos crescer e brilhar juntos. Junto com você!  Vem fazer parte do time Niteo como Engenheiro de Dados Informix! #brilhajunto
 Responsabilidades e atribuiçõesResponsabilidades:Gerenciar e liderar migrações complexas de bancos de dados, utilizando Informix e SQL Server, garantindo alta disponibilidade, recuperação de desastres e segurança de dados.Colaborar com equipes multidisciplinares para desenvolver estratégias de migração, implementar soluções e assegurar a integridade e confiabilidade dos dados durante o processo.Projetar e implementar arquiteturas de dados robustas, otimizando o desempenho e a eficiência dos sistemas.Desenvolver e implementar políticas e procedimentos de segurança de dados para proteger a integridade e confidencialidade das informações.Identificar e resolver problemas complexos relacionados a bancos de dados, aplicando novas soluções e estratégias de otimização.
@@ -23837,17 +25899,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O251" t="inlineStr"/>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P251" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="n">
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S251" t="n">
         <v>6589546</v>
       </c>
-      <c r="S251" t="inlineStr">
+      <c r="T251" t="inlineStr">
         <is>
           <t>Descrição da vagaConstruir um sistema de gerenciamento e gestão das equipes e do levantamento realizado em campo.Roteirização de veículos e gerenciamento das equipesBusca e extração e manipulação de dados em banco de dados sql e planilhas de excel para apresentação de indicadores e métricas.O você deve ter: ser proativo, perfil autogerenciável (saber controlar o próprio ritmo de trabalho, as tarefas que devem ser realizadas e as metas que precisam ser cumpridas) facilidade em trabalhar com novas ferramentas, raciocínio lógico e estratégico, conhecimento ou interesse em planejamento de rotinas e roteirização.
 Responsabilidades e atribuiçõesFormação superior completa em áreas relacionadas a tecnologia;Conhecimentos Técnicos: Power BI, banco de dados;Ousadia para aprender e ensinar.
@@ -23925,20 +25996,29 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O252" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P252" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="n">
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S252" t="n">
         <v>6584257</v>
       </c>
-      <c r="S252" t="inlineStr">
+      <c r="T252" t="inlineStr">
         <is>
           <t>Descrição da vagaVem!  Vem fazer parte de um time que tem "brilhar" no nome, na marca, nas pessoas e no poder de suas ideias reunidas em uma razão de existir. Vem fazer parte de um time que tem como propósito desenvolver poder tecnológico em Data &amp; Analytics para organizações e pessoas alcançarem sua melhor performance.  Nossa busca por inovar é incessante. Nossa demanda por pessoas com vontade de transformar é constante. Nossa determinação por oferecer o melhor a cada cliente é vital. Porque queremos crescer e brilhar juntos. Junto com você!  Vem fazer parte do time Niteo como Engenheiro de Dados Sênior! #brilhajunto
 Responsabilidades e atribuiçõesDescrição das atividades:Desenvolvimento e manutenção de dashboards, relatórios e KPIs estratégicos e operacionais;Desenvolver, estruturar e integrar bases de dados;Desenvolvimento e manutenção de processos de ETL/ELT;Criar mecanismos inteligentes para garantir consistência dos dados utilizados;Desenho de arquitetura e modelagem de dados;Configuração de Serviços Cloud Azure;Desenvolvimento de modelos de dados de inteligência artificial.
@@ -24019,17 +26099,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O253" t="inlineStr"/>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P253" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="n">
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S253" t="n">
         <v>6569033</v>
       </c>
-      <c r="S253" t="inlineStr">
+      <c r="T253" t="inlineStr">
         <is>
           <t>Descrição da vagaComo é ser Engenheiro de Dados na Webmotors?Aqui na Webmotors, o(a) Engenheiro de Dados precisa ser curioso(a) e gostar de interagir com pessoas, principalmente com os clientes (internos e externos), além do próprio time. Somos responsáveis por disponibilizar, manter e monitorar toda a plataforma de dados que é composta de diversas ferramentas para suprir o uso de dados. Trabalhar muito próximo a liderança técnica e ao time de arquitetura de softwares para garantirmos a sustentabilidade técnica dos produtos. Em resumo, precisa ser dinâmico(a), fazer as coisas acontecerem e não ficar sentado na cadeira. Precisa ser decisivo(a) e incisivo(a) nas discussões sempre contribuindo com sua visão do que acredita ser o melhor caminho ou a melhor solução, o foco é o desenvolvimento ágil de soluções.
 Responsabilidades e atribuiçõesComo será o dia a dia de trabalho?- Trabalhar com tecnologias de ponta;- Trabalhar em um ambiente informal;- Atuar em equipes multidisciplinares.- Desenvolvimento pensando nas boas práticas de desenvolvimento, escalabilidade, segurança e performance com auxílio do time;- Manutenção de aplicações e pipelines existentes com auxílio do time;- Desenvolvimento de novos pipeline de ingestão;- Otimizações de Arquitetura.- Demonstrar senso crítico técnico de processos e comportamental;- Flexível e aberto a mudanças (processos, time, código);
@@ -24109,7 +26198,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O254" t="inlineStr"/>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P254" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -24120,10 +26213,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R254" t="n">
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S254" t="n">
         <v>6575270</v>
       </c>
-      <c r="S254" t="inlineStr">
+      <c r="T254" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos aproximadamente 50k Minsaiters no Mundo e mais de 9k Minsaiters no Brasil e estamos presentes nas maiores empresas em todos os setores. Nossa estrutura permite participar de projetos globais e proporciona um ambiente colaborativo que nos certifica em GreatPlacesToWork e planos diferenciados para Jovens Profisionais também reconhecidos pela Employers for Youth. Você atuará no nosso time de Engenharia de Dados Pleno em um projeto estratégico, utilizando metodologias ágeis e em um ambiente de inovação.Buscamos profissionais com senso de dono, comprometidos com o sucesso do nosso cliente e com o desenvolvimento da sua carreira dentro da MinsaitVocê será um pilar fundamental nos melhores e maiores projetos de TI do Brasil e em nível global.Responsabilidades e atribuições: Gerenciar projetos relacionados ao processo de desenvolvimento.Manutenção de sistemas e gerenciamento pelo menos três projetos de manutenção ou desenvolvimento de sistemas com mais de 500 pontos de função.Gerenciar projetos relacionados ao processo de desenvolvimento e manutenção de sistemas.Gerenciar pelo menos três projetos de manutenção ou desenvolvimento de sistemas com mais de 500 pontos de função. 
 Responsabilidades e atribuiçõesPlanejamento, programação e implantação de pipeline dos dados (grande volume de dados) que serão inseridos no ambiente Big Data (Data Lake);Acompanhamento e resolução de problemas em pipelines;Planejamento e execução em saneamento dos dados;Desenvolvimento, construção, teste e manutenção de arquiteturas de bancos de dados e/ou sistemas de processamento de dados em tempo real e/ou de forma distribuída;Criação e implementação de métodos e técnicas para melhorar a eficiência, a qualidade e a confiabilidade dos dados;Propor melhorias, ajustes e otimizações em processos por meio de novas metodologias ou ferramentas Documentação, descrição e conceituação de informações e metadados;Administração e segurança de dados.
@@ -24204,7 +26302,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O255" t="inlineStr"/>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P255" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -24215,10 +26317,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R255" t="n">
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S255" t="n">
         <v>6579254</v>
       </c>
-      <c r="S255" t="inlineStr">
+      <c r="T255" t="inlineStr">
         <is>
           <t>Descrição da vagaVocê tem experiência com banco de dados e desenvolvimento e sustentação de data lakehouse? É comunicativo, proativo, organizado e focado?Buscamos pessoas dinâmicas, proativas, articuladas e que gostem da área de Dados!
 Responsabilidades e atribuiçõesDesenvolvimento e manutenção de pipelines de dados;Criação, desenvolvimento e sustentação de um data lakehouse que será responsável por fornecer dados tratados para utilização pelos sistemas e áreas de negócio da empresa;Monitoramento de processos de execução de cargas;Monitoramento das métricas de qualidade dos dados fornecidos para os consumidores finais;Geração de análises e reports para auxiliar os times de negócio;Foco na proposta de soluções que geram valor e resolvem as grandes dores dos times de negócio relacionadas a dados.Garantir a segurança e conformidade dos dados, implementando políticas de controle de acesso e criptografia adequadas.Colaborar com as equipes de operações e infraestrutura para monitorar e manter a integridade dos pipelines de dados, garantindo alta disponibilidade e desempenho.Fornecer suporte técnico e resolução de problemas para problemas relacionados a dados e pipelines.Levantamento de necessidade com as áreas de negócios e documentação.
@@ -24299,7 +26406,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O256" t="inlineStr"/>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P256" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -24310,10 +26421,15 @@
           <t>['Assistência médica', 'Auxílio desenvolvimento', 'Seguro de vida']</t>
         </is>
       </c>
-      <c r="R256" t="n">
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+      <c r="S256" t="n">
         <v>6550601</v>
       </c>
-      <c r="S256" t="inlineStr">
+      <c r="T256" t="inlineStr">
         <is>
           <t>Descrição da vagaA equipe de Produção de Dados suporta as arquiteturas de dados que correspondam às necessidades das pesquisas realizadas no CIDACS, mapeando os requisitos e construindo fluxos adequados, visando garantir a eficiência, desempenho e qualidade no tratamento dos dados. Os membros da equipe são responsáveis pelas atividades de manipulação, transformação, vinculação de bases de dados, anonimização, acurácia e extração de datasets para pesquisa. 
 Responsabilidades e atribuiçõesApoiar o desenvolvimento de pipeline de dados em linguagem adequada; Auxiliar na elaboração e desenvolvimento de ETL;Realizar a integração de dados com utilização de métodos determinísticos e não determinísticos;Auxiliar as atividades de manipulação, transformação, vinculação entre bases de dados e extração de datasets para pesquisa;Documentar os procedimentos e fluxos de dados;Apoiar na implementação de novas tecnologias nas atividades de produção de dados;Contribuir em atividades de disseminação de conhecimentos e capacitação da equipe;Participar de reuniões e sessões técnicos-científicas; Elaborar e apresentar relatórios técnicos periódicos. 
@@ -24394,7 +26510,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O257" t="inlineStr"/>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P257" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -24405,10 +26525,15 @@
           <t>['Seguro de vida']</t>
         </is>
       </c>
-      <c r="R257" t="n">
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S257" t="n">
         <v>6557611</v>
       </c>
-      <c r="S257" t="inlineStr">
+      <c r="T257" t="inlineStr">
         <is>
           <t>Descrição da vagaObjetivo do cargo O time de Data Management tem um papel fundamental e estratégico no dia a dia da nossa empresa, desde administração dos nossos bancos de dados até a criação de produtos e suporte à decisão. Acreditamos que para cada solução podemos ter um caminho e estamos sempre abertos às novas ideias que agreguem valor.
 Responsabilidades e atribuiçõesContribuir em projetos de ingestão e transformação de dados;Implementar processos de ETL e verificações de controle de qualidade para garantir que os dados no data lake sejam precisos e atualizados;Atuará tanto no desenvolvimento dos fluxo de carga, quanto na validação das regras de negócio e qualidade de dados;Construir e promover o gerenciamento de pipeline de dados, Manutenção de bases de dados, construção de APIs para consumo de dados;Implementar pipelines de dados para automatizar a entrega pontual de relatórios e painéis de clientes;Realizar manutenção e construção da arquitetura de dados dos projetos da empresa;Garantir que os dados sejam recebidos, apurados, transformados, armazenados e que estejam acessíveis para os times de projetos internos;Fazer parcerias com o DevOps para garantir que nosso ambiente e ferramentas estejam em conformidade com os protocolos de segurança;Fazer parcerias com cientistas de dados para colocar em produção modelos estatísticos;Garantir a gestão da documentação de fluxos de dados, configuração de arquitetura e modelo de dados.Agregar valor construindo, estruturando e otimizando dados para serem usados nos projetos internos;Identificar riscos e trazer planos de contingência;Dar suporte e aconselhar o time para solucionar problemas, estimando o tempo e o esforço necessários para um fluxo de trabalho eficiente;Tomar decisões técnicas e estratégicas, avaliar riscos, para garantir o sucesso das entregas;Treinar os membros da equipe, resolvendo os conflitos diários e garantindo que os membros da equipe estejam suficientemente focados;
@@ -24489,17 +26614,26 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O258" t="inlineStr"/>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P258" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q258" t="inlineStr"/>
-      <c r="R258" t="n">
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S258" t="n">
         <v>6557108</v>
       </c>
-      <c r="S258" t="inlineStr">
+      <c r="T258" t="inlineStr">
         <is>
           <t>Descrição da vagaObjetivo do cargo: Atuar em conjunto com os times de engenharia e análise de dados na criação de novos pipelines de dados.
 Responsabilidades e atribuiçõesContribuir em projetos de ingestão e transformação de dados;Implementar processos de ETL e verificações de controle de qualidade para garantir que os dados no data lake sejam precisos e atualizados;Atuará tanto no desenvolvimento dos fluxo de carga, quanto na validação das regras de negócio e qualidade de dados;Construir e promover o gerenciamento de pipeline de dados, Manutenção de bases de dados, construção de APIs para consumo de dados;Implemente pipelines de dados para automatizar a entrega pontual de relatórios e painéis de clientes;Auxiliar na manutenção e construção da arquitetura de dados dos projetos da empresa;Garantir que os dados sejam recebidos, apurados, transformados, armazenados e que estejam acessíveis para os times de projetos internos;Faça parceria com o DevOps para garantir que nosso ambiente e ferramentas estejam em conformidade com os protocolos de segurança;Documentação de fluxos de dados, configuração de arquitetura e modelo de dados.Agregar valor construindo, estruturando e otimizando dados para serem usados nos projetos internos. 
@@ -24580,7 +26714,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O259" t="inlineStr"/>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P259" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -24591,10 +26729,15 @@
           <t>['Assistência médica', 'Auxílio academia', 'Auxílio creche', 'Day off aniversário', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R259" t="n">
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S259" t="n">
         <v>6550863</v>
       </c>
-      <c r="S259" t="inlineStr">
+      <c r="T259" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaQuer fazer parte de uma empresa com ambiente descontraído, dinâmico e orientado a desafios?Há 20 anos no mercado, e desde 2008 na nuvem, somos parceiros estratégicos da Google Cloud na América Latina. Além de se desenvolver e trabalhar em uma empresa que segue em expansão, aqui você vai ter a oportunidade de fazer parte de um time diverso, inclusivo e multicultural.Somos parceiros de crescimento, e isso vale não só para os clientes: é assim que também enxergamos nossos colaboradores. Não se espante se você encontrar aqui histórias de quem começou como Estagiário e hoje é gestor, ou até mesmo sócio. Nossa parceria funciona para acelerar negócios, mas também para alavancar carreiras. Sentiu que seu lugar é aqui? Venha ser um IPNETER e nos ajudar a escrever uma história ainda mais relevante!
 Responsabilidades e atribuiçõesManutenção e criação de pipeline de dados; Modelagem de dados dimensional e multidimensional; Construção de fluxos de ETL; Normatização e performance de consultas; Conversão e tratamento de dados, normatização de dados e limpeza de dados. 
@@ -24672,20 +26815,29 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O260" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P260" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q260" t="inlineStr"/>
-      <c r="R260" t="n">
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S260" t="n">
         <v>6542545</v>
       </c>
-      <c r="S260" t="inlineStr">
+      <c r="T260" t="inlineStr">
         <is>
           <t>Descrição da vagaVocês sabiam que a Nuvem Tecnologia é uma empresa de desenvolvimento de software e ciências de dados, com mais de 10 anos de experiência no mercado? Carregamos em nosso DNA uma cultura de inovação, criatividade e cuidado com pessoas que reflete diretamente no valor que entregamos para nossos colaboradores, parceiros e clientes 💙Hoje o nosso time se encontra espalhado pelo Brasil, carregando nossa cultura de inclusão, diversidade e inquietação para encontrar soluções criativas! 🎯Se o seu perfil é de uma pessoa que preza pela boa experiência de pessoas para pessoas, então aqui pode ser o seu lugar! ☁️☁️Vamos te oferecer Gympass - Nós valorizamos o equilíbrio na vida das nossas pessoas, por isso incentivamos a prática de exercícios e atividades que promovam autocuidado 🧘🏽‍♂️🥇Acesso na plataforma Alura e apoio em cursos de capacitação - Queremos te apoiar no seu aprendizado contínuo 📚🤓Jornada de trabalho flexível - Para nós, o que realmente importa são as entregas com qualidade e as relações juntas e transparentes com o seu time ⌚️Remuneração competitiva - Feedback é bom e somado com reconhecimento financeiro é melhor ainda, né? 🤝🏆Equipamentos de trabalho modernos - acreditamos que o equipamento de trabalho deve ser seu aliado na criação de soluções inovadoras 💻📱Indicação vale ouro - As indicações sempre foram um ponto positivo na nossa cultura, e somos gratos ao nosso time que confia a nós o futuro profissional de seus amigos e colegas 🥇Dia de folga para aniversariantes - Você merece descansar e comemorar o seu dia 🎉🍻Folgas semestrais - Aqui na Nuvem nossas pessoas são incentivadas a pausas para o descanso 📅🏖Mentorias - Nosso objetivo é acelerar o seu crescimento de maneira rápida e eficaz para que você atinja seus objetivos pessoais e profissionais 🎯🚀Jornada de carreira - Você não estará sozinhx, nós iremos embarcar junto contigo nessa jornada de desafios &amp; aprendizados.#issoésernuvem#ambiçãoparacrescerjuntos
 Responsabilidades e atribuiçõesA principal missão deste papel será:Realizar a transformação de dados em formato útil para análise. Estruturar rotinas para ingestão, processamento e tratamento desses dados, buscando consistência e velocidade para obtenção da informação com confiabilidade e segurança.As principais atividades desse profissional será: Criar e manter pipelines de dados;Combinar diversas fontes de dados;Arquitetar sistemas distribuídos e soluções escaláveis;Colaborar com o time de datascience para criação de soluções;
@@ -24763,20 +26915,29 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O261" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P261" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="n">
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S261" t="n">
         <v>6539092</v>
       </c>
-      <c r="S261" t="inlineStr">
+      <c r="T261" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos a Stormx, uma martech que escala operações de marketing digital.Desenvolvemos nossas próprias ferramentas de automação, somos agnósticos em tecnologia, adotamos metodologias ágeis e temos uma incrível diversidade de talentos.Estamos em busca de uma Pessoa Engenheira de Dados Pleno, para o nosso time de business intelligence.Esta posição é para pessoas interessadas em atuar com métricas de campanhas de mídia digital e entusiasmadas para encontrar oportunidades de melhoria de resultados.Buscamos pessoas curiosas e engajadas que queiram contribuir e evoluir junto ao nosso time.Modelo de trabalho: Híbrido (Em São Paulo/ SP, 1x por semana).
 Responsabilidades e atribuiçõesDesenvolver e manter pipelines de dados robustos, eficientes e seguros;Trabalhar com a equipe para auxiliar na criação de soluções de arquitetura de dados escaláveis; Colaborar com as equipes de produto e negócios para entender as necessidades de dados.
@@ -24857,17 +27018,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O262" t="inlineStr"/>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P262" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q262" t="inlineStr"/>
-      <c r="R262" t="n">
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="n">
         <v>6535690</v>
       </c>
-      <c r="S262" t="inlineStr">
+      <c r="T262" t="inlineStr">
         <is>
           <t>Descrição da vagaA Scala é uma empresa brasileira com mais de 30 anos de atuação no segmento de tecnologia. Em 2016, passamos a integrar o Grupo Stefanini como uma de suas principais Ventures.Somos especializados em tecnologias com foco em Analytics, Hiperautomação, Integração de Sistemas, Inteligência Artificial, Cloud e Observabilidade.Oferecemos soluções de alta performance aos nossos clientes e sabendo que nossos clientes são únicos, nossos projetos seguem o mesmo padrão, sendo desenvolvidos e orientados às suas necessidades de negócios.
 Responsabilidades e atribuiçõesImersao em squad multidisciplinar orientada a metodologia agil;Desenvolvimento de atividades utilizando predominantemente tecnologias Cloudera e AWSSuperior Completo- (Superior Completo) : Engenharia da Computacao, Ciencias da Computacao, Analise de Sistemas, Sistemas da Informacao (Exigido)
@@ -24946,17 +27112,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O263" t="inlineStr"/>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P263" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="n">
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S263" t="n">
         <v>6306497</v>
       </c>
-      <c r="S263" t="inlineStr">
+      <c r="T263" t="inlineStr">
         <is>
           <t>Descrição da vagaNa Global Hitss, a inovação é o nosso combustível, a curiosidade é o nosso motor e o respeito pelo cliente é o nosso guia. Se você é movido pela paixão em criar soluções tecnológicas disruptivas, se busca constantemente desafios que ampliem os limites do possível e se acredita que colocar o cliente em primeiro lugar é a chave para o sucesso, então você está no lugar certo.Queremos pessoas que se destaquem, que pensem fora da caixa e estejam dispostas a desbravar novos horizontes. Aqui, cada ideia é valorizada, cada pergunta é incentivada e cada desafio é encarado como uma oportunidade de aprendizado e crescimento.Junte-se a nós e faça parte de uma cultura vibrante, onde a inovação é alimentada pela curiosidade incessante e onde o respeito pelo cliente permeia todas as nossas ações. Aqui, você terá a liberdade de explorar suas habilidades, colaborar com mentes brilhantes e transformar o futuro da tecnologia.Se você está pronto para fazer parte de uma empresa que acredita que o talento é a chave para o sucesso, envie seu currículo e junte-se à nossa equipe.Estamos ansiosos para conhecer você e impulsionar juntos a próxima geração de soluções tecnológicas.Venha ser um Hit!
 Responsabilidades e atribuiçõesPrincipais atribuições:Participar das dailys e plannings para entender as demandas priorizadas;Ajudar na padronização dos processos em produção do datalake na aws;Implantar o processos de monitoramento no Dynatrace;Corrigindo problemas produtivos N1;Interagir com o time de produção de analytics do cliente.
@@ -25034,20 +27209,25 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O264" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P264" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="n">
+      <c r="R264" t="inlineStr"/>
+      <c r="S264" t="n">
         <v>6527035</v>
       </c>
-      <c r="S264" t="inlineStr">
+      <c r="T264" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos uma Consultoria de Gestão de Seguros &amp; Benefícios, prestamos todo o atendimento e gestão do plano de saúde, odonto e vida do nosso cliente (empresas) e fazemos parte do Grupo da Rede D’Or São Luiz, a maior Rede Hospitalar da América Latina. Nessa vaga está disponível para PJ que possuem conhecimentos no suporte ao Power BI e gerenciamento de dados.Estamos em uma modalidade híbrida - escritório fica na Vila Olímpia (zona sul)
 Responsabilidades e atribuiçõesDesenvolver e manter cubo de dados analíticos na plataforma Microsoft Azure e Microsoft Analysis Service (legado IaaS);Realizar a extração, transformação e carga (ETL) de dados em fontes de dados heterogêneas, como sistemas legados, aplicativos Web e APIs, Data Lake;Desenvolver pipelines de dados para automatizar o processo de extração, transformação e carga (ELT);Colaborar com o time de Data Analytics para entender as necessidades de dados e desenvolver soluções que atendam a essas necessidades;Otimizar consultas e processos para garantir o desempenho eficiente do sistema;Participar na definição e implementação de práticas de governança de dados.
@@ -25128,7 +27308,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O265" t="inlineStr"/>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P265" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -25139,10 +27323,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R265" t="n">
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S265" t="n">
         <v>6521279</v>
       </c>
-      <c r="S265" t="inlineStr">
+      <c r="T265" t="inlineStr">
         <is>
           <t>Descrição da vagaA A3Data é uma consultoria referência em #Dados! 🚀 Temos a missão de acelerar a cultura Data Driven nas organizações. Nosso foco é implantar Inteligência Estratégica e potencializar a cultura dos dados para os nossos clientes! 🎯 Somos parceiros e estamos presentes no maior parque tecnológico urbano e aberto do Brasil o Porto Digital, localizado em Recife. 🌎 Somos ágeis, analíticos e avançados e temos uma cultura leve, horizontal e muito colaborativa! ✌️ Nosso propósito é empoderar as pessoas por meio dos dados. E, por isso, buscamos parceiros que também sejam loucos por dados e apaixonados por gente! 🤩 #VemSerUmEu.A3 💙
 Responsabilidades e atribuiçõesPara ser uma Pessoa Engenheira de Dados na A3 buscamos alguém que:Saiba criar pipelines de dados automatizadas e escaláveis para gerar dados e produtos inovadores para nossos clientes;Desenvolva ideias e soluções eficientes que envolvem a extração e centralização dos dados, garantia da qualidade e governança dos dados e geração de novas métricas para o negócio;Faça a sustentação de cluster Kubernetes;Faça a implantação de pipelines CI/CD usando Terraform;Faça a implantação de pipelines de dados em ambiente AWS;Faça a revisão de código do time de engenharia de dados;Participe da discussão de roadmap do projeto com o cliente;Dê sugestões de melhoria e otimizações;Identifique novas possibilidades e novos projetos no cliente.
@@ -25223,7 +27412,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O266" t="inlineStr"/>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P266" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -25234,10 +27427,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Consignado', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R266" t="n">
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S266" t="n">
         <v>6509775</v>
       </c>
-      <c r="S266" t="inlineStr">
+      <c r="T266" t="inlineStr">
         <is>
           <t>Descrição da vagaCom mais de 12 anos no mercado, a MESHA Tecnologia se destaca em sua essência por carregar valores que prezam principalmente pela diversidade, valorização do lado humano e meritocracia, construindo assim um relação familiar entre os colaboradores, trabalhando com alocação presencial e remota de Squads e alocação de profissionais na área de TI.
 Responsabilidades e atribuiçõesLiderança e elaborar pipeline completa de dados junto com nossos desenvolvedores e cientistas de dados; Resolver impedimentos;Desenvolver e manter ETLs e Pipelines utilizando o ambiente de Data Lake da Azure; Gerenciar volume, variedade, velocidade e veracidade dos dados; Implementar mecanismos de segurança para acesso aos dados; Desenvolver mecanismos de monitoramento e execução dos sistemas e das pipelines.
@@ -25318,7 +27516,11 @@
           <t>Associado</t>
         </is>
       </c>
-      <c r="O267" t="inlineStr"/>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P267" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -25329,10 +27531,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R267" t="n">
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="n">
         <v>6050742</v>
       </c>
-      <c r="S267" t="inlineStr">
+      <c r="T267" t="inlineStr">
         <is>
           <t>Descrição da vagaAtuar na engenharia de dados visando construir a base de um projeto de dados prezando pela sustentabilidade do negócio em todos as bases sob sua responsabilidade.
 Responsabilidades e atribuiçõesAtuar com computação em nuvem; Executar o planejamento, programação e implantação de pipeline dos dados (grande volume de dados) que serão inseridos no ambiente Big Data, bancos de dados relacionais/ não relacionais; Acompanhar e resolução de problemas em pipelines; Planejar e executar saneamento dos dados;  Criar e implementar métodos e técnicas para melhorar a eficiência, a qualidade e a confiabilidade dos dados; Propor melhorias, ajustes e otimizações em processos por meio de novas metodologias ou ferramentas.  Conhecer e praticar as diretrizes estabelecidas pela Política de Segurança da Informação, Código de Conduta do grupo Algar e demais diretrizes corporativas.Zelar pelo sigilo e confidencialidade dos usuários individuais, senhas de acesso ou códigos de identificação internos.Deve conhecer Arquitetura de Big Data, além de ferramentas de análise de grandes volumes de dados nas plataformas dos maiores players do mercado.Documentar, descrever e conceituar informações e dados relativos às suas atribuições.
@@ -25413,17 +27616,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O268" t="inlineStr"/>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P268" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr"/>
-      <c r="R268" t="n">
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>['Python']</t>
+        </is>
+      </c>
+      <c r="S268" t="n">
         <v>6494033</v>
       </c>
-      <c r="S268" t="inlineStr">
+      <c r="T268" t="inlineStr">
         <is>
           <t>Descrição da vagaA Leega é uma empresa focada no atendimento eficiente e inovador em seus clientes. Isso não poderia ser diferente com o nosso principal combustível: as pessoas!  Nossa cultura é inspiradora e nossos valores estão presentes no dia a dia: ética e transparência, excelência de qualidade, trabalho em equipe, responsabilidade econômica, social e ambiental, relações humanas e credibilidade.Buscamos profissionais inovadores que sejam movidos por desafios e focados em resultados.Se você busca uma empresa dinâmica e parceira e que investe em seus colaboradores através de capacitação constante, a Leega é o lugar para você!Ficaremos muito felizes em ter você em nosso time. Venha fazer parte da nossa história e da construção do nosso futuro. Cadastre-se agora mesmo em nossas vagas!
 Responsabilidades e atribuiçõesAuxiliar no entendimento das demandas junto às áreas de negócio;Propor soluções de ingestão/transformação de dados em ambiente GCP;Construir pipelines de ingestão e tratamento de dados automatizados;Avaliar e implantar melhorias de custo e performance na cadeia de geração e consumo dos dados.
@@ -25503,7 +27715,11 @@
           <t>Associado</t>
         </is>
       </c>
-      <c r="O269" t="inlineStr"/>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P269" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -25514,10 +27730,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio farmácia', 'Auxílio fretado', 'Clube de vantagens', 'Day off aniversário', 'Refeitório', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R269" t="n">
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S269" t="n">
         <v>6464384</v>
       </c>
-      <c r="S269" t="inlineStr">
+      <c r="T269" t="inlineStr">
         <is>
           <t>Descrição da vagaOlá, Talento! que que gostaria de seguir uma carreira na área de Dados!Tem interesse em atuar em uma grande empresa que trabalha para levar saúde e bem-estar, que só cresce e gera oportunidades? Então venha fazer parte do nosso time de Engenharia de Dados!É bem bom ser do time Panvel! Trabalhamos para levar saúde e bem-estar para as pessoas, sempre com um toque de energia e vontade de fazer acontecer! Somos unidos, trabalhamos em equipe e temos espírito inovador. Você se identificou? Então vem fazer parte do Time Panvel, vamos compartilhar ideias e ajudar a impactar milhares de pessoas!
 Responsabilidades e atribuiçõesDurante o dia a dia, você irá:Desenvolver e mantenha pipelines de dados eficientes, garantindo a integridade e qualidade dos dados;Trabalhar em colaboração estreita com equipes multidisciplinares;Entender e atender às necessidades de dados da empresa;Utilizar suas habilidades em engenharia de dados para projetar soluções inovadoras impulsionem a democratização de dados na companhia;Implementar práticas de segurança de dados;Assegurar a confidencialidade e integridade das informações;
@@ -25598,7 +27819,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O270" t="inlineStr"/>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P270" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -25609,10 +27834,15 @@
           <t>['Convênio com empresas parceiras', 'Horário flexível', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R270" t="n">
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S270" t="n">
         <v>6445713</v>
       </c>
-      <c r="S270" t="inlineStr">
+      <c r="T270" t="inlineStr">
         <is>
           <t>Descrição da vagaA Bluefit é uma rede brasileira de academias, com um ambicioso projeto de expansão.Nossa missão é: "Acabar com as desculpas para não treinar". Vem com a gente, colorir o Brasil de Blue!🚀Buscamos profissionais que estejam dispostos a trabalhar com intensidade para deixar o seu legado. Para isso procuramos por aqueles que estejam alinhados aos nossos valores: Transparência: Ser autêntico e comprometido com a verdade;Tratamento Igualitário: Tratar bem, não importa a quem;Visão de Dono: Vestir a camisa e colocar a mão na massa;Gostar de Pessoas: Cuidar das pessoas para que possam viver melhor;Vontade de Evoluir: Nosso negócio só continua a crescer quando nossos Blues crescem e se desenvolvem.Time de dadosTrabalhamos com um time centralizado para atender todas as áreas da empresa, focando sempre em buscar a melhor de resolver problemas.Atualmente trabalhamos com a cloud da AWS e utilizamos o PowerBI. Além disso, estamos implementando algumas ferramentas novas como Aibyte, Mage.ai, Metabase, Apache Superset, etc. e estamos procurando pessoas para nos ajudar a explorar o melhor formato.
 Responsabilidades e atribuiçõesProjetar, implementar e manter pipelines de dados;Trabalhar na integração de diversas fontes de dados, garantindo a consistência e a qualidade dos dados;Projetar e implementar modelos de dados eficientes e escaláveis para atender às necessidades da empresa;Identificar e resolver problemas de desempenho em pipelines e consultas;Garantir a segurança e a conformidade dos dados, implementando medidas de controle e acesso apropriadas
@@ -25693,17 +27923,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O271" t="inlineStr"/>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P271" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q271" t="inlineStr"/>
-      <c r="R271" t="n">
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S271" t="n">
         <v>6333930</v>
       </c>
-      <c r="S271" t="inlineStr">
+      <c r="T271" t="inlineStr">
         <is>
           <t>Descrição da vagaO UOL EdTech, maior empresa de tecnologia para educação do Brasil, promove soluções inovadoras para as maiores empresas e instituições de ensino superior do país. Acreditamos que o presente da Educação é Digital! Aqui trabalhamos em times multidisciplinares, cultivamos uma filosofia de trabalho ágil, enxuto e estamos em busca de um profissional que tenha #PaixaoPorAprender, que seja #Ousado, tenha #FocoEmResultados e que queira fazer parte de uma #RevoluçãoNaEducação.  Se você tem este perfil e está em busca de novos desafios, venha fazer parte do nosso time e desenvolver sua carreira numa das áreas que prometem grandes disrupções nos próximos anos #edtech. #VemProUOLEdTech!  No UOL EdTech todas as pessoas são bem-vindas 😊, sem distinção de gênero, orientação sexual, etnia, cultura, religião, deficiência etc. O importante é você gostar de desafios, trabalhar bem em equipe, vivenciar nossa cultura e nossa missão de inovar e revolucionar a educação online no Brasil para gerar oportunidades e transformar vidas. 
 Responsabilidades e atribuiçõesAtuar como embaixador dos processos de dados e colaborar com os demais times. Documentar problemas e processos de forma clara. Trabalhar em Squad de negócio para ajudar na construção de soluções criativas para questões desafiadoras.Evoluir e zelar pela arquitetura de dados definida. 
@@ -25784,7 +28023,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O272" t="inlineStr"/>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P272" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -25795,10 +28038,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio farmácia', 'Consignado', 'Horário flexível', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R272" t="n">
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S272" t="n">
         <v>6422197</v>
       </c>
-      <c r="S272" t="inlineStr">
+      <c r="T272" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos a Árvore, a plataforma gamificada de leitura, que por meio de uma experiência lúdica, incentiva o prazer em aprender. Atualmente, o Brasil é um dos países que menos lê no mundo. São menos de 3 livros anuais por habitante, e no PISA, Programa Internacional de Avaliação de Alunos, o nosso desempenho cai ano após ano. Na Árvore, acreditamos que a leitura é um superpoder que facilita o aprendizado, ajuda no entendimento do mundo e potencializa habilidades importantes para o futuro. Trabalhamos diariamente para que todos os alunos do país, tenham acesso à leitura, já impactamos mais de dois milhões de alunos e sabemos que podemos ir mais longe.Tecnologia e inovação fazem parte das nossas raízes. Jogamos junto de escolas e famílias no desafio de educar em um dia-a-dia ultraconectado. Somos plurais e empáticos, nos adaptamos e encaramos os desafios do futuro com curiosidade e entusiasmo. Somos apaixonados por nossos clientes e comprometidos com resultados e entregas melhores todos os dias. Com as nossas soluções, somos vencedores há 4 anos seguidos do prêmio Top Educação, finalistas do EdtechX, vencedores do prêmio 100 Statups to Watch, vencedores do Pitch Gov SP e Pitch Gov Santo André. Aqui você vai encontrar um ambiente de crescimento, dinâmico e com aprendizados constantes. Esse desafio faz sentido para você? Vem pra Árvore. 
 Responsabilidades e atribuiçõesCriação e manutenção dos pipelines de dados;Manipulação, tratamento e enriquecimento dos dados;Realizar análises complexas pontuais para identificação de oportunidades;Reuniões com lideranças para alinhamento estratégico;Estar sempre atento (a) e à procura de novas oportunidades para aquisição de dados;Gestão de Tech Stack do time;Disseminação da cultura de dados na empresa.
@@ -25876,20 +28124,29 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O273" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P273" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr"/>
-      <c r="R273" t="n">
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S273" t="n">
         <v>6420820</v>
       </c>
-      <c r="S273" t="inlineStr">
+      <c r="T273" t="inlineStr">
         <is>
           <t>Descrição da vagaA Confi está em busca de uma pessoa para o cargo de Engenheiro de Dados SR. Um profissional dessa área é responsável por criar pipelines de dados, manter e construir sistemas de armazenamento de dados que serão utilizados por outras áreas da empresa. Data Warehouses e Data Lakes são exemplos de tais estruturas que podem ser consumidas por analistas e cientistas de dados.Trabalhamos com serviços de computação em nuvem, ferramentas de big data, bancos de dados relacionais entre outras tecnologias.Sobre nós:A Neotrust é uma empresa de inteligência de mercado, que através de dados transacionais gera informações estratégicas sobre o e-commerce, atendendo aos segmentos de varejo, indústria e financeiro. A empresa faz parte da Confi, um time integrado com equipes transversais e verticais trabalhando juntas em cada solução de negócio, otimizando assim, os processos e resultados.Confere as informações e links nos comentários e vem ;)O que esperamos de você:Aqui, nós gostamos muito de correr atrás das metas de crescimento da empresa, por isso se você se motiva por desafios, está no lugar certo!
 Responsabilidades e atribuiçõesSuas principais responsabilidades serão:Monitorar o fluxo e inserção e consumo de informações em uma esteira de dados.Promover melhorias em performance, controle e segurança nas atividades de CRUD em um DW.Criar relatórios automatizados. 
@@ -25970,7 +28227,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O274" t="inlineStr"/>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P274" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -25981,10 +28242,15 @@
           <t>['Assistência médica', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R274" t="n">
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S274" t="n">
         <v>6308574</v>
       </c>
-      <c r="S274" t="inlineStr">
+      <c r="T274" t="inlineStr">
         <is>
           <t>Descrição da vagaSe você gosta de desafios e quer fazer parte da maior loja de departamentos do Brasil, em um ambiente inovador e transformador, antenado no futuro e com práticas de metodologias ágeis, vem com a HAVAN, pois temos a oportunidade certa para você!Venha desenvolver soluções digitais para o varejo com a gente!Oportunidade para atuar em Brusque/SC em regime presencial ou híbrido.
 Responsabilidades e atribuiçõesConstrução, avaliação e execução de pipelines de atualização de dados de forma performáticaUtilização de técnicas de busca, limpeza e estruturação de fonte de dados, automatização de processos, construção e manutenção de ETLsUtilização das melhores práticas em relação a modelagem, persistência de dados e agilidade de processamentosIntegração dos dados para possibilitar o cruzamento de informações e acompanhamento de métricasDesenvolvimento do mapeamento e captação de dados não estruturadosConstrução de ambientes de informação, por meio do uso combinados de ferramentas de Big DataDesenvolvimento de documentações de processos e projetosAplicação das políticas de segurança nas camadas de acesso aos dadosAtuação junto com administradores de banco de dados, cientistas de dados, equipe de infra e Product Owner, a fim de criar soluções de dadosConhecer o modelo/regras de negócio para garantir a governança da informação
@@ -26062,20 +28328,29 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O275" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P275" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q275" t="inlineStr"/>
-      <c r="R275" t="n">
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S275" t="n">
         <v>6342762</v>
       </c>
-      <c r="S275" t="inlineStr">
+      <c r="T275" t="inlineStr">
         <is>
           <t>Descrição da vagaA Confi está em busca de uma pessoa para o cargo de Engenheiro de Dados.Esta pessoa será responsável por manter os produtos de Dados das nossas soluções de rastreio, pós-vendas e logística reversa (Trocas e Devoluções) para e-commerces. Temos ambientes que fazem grande captação de dados externos e temos também o ambiente analítico (que é fortemente utilizado diariamente por analistas de Inteligência).
 Responsabilidades e atribuiçõesManter os produtos de Dados das nossas soluções de rastreio, pós-vendas e logística reversa (Trocas e Devoluções) para e-commerces. Temos ambientes que fazem grande captação de dados externos e temos também o ambiente analítico (que é fortemente utilizado diariamente por analistas de Inteligência).Manter nossos processos de ETL que podem chegar a grandes quantidades de dados, tendo preocupação com a melhoria de tempos de respostas;Manter nossas soluções de visualização de dados para clientes internos externos, em plataformas como Metabase e Google DataStudio;Colaborar com a criação da arquitetura de novos produtos;Apoiar à liderança, sendo referência técnica para o time; Participação em reuniões a fim de prover suporte técnico para diferentes Squads;Realizar análise de métricas e alertas para encontrar e resolver problemas;Auxiliar na melhoria de performance de modelos estatísticos que vão para produção;Manter bases de dados altamente performáticas e ser capaz de resolver eventuais problemas.
@@ -26156,7 +28431,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O276" t="inlineStr"/>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P276" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -26167,10 +28446,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R276" t="n">
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S276" t="n">
         <v>6317971</v>
       </c>
-      <c r="S276" t="inlineStr">
+      <c r="T276" t="inlineStr">
         <is>
           <t>Descrição da vagaA A3Data é uma consultoria referência em #Dados! 🚀 Temos a missão de acelerar a cultura Data Driven nas organizações. Nosso foco é implantar Inteligência Estratégica e potencializar a cultura dos dados para os nossos clientes! 🎯 Somos parceiros e estamos presentes no maior parque tecnológico urbano e aberto do Brasil o Porto Digital, localizado em Recife. 🌎 Somos ágeis, analíticos e avançados e temos uma cultura leve, horizontal e muito colaborativa! ✌️ Nosso propósito é empoderar as pessoas por meio dos dados. E, por isso, buscamos parceiros que também sejam loucos por dados e apaixonados por gente! 🤩 #VemSerUmEu.A3 💙
 Responsabilidades e atribuiçõesPara ser uma Pessoa Engenheira de Dados na A3 buscamos alguém que:Saiba criar pipelines de dados automatizadas e escaláveis para gerar dados e produtos inovadores para nossos clientes;Desenvolva ideias e soluções eficientes que envolvem a extração e centralização dos dados, garantia da qualidade e governança dos dados e geração de novas métricas para o negócio;Faça a implantação de pipelines de dados em ambiente AWS;Faça a revisão de código do time de engenharia de dados;Participe da discussão de roadmap do projeto com o cliente;Dê sugestões de melhoria e otimizações;Identifique novas possibilidades e novos projetos no cliente.
@@ -26251,7 +28535,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O277" t="inlineStr"/>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P277" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -26262,10 +28550,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R277" t="n">
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S277" t="n">
         <v>6233059</v>
       </c>
-      <c r="S277" t="inlineStr">
+      <c r="T277" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaCom um DNA empreendedor e mindset digital, combinamos a abordagem de Tecnologia, Analytics e Gestão através de um time multidisciplinar para impulsionar nossos clientes e solucionar os desafios de negócios do mundo atual. Na EloGroup você terá oportunidade de participar de múltiplos projetos, com diferentes temáticas e junto à grandes instituições de diversas indústrias.  Nosso maior ativo é um time de mais de 500 talentos, bem capacitados e engajados em uma cultura única, que se propõe a destravar o potencial das pessoas e das organizações, impulsionando uma espiral de transformações positivas no ecossistema. Se você busca por aprendizado contínuo e quer realizar transformação de impacto nas organizações, a EloGroup pode ser o lugar pra você!
 Responsabilidades e atribuiçõesNo time da EloGroup, o Engenheiro de Dados é responsável pelos projetos de coleta, processamento, armazenamento e fornecimento de dados orientados ao consumo, tanto como apoio em projetos de consultoria de gestão como em projetos de característica exclusivamente técnica.Principais atividades: Implementar, monitorar e suportar as soluções de dados;Criar pipeline dos dados, desenvolver melhorias em plataformas já existentes;Disponibilizar esses dados para consumo, via dashboard, APIs e machine learning;Gerenciar alto volume, variedade, velocidade e veracidade dos processos que envolvem dados;Implementar e colocar em produção os modelos e análises desenvolvidas em conjunto com as equipes de cientistas de dados da EloGroup.
@@ -26346,7 +28639,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O278" t="inlineStr"/>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P278" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -26357,10 +28654,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R278" t="n">
+      <c r="R278" t="inlineStr"/>
+      <c r="S278" t="n">
         <v>6213815</v>
       </c>
-      <c r="S278" t="inlineStr">
+      <c r="T278" t="inlineStr">
         <is>
           <t>Descrição da vagaBuscamos profissionais que tenham vontade de crescer, colocar a mão na massa e fazer acontecer. Vivemos um momento único, recheado de desafios e oportunidades para agregar ainda mais valor aos nossos clientes. Se você tem esse perfil e essa ambição, inscreva-se nesta vaga e junte-se a nós para construir o futuro do mercado financeiro.#VemSerGenial
 Responsabilidades e atribuiçõesConstrução de processos de ingestão, preparação, processamento, disponibilização de dados, para as áreas de negócio. Criação e implementação de arquiteturas de dados, escalveis e customizadas, visando o baixo custo de operação e uma alta rentabilidade na entrega dos produtos de dados. Criação da arquitetura do ambiente de MLops.AzureDevops. Criação e gestão de repositório, pipeline e releasesAirflow On Premise/ Cloud: sustentação do docker, conexões, variáveis e usuáriosDatabricks: Administração de usuários, grupos e clustersDesenvolvimento e manutenção de APIs. IP Access ListGrafana: monitoramento, visualização e alertasKafka: criação e manutenção de Clusters Vm. Cluster K8sKubernetes: sustentação, restart e criação de jobs streaming.Metabase: gestão de acessos e clusters Nifi: Monitoramento e Nifi RegistryVMs e Docker: gerenciamento
@@ -26441,7 +28739,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O279" t="inlineStr"/>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P279" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -26452,10 +28754,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio desenvolvimento', 'Day off aniversário', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R279" t="n">
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="n">
         <v>6198098</v>
       </c>
-      <c r="S279" t="inlineStr">
+      <c r="T279" t="inlineStr">
         <is>
           <t>Descrição da vagaA Neoassist, empresa no mercado de software de Atendimento Omnichannel, está buscando alguém para atuar no nosso time de Engenharia como Engenheiro de Dados.Buscamos alguém que possa ser responsável por projetar, implementar e manter uma plataforma de dados sólida e eficaz, garantindo a coleta, processamento e disponibilização dos dados para auxiliar na tomada de decisões e aprimoramento os produtos e serviços da Neo!
 Responsabilidades e atribuiçõesMapeamento de arquitetura e interações entre as partes.Investigação, resolução e documentação dos problemas do dia a dia em nossas pipelines.Mapear e criar pontos de melhoria em termos de observabilidade e monitoria das ferramentas que utilizamos.Atuar consultivamente em soluções para outros times.Desenvolver extrações e transformações nos dados.Garantir a integração eficaz dos sistemas e dados.Gerenciar e otimizar a plataforma de dados.Criação de pipelines de coleta de dados, agregando informações de diferentes fontes.
@@ -26536,7 +28839,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O280" t="inlineStr"/>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P280" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -26547,10 +28854,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Programa de treinamentos', 'Restaurante interno', 'Seguro de vida', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R280" t="n">
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S280" t="n">
         <v>6101657</v>
       </c>
-      <c r="S280" t="inlineStr">
+      <c r="T280" t="inlineStr">
         <is>
           <t>Descrição da vagaSer MJVer 🤝 é estar em um dos melhores lugares para trabalhar. Nós sabemos que na construção de uma sociedade mais forte a evolução deve vir de dentro para fora. Por isso, um ambiente acolhedor e com o sentimento constante de pertencimento é fundamental para o crescimento individual e coletivo. O esforço é de todos nós, e as conquistas também. Porque ser um MJVer é bem mais do que ser um colaborador: é sobre fazer parte. Somos colaborativos, ágeis, plurais, criativos e inovadores. Somos MJV!  Saiba mais em Quem Somos: https://www.mjvinnovation.com/pt-br/quem-somos/
 Responsabilidades e atribuiçõesDescrição da Vaga:Estamos procurando uma Pessoa Engenheira de Dados altamente motivada e experiente para se juntar à nossa equipe. A pessoa ideal terá um histórico comprovado de sucesso, bem como habilidades de comunicação e colaboração em equipe.Projeto:Alocação em grande cliente do segmento bancário.Responsabilidades:A pessoa selecionada para atuar como Engenheira de Dados será responsável por:Atuar na integração e coleta de dados em diferentes ambientes;Automatizar integrações de bases com o DataLake;Levantamento de necessidades e requisitos para processos de ingestão no DataLake;Trabalhar, de forma colaborativa, com arquitetos e cientistas de dados no entendimento das necessidades das áreas de negócios.
@@ -26631,17 +28943,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O281" t="inlineStr"/>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P281" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q281" t="inlineStr"/>
-      <c r="R281" t="n">
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S281" t="n">
         <v>5981453</v>
       </c>
-      <c r="S281" t="inlineStr">
+      <c r="T281" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaNascemos para democratizar os serviços bancários e de pagamentos! Pioneirismo, tecnologia, inovação e resultados sustentáveis são constantes da nossa trajetória. Lançamos a primeira maquininha de cartão sem aluguel do Brasil e ao longo dos anos seguimos evoluindo para ampliar nosso ecossistema de soluções financeiras. Somos o 2º maior banco digital do país e a fintech mais rentável do segmento, resultado do trabalho de um time formado por pessoas talentosas e criativas, que atuam com dedicação, paixão e vontade de fazer acontecer. Se você ama tecnologia, curte um bom desafio e acredita no poder da colaboração para fazer grandes entregas, o Pags é pra você! Então, confira essa oportunidade e vem pintar o Brasil de amarelo com a gente💛! No PagBank todas as pessoas são bem-vindas 😊, sem distinção de gênero, orientação sexual, etnia, cultura, religião, deficiência etc. O importante é você gostar de desafios, trabalhar bem em equipe, vivenciar nossa cultura e nossa missão de transformar e democratizar os serviços bancários e de pagamentos no Brasil. #VemProPags 
 Responsabilidades e atribuiçõesCriar e manter estruturas de data pipeline com performance otimizada.Montar estruturas de dados escaláveis que atendam requisitos funcionais e não funcionais de negócios.Automatizar processos manuais, otimizar data deliveries e redesenhar a infraestrutura para melhor performance.Construir a infraestrutura necessária para extração, transformação e carga de dados oriundos de diversas fontes utilizando SQL e outras linguagens de dados.Construir ferramentas analíticas que tratem os dados gerados através dos data pipelines para aquisição de clientes, excelência operacional e outras métricas que gerem insights valiosos para o negócio.Atuar junto aos stakeholders executivos, de Produtos e outras áreas para fornecer uma infraestrutura de dados que suportem suas necessidades relacionados a dados e informações.Documentar os procedimentos e fluxos de dados da área.Implementar sistemas e rotinas que monitorem e garantam a qualidade e a consistência das nossas bases de dados.Atuar como Quality Assurance em entregas de estruturas desenvolvidas por outros integrantes do time.
@@ -26721,17 +29042,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O282" t="inlineStr"/>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P282" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q282" t="inlineStr"/>
-      <c r="R282" t="n">
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>['SQL']</t>
+        </is>
+      </c>
+      <c r="S282" t="n">
         <v>5973411</v>
       </c>
-      <c r="S282" t="inlineStr">
+      <c r="T282" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaNascemos para democratizar os serviços bancários e de pagamentos! Pioneirismo, tecnologia, inovação e resultados sustentáveis são constantes da nossa trajetória. Lançamos a primeira maquininha de cartão sem aluguel do Brasil e ao longo dos anos seguimos evoluindo para ampliar nosso ecossistema de soluções financeiras. Somos o 2º maior banco digital do país e a fintech mais rentável do segmento, resultado do trabalho de um time formado por pessoas talentosas e criativas, que atuam com dedicação, paixão e vontade de fazer acontecer. Se você ama tecnologia, curte um bom desafio e acredita no poder da colaboração para fazer grandes entregas, o Pags é pra você! Então, confira essa oportunidade e vem pintar o Brasil de amarelo com a gente💛! No PagBank todas as pessoas são bem-vindas 😊, sem distinção de gênero, orientação sexual, etnia, cultura, religião, deficiência etc. O importante é você gostar de desafios, trabalhar bem em equipe, vivenciar nossa cultura e nossa missão de transformar e democratizar os serviços bancários e de pagamentos no Brasil. #VemProPags 
 Responsabilidades e atribuiçõesCriar e manter as estruturas de data pipeline com performance otimizada.Montar estruturas de dados escaláveis que atendam requisitos funcionais e não funcionais de negócios.Atuar junto aos stakeholders executivos, de Produtos e outras áreas para fornecer uma infraestrutura de dados que suportem suas necessidades relacionados a dados e informações.Documentar os procedimentos e fluxos de dados da área.Implementar sistemas e rotinas que monitorem e garantam a qualidade e a consistência das nossas bases de dados.Atuar como quality assurance em entregas de estruturas desenvolvidas por outros integrantes do time.
@@ -26812,7 +29142,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O283" t="inlineStr"/>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P283" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -26823,10 +29157,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Auxílio home office', 'Day off aniversário', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R283" t="n">
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S283" t="n">
         <v>6099851</v>
       </c>
-      <c r="S283" t="inlineStr">
+      <c r="T283" t="inlineStr">
         <is>
           <t>Descrição da vagaO QUE É SER UM MUTANT?Quando você decide ser Mutant, você decide dar um passo diferente na sua vida e na sua carreira.Ser Mutant é aceitar ser parte de um grupo com coragem para traçar novos caminhos e ambição para chegar mais longe a cada dia.A gente não é a empresa da moda - nem faz questão de ser. Ao contrário, fazemos muito mais do que falamos. E preferimos fazer em grupo porque aqui é com todos e por todos.Estamos sempre em busca de gente talentosa e apaixonada para crescer e evoluir com a gente. Se você acredita no seu talento e consegue mostrar isso na prática, venha ser um Mutant.A gente te aguarda. 🚀
 Responsabilidades e atribuições•	Liderar a concepção, desenvolvimento e implantação de soluções de dados.•	Trabalhar com outras áreas para garantir que as soluções de dados atendam às necessidades do projeto.•	Projetar e implementar pipelines de dados para coletar, processar e armazenar dados.•	Desenvolver modelos de dados para gerar insights e tomar decisões estratégicas.•	Avaliar o desempenho das soluções de dados e identificar oportunidades de melhoria.
@@ -26907,17 +29246,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O284" t="inlineStr"/>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P284" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q284" t="inlineStr"/>
-      <c r="R284" t="n">
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S284" t="n">
         <v>6095675</v>
       </c>
-      <c r="S284" t="inlineStr">
+      <c r="T284" t="inlineStr">
         <is>
           <t>Descrição da vagaSobre a oportunidade em Engenharia de DadosEstamos buscando um(a) profissional da área de Engenharia de Dados. Você atuará em conjunto com nosso time de IA/ML e Engenharia de Dados em projetos de diversos clientes, utilizando majoritariamente o Google Cloud Platform.
 Responsabilidades e atribuiçõesNesta oportunidade, você irá atuar na construção de pipelines de dados que possibilitem o processamento, integração e coleta de dados de diversas fontes. Trabalhará na construção de Data Lakes e Data Warehouses, bem como na construção de modelos preditivos e provas de conceito utilizando IA/ML. Você terá bastante contato com as últimas tecnologias do Google Cloud Platform desta área.
@@ -26998,7 +29346,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O285" t="inlineStr"/>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P285" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -27009,10 +29361,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio desenvolvimento', 'Convênio com empresas parceiras', 'Participação nos Lucros ou Resultados', 'Previdência privada', 'Programa de treinamentos', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R285" t="n">
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S285" t="n">
         <v>6071437</v>
       </c>
-      <c r="S285" t="inlineStr">
+      <c r="T285" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaLOCALIZASomos uma empresa presente no futuro. Em nossa história, sempre trouxemos para o agora ideias que pareciam existir somente anos à frente. Enxergamos o amanhã pelas lentes do nosso espírito empreendedor.Construir o futuro da mobilidade é um propósito que impulsiona nossa habilidade de protagonizar e o nosso talento em fazer acontecer. Para cumprir o nosso propósito, precisamos de gente. Gente como nossos colaboradores, clientes, franqueados, fornecedores, investidores, sociedade e parceiros, que, juntos, pensam e criam formas inteligentes de ir e vir.
 Responsabilidades e atribuiçõesO QUE VOCÊ IRÁ FAZER COMO ENGENHEIRO(A) DE DADOS Atuar no desenvolvimento e implementação de soluções de gerenciamento, processamento e análise de grandes massas de dados. Essas soluções permitirão tanto a alimentação de modelos de Ciência de Dados e de Inteligência Artificial quanto a análise direta dos dados pelos usuários de negócio. Para tal, será necessário interagir fortemente dentro dos times de Ciência de Dados e Analytics e com os usuários de negócio, apoiando-os nas análises. As soluções envolvem o tratamento de grandes massas de dados, a integração de fontes variadas de dados e/ou tratamento de dados com grande velocidade, visando a criação de vantagens competitivas para a Companhia apoiadas no uso intensivo de dados.
@@ -27093,7 +29450,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O286" t="inlineStr"/>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P286" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -27104,10 +29465,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Previdência privada', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R286" t="n">
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S286" t="n">
         <v>6008601</v>
       </c>
-      <c r="S286" t="inlineStr">
+      <c r="T286" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaSe você quer colocar seu talento em expansão, embarque com a gente nessa jornada de oportunidades, desenvolvimento e muita cooperação para mover você em direção a um universo a ser explorado!Estamos em busca de um talento para integrar o time de Engenharia de Dados na arquitetura de Datalake, com muita tecnologia e processamento distribuído com Spark, Databricks na AWS.Te identificou? Então vem saber mais no descritivo abaixo.
 Responsabilidades e atribuiçõesAtuação presencial / híbrida na Central Ailos;Responsável por projetar soluções para extração e coleta de dados, identificando problemas e oportunidades, validando novas tecnologias garantindo que os dados estejam acessíveis através de datamarts (bases de negócio), implementando soluções, gerenciando ambientes de dados, fornecendo suporte técnico dos dados publicados às áreas de negócio da Central Ailos e Cooperativas Filiadas;Conduzir e/ou construir soluções ponta-a-ponta em conjunto com os desenvolvedores e Cientistas de Dados para que os dados sejam integrados em soluções, garantindo o bom uso das informações nas soluções integradas; Será responsável por manter/melhorar a infraestrutura de analytics;Apoiar/prover suporte ao time, referente uso de ferramentas/tecnologias, processos e regras de negócio pertinentes à área;Criar, manter e melhorar datamarts das áreas de negócio utilizando spark, python, databricks e aws;Implementar novas cargas de sistemas no datalake
@@ -27188,7 +29554,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O287" t="inlineStr"/>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P287" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -27199,10 +29569,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio farmácia', 'Convênio com empresas parceiras', 'Day off aniversário', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R287" t="n">
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S287" t="n">
         <v>6067992</v>
       </c>
-      <c r="S287" t="inlineStr">
+      <c r="T287" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaBuscamos um profissional para posição de Engenheiro de Dados que será responsável por desenvolver soluções com grandes volumes de dados, além otimizar, supervisionar e monitorar a recuperação, armazenamento e distribuição de dados em toda a organização.
 Responsabilidades e atribuiçõesDesenvolver soluções com grandes volumes de dados.Gerenciar, otimizar, supervisionar e monitorar a recuperação, armazenamento e distribuição de dados em toda a organização;Realizar consultas ad-hoc em bancos de dados e data warehouses através de linguagem SQL;Coletar, Organizar e disponibilizar dados estruturados de/para/entre aplicações e para áreas de negócio;Planejar e implementar a infraestrutura necessária para a guarda e tratamento dos dados estruturados;Trabalhar com dados, desenvolver visualizações gerenciais e comunicar-se de forma útil com uma variedade de partes interessadas não técnicas;Melhorar os níveis de qualidade e confiabilidade dos dados;Contribuir para o design e manutenção de nossos pipelines de dados (ETL) e ferramentas;Desenvolver APIs para consulta de dados/logs de diversas fontes.
@@ -27283,17 +29658,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O288" t="inlineStr"/>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P288" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr"/>
-      <c r="R288" t="n">
+      <c r="R288" t="inlineStr"/>
+      <c r="S288" t="n">
         <v>6048661</v>
       </c>
-      <c r="S288" t="inlineStr">
+      <c r="T288" t="inlineStr">
         <is>
           <t>Descrição da vagaSua missão:Como Especialista de Dados você será responsável por liderar e executar a concepção, desenvolvimento e manutenção de pipelines de dados robustos, garantindo a qualidade, governança, confiabilidade e eficiência no processamento e armazenamento de dados. Você será responsável por moldar a infraestrutura de dados da empresa, colaborando com equipes multidisciplinares para prover fontes únicas e confiáveis para toda a empresa, além de insights relevantes.Quais serão suas responsabilidades:Design e Desenvolvimento de Pipelines de Dados:Projetar e implementar pipelines de dados eficientes e escaláveis, integrando dados de fontes diversas para suportar análises e aplicações;Integração de Fontes de Dados:Desenvolver soluções para a integração de dados provenientes de diversas fontes, garantindo a consistência e qualidade;Modelagem de Dados:Colaborar na criação e manutenção de modelos de dados eficientes, facilitando a análise e extração de insights;Otimização de Desempenho:Identificar e implementar melhorias de desempenho nos pipelines de dados, garantindo eficiência operacional;Segurança e Conformidade:Garantir a segurança e conformidade dos dados, implementando práticas e políticas de governança;Colaboração Interdisciplinar:Trabalhar em estreita colaboração com todos os times de tecnologia e produtos;Documentação:Manter documentação abrangente de pipelines, modelos de dados e processos para facilitar a compreensão e manutenção;Automatização:Automatizar processos de ETL (Extração, Transformação e Carga) e monitoramento de pipelines para garantir a confiabilidade das operações.O que você precisa ter:Experiência significativa em engenharia de dados, design e implementação de pipelines de dados.Profundo conhecimento em ferramentas e tecnologias de processamento de dados;Experiência com linguagens de programação como Python, Scala, Java ou similares;Sólida compreensão de modelagem de dados, normalização e denormalização;Familiaridade com ferramentas de orquestração de fluxo de trabalho, como Apache Airflow;Conhecimento em práticas de segurança de dados e conformidade com regulamentações;Habilidades analíticas e resolução de problemas, com atenção aos detalhes;Excelentes habilidades de comunicação e capacidade de colaborar em um ambiente multidisciplinar.O que seria muito legal se você soubesse/tivesse:Experiência em ambientes de nuvem, principalmente Google Cloud;Conhecimento em processamento de dados em tempo real;Certificações relacionadas a engenharia de dados / cloud;Experiência em implementação de soluções de Big Data.O que oferecemos:🍽️ VR e VA🩺 Assistência médica🦷 Assistência odontológica🤑 Bônus varíavel anual👶 Auxílio creche💻 Auxílio home office      Seguro de vida      SESC
 Quem somosSomos a EXA:Estamos aqui para que a tecnologia seja uma aliada para o seu dia a dia, trazendo mais tranquilidade para sua vida, para que você possa aproveitar aquilo que realmente importa. Oferecemos soluções para múltiplos clientes em diferentes segmentos baseada em produtos de alta tecnologia.A EXA tem como objetivo não só inovar produtos e serviços, mas ser um novo modelo de negócios com um portfólio inovador de soluções de segurança digital.Nosso propósito: A tecnologia já faz parte de quem somos, de nossa essência e, por isso, surge a necessidade de reforçar sua segurança. Com o compromisso de manter os brasileiros seguros, para que cada um possa sempre seguir em frente sem preocupação, nasceu a EXA.EXA, essa palavra com apenas 3 letras, simboliza algo grandioso. Equivale a uma das maiores unidades de dados do universo da tecnologia. Maior que os mega, giga e terabytes, EXA remete ao valor inestimável que cada informação e os dados possuem nos dias de hoje.</t>
@@ -27371,7 +29751,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O289" t="inlineStr"/>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P289" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -27382,10 +29766,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Auxílio creche', 'Auxílio desenvolvimento', 'Auxílio estacionamento', 'Auxílio farmácia', 'Clube de vantagens', 'Day off aniversário', 'Horário flexível', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R289" t="n">
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL', 'Excel', 'Tableau']</t>
+        </is>
+      </c>
+      <c r="S289" t="n">
         <v>5798489</v>
       </c>
-      <c r="S289" t="inlineStr">
+      <c r="T289" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaQuer fazer parte de um time alta performance? A Neogrid é um ecossistema de tecnologia e inteligência de dados que ajuda a empresas a venderem mais, com mais margem 🚀Estamos em busca de pessoas com foco em performance, operando por métricas de negócios reais e acionáveis, e que nos ajude a garantir o desenvolvimento ágil de produtos e tecnologias 👩‍💻Na Neogrid, temos o desafio de entregar os melhores resultados com dedicação e excelência, nos desafiando cada vez mais todos os dias!Aqui, você terá a oportunidade de entregar o seu valor, ajudando os maiores players do mercado nacional no desafio de vender mais, com mais margem!Se você se identificou, temos o desafio certo para você!
 Responsabilidades e atribuiçõesNesta oportunidade, você irá:Compreender requisitos de negócio e dados para a definição de soluções adequadas a cada contexto; Liderar a construção de arquiteturas de dados governadas e escaláveis, incluindo o projeto de estruturas de dados e definições de tecnologia; Projetar, implementar e manter pipelines de dados envolvendo as fases de ingestão, saneamento, processamento, entrega e visualização; Desenvolver e manter rotinas de captura, tratamento e enriquecimento de dados de fontes diversas e heterogêneas; Atuar na modelagem e preparação de dados para exploração em ambiente analítico; Apoiar na elaboração e revisão de especificações técnicas, funcionais e não funcionais; Trabalhar de forma colaborativa, mentoreando o time e disseminando conhecimento. 
@@ -27466,7 +29855,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O290" t="inlineStr"/>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P290" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -27477,10 +29870,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R290" t="n">
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S290" t="n">
         <v>6037652</v>
       </c>
-      <c r="S290" t="inlineStr">
+      <c r="T290" t="inlineStr">
         <is>
           <t>Descrição da vagaBuscamos profissionais que tenham vontade de crescer, colocar a mão na massa e fazer acontecer. Vivemos um momento único, recheado de desafios e oportunidades para agregar ainda mais valor aos nossos clientes. Se você tem esse perfil e essa ambição, inscreva-se nesta vaga e junte-se a nós para construir o futuro do mercado financeiro.#VemSerGenial
 Responsabilidades e atribuiçõesResponsável por ajudar a construir e manter a infraestrutura que suporta armazenamento, processamento e recuperação de dados. Trabalhar com grandes conjuntos de dados desenvolvendo pipelines de dados que movem dados de sistemas de origem para data lakes e outros sistemas de armazenamento e processamento de dados.Desenvolvimento de pipelines de dados. Desenvolvimento do data quality para todas as fases dos pipelines de dados.Monitoramento e criação das regras de alerta de dados dos processos do data lake. Criação e implementação de arquiteturas de dados, escalveis e customizadas, visando o baixo custo de operação e uma alta rentabilidade na entrega dos produtos de dados. Implementação, automação e versionamento de modelos de ML;Monitoramento, performance e draft dos modelos de ML dentro do ambiente MLOPSConstrução de processos de ingestão, preparação, processamento, disponibilização de dados para as áreas de negócio.
@@ -27561,17 +29959,26 @@
           <t>Temporário</t>
         </is>
       </c>
-      <c r="O291" t="inlineStr"/>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P291" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q291" t="inlineStr"/>
-      <c r="R291" t="n">
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S291" t="n">
         <v>6010700</v>
       </c>
-      <c r="S291" t="inlineStr">
+      <c r="T291" t="inlineStr">
         <is>
           <t>Descrição da vagaAqui no Grupo RBS nós acreditamos na Comunicação. Uma comunicação que conecta, diverte, emociona e informa. Acreditamos no "viver junto", porque é junto que vivemos as melhores experiências. Estamos há 65 anos construindo nossa história e "vivendo junto" dos gaúchos, seja através da TV, do Rádio, do Jornal e do Digital. Por aqui desafios e oportunidades não faltam e só crescem a medida que evoluímos. Você também acredita na Comunicação e no impacto que ela pode ter na vida das pessoas e nos resultados dos negócios?Venha fazer parte do nosso time.
 Responsabilidades e atribuições- Desenvolver, implementar e manter estruturas de data pipeline, streaming e batch, de diversas origens aprimorando o Data Lake e o Data Warehouse e distribuindo dados e informações para sistemas;- Desenvolver de rotinas de ETL/ELT, transformando dados em informação, entendo as lógicas de negócio e replicando nos fluxos de preparação de dados;- Implementar e manter estruturas de data pipeline, objetivando a transformação e preparação de dados para as ferramentas de BI;- Desenvolvimento de métricas para auxiliar os modelos de Machine Learning e o acompanhamento de Performance do Negócio; - Desenvolvimento e manutenção da Arquitetura de Data Warehouse e Catálogo de Dados;- Identificar novas tecnologias e ferramentas de dados que possam agregar valor aos negócios da empresa.
@@ -27651,7 +30058,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O292" t="inlineStr"/>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P292" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -27662,10 +30073,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio academia', 'Clube de vantagens', 'Seguro de vida', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R292" t="n">
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S292" t="n">
         <v>6003742</v>
       </c>
-      <c r="S292" t="inlineStr">
+      <c r="T292" t="inlineStr">
         <is>
           <t>Descrição da vagaComo uma pessoa Engenheira de Dados Sênior na Montreal, você fará parte de uma das melhores empresas de tecnologia do Brasil. Nossa trajetória iniciou há mais de trinta anos com uma pequena equipe de engenharia apaixonada por inovação. Em 1986, pessoas visionárias fizeram um compromisso com a tecnologia e sua capacidade de transformar o mundo. Aquele, seria apenas o começo de uma trajetória que nos tornou referência sólida no mercado e uma das melhores empresas para se trabalhar.
 Responsabilidades e atribuiçõesPossuir excelente comunicação;Trabalhar com modelos analíticos (OLAP/DW);Conduzir reuniões de levantamento e mapeamento junto ao negócio;Investigar e questionar para apresentar cenários de solução;Construir Arquiteturas de Dados e pipelines de ingestão;Interagir com equipe de cientistas de dados e analistas de BI para validação de arquitetura de dados;Implementar, Gerenciar, Otimizar e Monitorar a recuperação, armazenamento e distribuição de dados. Graduação completa.
@@ -27746,17 +30162,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O293" t="inlineStr"/>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P293" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q293" t="inlineStr"/>
-      <c r="R293" t="n">
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>['SQL', 'Excel']</t>
+        </is>
+      </c>
+      <c r="S293" t="n">
         <v>5962402</v>
       </c>
-      <c r="S293" t="inlineStr">
+      <c r="T293" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaEstamos em busca de um uma pessoa engenheira de dados altamente qualificada e especializada em soluções de engenharia de dados, com experiência comprovada em projetos de ETL e desenvolvimento de pipelines utilizando os serviços como IBM data stage. Se você é uma pessoa apaixonada por tecnologia, possui conhecimento em arquitetura de dados e tem experiência prática na implementação desses componentes, esta é a oportunidade ideal para você.
 Responsabilidades e atribuiçõesPrincipais atividades:Desenvolver pipelines de dados robustos para a extração, transformação e carregamento (ETL) de grandes volumes de dados, com foco na integridade e qualidade dos dados.Trabalhar em colaboração com equipes internas para entender os requisitos de negócios e propor soluções de dados adequadasMonitorar e otimizar o desempenho dos processos de dados nos pipelines para garantir eficiência e confiabilidade.
@@ -27836,17 +30261,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O294" t="inlineStr"/>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P294" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q294" t="inlineStr"/>
-      <c r="R294" t="n">
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S294" t="n">
         <v>5939416</v>
       </c>
-      <c r="S294" t="inlineStr">
+      <c r="T294" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaVocê fará parte do time e também um trusted advisor das áreas de negócio na disciplina de engenharia de dados e é uma BAITA responsabilidade.  Buscamos alguém disruptivo e inovador para atuar no capítulo de engenharia de dados com os times de plataforma (azure databricks) e também suportando algumas squads de negócio! Baseado no roadmap que será desenvolvido a partir da estratégia da organização e pela sua squad (e você fará parte disso), você será responsável por realizar a ingestão de dados de plataformas transacionais , modelar dados baseado na necessidade de dados e negócio desenvolvendo camadas bronze, silver e gold, além de atuar em alguns projetos visando a otimização de performance e custo da nossa plataforma.  Aqui, você será praticamente um #dataInfluencer. Buscamos alguém com habilidades em engenharia de dados mas, além disso, também seja capaz de ter uma visão além do alcance, que traga insights e apoie na estratégia da squad, visando sempre melhorar a experiência dos nossos clientes e buscando meios para alavancar receita 😉  Grandes poderes, grandes responsabilidades! 
 Responsabilidades e atribuiçõesDesenho e desenvolvimento de novas arquiteturas para ingestão de dados às áreas da companhia; Atuar no backend de dados, apoiando times de negócio para desenhar e implementar as melhores soluções; Eventualmente, desenvolver orquestrações com o azure datafactory; Construir modelagens de dados baseado nas melhores práticas (e inclusive ajudar a construir as melhores práticas); Apoiar o time de BI na modelagem e construção dos datasets para as visualizações projetadas; Revisao de pool requests Desenvolvimento dos guides de governança #LI-KS1
@@ -27927,17 +30361,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O295" t="inlineStr"/>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P295" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr"/>
-      <c r="R295" t="n">
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S295" t="n">
         <v>5856089</v>
       </c>
-      <c r="S295" t="inlineStr">
+      <c r="T295" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaVocê fará parte do time e também um trusted advisor das áreas de negócio na disciplina de engenharia de dados e é uma BAITA responsabilidade.  Buscamos alguém disruptivo e inovador para atuar no capítulo de engenharia de dados com os times de plataforma (azure databricks) e também suportando algumas squads de negócio! Baseado no roadmap que será desenvolvido a partir da estratégia da organização e pela sua squad (e você fará parte disso), você será responsável por realizar a ingestão de dados de plataformas transacionais , modelar dados baseado na necessidade de dados e negócio desenvolvendo camadas bronze, silver e gold, além de atuar em alguns projetos visando a otimização de performance e custo da nossa plataforma.  Aqui, você será praticamente um #dataInfluencer. Buscamos alguém com habilidades em engenharia de dados mas, além disso, também seja capaz de ter uma visão além do alcance, que traga insights e apoie na estratégia da squad, visando sempre melhorar a experiência dos nossos clientes e buscando meios para alavancar receita  😉  Grandes poderes, grandes responsabilidades! 
 Responsabilidades e atribuiçõesDesenho e desenvolvimento de novas arquiteturas para ingestão de dados às áreas da companhia; Atuar no backend de dados, apoiando times de negócio para desenhar e implementar as melhores soluções; Desenvolver orquestrações com o azure datafactory; Construir modelagens de dados baseado nas melhores práticas; Apoiar o time de BI na modelagem e construção dos datasets para as visualizações projetadas; Foco na qualidade e disponibilidade dos dados #LI-KS1
@@ -28018,7 +30461,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O296" t="inlineStr"/>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P296" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -28029,10 +30476,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Café da manhã', 'Convênio com empresas parceiras', 'Ginástica laboral', 'Participação nos Lucros ou Resultados']</t>
         </is>
       </c>
-      <c r="R296" t="n">
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S296" t="n">
         <v>5829234</v>
       </c>
-      <c r="S296" t="inlineStr">
+      <c r="T296" t="inlineStr">
         <is>
           <t>Descrição da vagaA IXC está em busca de um Engenheiro de Dados Trainee entusiasmado e apaixonado por tecnologia e análise de dados para se juntar à nossa equipe. Como Engenheiro de Dados Trainee, você desempenhará um papel essencial na coleta, processamento e análise de dados para impulsionar as operações e decisões de negócios da empresa.
 Responsabilidades e atribuiçõesColeta e Limpeza de Dados: Auxiliar na coleta de dados de fontes internas e externas, garantindo que os dados estejam limpos e prontos para análise;Processamento de Dados: Participar da construção de pipelines de dados, transformando e integrando informações de diversas fontes para a análise;Modelagem de Dados: Contribuir para o design e implementação de modelos de dados para apoiar as necessidades de análise da empresa;Colaboração Interdepartamental: Trabalhar em estreita colaboração com as equipes de TI, análise de negócios e outras áreas para entender suas necessidades de dados e oferecer soluções eficazes;Aprendizado Contínuo: Manter-se atualizado com as tendências e avanços em engenharia de dados, aprendizado de máquina e análise de dados.
@@ -28113,7 +30565,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O297" t="inlineStr"/>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P297" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -28124,10 +30580,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R297" t="n">
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S297" t="n">
         <v>5746720</v>
       </c>
-      <c r="S297" t="inlineStr">
+      <c r="T297" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaCom um DNA empreendedor e mindset digital, combinamos a abordagem de Tecnologia, Analytics e Gestão através de um time multidisciplinar para impulsionar nossos clientes e solucionar os desafios de negócios do mundo atual. Na EloGroup você terá oportunidade de participar de múltiplos projetos, com diferentes temáticas e junto à grandes instituições de diversas indústrias.  Nosso maior ativo é um time de mais de 500 talentos, bem capacitados e engajados em uma cultura única, que se propõe a destravar o potencial das pessoas e das organizações, impulsionando uma espiral de transformações positivas no ecossistema. Se você busca por aprendizado contínuo e quer realizar transformação de impacto nas organizações, a EloGroup pode ser o lugar pra você!
 Responsabilidades e atribuiçõesNo time da EloGroup, o Engenheiro de Dados é responsável pelos projetos de coleta, processamento, armazenamento e fornecimento de dados orientados ao consumo, tanto como apoio em projetos de consultoria de gestão como em projetos de característica exclusivamente técnica.Principais atividades: Implementar, monitorar e suportar as soluções de dados;Criar pipeline dos dados, desenvolver melhorias em plataformas já existentes;Disponibilizar esses dados para consumo, via dashboard, APIs e machine learning;Gerenciar alto volume, variedade, velocidade e veracidade dos processos que envolvem dados;Implementar e colocar em produção os modelos e análises desenvolvidas em conjunto com as equipes de cientistas de dados da EloGroup.
@@ -28208,7 +30669,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O298" t="inlineStr"/>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P298" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -28219,10 +30684,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio desenvolvimento', 'Horário flexível', 'Vale-alimentação']</t>
         </is>
       </c>
-      <c r="R298" t="n">
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S298" t="n">
         <v>5745558</v>
       </c>
-      <c r="S298" t="inlineStr">
+      <c r="T298" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaCom um DNA empreendedor e mindset digital, combinamos a abordagem de Tecnologia, Analytics e Gestão através de um time multidisciplinar para impulsionar nossos clientes e solucionar os desafios de negócios do mundo atual. Na EloGroup você terá oportunidade de participar de múltiplos projetos, com diferentes temáticas e junto à grandes instituições de diversas indústrias.  Nosso maior ativo é um time de mais de 500 talentos, bem capacitados e engajados em uma cultura única, que se propõe a destravar o potencial das pessoas e das organizações, impulsionando uma espiral de transformações positivas no ecossistema. Se você busca por aprendizado contínuo e quer realizar transformação de impacto nas organizações, a EloGroup pode ser o lugar pra você!
 Responsabilidades e atribuiçõesNo time da EloGroup, o Engenheiro de Dados Sênior tem um papel muito voltado para liderança técnica, desenho de arquitetura de dados, propor padrões e boas práticas para desenvolvimento de soluções Big Data. Assim, buscamos alguém para suportar tecnicamente as entregas do time, repensar melhorias e ajudar o time na hora de colocar a mão na massa!Também é responsável por acompanhar e suportar os projetos de coleta, processamento, armazenamento e fornecimento de dados orientados ao consumo, tanto como apoio em projetos de consultoria de gestão como em projetos de característica exclusivamente técnica.Principais atividades:Responsável pelo arquitetura de dados dos projetos de coleta, processamento, armazenamento e fornecimento de dados.Responsável pela liderança técnica dos engenheiros de dados com menor senioridade; Implementar, monitorar e suportar as soluções de dados;Implementar e gerir diversos tipos de arquitetura (servless, on premises etc.);Criar pipeline dos dados, desenvolver melhorias em plataformas já existentes;Disponibilizar esses dados para consumo, via dashboard, APIs e modelos de machine learning;Gerenciar alto volume, variedade, velocidade e veracidade dos processos que envolvem dados;Implementar e colocar em produção os modelos e análises desenvolvidas em conjunto com as equipes de cientistas de dados da EloGroup.
@@ -28300,20 +30770,29 @@
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O299" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P299" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q299" t="inlineStr"/>
-      <c r="R299" t="n">
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python']</t>
+        </is>
+      </c>
+      <c r="S299" t="n">
         <v>5739729</v>
       </c>
-      <c r="S299" t="inlineStr">
+      <c r="T299" t="inlineStr">
         <is>
           <t>Descrição da vagaHello,Você Engenheiro de Dados, que deseja uma oportunidade profissional em um Banco onde inovação e aprendizado fazem parte da rotina profissional, e ainda oferece a chance de atuar em uma empresa que é avaliada como uma das melhores empresas para se trabalhar no país🚀.Não perca tempo e venha participar do processo.Confira os requisitos👇🏻
 Responsabilidades e atribuiçõesO profissional estará encarregado de contribuir para o projeto de implementação de sistemas escaláveis de ETL e processamento de dados para entrar em nosso ecossistema de Big Data;O profissional deverá estar apto a fazer levantamento de requisitos para entender os dashboards e relatórios a serem desenvolvidos bem como realizar o mapeamento de fontes de dados junto com as áreas de negócio;O profissional deverá estabelecer a direção técnica para o projeto em questão, junto com as equipes de engenharia de dados, arquitetura de solução e infraestrutura, impulsionando as mudanças necessárias e fazendo escolhas tecnológicas adequadas;O profissional deverá desenvolver de ETLs utilizando ferramentas adequadas para essa atividade;O profissional ficará encarregado de construir relatórios e dashboards.
@@ -28394,7 +30873,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O300" t="inlineStr"/>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P300" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -28405,10 +30888,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio home office', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R300" t="n">
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S300" t="n">
         <v>5728275</v>
       </c>
-      <c r="S300" t="inlineStr">
+      <c r="T300" t="inlineStr">
         <is>
           <t>Descrição da vagaA +A Educação é o único ecossistema de educação do país que integra soluções em conteúdo, tecnologia e serviços, com propósito de expandir os horizontes do conhecimento! Hoje contamos com mais de 4 mil livros publicados, 1mil instituições de ensino impactadas, mais de 800 colaboradores e 3,5 milhões de estudantes. Nesta posição, você atuará no time de Dados, responsável por toda coleta, organização, estruturação e estratégia de dados da empresa como um todo! Não é incrível?! Confira os detalhes abaixo e venha entregar experiências educacionais transformadoras com a gente! 😀
 Responsabilidades e atribuiçõesNesta posição, você será ser responsável pelas seguintes tarefas:Criação de fluxos de ETL/ELT.Estruturação da arquitetura do nosso datawarehouse, lake e lakehouse.Estruturação de modelagem dos bancos de dados.Criação e sustentação da infraestrutura já existente.Responsável pela governança e boas práticas dos dados na empresa.
@@ -28489,7 +30977,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O301" t="inlineStr"/>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P301" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -28500,10 +30992,11 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio creche', 'Clube de vantagens', 'Convênio com empresas parceiras', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R301" t="n">
+      <c r="R301" t="inlineStr"/>
+      <c r="S301" t="n">
         <v>5564222</v>
       </c>
-      <c r="S301" t="inlineStr">
+      <c r="T301" t="inlineStr">
         <is>
           <t>Descrição da vagaSomos a maior multinacional brasileira e estamos entre as 100 maiores empresas de TI do mundo.Estamos presentes em 41 países com +30k colaboradores. A Stefanini tem como principal objetivo auxiliar os clientes a encontrar, por meio de soluções personalizadas, a maneira ideal para alcançar seus desafios, impulsionando a inovação digital.E queremos mais!
 Responsabilidades e atribuiçõesO que esperamos que você realize:Descreva atividades, importância da operação/projeto e jornada em bullet ponints
@@ -28584,17 +31077,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O302" t="inlineStr"/>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P302" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q302" t="inlineStr"/>
-      <c r="R302" t="n">
+      <c r="R302" t="inlineStr"/>
+      <c r="S302" t="n">
         <v>5351450</v>
       </c>
-      <c r="S302" t="inlineStr">
+      <c r="T302" t="inlineStr">
         <is>
           <t>Descrição da vagaSe você se considera ser um profissional que atua com o gerenciamento e organização de dados, que possui uma visão completa das metas e objetivos de negócios e tem conhecimento altamente técnico e boa comunicação e exposição de ideias para reportar o cenário empresarial para diretores ou coordenadores, esta vaga pode ser sua! 
 Responsabilidades e atribuiçõesProjetar, desenvolver e manter software de alta qualidade para diversas aplicações.Criação de Data Apps e painéis Webs para controles estratégicos, ou painéis de controle de rotinas – HUB de Gerenciamento scheduladoEscrever código limpo, modular e eficiente em linguagens de programação relevantes.Projetar e desenvolver sistemas de controle e automação para RPAS.Trabalhar em estreita colaboração com TI para garantir a funcionalidade adequada.Realizar testes rigorosos para garantir a qualidade do software e do sistema de RPAS.Identificar e corrigir bugs, falhas de desempenho Criar documentação técnica detalhada para o software e sistemas de RPAS.Colaborar com equipes multidisciplinares.
@@ -28675,17 +31173,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O303" t="inlineStr"/>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P303" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q303" t="inlineStr"/>
-      <c r="R303" t="n">
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S303" t="n">
         <v>5314220</v>
       </c>
-      <c r="S303" t="inlineStr">
+      <c r="T303" t="inlineStr">
         <is>
           <t>Descrição da vagaNossa área de Estratégia e Tecnologia é um pilar fundamental dos nossos negócios, sendo responsável pela nossa transformação digital. Aqui criamos soluções tecnológicas sempre idealizando e desenvolvendo técnicas e processos de automação, seja para aprimorar a experiência de trabalho das nossas equipes ou aumentar a capacidade de entrega dos nossos produtos e serviços.O Hub Digital faz parte da nossa área de Estratégia e Tecnologia, tendo papel de destaque na nossa transformação em uma empresa media tech e D2C. Aqui cuidamos da gestão de dados e do desenvolvimento dos nossos produtos digitais como Globoplay, Globo.com, família G (G1, Ge, Gshow) e Cartola, visando a melhor experiência de consumo, interação e relacionamento com os nossos usuários.  Trabalhamos com uma variedade de tecnologias e linguagens para atingir nossos objetivos, além de estabelecermos uma relação contínua e crescente de compartilhamento de soluções com a comunidade de tecnologia!  Sobre Data &amp; AI na Globo:Nossa área de Data &amp; AI é um dos maiores cases de Big Data no Brasil. Pelos nossos produtos passam mais de 100 milhões de usuários únicos e são produzidos centenas de milhares de conteúdos novos todos os meses. Se você gosta de gerar impacto positivo na vida de milhões de usuários essa vaga é pra você!Sobre o time:A área de Jornalismo de Dados é responsável pelo auxílio na criação de conteúdo para o jornalismo através do uso de dados. Nosso trabalho consiste em fornecer inteligência e soluções capazes de alavancar o potencial do jornalismo na Globo, tanto em plataforma digitais como o G1, ou na TV. Nossas soluções se aplicam diversas frentes do jornalismo: como criação de vídeos e textos automatizados com resultados das Eleições e do Censo, criação de dashboards para navegação em dados do governo, criação de modelos de machine learning para potencializar a criação de matérias e gerar insights sobre grandes volumes de dados.Diversidade:Criamos ambientes onde todas as pessoas são incluídas, acolhidas e valorizadas. Nos empenhamos em ser uma Globo cada vez mais diversa, em representatividade e pensamento, aprendendo uns com os outros e estimulando a criatividade e inovação.Acreditamos na intencionalidade para gerar movimentos transformadores, que reconheçam que diferentes grupos sociais partem de diferentes realidades que precisam ser levadas em consideração e acolhidas pelas pessoas e pelo negócio.Equipes representativas trazem inovação inclusiva, nos permitindo criar experiências emocionantes para diferentes tipos de pessoas.Queremos ser cada vez mais o lugar onde todas as pessoas se encontram e, por isso, essa vaga é para você, pessoa com deficiência, que quer crescer e construir o futuro com a gente, nos bastidores de produtos e serviços que impactam a vida de milhões de brasileiros e brasileiras todos os dias. Modelo de trabalho: remoto, Brasil.
 Responsabilidades e atribuiçõesComo será seu dia a dia:  ﻿Você será responsável por:•	Criar e realizar a manutenção de pipelines de dados em produção, focadas em escalabilidade e alta performance;•	Garantir a segurança de acessos;•	Definir schemas de dados, e formatos como parquet, avro, csv, json, etc.;•	Executar rotinas de execução de pipelines e garantir sua manutenção;•	Monitorar logs de rotinas;•	Propor melhorias de performance em soluções que já estejam em produção, visando escalabilidade e otimização de custo por demanda.
@@ -28766,17 +31273,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O304" t="inlineStr"/>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P304" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q304" t="inlineStr"/>
-      <c r="R304" t="n">
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S304" t="n">
         <v>5308053</v>
       </c>
-      <c r="S304" t="inlineStr">
+      <c r="T304" t="inlineStr">
         <is>
           <t>Descrição da vagaImplementação, revisão e atualização em ferramenta BI. 
 Responsabilidades e atribuiçõesRotinas de ETL; Extração, Transformação e Carregamento de dados dos sistemas/bases de origem (por exemplo, EDMBR) para sistemas/bases de destino (por exemplo, Banco de Dados Analítico); Automatização e otimização das rotinas de ETL; Consultas em bancos relacionais (views) e funções no Banco de Dados Analítico; Criação e manutenção de tabelas no Banco de Dados Analítico; Cadastro de dados nos sistemas;Desenvolvimento de painéis no Spotfire, Power BI ou sistema similar; Desenvolvimento de painéis no Excel; Emitir documentação do que foi desenvolvido sempre que solicitado; Elaboração de Apresentações; Geração de Relatório descritivo dos entregáveis com avaliação da qualidade e prazo.
@@ -28857,17 +31373,26 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O305" t="inlineStr"/>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P305" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q305" t="inlineStr"/>
-      <c r="R305" t="n">
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>['Power BI', 'Python']</t>
+        </is>
+      </c>
+      <c r="S305" t="n">
         <v>5260895</v>
       </c>
-      <c r="S305" t="inlineStr">
+      <c r="T305" t="inlineStr">
         <is>
           <t xml:space="preserve">Descrição da vagaNascemos para democratizar os serviços bancários e de pagamentos! Pioneirismo, tecnologia, inovação e resultados sustentáveis são constantes da nossa trajetória. Lançamos a primeira maquininha de cartão sem aluguel do Brasil e ao longo dos anos seguimos evoluindo para ampliar nosso ecossistema de soluções financeiras. Somos o 2º maior banco digital do país e a fintech mais rentável do segmento, resultado do trabalho de um time formado por pessoas talentosas e criativas, que atuam com dedicação, paixão e vontade de fazer acontecer. Se você ama tecnologia, curte um bom desafio e acredita no poder da colaboração para fazer grandes entregas, o Pags é pra você! Então, confira essa oportunidade e vem pintar o Brasil de amarelo com a gente💛! No PagBank todas as pessoas são bem-vindas 😊, sem distinção de gênero, orientação sexual, etnia, cultura, religião, deficiência etc. O importante é você gostar de desafios, trabalhar bem em equipe, vivenciar nossa cultura e nossa missão de transformar e democratizar os serviços bancários e de pagamentos no Brasil. #VemProPags 
 Responsabilidades e atribuiçõesDesenvolver soluções com grandes volumes de dados. Participar do desenvolvimento da solução de Data Observability. Realizar o desenvolvimento da arquitetura AWS via Terraform.Fazer o levantamento de requisitos junto a área de negócios. Fazer a criação de modelos de dados analíticos e indicadores. Fazer o desenvolvimento de ETL.Garantir as políticas de segurança para acesso aos dados. Ter conhecimento de modelos/regras de negócio para garantir a governança da informação. Garantir o tratamento e preparação dos dados. Fomentar a utilização de técnicas de automação para criação, configuração e monitoramento dos ambientes analíticos. Analisar e corrigir eventuais problemas na execução de cargas de dados. 
@@ -28944,20 +31469,25 @@
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O306" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P306" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q306" t="inlineStr"/>
-      <c r="R306" t="n">
+      <c r="R306" t="inlineStr"/>
+      <c r="S306" t="n">
         <v>5270949</v>
       </c>
-      <c r="S306" t="inlineStr">
+      <c r="T306" t="inlineStr">
         <is>
           <t>Descrição da vagaA Leega é uma empresa focada no atendimento eficiente e inovador em seus clientes. Isso não poderia ser diferente com o nosso principal combustível: as pessoas!  Nossa cultura é inspiradora e nossos valores estão presentes no dia a dia: ética e transparência, excelência de qualidade, trabalho em equipe, responsabilidade econômica, social e ambiental, relações humanas e credibilidade.Buscamos profissionais inovadores que sejam movidos por desafios e focados em resultados.Se você busca uma empresa dinâmica e parceira e que investe em seus colaboradores através de capacitação constante, a Leega é o lugar para você!Ficaremos muito felizes em ter você em nosso time. Venha fazer parte da nossa história e da construção do nosso futuro. Cadastre-se agora mesmo em nossas vagas!
 Responsabilidades e atribuições- Documentação de pipelines através de engenharia reversa de códigos;- Mapeamento de fluxos de execução e dependência entre processos;- Auxílio no planejamento de migrações de cargas de dados;- Criação de análises automatizadas de forma a acelerar as engenharias reversas.
@@ -29037,17 +31567,22 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O307" t="inlineStr"/>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P307" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
       <c r="Q307" t="inlineStr"/>
-      <c r="R307" t="n">
+      <c r="R307" t="inlineStr"/>
+      <c r="S307" t="n">
         <v>5233088</v>
       </c>
-      <c r="S307" t="inlineStr">
+      <c r="T307" t="inlineStr">
         <is>
           <t>Responsabilidades e atribuiçõesRotinas de ETL; Extração, Transformação e Carregamento de dados dossistemas/bases de origem (por exemplo, EDMBR) para sistemas/bases de destino (por exemplo, Banco de Dados Analítico);Automatização e otimização das rotinas de ETL;Consultas em bancos relacionais (views) e funções no Banco de Dados Analítico;Criação e manutenção de tabelas no Banco de Dados Analítico;Cadastro de dados nos sistemas;Desenvolvimento de painéis no Spotfire, Power BI e sistema similares;Desenvolvimento de painéis no Excel;Emitir documentação do que foi desenvolvido sempre que solicitado;Elaboração de Apresentações;Geração de Relatório descritivo dos entregáveis com avaliação da qualidade e prazo.
 Requisitos e qualificaçõesEscolaridade:Formação na área de engenharia com, preferencialmente, especialização em petróleo.Perfil:Possuir no mínimo, 3 (três) anos de vivência na área de dados e as certificações DA-100 e/ou PL-300 da Microsoft;Profissionais nas áreas de exatas;Conhecimento básico de poço e das principais intervenções realizadas durante a vida útil do poço.
@@ -29126,7 +31661,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O308" t="inlineStr"/>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P308" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -29137,10 +31676,15 @@
           <t>['Assistência médica', 'Assistência psicológia', 'Auxílio academia', 'Horário flexível', 'Participação nos Lucros ou Resultados', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R308" t="n">
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S308" t="n">
         <v>4817664</v>
       </c>
-      <c r="S308" t="inlineStr">
+      <c r="T308" t="inlineStr">
         <is>
           <t>Descrição da vagaA A3Data é uma consultoria referência em #Dados! 🚀 Temos a missão de acelerar a cultura Data Driven nas organizações. Nosso foco é implantar Inteligência Estratégica e potencializar a cultura dos dados para os nossos clientes! 🎯 Somos parceiros e estamos presentes no maior parque tecnológico urbano e aberto do Brasil o Porto Digital, localizado em Recife. 🌎 Somos ágeis, analíticos e avançados e temos uma cultura leve, horizontal e muito colaborativa! ✌️ Nosso propósito é empoderar as pessoas por meio dos dados. E, por isso, buscamos parceiros que também sejam loucos por dados e apaixonados por gente! 🤩 #VemSerUmEu.A3 💙
 Responsabilidades e atribuiçõesPara ser uma Pesooa Engenheira de Dados na A3 buscamos alguém que:Saiba criar pipelines de dados automatizadas e escaláveis para gerar dados e produtos inovadores para nossos clientes;Desenvolver ideias e soluções eficientes que envolvem a extração e centralização dos dados, garantia da qualidade e governança dos dados e geração de novas métricas para o negócio.
@@ -29217,7 +31761,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O309" t="inlineStr"/>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P309" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -29226,6 +31774,7 @@
       <c r="Q309" t="inlineStr"/>
       <c r="R309" t="inlineStr"/>
       <c r="S309" t="inlineStr"/>
+      <c r="T309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -29294,7 +31843,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O310" t="inlineStr"/>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P310" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -29303,6 +31856,7 @@
       <c r="Q310" t="inlineStr"/>
       <c r="R310" t="inlineStr"/>
       <c r="S310" t="inlineStr"/>
+      <c r="T310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -29375,7 +31929,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O311" t="inlineStr"/>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P311" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -29386,10 +31944,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Auxílio creche', 'Auxílio home office', 'Previdência privada', 'Vale-alimentação', 'Vale-refeição']</t>
         </is>
       </c>
-      <c r="R311" t="n">
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S311" t="n">
         <v>2885473</v>
       </c>
-      <c r="S311" t="inlineStr">
+      <c r="T311" t="inlineStr">
         <is>
           <t>Descrição da vagaOlá, somos um Instituto de Pesquisa e Desenvolvimento movido a pessoas incríveis, ideias inovadoras, ambiente descontraído e muito espírito colaborativo entre os times. Você deseja fazer parte de projetos que utilizam tecnologias de ponta, transformando ideias inovadoras em realidade?O seu lugar é com a gente : )
 Requisitos e qualificaçõesFormação:Graduação em andamento em Computação, Engenharia de Software, ou em áreas correlatas. Experiência (nem todas as vagas pedirão todos esses requisitos, é só para você ter uma ideia):Engenharia de Dados, Ciência de Dados (ML) ou BI/Analytics;Python ou Java 8 (ou superior);REST APIs;Comunicação/apresentação, de forma gráfica e oral, dos resultados de análises e tarefas desenvolvidas.Desenvolvimento em ambiente Cloud (AWS, Azure, GCP);SQL;Apache Spark com PySpark;Linguagem de programação Python, Jupyter;Compreensão de códigos em outras linguages como Go, Java, Python. Idioma:Nível de inglês intermediário/avançado é um diferencial para a maioria de nossas vagas e obrigatório para as vagas de clientes internacionais.
@@ -29469,7 +32032,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O312" t="inlineStr"/>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P312" t="inlineStr">
         <is>
           <t>Não informado</t>
@@ -29480,10 +32047,15 @@
           <t>['Assistência médica', 'Auxílio desenvolvimento', 'Seguro de vida']</t>
         </is>
       </c>
-      <c r="R312" t="n">
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>['Python', 'SQL']</t>
+        </is>
+      </c>
+      <c r="S312" t="n">
         <v>2593950</v>
       </c>
-      <c r="S312" t="inlineStr">
+      <c r="T312" t="inlineStr">
         <is>
           <t>Descrição da vagaA equipe de Produção de Dados suporta as arquiteturas de dados que correspondam às necessidades das pesquisas realizadas no CIDACS, mapeando os requisitos e construindo fluxos adequados, visando garantir a eficiência, desempenho e qualidade no tratamento dos dados. Os membros da equipe são responsáveis pelas atividades de manipulação, transformação, vinculação de bases de dados, anonimização, acurácia e extração de datasets para pesquisa.Os currículos submetidos a esse perfil farão parte do nosso Banco de Talentos | Engenheiro de Dados Júnior, que significa seu processo terá sequência assim que houver abertura efetiva dessa vaga. 
 Responsabilidades e atribuiçõesColaborar no desenvolvimento de pipeline de dados em linguagem adequada; Colaborar na elaboração e desenvolvimento de soluções relacionadas à produção de dados (ETL) e à vinculação determinística e não-determinística entre bases de dados; Auxiliar as atividades de manipulação, transformação, vinculação entre bases de dados e extração de datasets para pesquisa. Participar de reuniões e sessões técnicos-científicas; Elaborar e apresentar relatórios técnicos periódicos. 
@@ -29561,20 +32133,29 @@
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>Pessoa Jurídica</t>
-        </is>
-      </c>
-      <c r="O313" t="inlineStr"/>
+          <t>Autônomo</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P313" t="inlineStr">
         <is>
           <t>Não informado</t>
         </is>
       </c>
       <c r="Q313" t="inlineStr"/>
-      <c r="R313" t="n">
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>['Pacote Office']</t>
+        </is>
+      </c>
+      <c r="S313" t="n">
         <v>1047687</v>
       </c>
-      <c r="S313" t="inlineStr">
+      <c r="T313" t="inlineStr">
         <is>
           <t>Descrição da vagaExiste um cálculo capaz de medir como a oportunidade de ser Engenheiro Civil em uma das maiores Construtoras do Sul de Minas é incrível?Se você considera ter um perfil inovador, curioso, gostar de desafios e acima de tudo possuir competências de planejamento e liderança, esta oportunidade é sua!
 Responsabilidades e atribuiçõesCoordenar e executar equipes de execução de obrasExecutar a obra conforme o cronograma estabelecidoRealizar medições de empreitada para faturamento dos serviços Gerenciar, executar e fiscalizar a obraGarantir a execução do empreendimento de acordo com os projetos Supervisionar segurança e aspectos ambientais da obraRelacionamento com clientes e vizinhança Analisar dados, comparar projetos, identificar inconsistências, considerar os custos da execução da obra, observar as normas da lei, encontrar potenciais impactos ambientais Garantir a qualidade da execução da obraDemonstrar sua capacidade de liderança, gestão e boa comunicação
@@ -29655,7 +32236,11 @@
           <t>Banco de Talentos</t>
         </is>
       </c>
-      <c r="O314" t="inlineStr"/>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P314" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -29666,10 +32251,15 @@
           <t>['Assistência médica', 'Assistência odontológica', 'Assistência psicológia', 'Auxílio academia', 'Auxílio desenvolvimento', 'Horário flexível', 'Programa de treinamentos', 'Seguro de vida', 'Vale-alimentação', 'Vale-refeição', 'Vale-transporte']</t>
         </is>
       </c>
-      <c r="R314" t="n">
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>['Power BI']</t>
+        </is>
+      </c>
+      <c r="S314" t="n">
         <v>940948</v>
       </c>
-      <c r="S314" t="inlineStr">
+      <c r="T314" t="inlineStr">
         <is>
           <t>Descrição da vagaVaga para nosso BANCO DE TALENTOS!Buscamos um profissional dedicado a criar e a manter pipelines de dados que irão ser utilizados para responder perguntas de negócio, servir como origem de Dashboard Power BI e modelos de Machine Learning.Somos inquietos, somos desbravadores e estamos em constante transformação.Por isso, estamos na busca constante de crescimentos do nosso time com profissionais inovadores, que desafiam os limites e estejam preparados para embarcar em uma cultura totalmente nômade.SOMOS NÔMADES, NOSSAS VAGAS SÃO PARA QUALQUER LUGAR!Seja qual for o seu gênero, orientação sexual, idade, raça, etnia, crença ou deficiência, todos são bem-vindos no nosso time.
 Responsabilidades e atribuiçõesCriação de Processos ETL/ELT e orquestração de Pipelines com Azure Data Factory/Data Flow de fontes variadas;Criação e manipulação de bases de dados relacionais e não relacionais;Modelagem de dados dimensional;Desenvolvimento de aplicações/ingestão de dados com tecnologias cloud como: Azure Functions e Logic Apps;Comunicação frequente com o time de desenvolvimento de ML e dashboards.
@@ -29746,7 +32336,11 @@
           <t>Efetivo</t>
         </is>
       </c>
-      <c r="O315" t="inlineStr"/>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
       <c r="P315" t="inlineStr">
         <is>
           <t>Sim</t>
@@ -29755,6 +32349,7 @@
       <c r="Q315" t="inlineStr"/>
       <c r="R315" t="inlineStr"/>
       <c r="S315" t="inlineStr"/>
+      <c r="T315" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
